--- a/Test/test_runs_combat.xlsx
+++ b/Test/test_runs_combat.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shield\Documents\Story\AgranariTTRPG\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FB64A77-A232-4A68-8E9A-932992963E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A846CC20-5C2E-44BB-AD7E-5682269E8539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34635" yWindow="0" windowWidth="17040" windowHeight="20985" xr2:uid="{F8D463A0-768A-4A18-944B-E333205F072A}"/>
+    <workbookView xWindow="34635" yWindow="0" windowWidth="17070" windowHeight="20985" xr2:uid="{F8D463A0-768A-4A18-944B-E333205F072A}"/>
   </bookViews>
   <sheets>
     <sheet name="_TEST_Runs" sheetId="2" r:id="rId1"/>
+    <sheet name="_TEST_Characters" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="103">
   <si>
     <t>Cat Soldier</t>
   </si>
@@ -229,6 +230,144 @@
   </si>
   <si>
     <t>upped resistance to 30</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>Katana</t>
+  </si>
+  <si>
+    <t>Slingshot</t>
+  </si>
+  <si>
+    <t>Age * 0.7</t>
+  </si>
+  <si>
+    <t>Speed Variance</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Constitution Variance</t>
+  </si>
+  <si>
+    <t>Willpower Factor</t>
+  </si>
+  <si>
+    <t>Strength Variance</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Pain Tolerance Variance</t>
+  </si>
+  <si>
+    <t>Durability Variance</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Bludgeoning Resist</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Damage Resistance</t>
+  </si>
+  <si>
+    <t>Max Health</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>Agranari TTRPG</t>
+  </si>
+  <si>
+    <t>Wound</t>
+  </si>
+  <si>
+    <t>Body Part</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>Penalty</t>
+  </si>
+  <si>
+    <t>0 Wryonin</t>
+  </si>
+  <si>
+    <t>1 Cat Soldier</t>
+  </si>
+  <si>
+    <t>Neck</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>2 Cat Soldier</t>
+  </si>
+  <si>
+    <t>Knee</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Upper Arm</t>
+  </si>
+  <si>
+    <t>3 Cat Soldier</t>
+  </si>
+  <si>
+    <t>Chest</t>
+  </si>
+  <si>
+    <t>4 Cat Soldier</t>
+  </si>
+  <si>
+    <t>Belly</t>
+  </si>
+  <si>
+    <t>Crit Factor</t>
+  </si>
+  <si>
+    <t>5 Cat Soldier</t>
+  </si>
+  <si>
+    <t>6 Cat Soldier</t>
+  </si>
+  <si>
+    <t>7 Cat Soldier</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>8 Cat Soldier</t>
+  </si>
+  <si>
+    <t>9 Cat Soldier</t>
+  </si>
+  <si>
+    <t>HIT</t>
   </si>
 </sst>
 </file>
@@ -238,7 +377,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,8 +406,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,8 +474,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF595959"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEF9999"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -396,11 +583,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -437,6 +661,30 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7A2475-8FD1-4D1A-98B6-D7C93564AF9C}">
-  <dimension ref="A1:X332"/>
+  <dimension ref="A1:X430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="N304" sqref="N304"/>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="I381" sqref="I381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5755,6 +6003,3003 @@
       <c r="O332" s="1"/>
       <c r="P332" s="1"/>
     </row>
+    <row r="350" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A350" s="29"/>
+      <c r="B350" s="29"/>
+      <c r="C350" s="29"/>
+      <c r="D350" s="29"/>
+      <c r="E350" s="29"/>
+      <c r="F350" s="29"/>
+      <c r="G350" s="29"/>
+      <c r="H350" s="29"/>
+      <c r="I350" s="29"/>
+      <c r="J350" s="29"/>
+      <c r="K350" s="29"/>
+      <c r="L350" s="29"/>
+      <c r="M350" s="29"/>
+      <c r="N350" s="29"/>
+      <c r="O350" s="29"/>
+      <c r="P350" s="29"/>
+      <c r="Q350" s="29"/>
+      <c r="R350" s="29"/>
+      <c r="S350" s="29"/>
+      <c r="T350" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="U350" s="30"/>
+      <c r="V350" s="30"/>
+      <c r="W350" s="30"/>
+    </row>
+    <row r="351" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A351" s="31"/>
+      <c r="B351" s="31"/>
+      <c r="C351" s="31"/>
+      <c r="D351" s="31"/>
+      <c r="E351" s="31"/>
+      <c r="F351" s="31"/>
+      <c r="G351" s="31"/>
+      <c r="H351" s="31"/>
+      <c r="I351" s="31"/>
+      <c r="J351" s="29"/>
+      <c r="K351" s="29"/>
+      <c r="L351" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="M351" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="N351" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="O351" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P351" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q351" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="R351" s="29"/>
+      <c r="S351" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="T351" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="U351" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="V351" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="W351" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="352" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A352" s="31"/>
+      <c r="B352" s="31"/>
+      <c r="C352" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D352" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E352" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F352" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G352" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H352" s="31"/>
+      <c r="I352" s="31"/>
+      <c r="J352" s="29"/>
+      <c r="K352" s="29"/>
+      <c r="L352" s="34">
+        <v>1</v>
+      </c>
+      <c r="M352" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N352" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="O352" s="34">
+        <v>0</v>
+      </c>
+      <c r="P352" s="35"/>
+      <c r="Q352" s="34"/>
+      <c r="R352" s="29"/>
+      <c r="S352" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="T352" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="U352" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="V352" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="W352" s="34">
+        <v>48.000000000000007</v>
+      </c>
+    </row>
+    <row r="353" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A353" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B353" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C353" s="38">
+        <v>3.4090909090909092</v>
+      </c>
+      <c r="D353" s="38"/>
+      <c r="E353" s="39">
+        <v>6.1924045643328496</v>
+      </c>
+      <c r="F353" s="38">
+        <v>1</v>
+      </c>
+      <c r="G353" s="40">
+        <v>9.6014954734237588</v>
+      </c>
+      <c r="H353" s="41"/>
+      <c r="I353" s="31"/>
+      <c r="J353" s="29"/>
+      <c r="K353" s="29"/>
+      <c r="L353" s="34">
+        <v>2</v>
+      </c>
+      <c r="M353" s="29"/>
+      <c r="N353" s="29"/>
+      <c r="O353" s="34"/>
+      <c r="P353" s="35"/>
+      <c r="Q353" s="34"/>
+      <c r="R353" s="29"/>
+      <c r="S353" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="T353" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="U353" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="V353" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="W353" s="34">
+        <v>28.900000000000002</v>
+      </c>
+    </row>
+    <row r="354" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A354" s="31"/>
+      <c r="B354" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C354" s="38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D354" s="38"/>
+      <c r="E354" s="39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F354" s="38">
+        <v>1</v>
+      </c>
+      <c r="G354" s="40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H354" s="41"/>
+      <c r="I354" s="31"/>
+      <c r="J354" s="29"/>
+      <c r="K354" s="29"/>
+      <c r="L354" s="34"/>
+      <c r="M354" s="29"/>
+      <c r="N354" s="29"/>
+      <c r="O354" s="34"/>
+      <c r="P354" s="35"/>
+      <c r="Q354" s="34"/>
+      <c r="R354" s="29"/>
+      <c r="S354" s="29"/>
+      <c r="T354" s="29"/>
+      <c r="U354" s="29"/>
+      <c r="V354" s="29"/>
+      <c r="W354" s="34"/>
+    </row>
+    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A355" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B355" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C355" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="D355" s="38"/>
+      <c r="E355" s="39">
+        <v>4.5495610464165299</v>
+      </c>
+      <c r="F355" s="38">
+        <v>1</v>
+      </c>
+      <c r="G355" s="40">
+        <v>5.3495610464165297</v>
+      </c>
+      <c r="H355" s="41"/>
+      <c r="I355" s="31"/>
+      <c r="J355" s="29"/>
+      <c r="K355" s="29"/>
+      <c r="L355" s="34">
+        <v>3</v>
+      </c>
+      <c r="M355" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N355" s="29"/>
+      <c r="O355" s="34">
+        <v>4.3125</v>
+      </c>
+      <c r="P355" s="35"/>
+      <c r="Q355" s="34"/>
+      <c r="R355" s="29"/>
+      <c r="S355" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="T355" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="U355" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="V355" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="W355" s="34">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A356" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B356" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C356" s="38">
+        <v>10</v>
+      </c>
+      <c r="D356" s="38"/>
+      <c r="E356" s="39">
+        <v>0.54162433413889821</v>
+      </c>
+      <c r="F356" s="38">
+        <v>1</v>
+      </c>
+      <c r="G356" s="40">
+        <v>10.541624334138898</v>
+      </c>
+      <c r="H356" s="41"/>
+      <c r="I356" s="31"/>
+      <c r="J356" s="29"/>
+      <c r="K356" s="29"/>
+      <c r="L356" s="34">
+        <v>4</v>
+      </c>
+      <c r="M356" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N356" s="29"/>
+      <c r="O356" s="34">
+        <v>4.8874999999999993</v>
+      </c>
+      <c r="P356" s="35"/>
+      <c r="Q356" s="34"/>
+      <c r="R356" s="29"/>
+      <c r="S356" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="T356" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="U356" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="V356" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="W356" s="34">
+        <v>47.099999999999994</v>
+      </c>
+    </row>
+    <row r="357" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A357" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B357" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C357" s="38"/>
+      <c r="D357" s="38"/>
+      <c r="E357" s="38"/>
+      <c r="F357" s="38">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G357" s="42">
+        <v>8.7846869451157499</v>
+      </c>
+      <c r="H357" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="I357" s="31"/>
+      <c r="J357" s="29"/>
+      <c r="K357" s="29"/>
+      <c r="L357" s="34">
+        <v>5</v>
+      </c>
+      <c r="M357" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N357" s="29"/>
+      <c r="O357" s="34">
+        <v>4.0824999999999996</v>
+      </c>
+      <c r="P357" s="35"/>
+      <c r="Q357" s="34"/>
+      <c r="R357" s="29"/>
+      <c r="S357" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="T357" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="U357" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="V357" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="W357" s="34">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A358" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B358" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C358" s="38">
+        <v>24.983333333333334</v>
+      </c>
+      <c r="D358" s="38"/>
+      <c r="E358" s="39">
+        <v>8.2567177481056433</v>
+      </c>
+      <c r="F358" s="38">
+        <v>1</v>
+      </c>
+      <c r="G358" s="40">
+        <v>33.240051081438978</v>
+      </c>
+      <c r="H358" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I358" s="31"/>
+      <c r="J358" s="29"/>
+      <c r="K358" s="29"/>
+      <c r="L358" s="34">
+        <v>6</v>
+      </c>
+      <c r="M358" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N358" s="29"/>
+      <c r="O358" s="34">
+        <v>4.7725</v>
+      </c>
+      <c r="P358" s="35"/>
+      <c r="Q358" s="34"/>
+      <c r="R358" s="29"/>
+      <c r="S358" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="T358" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="U358" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="V358" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="W358" s="34">
+        <v>57.999999999999993</v>
+      </c>
+    </row>
+    <row r="359" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A359" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B359" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C359" s="38">
+        <v>13.893181818181819</v>
+      </c>
+      <c r="D359" s="38"/>
+      <c r="E359" s="39">
+        <v>15.072753847651054</v>
+      </c>
+      <c r="F359" s="38">
+        <v>1</v>
+      </c>
+      <c r="G359" s="40">
+        <v>28.965935665832873</v>
+      </c>
+      <c r="H359" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I359" s="31"/>
+      <c r="J359" s="29"/>
+      <c r="K359" s="29"/>
+      <c r="L359" s="34">
+        <v>7</v>
+      </c>
+      <c r="M359" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N359" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="O359" s="34">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="P359" s="35"/>
+      <c r="Q359" s="34"/>
+      <c r="R359" s="29"/>
+      <c r="S359" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="T359" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="U359" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="V359" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="W359" s="34">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="360" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A360" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B360" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C360" s="38">
+        <v>122.75</v>
+      </c>
+      <c r="D360" s="38"/>
+      <c r="E360" s="39">
+        <v>42.384601927751916</v>
+      </c>
+      <c r="F360" s="38">
+        <v>1</v>
+      </c>
+      <c r="G360" s="40">
+        <v>165.13460192775193</v>
+      </c>
+      <c r="H360" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I360" s="31"/>
+      <c r="J360" s="29"/>
+      <c r="K360" s="29"/>
+      <c r="L360" s="34">
+        <v>8</v>
+      </c>
+      <c r="M360" s="29"/>
+      <c r="N360" s="29"/>
+      <c r="O360" s="34"/>
+      <c r="P360" s="35"/>
+      <c r="Q360" s="34"/>
+      <c r="R360" s="29"/>
+      <c r="S360" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="T360" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="U360" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="V360" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="W360" s="34">
+        <v>47.400000000000006</v>
+      </c>
+    </row>
+    <row r="361" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A361" s="31"/>
+      <c r="B361" s="31"/>
+      <c r="C361" s="31"/>
+      <c r="D361" s="31"/>
+      <c r="E361" s="31"/>
+      <c r="F361" s="31"/>
+      <c r="G361" s="31"/>
+      <c r="H361" s="31"/>
+      <c r="I361" s="31"/>
+      <c r="J361" s="29"/>
+      <c r="K361" s="29"/>
+      <c r="L361" s="34">
+        <v>9</v>
+      </c>
+      <c r="M361" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N361" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="O361" s="34">
+        <v>50.6</v>
+      </c>
+      <c r="P361" s="35"/>
+      <c r="Q361" s="34"/>
+      <c r="R361" s="29"/>
+      <c r="S361" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="T361" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="U361" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="V361" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="W361" s="34">
+        <v>44.199999999999996</v>
+      </c>
+    </row>
+    <row r="362" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A362" s="29"/>
+      <c r="B362" s="29"/>
+      <c r="C362" s="29"/>
+      <c r="D362" s="29"/>
+      <c r="E362" s="29"/>
+      <c r="F362" s="29"/>
+      <c r="G362" s="29"/>
+      <c r="H362" s="29"/>
+      <c r="I362" s="29"/>
+      <c r="J362" s="29"/>
+      <c r="K362" s="29"/>
+      <c r="L362" s="34">
+        <v>10</v>
+      </c>
+      <c r="M362" s="29"/>
+      <c r="N362" s="29"/>
+      <c r="O362" s="34"/>
+      <c r="P362" s="35"/>
+      <c r="Q362" s="34"/>
+      <c r="R362" s="29"/>
+      <c r="S362" s="29"/>
+      <c r="T362" s="29"/>
+      <c r="U362" s="29"/>
+      <c r="V362" s="29"/>
+      <c r="W362" s="34"/>
+    </row>
+    <row r="363" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A363" s="29"/>
+      <c r="B363" s="29"/>
+      <c r="C363" s="29"/>
+      <c r="D363" s="29"/>
+      <c r="E363" s="29"/>
+      <c r="F363" s="29"/>
+      <c r="G363" s="29"/>
+      <c r="H363" s="29"/>
+      <c r="I363" s="29"/>
+      <c r="J363" s="29"/>
+      <c r="K363" s="29"/>
+      <c r="L363" s="34">
+        <v>11</v>
+      </c>
+      <c r="M363" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N363" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="O363" s="34">
+        <v>43.1</v>
+      </c>
+      <c r="P363" s="35"/>
+      <c r="Q363" s="34"/>
+      <c r="R363" s="29"/>
+      <c r="S363" s="29"/>
+      <c r="T363" s="29"/>
+      <c r="U363" s="29"/>
+      <c r="V363" s="29"/>
+      <c r="W363" s="34"/>
+    </row>
+    <row r="364" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A364" s="29"/>
+      <c r="B364" s="29"/>
+      <c r="C364" s="29"/>
+      <c r="D364" s="29"/>
+      <c r="E364" s="29"/>
+      <c r="F364" s="29"/>
+      <c r="G364" s="29"/>
+      <c r="H364" s="29"/>
+      <c r="I364" s="29"/>
+      <c r="J364" s="29"/>
+      <c r="K364" s="29"/>
+      <c r="L364" s="34">
+        <v>12</v>
+      </c>
+      <c r="M364" s="29"/>
+      <c r="N364" s="29"/>
+      <c r="O364" s="34"/>
+      <c r="P364" s="35"/>
+      <c r="Q364" s="34"/>
+      <c r="R364" s="29"/>
+      <c r="S364" s="29"/>
+      <c r="T364" s="29"/>
+      <c r="U364" s="29"/>
+      <c r="V364" s="29"/>
+      <c r="W364" s="34"/>
+    </row>
+    <row r="365" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A365" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B365" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C365" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D365" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E365" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F365" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G365" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H365" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I365" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J365" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="K365" s="30"/>
+      <c r="L365" s="34">
+        <v>13</v>
+      </c>
+      <c r="M365" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N365" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="O365" s="34">
+        <v>0</v>
+      </c>
+      <c r="P365" s="35"/>
+      <c r="Q365" s="34"/>
+      <c r="R365" s="29"/>
+      <c r="S365" s="29"/>
+      <c r="T365" s="29"/>
+      <c r="U365" s="29"/>
+      <c r="V365" s="29"/>
+      <c r="W365" s="34"/>
+    </row>
+    <row r="366" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A366" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B366" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C366" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D366" s="34">
+        <v>16</v>
+      </c>
+      <c r="E366" s="34">
+        <v>-2.5999999999999375</v>
+      </c>
+      <c r="F366" s="34">
+        <v>241.5</v>
+      </c>
+      <c r="G366" s="34">
+        <v>0.82380952380952621</v>
+      </c>
+      <c r="H366" s="34">
+        <v>28.666666666666668</v>
+      </c>
+      <c r="I366" s="34"/>
+      <c r="J366" s="29">
+        <v>0</v>
+      </c>
+      <c r="K366" s="29"/>
+      <c r="L366" s="34">
+        <v>14</v>
+      </c>
+      <c r="M366" s="29"/>
+      <c r="N366" s="29"/>
+      <c r="O366" s="34"/>
+      <c r="P366" s="35"/>
+      <c r="Q366" s="34"/>
+      <c r="R366" s="29"/>
+      <c r="S366" s="29"/>
+      <c r="T366" s="29"/>
+      <c r="U366" s="29"/>
+      <c r="V366" s="29"/>
+      <c r="W366" s="34"/>
+    </row>
+    <row r="367" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A367" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B367" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C367" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D367" s="34">
+        <v>21</v>
+      </c>
+      <c r="E367" s="34">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="F367" s="34">
+        <v>147</v>
+      </c>
+      <c r="G367" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="H367" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I367" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J367" s="34">
+        <v>86.86333333333333</v>
+      </c>
+      <c r="K367" s="34"/>
+      <c r="L367" s="34">
+        <v>15</v>
+      </c>
+      <c r="M367" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N367" s="29"/>
+      <c r="O367" s="34">
+        <v>4.1974999999999998</v>
+      </c>
+      <c r="P367" s="35"/>
+      <c r="Q367" s="34"/>
+      <c r="R367" s="29"/>
+      <c r="S367" s="29"/>
+      <c r="T367" s="29"/>
+      <c r="U367" s="29"/>
+      <c r="V367" s="29"/>
+      <c r="W367" s="34"/>
+    </row>
+    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A368" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B368" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C368" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D368" s="34">
+        <v>21</v>
+      </c>
+      <c r="E368" s="34">
+        <v>53.3</v>
+      </c>
+      <c r="F368" s="34">
+        <v>147</v>
+      </c>
+      <c r="G368" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="H368" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I368" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J368" s="34">
+        <v>79.356666666666669</v>
+      </c>
+      <c r="K368" s="34"/>
+      <c r="L368" s="34">
+        <v>16</v>
+      </c>
+      <c r="M368" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N368" s="29"/>
+      <c r="O368" s="34">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="P368" s="35"/>
+      <c r="Q368" s="34"/>
+      <c r="R368" s="29"/>
+      <c r="S368" s="29"/>
+      <c r="T368" s="29"/>
+      <c r="U368" s="29"/>
+      <c r="V368" s="29"/>
+      <c r="W368" s="34"/>
+    </row>
+    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A369" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B369" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C369" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D369" s="34">
+        <v>21</v>
+      </c>
+      <c r="E369" s="34">
+        <v>82.7</v>
+      </c>
+      <c r="F369" s="34">
+        <v>147</v>
+      </c>
+      <c r="G369" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="H369" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I369" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J369" s="34">
+        <v>49.33</v>
+      </c>
+      <c r="K369" s="34"/>
+      <c r="L369" s="34">
+        <v>17</v>
+      </c>
+      <c r="M369" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N369" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="O369" s="34">
+        <v>0</v>
+      </c>
+      <c r="P369" s="35"/>
+      <c r="Q369" s="34"/>
+      <c r="R369" s="29"/>
+      <c r="S369" s="29"/>
+      <c r="T369" s="29"/>
+      <c r="U369" s="29"/>
+      <c r="V369" s="29"/>
+      <c r="W369" s="34"/>
+    </row>
+    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A370" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B370" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C370" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D370" s="34">
+        <v>21</v>
+      </c>
+      <c r="E370" s="34">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="F370" s="34">
+        <v>147</v>
+      </c>
+      <c r="G370" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="H370" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I370" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J370" s="34">
+        <v>38.07</v>
+      </c>
+      <c r="K370" s="34"/>
+      <c r="L370" s="34">
+        <v>18</v>
+      </c>
+      <c r="M370" s="29"/>
+      <c r="N370" s="29"/>
+      <c r="O370" s="34"/>
+      <c r="P370" s="35"/>
+      <c r="Q370" s="34"/>
+      <c r="R370" s="29"/>
+      <c r="S370" s="29"/>
+      <c r="T370" s="29"/>
+      <c r="U370" s="29"/>
+      <c r="V370" s="29"/>
+      <c r="W370" s="34"/>
+    </row>
+    <row r="371" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A371" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B371" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C371" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D371" s="34">
+        <v>21</v>
+      </c>
+      <c r="E371" s="34">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="F371" s="34">
+        <v>147</v>
+      </c>
+      <c r="G371" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="H371" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I371" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J371" s="34">
+        <v>15.549999999999997</v>
+      </c>
+      <c r="K371" s="34"/>
+      <c r="L371" s="34">
+        <v>19</v>
+      </c>
+      <c r="M371" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N371" s="29"/>
+      <c r="O371" s="34">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="P371" s="35"/>
+      <c r="Q371" s="34"/>
+      <c r="R371" s="29"/>
+      <c r="S371" s="29"/>
+      <c r="T371" s="29"/>
+      <c r="U371" s="29"/>
+      <c r="V371" s="29"/>
+      <c r="W371" s="34"/>
+    </row>
+    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A372" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B372" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C372" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D372" s="34">
+        <v>21</v>
+      </c>
+      <c r="E372" s="34">
+        <v>83.7</v>
+      </c>
+      <c r="F372" s="34">
+        <v>147</v>
+      </c>
+      <c r="G372" s="34">
+        <v>10.166666666666664</v>
+      </c>
+      <c r="H372" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I372" s="34"/>
+      <c r="J372" s="34">
+        <v>0</v>
+      </c>
+      <c r="K372" s="34"/>
+      <c r="L372" s="34">
+        <v>20</v>
+      </c>
+      <c r="M372" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N372" s="29"/>
+      <c r="O372" s="34">
+        <v>4.5424999999999995</v>
+      </c>
+      <c r="P372" s="35"/>
+      <c r="Q372" s="34"/>
+      <c r="R372" s="29"/>
+      <c r="S372" s="29"/>
+      <c r="T372" s="29"/>
+      <c r="U372" s="29"/>
+      <c r="V372" s="29"/>
+      <c r="W372" s="34"/>
+    </row>
+    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A373" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B373" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C373" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D373" s="34">
+        <v>21</v>
+      </c>
+      <c r="E373" s="34">
+        <v>9.8000000000000114</v>
+      </c>
+      <c r="F373" s="34">
+        <v>147</v>
+      </c>
+      <c r="G373" s="34">
+        <v>-0.8333333333333357</v>
+      </c>
+      <c r="H373" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I373" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J373" s="34">
+        <v>0</v>
+      </c>
+      <c r="K373" s="34"/>
+      <c r="L373" s="34">
+        <v>21</v>
+      </c>
+      <c r="M373" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N373" s="29"/>
+      <c r="O373" s="34">
+        <v>7.8199999999999994</v>
+      </c>
+      <c r="P373" s="35"/>
+      <c r="Q373" s="34"/>
+      <c r="R373" s="29"/>
+      <c r="S373" s="29"/>
+      <c r="T373" s="29"/>
+      <c r="U373" s="29"/>
+      <c r="V373" s="29"/>
+      <c r="W373" s="34"/>
+    </row>
+    <row r="374" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A374" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B374" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C374" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D374" s="34">
+        <v>21</v>
+      </c>
+      <c r="E374" s="34">
+        <v>147</v>
+      </c>
+      <c r="F374" s="34">
+        <v>147</v>
+      </c>
+      <c r="G374" s="34">
+        <v>9.1666666666666643</v>
+      </c>
+      <c r="H374" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I374" s="34"/>
+      <c r="J374" s="34">
+        <v>0</v>
+      </c>
+      <c r="K374" s="34"/>
+      <c r="L374" s="34">
+        <v>22</v>
+      </c>
+      <c r="M374" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N374" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="O374" s="34">
+        <v>0</v>
+      </c>
+      <c r="P374" s="35"/>
+      <c r="Q374" s="34"/>
+      <c r="R374" s="29"/>
+      <c r="S374" s="29"/>
+      <c r="T374" s="29"/>
+      <c r="U374" s="29"/>
+      <c r="V374" s="29"/>
+      <c r="W374" s="34"/>
+    </row>
+    <row r="375" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A375" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B375" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C375" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D375" s="34">
+        <v>21</v>
+      </c>
+      <c r="E375" s="34">
+        <v>147</v>
+      </c>
+      <c r="F375" s="34">
+        <v>147</v>
+      </c>
+      <c r="G375" s="34">
+        <v>-0.8333333333333357</v>
+      </c>
+      <c r="H375" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I375" s="34"/>
+      <c r="J375" s="34">
+        <v>0</v>
+      </c>
+      <c r="K375" s="34"/>
+      <c r="L375" s="34">
+        <v>23</v>
+      </c>
+      <c r="M375" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N375" s="29"/>
+      <c r="O375" s="34">
+        <v>8.567499999999999</v>
+      </c>
+      <c r="P375" s="35"/>
+      <c r="Q375" s="34"/>
+      <c r="R375" s="29"/>
+      <c r="S375" s="29"/>
+      <c r="T375" s="29"/>
+      <c r="U375" s="29"/>
+      <c r="V375" s="29"/>
+      <c r="W375" s="34"/>
+    </row>
+    <row r="376" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A376" s="29"/>
+      <c r="B376" s="29"/>
+      <c r="C376" s="29"/>
+      <c r="D376" s="29"/>
+      <c r="E376" s="29"/>
+      <c r="F376" s="29"/>
+      <c r="G376" s="29"/>
+      <c r="H376" s="29"/>
+      <c r="I376" s="29"/>
+      <c r="J376" s="29"/>
+      <c r="K376" s="29"/>
+      <c r="L376" s="34">
+        <v>24</v>
+      </c>
+      <c r="M376" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N376" s="29"/>
+      <c r="O376" s="34">
+        <v>4.8874999999999993</v>
+      </c>
+      <c r="P376" s="35"/>
+      <c r="Q376" s="34"/>
+      <c r="R376" s="29"/>
+      <c r="S376" s="29"/>
+      <c r="T376" s="29"/>
+      <c r="U376" s="29"/>
+      <c r="V376" s="29"/>
+      <c r="W376" s="34"/>
+    </row>
+    <row r="377" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A377" s="29"/>
+      <c r="B377" s="29"/>
+      <c r="C377" s="29"/>
+      <c r="D377" s="29"/>
+      <c r="E377" s="29"/>
+      <c r="F377" s="29"/>
+      <c r="G377" s="29"/>
+      <c r="H377" s="29"/>
+      <c r="I377" s="29"/>
+      <c r="J377" s="29"/>
+      <c r="K377" s="29"/>
+      <c r="L377" s="34">
+        <v>25</v>
+      </c>
+      <c r="M377" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N377" s="29"/>
+      <c r="O377" s="34">
+        <v>6.9574999999999996</v>
+      </c>
+      <c r="P377" s="35"/>
+      <c r="Q377" s="29"/>
+      <c r="R377" s="29"/>
+      <c r="S377" s="29"/>
+      <c r="T377" s="29"/>
+      <c r="U377" s="29"/>
+      <c r="V377" s="29"/>
+      <c r="W377" s="34"/>
+    </row>
+    <row r="378" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A378" s="29"/>
+      <c r="B378" s="29"/>
+      <c r="C378" s="29"/>
+      <c r="D378" s="29"/>
+      <c r="E378" s="29"/>
+      <c r="F378" s="29"/>
+      <c r="G378" s="29"/>
+      <c r="H378" s="29"/>
+      <c r="I378" s="29"/>
+      <c r="J378" s="29"/>
+      <c r="K378" s="29"/>
+      <c r="L378" s="34">
+        <v>26</v>
+      </c>
+      <c r="M378" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N378" s="29"/>
+      <c r="O378" s="34">
+        <v>5.5774999999999988</v>
+      </c>
+      <c r="P378" s="35"/>
+      <c r="Q378" s="34"/>
+      <c r="R378" s="29"/>
+      <c r="S378" s="29"/>
+      <c r="T378" s="29"/>
+      <c r="U378" s="29"/>
+      <c r="V378" s="29"/>
+      <c r="W378" s="34"/>
+    </row>
+    <row r="379" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A379" s="29"/>
+      <c r="B379" s="29"/>
+      <c r="C379" s="29"/>
+      <c r="D379" s="29"/>
+      <c r="E379" s="29"/>
+      <c r="F379" s="29"/>
+      <c r="G379" s="29"/>
+      <c r="H379" s="29"/>
+      <c r="I379" s="29"/>
+      <c r="J379" s="29"/>
+      <c r="K379" s="29"/>
+      <c r="L379" s="34">
+        <v>27</v>
+      </c>
+      <c r="M379" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N379" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="O379" s="34">
+        <v>64.3</v>
+      </c>
+      <c r="P379" s="35">
+        <v>24.842857142857142</v>
+      </c>
+      <c r="Q379" s="34"/>
+      <c r="R379" s="29"/>
+      <c r="S379" s="29"/>
+      <c r="T379" s="29"/>
+      <c r="U379" s="29"/>
+      <c r="V379" s="29"/>
+      <c r="W379" s="34"/>
+    </row>
+    <row r="380" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A380" s="29"/>
+      <c r="B380" s="29"/>
+      <c r="C380" s="29"/>
+      <c r="D380" s="29"/>
+      <c r="E380" s="29"/>
+      <c r="F380" s="29"/>
+      <c r="G380" s="29"/>
+      <c r="H380" s="29"/>
+      <c r="I380" s="29"/>
+      <c r="J380" s="29"/>
+      <c r="K380" s="29"/>
+      <c r="L380" s="34">
+        <v>28</v>
+      </c>
+      <c r="M380" s="29"/>
+      <c r="N380" s="29"/>
+      <c r="O380" s="34"/>
+      <c r="P380" s="35"/>
+      <c r="Q380" s="34"/>
+      <c r="R380" s="29"/>
+      <c r="S380" s="29"/>
+      <c r="T380" s="29"/>
+      <c r="U380" s="29"/>
+      <c r="V380" s="29"/>
+      <c r="W380" s="34"/>
+    </row>
+    <row r="381" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A381" s="29"/>
+      <c r="B381" s="29"/>
+      <c r="C381" s="29"/>
+      <c r="D381" s="29"/>
+      <c r="E381" s="29"/>
+      <c r="F381" s="29"/>
+      <c r="G381" s="29"/>
+      <c r="H381" s="29"/>
+      <c r="I381" s="29"/>
+      <c r="J381" s="29"/>
+      <c r="K381" s="29"/>
+      <c r="L381" s="34">
+        <v>29</v>
+      </c>
+      <c r="M381" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N381" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="O381" s="34">
+        <v>0</v>
+      </c>
+      <c r="P381" s="35"/>
+      <c r="Q381" s="34"/>
+      <c r="R381" s="29"/>
+      <c r="S381" s="29"/>
+      <c r="T381" s="29"/>
+      <c r="U381" s="29"/>
+      <c r="V381" s="29"/>
+      <c r="W381" s="34"/>
+    </row>
+    <row r="382" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A382" s="29"/>
+      <c r="B382" s="29"/>
+      <c r="C382" s="29"/>
+      <c r="D382" s="29"/>
+      <c r="E382" s="29"/>
+      <c r="F382" s="29"/>
+      <c r="G382" s="29"/>
+      <c r="H382" s="29"/>
+      <c r="I382" s="29"/>
+      <c r="J382" s="29"/>
+      <c r="K382" s="29"/>
+      <c r="L382" s="34">
+        <v>30</v>
+      </c>
+      <c r="M382" s="29"/>
+      <c r="N382" s="29"/>
+      <c r="O382" s="34"/>
+      <c r="P382" s="35"/>
+      <c r="Q382" s="34"/>
+      <c r="R382" s="29"/>
+      <c r="S382" s="29"/>
+      <c r="T382" s="29"/>
+      <c r="U382" s="29"/>
+      <c r="V382" s="29"/>
+      <c r="W382" s="34"/>
+    </row>
+    <row r="383" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A383" s="29"/>
+      <c r="B383" s="29"/>
+      <c r="C383" s="29"/>
+      <c r="D383" s="29"/>
+      <c r="E383" s="29"/>
+      <c r="F383" s="29"/>
+      <c r="G383" s="29"/>
+      <c r="H383" s="29"/>
+      <c r="I383" s="29"/>
+      <c r="J383" s="29"/>
+      <c r="K383" s="29"/>
+      <c r="L383" s="34">
+        <v>31</v>
+      </c>
+      <c r="M383" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N383" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="O383" s="34">
+        <v>0</v>
+      </c>
+      <c r="P383" s="35"/>
+      <c r="Q383" s="34"/>
+      <c r="R383" s="29"/>
+      <c r="S383" s="29"/>
+      <c r="T383" s="29"/>
+      <c r="U383" s="29"/>
+      <c r="V383" s="29"/>
+      <c r="W383" s="34"/>
+    </row>
+    <row r="384" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A384" s="29"/>
+      <c r="B384" s="29"/>
+      <c r="C384" s="29"/>
+      <c r="D384" s="29"/>
+      <c r="E384" s="29"/>
+      <c r="F384" s="29"/>
+      <c r="G384" s="29"/>
+      <c r="H384" s="29"/>
+      <c r="I384" s="29"/>
+      <c r="J384" s="29"/>
+      <c r="K384" s="29"/>
+      <c r="L384" s="34">
+        <v>32</v>
+      </c>
+      <c r="M384" s="29"/>
+      <c r="N384" s="29"/>
+      <c r="O384" s="34"/>
+      <c r="P384" s="35"/>
+      <c r="Q384" s="34"/>
+      <c r="R384" s="29"/>
+      <c r="S384" s="29"/>
+      <c r="T384" s="29"/>
+      <c r="U384" s="29"/>
+      <c r="V384" s="29"/>
+      <c r="W384" s="34"/>
+    </row>
+    <row r="385" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A385" s="29"/>
+      <c r="B385" s="29"/>
+      <c r="C385" s="29"/>
+      <c r="D385" s="29"/>
+      <c r="E385" s="29"/>
+      <c r="F385" s="29"/>
+      <c r="G385" s="29"/>
+      <c r="H385" s="29"/>
+      <c r="I385" s="29"/>
+      <c r="J385" s="29"/>
+      <c r="K385" s="29"/>
+      <c r="L385" s="34">
+        <v>33</v>
+      </c>
+      <c r="M385" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N385" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="O385" s="34">
+        <v>106.7</v>
+      </c>
+      <c r="P385" s="35"/>
+      <c r="Q385" s="34"/>
+      <c r="R385" s="29"/>
+      <c r="S385" s="29"/>
+      <c r="T385" s="29"/>
+      <c r="U385" s="29"/>
+      <c r="V385" s="29"/>
+      <c r="W385" s="34"/>
+    </row>
+    <row r="386" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A386" s="29"/>
+      <c r="B386" s="29"/>
+      <c r="C386" s="29"/>
+      <c r="D386" s="29"/>
+      <c r="E386" s="29"/>
+      <c r="F386" s="29"/>
+      <c r="G386" s="29"/>
+      <c r="H386" s="29"/>
+      <c r="I386" s="29"/>
+      <c r="J386" s="29"/>
+      <c r="K386" s="29"/>
+      <c r="L386" s="34">
+        <v>34</v>
+      </c>
+      <c r="M386" s="29"/>
+      <c r="N386" s="29"/>
+      <c r="O386" s="34"/>
+      <c r="P386" s="35"/>
+      <c r="Q386" s="34"/>
+      <c r="R386" s="29"/>
+      <c r="S386" s="29"/>
+      <c r="T386" s="29"/>
+      <c r="U386" s="29"/>
+      <c r="V386" s="29"/>
+      <c r="W386" s="34"/>
+    </row>
+    <row r="387" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A387" s="29"/>
+      <c r="B387" s="29"/>
+      <c r="C387" s="29"/>
+      <c r="D387" s="29"/>
+      <c r="E387" s="29"/>
+      <c r="F387" s="29"/>
+      <c r="G387" s="29"/>
+      <c r="H387" s="29"/>
+      <c r="I387" s="29"/>
+      <c r="J387" s="29"/>
+      <c r="K387" s="29"/>
+      <c r="L387" s="34">
+        <v>35</v>
+      </c>
+      <c r="M387" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N387" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="O387" s="34">
+        <v>0</v>
+      </c>
+      <c r="P387" s="35"/>
+      <c r="Q387" s="34"/>
+      <c r="R387" s="29"/>
+      <c r="S387" s="29"/>
+      <c r="T387" s="29"/>
+      <c r="U387" s="29"/>
+      <c r="V387" s="29"/>
+      <c r="W387" s="34"/>
+    </row>
+    <row r="388" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A388" s="29"/>
+      <c r="B388" s="29"/>
+      <c r="C388" s="29"/>
+      <c r="D388" s="29"/>
+      <c r="E388" s="29"/>
+      <c r="F388" s="29"/>
+      <c r="G388" s="29"/>
+      <c r="H388" s="29"/>
+      <c r="I388" s="29"/>
+      <c r="J388" s="29"/>
+      <c r="K388" s="29"/>
+      <c r="L388" s="34">
+        <v>36</v>
+      </c>
+      <c r="M388" s="29"/>
+      <c r="N388" s="29"/>
+      <c r="O388" s="34"/>
+      <c r="P388" s="35"/>
+      <c r="Q388" s="34"/>
+      <c r="R388" s="29"/>
+      <c r="S388" s="29"/>
+      <c r="T388" s="29"/>
+      <c r="U388" s="29"/>
+      <c r="V388" s="29"/>
+      <c r="W388" s="34"/>
+    </row>
+    <row r="389" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A389" s="29"/>
+      <c r="B389" s="29"/>
+      <c r="C389" s="29"/>
+      <c r="D389" s="29"/>
+      <c r="E389" s="29"/>
+      <c r="F389" s="29"/>
+      <c r="G389" s="29"/>
+      <c r="H389" s="29"/>
+      <c r="I389" s="29"/>
+      <c r="J389" s="29"/>
+      <c r="K389" s="29"/>
+      <c r="L389" s="34">
+        <v>37</v>
+      </c>
+      <c r="M389" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N389" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="O389" s="34">
+        <v>0</v>
+      </c>
+      <c r="P389" s="35"/>
+      <c r="Q389" s="34"/>
+      <c r="R389" s="29"/>
+      <c r="S389" s="29"/>
+      <c r="T389" s="29"/>
+      <c r="U389" s="29"/>
+      <c r="V389" s="29"/>
+      <c r="W389" s="34"/>
+    </row>
+    <row r="390" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A390" s="29"/>
+      <c r="B390" s="29"/>
+      <c r="C390" s="29"/>
+      <c r="D390" s="29"/>
+      <c r="E390" s="29"/>
+      <c r="F390" s="29"/>
+      <c r="G390" s="29"/>
+      <c r="H390" s="29"/>
+      <c r="I390" s="29"/>
+      <c r="J390" s="29"/>
+      <c r="K390" s="29"/>
+      <c r="L390" s="34">
+        <v>38</v>
+      </c>
+      <c r="M390" s="29"/>
+      <c r="N390" s="29"/>
+      <c r="O390" s="34"/>
+      <c r="P390" s="35"/>
+      <c r="Q390" s="34"/>
+      <c r="R390" s="29"/>
+      <c r="S390" s="29"/>
+      <c r="T390" s="29"/>
+      <c r="U390" s="29"/>
+      <c r="V390" s="29"/>
+      <c r="W390" s="34"/>
+    </row>
+    <row r="391" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A391" s="29"/>
+      <c r="B391" s="29"/>
+      <c r="C391" s="29"/>
+      <c r="D391" s="29"/>
+      <c r="E391" s="29"/>
+      <c r="F391" s="29"/>
+      <c r="G391" s="29"/>
+      <c r="H391" s="29"/>
+      <c r="I391" s="29"/>
+      <c r="J391" s="29"/>
+      <c r="K391" s="29"/>
+      <c r="L391" s="34">
+        <v>39</v>
+      </c>
+      <c r="M391" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N391" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="O391" s="29">
+        <v>0</v>
+      </c>
+      <c r="P391" s="35"/>
+      <c r="Q391" s="29"/>
+      <c r="R391" s="29"/>
+      <c r="S391" s="29"/>
+      <c r="T391" s="29"/>
+      <c r="U391" s="29"/>
+      <c r="V391" s="29"/>
+      <c r="W391" s="34"/>
+    </row>
+    <row r="392" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A392" s="29"/>
+      <c r="B392" s="29"/>
+      <c r="C392" s="29"/>
+      <c r="D392" s="29"/>
+      <c r="E392" s="29"/>
+      <c r="F392" s="29"/>
+      <c r="G392" s="29"/>
+      <c r="H392" s="29"/>
+      <c r="I392" s="29"/>
+      <c r="J392" s="29"/>
+      <c r="K392" s="29"/>
+      <c r="L392" s="34">
+        <v>40</v>
+      </c>
+      <c r="M392" s="29"/>
+      <c r="N392" s="29"/>
+      <c r="O392" s="29"/>
+      <c r="P392" s="35"/>
+      <c r="Q392" s="29"/>
+      <c r="R392" s="29"/>
+      <c r="S392" s="29"/>
+      <c r="T392" s="29"/>
+      <c r="U392" s="29"/>
+      <c r="V392" s="29"/>
+      <c r="W392" s="34"/>
+    </row>
+    <row r="393" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A393" s="29"/>
+      <c r="B393" s="29"/>
+      <c r="C393" s="29"/>
+      <c r="D393" s="29"/>
+      <c r="E393" s="29"/>
+      <c r="F393" s="29"/>
+      <c r="G393" s="29"/>
+      <c r="H393" s="29"/>
+      <c r="I393" s="29"/>
+      <c r="J393" s="29"/>
+      <c r="K393" s="29"/>
+      <c r="L393" s="34">
+        <v>41</v>
+      </c>
+      <c r="M393" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N393" s="29"/>
+      <c r="O393" s="34">
+        <v>6.7850000000000001</v>
+      </c>
+      <c r="P393" s="35"/>
+      <c r="Q393" s="29"/>
+      <c r="R393" s="29"/>
+      <c r="S393" s="29"/>
+      <c r="T393" s="29"/>
+      <c r="U393" s="29"/>
+      <c r="V393" s="29"/>
+      <c r="W393" s="34"/>
+    </row>
+    <row r="394" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A394" s="29"/>
+      <c r="B394" s="29"/>
+      <c r="C394" s="29"/>
+      <c r="D394" s="29"/>
+      <c r="E394" s="29"/>
+      <c r="F394" s="29"/>
+      <c r="G394" s="29"/>
+      <c r="H394" s="29"/>
+      <c r="I394" s="29"/>
+      <c r="J394" s="29"/>
+      <c r="K394" s="29"/>
+      <c r="L394" s="34">
+        <v>42</v>
+      </c>
+      <c r="M394" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N394" s="29"/>
+      <c r="O394" s="34">
+        <v>7.7624999999999993</v>
+      </c>
+      <c r="P394" s="35"/>
+      <c r="Q394" s="29"/>
+      <c r="R394" s="29"/>
+      <c r="S394" s="29"/>
+      <c r="T394" s="29"/>
+      <c r="U394" s="29"/>
+      <c r="V394" s="29"/>
+      <c r="W394" s="34"/>
+    </row>
+    <row r="395" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A395" s="29"/>
+      <c r="B395" s="29"/>
+      <c r="C395" s="29"/>
+      <c r="D395" s="29"/>
+      <c r="E395" s="29"/>
+      <c r="F395" s="29"/>
+      <c r="G395" s="29"/>
+      <c r="H395" s="29"/>
+      <c r="I395" s="29"/>
+      <c r="J395" s="29"/>
+      <c r="K395" s="29"/>
+      <c r="L395" s="34">
+        <v>43</v>
+      </c>
+      <c r="M395" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N395" s="29"/>
+      <c r="O395" s="34">
+        <v>8.567499999999999</v>
+      </c>
+      <c r="P395" s="35"/>
+      <c r="Q395" s="29"/>
+      <c r="R395" s="29"/>
+      <c r="S395" s="29"/>
+      <c r="T395" s="29"/>
+      <c r="U395" s="29"/>
+      <c r="V395" s="29"/>
+      <c r="W395" s="34"/>
+    </row>
+    <row r="396" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A396" s="29"/>
+      <c r="B396" s="29"/>
+      <c r="C396" s="29"/>
+      <c r="D396" s="29"/>
+      <c r="E396" s="29"/>
+      <c r="F396" s="29"/>
+      <c r="G396" s="29"/>
+      <c r="H396" s="29"/>
+      <c r="I396" s="29"/>
+      <c r="J396" s="29"/>
+      <c r="K396" s="29"/>
+      <c r="L396" s="34">
+        <v>44</v>
+      </c>
+      <c r="M396" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N396" s="29"/>
+      <c r="O396" s="34">
+        <v>4.1974999999999998</v>
+      </c>
+      <c r="P396" s="35"/>
+      <c r="Q396" s="29"/>
+      <c r="R396" s="29"/>
+      <c r="S396" s="29"/>
+      <c r="T396" s="29"/>
+      <c r="U396" s="29"/>
+      <c r="V396" s="29"/>
+      <c r="W396" s="34"/>
+    </row>
+    <row r="397" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A397" s="29"/>
+      <c r="B397" s="29"/>
+      <c r="C397" s="29"/>
+      <c r="D397" s="29"/>
+      <c r="E397" s="29"/>
+      <c r="F397" s="29"/>
+      <c r="G397" s="29"/>
+      <c r="H397" s="29"/>
+      <c r="I397" s="29"/>
+      <c r="J397" s="29"/>
+      <c r="K397" s="29"/>
+      <c r="L397" s="34">
+        <v>45</v>
+      </c>
+      <c r="M397" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N397" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="O397" s="29">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="P397" s="35"/>
+      <c r="Q397" s="29"/>
+      <c r="R397" s="29"/>
+      <c r="S397" s="29"/>
+      <c r="T397" s="29"/>
+      <c r="U397" s="29"/>
+      <c r="V397" s="29"/>
+      <c r="W397" s="34"/>
+    </row>
+    <row r="398" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A398" s="29"/>
+      <c r="B398" s="29"/>
+      <c r="C398" s="29"/>
+      <c r="D398" s="29"/>
+      <c r="E398" s="29"/>
+      <c r="F398" s="29"/>
+      <c r="G398" s="29"/>
+      <c r="H398" s="29"/>
+      <c r="I398" s="29"/>
+      <c r="J398" s="29"/>
+      <c r="K398" s="29"/>
+      <c r="L398" s="34">
+        <v>46</v>
+      </c>
+      <c r="M398" s="29"/>
+      <c r="N398" s="29"/>
+      <c r="O398" s="29"/>
+      <c r="P398" s="35"/>
+      <c r="Q398" s="29"/>
+      <c r="R398" s="29"/>
+      <c r="S398" s="29"/>
+      <c r="T398" s="29"/>
+      <c r="U398" s="29"/>
+      <c r="V398" s="29"/>
+      <c r="W398" s="34"/>
+    </row>
+    <row r="399" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A399" s="29"/>
+      <c r="B399" s="29"/>
+      <c r="C399" s="29"/>
+      <c r="D399" s="29"/>
+      <c r="E399" s="29"/>
+      <c r="F399" s="29"/>
+      <c r="G399" s="29"/>
+      <c r="H399" s="29"/>
+      <c r="I399" s="29"/>
+      <c r="J399" s="29"/>
+      <c r="K399" s="29"/>
+      <c r="L399" s="34">
+        <v>47</v>
+      </c>
+      <c r="M399" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N399" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O399" s="29">
+        <v>0</v>
+      </c>
+      <c r="P399" s="35"/>
+      <c r="Q399" s="29"/>
+      <c r="R399" s="29"/>
+      <c r="S399" s="29"/>
+      <c r="T399" s="29"/>
+      <c r="U399" s="29"/>
+      <c r="V399" s="29"/>
+      <c r="W399" s="34"/>
+    </row>
+    <row r="400" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A400" s="29"/>
+      <c r="B400" s="29"/>
+      <c r="C400" s="29"/>
+      <c r="D400" s="29"/>
+      <c r="E400" s="29"/>
+      <c r="F400" s="29"/>
+      <c r="G400" s="29"/>
+      <c r="H400" s="29"/>
+      <c r="I400" s="29"/>
+      <c r="J400" s="29"/>
+      <c r="K400" s="29"/>
+      <c r="L400" s="34">
+        <v>48</v>
+      </c>
+      <c r="M400" s="29"/>
+      <c r="N400" s="29"/>
+      <c r="O400" s="29"/>
+      <c r="P400" s="35"/>
+      <c r="Q400" s="29"/>
+      <c r="R400" s="29"/>
+      <c r="S400" s="29"/>
+      <c r="T400" s="29"/>
+      <c r="U400" s="29"/>
+      <c r="V400" s="29"/>
+      <c r="W400" s="34"/>
+    </row>
+    <row r="401" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A401" s="29"/>
+      <c r="B401" s="29"/>
+      <c r="C401" s="29"/>
+      <c r="D401" s="29"/>
+      <c r="E401" s="29"/>
+      <c r="F401" s="29"/>
+      <c r="G401" s="29"/>
+      <c r="H401" s="29"/>
+      <c r="I401" s="29"/>
+      <c r="J401" s="29"/>
+      <c r="K401" s="29"/>
+      <c r="L401" s="34">
+        <v>49</v>
+      </c>
+      <c r="M401" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N401" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O401" s="29">
+        <v>63.3</v>
+      </c>
+      <c r="P401" s="35"/>
+      <c r="Q401" s="29"/>
+      <c r="R401" s="29"/>
+      <c r="S401" s="29"/>
+      <c r="T401" s="29"/>
+      <c r="U401" s="29"/>
+      <c r="V401" s="29"/>
+      <c r="W401" s="34"/>
+    </row>
+    <row r="402" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A402" s="29"/>
+      <c r="B402" s="29"/>
+      <c r="C402" s="29"/>
+      <c r="D402" s="29"/>
+      <c r="E402" s="29"/>
+      <c r="F402" s="29"/>
+      <c r="G402" s="29"/>
+      <c r="H402" s="29"/>
+      <c r="I402" s="29"/>
+      <c r="J402" s="29"/>
+      <c r="K402" s="29"/>
+      <c r="L402" s="34">
+        <v>50</v>
+      </c>
+      <c r="M402" s="29"/>
+      <c r="N402" s="29"/>
+      <c r="O402" s="29"/>
+      <c r="P402" s="35"/>
+      <c r="Q402" s="29"/>
+      <c r="R402" s="29"/>
+      <c r="S402" s="29"/>
+      <c r="T402" s="29"/>
+      <c r="U402" s="29"/>
+      <c r="V402" s="29"/>
+      <c r="W402" s="34"/>
+    </row>
+    <row r="403" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A403" s="29"/>
+      <c r="B403" s="29"/>
+      <c r="C403" s="29"/>
+      <c r="D403" s="29"/>
+      <c r="E403" s="29"/>
+      <c r="F403" s="29"/>
+      <c r="G403" s="29"/>
+      <c r="H403" s="29"/>
+      <c r="I403" s="29"/>
+      <c r="J403" s="29"/>
+      <c r="K403" s="29"/>
+      <c r="L403" s="34">
+        <v>51</v>
+      </c>
+      <c r="M403" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N403" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="O403" s="29">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="P403" s="35"/>
+      <c r="Q403" s="29"/>
+      <c r="R403" s="29"/>
+      <c r="S403" s="29"/>
+      <c r="T403" s="29"/>
+      <c r="U403" s="29"/>
+      <c r="V403" s="29"/>
+      <c r="W403" s="34"/>
+    </row>
+    <row r="404" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A404" s="29"/>
+      <c r="B404" s="29"/>
+      <c r="C404" s="29"/>
+      <c r="D404" s="29"/>
+      <c r="E404" s="29"/>
+      <c r="F404" s="29"/>
+      <c r="G404" s="29"/>
+      <c r="H404" s="29"/>
+      <c r="I404" s="29"/>
+      <c r="J404" s="29"/>
+      <c r="K404" s="29"/>
+      <c r="L404" s="34">
+        <v>52</v>
+      </c>
+      <c r="M404" s="29"/>
+      <c r="N404" s="29"/>
+      <c r="O404" s="29"/>
+      <c r="P404" s="35"/>
+      <c r="Q404" s="29"/>
+      <c r="R404" s="29"/>
+      <c r="S404" s="29"/>
+      <c r="T404" s="29"/>
+      <c r="U404" s="29"/>
+      <c r="V404" s="29"/>
+      <c r="W404" s="34"/>
+    </row>
+    <row r="405" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A405" s="29"/>
+      <c r="B405" s="29"/>
+      <c r="C405" s="29"/>
+      <c r="D405" s="29"/>
+      <c r="E405" s="29"/>
+      <c r="F405" s="29"/>
+      <c r="G405" s="29"/>
+      <c r="H405" s="29"/>
+      <c r="I405" s="29"/>
+      <c r="J405" s="29"/>
+      <c r="K405" s="29"/>
+      <c r="L405" s="34">
+        <v>53</v>
+      </c>
+      <c r="M405" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N405" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="O405" s="29">
+        <v>0</v>
+      </c>
+      <c r="P405" s="35"/>
+      <c r="Q405" s="29"/>
+      <c r="R405" s="29"/>
+      <c r="S405" s="29"/>
+      <c r="T405" s="29"/>
+      <c r="U405" s="29"/>
+      <c r="V405" s="29"/>
+      <c r="W405" s="34"/>
+    </row>
+    <row r="406" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A406" s="29"/>
+      <c r="B406" s="29"/>
+      <c r="C406" s="29"/>
+      <c r="D406" s="29"/>
+      <c r="E406" s="29"/>
+      <c r="F406" s="29"/>
+      <c r="G406" s="29"/>
+      <c r="H406" s="29"/>
+      <c r="I406" s="29"/>
+      <c r="J406" s="29"/>
+      <c r="K406" s="29"/>
+      <c r="L406" s="34">
+        <v>53.1</v>
+      </c>
+      <c r="M406" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="N406" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O406" s="29">
+        <v>11.2</v>
+      </c>
+      <c r="P406" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q406" s="29"/>
+      <c r="R406" s="29"/>
+      <c r="S406" s="29"/>
+      <c r="T406" s="29"/>
+      <c r="U406" s="29"/>
+      <c r="V406" s="29"/>
+      <c r="W406" s="34"/>
+    </row>
+    <row r="407" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A407" s="29"/>
+      <c r="B407" s="29"/>
+      <c r="C407" s="29"/>
+      <c r="D407" s="29"/>
+      <c r="E407" s="29"/>
+      <c r="F407" s="29"/>
+      <c r="G407" s="29"/>
+      <c r="H407" s="29"/>
+      <c r="I407" s="29"/>
+      <c r="J407" s="29"/>
+      <c r="K407" s="29"/>
+      <c r="L407" s="34">
+        <v>53.2</v>
+      </c>
+      <c r="M407" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N407" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O407" s="29">
+        <v>10.6</v>
+      </c>
+      <c r="P407" s="35">
+        <v>14</v>
+      </c>
+      <c r="Q407" s="29"/>
+      <c r="R407" s="29"/>
+      <c r="S407" s="29"/>
+      <c r="T407" s="29"/>
+      <c r="U407" s="29"/>
+      <c r="V407" s="29"/>
+      <c r="W407" s="34"/>
+    </row>
+    <row r="408" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A408" s="29"/>
+      <c r="B408" s="29"/>
+      <c r="C408" s="29"/>
+      <c r="D408" s="29"/>
+      <c r="E408" s="29"/>
+      <c r="F408" s="29"/>
+      <c r="G408" s="29"/>
+      <c r="H408" s="29"/>
+      <c r="I408" s="29"/>
+      <c r="J408" s="29"/>
+      <c r="K408" s="29"/>
+      <c r="L408" s="34">
+        <v>54</v>
+      </c>
+      <c r="M408" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="N408" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O408" s="29">
+        <v>11</v>
+      </c>
+      <c r="P408" s="35">
+        <v>9</v>
+      </c>
+      <c r="Q408" s="29"/>
+      <c r="R408" s="29"/>
+      <c r="S408" s="29"/>
+      <c r="T408" s="29"/>
+      <c r="U408" s="29"/>
+      <c r="V408" s="29"/>
+      <c r="W408" s="34"/>
+    </row>
+    <row r="409" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A409" s="29"/>
+      <c r="B409" s="29"/>
+      <c r="C409" s="29"/>
+      <c r="D409" s="29"/>
+      <c r="E409" s="29"/>
+      <c r="F409" s="29"/>
+      <c r="G409" s="29"/>
+      <c r="H409" s="29"/>
+      <c r="I409" s="29"/>
+      <c r="J409" s="29"/>
+      <c r="K409" s="29"/>
+      <c r="L409" s="34">
+        <v>54.1</v>
+      </c>
+      <c r="M409" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N409" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O409" s="29">
+        <v>11.3</v>
+      </c>
+      <c r="P409" s="35">
+        <v>7</v>
+      </c>
+      <c r="Q409" s="29"/>
+      <c r="R409" s="29"/>
+      <c r="S409" s="29"/>
+      <c r="T409" s="29"/>
+      <c r="U409" s="29"/>
+      <c r="V409" s="29"/>
+      <c r="W409" s="34"/>
+    </row>
+    <row r="410" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A410" s="29"/>
+      <c r="B410" s="29"/>
+      <c r="C410" s="29"/>
+      <c r="D410" s="29"/>
+      <c r="E410" s="29"/>
+      <c r="F410" s="29"/>
+      <c r="G410" s="29"/>
+      <c r="H410" s="29"/>
+      <c r="I410" s="29"/>
+      <c r="J410" s="29"/>
+      <c r="K410" s="29"/>
+      <c r="L410" s="34">
+        <v>54.2</v>
+      </c>
+      <c r="M410" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="N410" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O410" s="29">
+        <v>11.3</v>
+      </c>
+      <c r="P410" s="35">
+        <v>7</v>
+      </c>
+      <c r="Q410" s="29"/>
+      <c r="R410" s="29"/>
+      <c r="S410" s="29"/>
+      <c r="T410" s="29"/>
+      <c r="U410" s="29"/>
+      <c r="V410" s="29"/>
+      <c r="W410" s="34"/>
+    </row>
+    <row r="411" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A411" s="29"/>
+      <c r="B411" s="29"/>
+      <c r="C411" s="29"/>
+      <c r="D411" s="29"/>
+      <c r="E411" s="29"/>
+      <c r="F411" s="29"/>
+      <c r="G411" s="29"/>
+      <c r="H411" s="29"/>
+      <c r="I411" s="29"/>
+      <c r="J411" s="29"/>
+      <c r="K411" s="29"/>
+      <c r="L411" s="34">
+        <v>54.3</v>
+      </c>
+      <c r="M411" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="N411" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O411" s="29">
+        <v>10.5</v>
+      </c>
+      <c r="P411" s="35">
+        <v>13</v>
+      </c>
+      <c r="Q411" s="29"/>
+      <c r="R411" s="29"/>
+      <c r="S411" s="29"/>
+      <c r="T411" s="29"/>
+      <c r="U411" s="29"/>
+      <c r="V411" s="29"/>
+      <c r="W411" s="34"/>
+    </row>
+    <row r="412" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A412" s="29"/>
+      <c r="B412" s="29"/>
+      <c r="C412" s="29"/>
+      <c r="D412" s="29"/>
+      <c r="E412" s="29"/>
+      <c r="F412" s="29"/>
+      <c r="G412" s="29"/>
+      <c r="H412" s="29"/>
+      <c r="I412" s="29"/>
+      <c r="J412" s="29"/>
+      <c r="K412" s="29"/>
+      <c r="L412" s="34">
+        <v>55</v>
+      </c>
+      <c r="M412" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N412" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="O412" s="29">
+        <v>0</v>
+      </c>
+      <c r="P412" s="35"/>
+      <c r="Q412" s="29">
+        <v>21</v>
+      </c>
+      <c r="R412" s="29"/>
+      <c r="S412" s="29"/>
+      <c r="T412" s="29"/>
+      <c r="U412" s="29"/>
+      <c r="V412" s="29"/>
+      <c r="W412" s="34"/>
+    </row>
+    <row r="413" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A413" s="29"/>
+      <c r="B413" s="29"/>
+      <c r="C413" s="29"/>
+      <c r="D413" s="29"/>
+      <c r="E413" s="29"/>
+      <c r="F413" s="29"/>
+      <c r="G413" s="29"/>
+      <c r="H413" s="29"/>
+      <c r="I413" s="29"/>
+      <c r="J413" s="29"/>
+      <c r="K413" s="29"/>
+      <c r="L413" s="34">
+        <v>55.1</v>
+      </c>
+      <c r="M413" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="N413" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O413" s="29">
+        <v>11.5</v>
+      </c>
+      <c r="P413" s="35">
+        <v>12</v>
+      </c>
+      <c r="Q413" s="29"/>
+      <c r="R413" s="29"/>
+      <c r="S413" s="29"/>
+      <c r="T413" s="29"/>
+      <c r="U413" s="29"/>
+      <c r="V413" s="29"/>
+      <c r="W413" s="34"/>
+    </row>
+    <row r="414" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A414" s="29"/>
+      <c r="B414" s="29"/>
+      <c r="C414" s="29"/>
+      <c r="D414" s="29"/>
+      <c r="E414" s="29"/>
+      <c r="F414" s="29"/>
+      <c r="G414" s="29"/>
+      <c r="H414" s="29"/>
+      <c r="I414" s="29"/>
+      <c r="J414" s="29"/>
+      <c r="K414" s="29"/>
+      <c r="L414" s="34">
+        <v>55.2</v>
+      </c>
+      <c r="M414" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N414" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O414" s="29">
+        <v>11.6</v>
+      </c>
+      <c r="P414" s="35">
+        <v>11</v>
+      </c>
+      <c r="Q414" s="29"/>
+      <c r="R414" s="29"/>
+      <c r="S414" s="29"/>
+      <c r="T414" s="29"/>
+      <c r="U414" s="29"/>
+      <c r="V414" s="29"/>
+      <c r="W414" s="34"/>
+    </row>
+    <row r="415" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A415" s="29"/>
+      <c r="B415" s="29"/>
+      <c r="C415" s="29"/>
+      <c r="D415" s="29"/>
+      <c r="E415" s="29"/>
+      <c r="F415" s="29"/>
+      <c r="G415" s="29"/>
+      <c r="H415" s="29"/>
+      <c r="I415" s="29"/>
+      <c r="J415" s="29"/>
+      <c r="K415" s="29"/>
+      <c r="L415" s="34">
+        <v>55.3</v>
+      </c>
+      <c r="M415" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="N415" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O415" s="29">
+        <v>10.6</v>
+      </c>
+      <c r="P415" s="35">
+        <v>5</v>
+      </c>
+      <c r="Q415" s="29"/>
+      <c r="R415" s="29"/>
+      <c r="S415" s="29"/>
+      <c r="T415" s="29"/>
+      <c r="U415" s="29"/>
+      <c r="V415" s="29"/>
+      <c r="W415" s="34"/>
+    </row>
+    <row r="416" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A416" s="29"/>
+      <c r="B416" s="29"/>
+      <c r="C416" s="29"/>
+      <c r="D416" s="29"/>
+      <c r="E416" s="29"/>
+      <c r="F416" s="29"/>
+      <c r="G416" s="29"/>
+      <c r="H416" s="29"/>
+      <c r="I416" s="29"/>
+      <c r="J416" s="29"/>
+      <c r="K416" s="29"/>
+      <c r="L416" s="34">
+        <v>55.4</v>
+      </c>
+      <c r="M416" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="N416" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O416" s="29">
+        <v>15.450000000000001</v>
+      </c>
+      <c r="P416" s="35">
+        <v>6</v>
+      </c>
+      <c r="Q416" s="29"/>
+      <c r="R416" s="29"/>
+      <c r="S416" s="29"/>
+      <c r="T416" s="29"/>
+      <c r="U416" s="29"/>
+      <c r="V416" s="29"/>
+      <c r="W416" s="34"/>
+    </row>
+    <row r="417" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A417" s="29"/>
+      <c r="B417" s="29"/>
+      <c r="C417" s="29"/>
+      <c r="D417" s="29"/>
+      <c r="E417" s="29"/>
+      <c r="F417" s="29"/>
+      <c r="G417" s="29"/>
+      <c r="H417" s="29"/>
+      <c r="I417" s="29"/>
+      <c r="J417" s="29"/>
+      <c r="K417" s="29"/>
+      <c r="L417" s="34">
+        <v>56</v>
+      </c>
+      <c r="M417" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="N417" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O417" s="29">
+        <v>0</v>
+      </c>
+      <c r="P417" s="35"/>
+      <c r="Q417" s="29">
+        <v>2</v>
+      </c>
+      <c r="R417" s="29"/>
+      <c r="S417" s="29"/>
+      <c r="T417" s="29"/>
+      <c r="U417" s="29"/>
+      <c r="V417" s="29"/>
+      <c r="W417" s="34"/>
+    </row>
+    <row r="418" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A418" s="29"/>
+      <c r="B418" s="29"/>
+      <c r="C418" s="29"/>
+      <c r="D418" s="29"/>
+      <c r="E418" s="29"/>
+      <c r="F418" s="29"/>
+      <c r="G418" s="29"/>
+      <c r="H418" s="29"/>
+      <c r="I418" s="29"/>
+      <c r="J418" s="29"/>
+      <c r="K418" s="29"/>
+      <c r="L418" s="34">
+        <v>56.1</v>
+      </c>
+      <c r="M418" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N418" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O418" s="29">
+        <v>10.7</v>
+      </c>
+      <c r="P418" s="35">
+        <v>9</v>
+      </c>
+      <c r="Q418" s="29"/>
+      <c r="R418" s="29"/>
+      <c r="S418" s="29"/>
+      <c r="T418" s="29"/>
+      <c r="U418" s="29"/>
+      <c r="V418" s="29"/>
+      <c r="W418" s="34"/>
+    </row>
+    <row r="419" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A419" s="29"/>
+      <c r="B419" s="29"/>
+      <c r="C419" s="29"/>
+      <c r="D419" s="29"/>
+      <c r="E419" s="29"/>
+      <c r="F419" s="29"/>
+      <c r="G419" s="29"/>
+      <c r="H419" s="29"/>
+      <c r="I419" s="29"/>
+      <c r="J419" s="29"/>
+      <c r="K419" s="29"/>
+      <c r="L419" s="34">
+        <v>56.2</v>
+      </c>
+      <c r="M419" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="N419" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O419" s="29">
+        <v>15.899999999999999</v>
+      </c>
+      <c r="P419" s="35">
+        <v>6</v>
+      </c>
+      <c r="Q419" s="29"/>
+      <c r="R419" s="29"/>
+      <c r="S419" s="29"/>
+      <c r="T419" s="29"/>
+      <c r="U419" s="29"/>
+      <c r="V419" s="29"/>
+      <c r="W419" s="34"/>
+    </row>
+    <row r="420" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A420" s="29"/>
+      <c r="B420" s="29"/>
+      <c r="C420" s="29"/>
+      <c r="D420" s="29"/>
+      <c r="E420" s="29"/>
+      <c r="F420" s="29"/>
+      <c r="G420" s="29"/>
+      <c r="H420" s="29"/>
+      <c r="I420" s="29"/>
+      <c r="J420" s="29"/>
+      <c r="K420" s="29"/>
+      <c r="L420" s="34">
+        <v>56.3</v>
+      </c>
+      <c r="M420" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="N420" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O420" s="29">
+        <v>11.6</v>
+      </c>
+      <c r="P420" s="35">
+        <v>11</v>
+      </c>
+      <c r="Q420" s="29"/>
+      <c r="R420" s="29"/>
+      <c r="S420" s="29"/>
+      <c r="T420" s="29"/>
+      <c r="U420" s="29"/>
+      <c r="V420" s="29"/>
+      <c r="W420" s="34"/>
+    </row>
+    <row r="421" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A421" s="29"/>
+      <c r="B421" s="29"/>
+      <c r="C421" s="29"/>
+      <c r="D421" s="29"/>
+      <c r="E421" s="29"/>
+      <c r="F421" s="29"/>
+      <c r="G421" s="29"/>
+      <c r="H421" s="29"/>
+      <c r="I421" s="29"/>
+      <c r="J421" s="29"/>
+      <c r="K421" s="29"/>
+      <c r="L421" s="34">
+        <v>57</v>
+      </c>
+      <c r="M421" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N421" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="O421" s="29">
+        <v>71.8</v>
+      </c>
+      <c r="P421" s="35"/>
+      <c r="Q421" s="29">
+        <v>9</v>
+      </c>
+      <c r="R421" s="29"/>
+      <c r="S421" s="29"/>
+      <c r="T421" s="29"/>
+      <c r="U421" s="29"/>
+      <c r="V421" s="29"/>
+      <c r="W421" s="34"/>
+    </row>
+    <row r="422" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A422" s="29"/>
+      <c r="B422" s="29"/>
+      <c r="C422" s="29"/>
+      <c r="D422" s="29"/>
+      <c r="E422" s="29"/>
+      <c r="F422" s="29"/>
+      <c r="G422" s="29"/>
+      <c r="H422" s="29"/>
+      <c r="I422" s="29"/>
+      <c r="J422" s="29"/>
+      <c r="K422" s="29"/>
+      <c r="L422" s="34">
+        <v>58</v>
+      </c>
+      <c r="M422" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="N422" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O422" s="29">
+        <v>0</v>
+      </c>
+      <c r="P422" s="35"/>
+      <c r="Q422" s="29">
+        <v>1</v>
+      </c>
+      <c r="R422" s="29"/>
+      <c r="S422" s="29"/>
+      <c r="T422" s="29"/>
+      <c r="U422" s="29"/>
+      <c r="V422" s="29"/>
+      <c r="W422" s="34"/>
+    </row>
+    <row r="423" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A423" s="29"/>
+      <c r="B423" s="29"/>
+      <c r="C423" s="29"/>
+      <c r="D423" s="29"/>
+      <c r="E423" s="29"/>
+      <c r="F423" s="29"/>
+      <c r="G423" s="29"/>
+      <c r="H423" s="29"/>
+      <c r="I423" s="29"/>
+      <c r="J423" s="29"/>
+      <c r="K423" s="29"/>
+      <c r="L423" s="34">
+        <v>58.1</v>
+      </c>
+      <c r="M423" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N423" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O423" s="29">
+        <v>10.7</v>
+      </c>
+      <c r="P423" s="35">
+        <v>8</v>
+      </c>
+      <c r="Q423" s="29"/>
+      <c r="R423" s="29"/>
+      <c r="S423" s="29"/>
+      <c r="T423" s="29"/>
+      <c r="U423" s="29"/>
+      <c r="V423" s="29"/>
+      <c r="W423" s="34"/>
+    </row>
+    <row r="424" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A424" s="29"/>
+      <c r="B424" s="29"/>
+      <c r="C424" s="29"/>
+      <c r="D424" s="29"/>
+      <c r="E424" s="29"/>
+      <c r="F424" s="29"/>
+      <c r="G424" s="29"/>
+      <c r="H424" s="29"/>
+      <c r="I424" s="29"/>
+      <c r="J424" s="29"/>
+      <c r="K424" s="29"/>
+      <c r="L424" s="43">
+        <v>58.2</v>
+      </c>
+      <c r="M424" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="N424" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="O424" s="44">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="P424" s="45">
+        <v>5</v>
+      </c>
+      <c r="Q424" s="29"/>
+      <c r="R424" s="29"/>
+      <c r="S424" s="29"/>
+      <c r="T424" s="29"/>
+      <c r="U424" s="29"/>
+      <c r="V424" s="29"/>
+      <c r="W424" s="34"/>
+    </row>
+    <row r="425" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A425" s="29"/>
+      <c r="B425" s="29"/>
+      <c r="C425" s="29"/>
+      <c r="D425" s="29"/>
+      <c r="E425" s="29"/>
+      <c r="F425" s="29"/>
+      <c r="G425" s="29"/>
+      <c r="H425" s="29"/>
+      <c r="I425" s="29"/>
+      <c r="J425" s="29"/>
+      <c r="K425" s="29"/>
+      <c r="L425" s="34">
+        <v>59</v>
+      </c>
+      <c r="M425" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="N425" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O425" s="29">
+        <v>0</v>
+      </c>
+      <c r="P425" s="35"/>
+      <c r="Q425" s="29"/>
+      <c r="R425" s="29"/>
+      <c r="S425" s="29"/>
+      <c r="T425" s="29"/>
+      <c r="U425" s="29"/>
+      <c r="V425" s="29"/>
+      <c r="W425" s="34"/>
+    </row>
+    <row r="426" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A426" s="29"/>
+      <c r="B426" s="29"/>
+      <c r="C426" s="29"/>
+      <c r="D426" s="29"/>
+      <c r="E426" s="29"/>
+      <c r="F426" s="29"/>
+      <c r="G426" s="29"/>
+      <c r="H426" s="29"/>
+      <c r="I426" s="29"/>
+      <c r="J426" s="29"/>
+      <c r="K426" s="29"/>
+      <c r="L426" s="34">
+        <v>59.1</v>
+      </c>
+      <c r="M426" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="N426" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O426" s="29">
+        <v>11.6</v>
+      </c>
+      <c r="P426" s="35">
+        <v>13</v>
+      </c>
+      <c r="Q426" s="29"/>
+      <c r="R426" s="29"/>
+      <c r="S426" s="29"/>
+      <c r="T426" s="29"/>
+      <c r="U426" s="29"/>
+      <c r="V426" s="29"/>
+      <c r="W426" s="34"/>
+    </row>
+    <row r="427" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A427" s="29"/>
+      <c r="B427" s="29"/>
+      <c r="C427" s="29"/>
+      <c r="D427" s="29"/>
+      <c r="E427" s="29"/>
+      <c r="F427" s="29"/>
+      <c r="G427" s="29"/>
+      <c r="H427" s="29"/>
+      <c r="I427" s="29"/>
+      <c r="J427" s="29"/>
+      <c r="K427" s="29"/>
+      <c r="L427" s="34">
+        <v>59.2</v>
+      </c>
+      <c r="M427" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N427" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O427" s="29">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="P427" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q427" s="29"/>
+      <c r="R427" s="29"/>
+      <c r="S427" s="29"/>
+      <c r="T427" s="29"/>
+      <c r="U427" s="29"/>
+      <c r="V427" s="29"/>
+      <c r="W427" s="34"/>
+    </row>
+    <row r="428" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A428" s="29"/>
+      <c r="B428" s="29"/>
+      <c r="C428" s="29"/>
+      <c r="D428" s="29"/>
+      <c r="E428" s="29"/>
+      <c r="F428" s="29"/>
+      <c r="G428" s="29"/>
+      <c r="H428" s="29"/>
+      <c r="I428" s="29"/>
+      <c r="J428" s="29"/>
+      <c r="K428" s="29"/>
+      <c r="L428" s="34">
+        <v>59.3</v>
+      </c>
+      <c r="M428" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="N428" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O428" s="29">
+        <v>12.600000000000001</v>
+      </c>
+      <c r="P428" s="35">
+        <v>26</v>
+      </c>
+      <c r="Q428" s="29"/>
+      <c r="R428" s="29"/>
+      <c r="S428" s="29"/>
+      <c r="T428" s="29"/>
+      <c r="U428" s="29"/>
+      <c r="V428" s="29"/>
+      <c r="W428" s="34"/>
+    </row>
+    <row r="429" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A429" s="29"/>
+      <c r="B429" s="29"/>
+      <c r="C429" s="29"/>
+      <c r="D429" s="29"/>
+      <c r="E429" s="29"/>
+      <c r="F429" s="29"/>
+      <c r="G429" s="29"/>
+      <c r="H429" s="29"/>
+      <c r="I429" s="29"/>
+      <c r="J429" s="29"/>
+      <c r="K429" s="29"/>
+      <c r="L429" s="34">
+        <v>60</v>
+      </c>
+      <c r="M429" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="N429" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O429" s="29">
+        <v>12.899999999999999</v>
+      </c>
+      <c r="P429" s="35">
+        <v>15</v>
+      </c>
+      <c r="Q429" s="29"/>
+      <c r="R429" s="29"/>
+      <c r="S429" s="29"/>
+      <c r="T429" s="29"/>
+      <c r="U429" s="29"/>
+      <c r="V429" s="29"/>
+      <c r="W429" s="34"/>
+    </row>
+    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A430" s="29"/>
+      <c r="B430" s="29"/>
+      <c r="C430" s="29"/>
+      <c r="D430" s="29"/>
+      <c r="E430" s="29"/>
+      <c r="F430" s="29"/>
+      <c r="G430" s="29"/>
+      <c r="H430" s="29"/>
+      <c r="I430" s="29"/>
+      <c r="J430" s="29"/>
+      <c r="K430" s="29"/>
+      <c r="L430" s="34">
+        <v>60.1</v>
+      </c>
+      <c r="M430" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N430" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O430" s="29">
+        <v>9.6</v>
+      </c>
+      <c r="P430" s="35">
+        <v>10</v>
+      </c>
+      <c r="Q430" s="29"/>
+      <c r="R430" s="29"/>
+      <c r="S430" s="29"/>
+      <c r="T430" s="29"/>
+      <c r="U430" s="29"/>
+      <c r="V430" s="29"/>
+      <c r="W430" s="34"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="G190:I190"/>
@@ -5768,8 +9013,28 @@
     <mergeCell ref="R197:T197"/>
     <mergeCell ref="V197:W197"/>
   </mergeCells>
+  <conditionalFormatting sqref="G366:H375">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFA6C9EC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E367:F375">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF7C7AC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L299:M332" xr:uid="{804F0AFC-E07C-4B9B-A3FD-AEB68EC6AC1C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L299:M332 S352:S430 M352:N430" xr:uid="{804F0AFC-E07C-4B9B-A3FD-AEB68EC6AC1C}">
       <formula1>$A$18:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B208:C208" xr:uid="{605C8630-B0BC-4DB7-8E8F-8A6B69239C15}">
@@ -5778,4 +9043,708 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF9672D-A6E2-47FF-A2A9-82EDCB1C1F81}">
+  <dimension ref="A1:AA30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29:P29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+    </row>
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>2400</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>75</v>
+      </c>
+      <c r="L4">
+        <v>40</v>
+      </c>
+      <c r="M4">
+        <v>80</v>
+      </c>
+      <c r="N4">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <v>160</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>40</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>20</v>
+      </c>
+      <c r="O5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>2400</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>75</v>
+      </c>
+      <c r="L8">
+        <v>40</v>
+      </c>
+      <c r="M8">
+        <v>80</v>
+      </c>
+      <c r="N8">
+        <v>20</v>
+      </c>
+      <c r="O8">
+        <v>170</v>
+      </c>
+      <c r="P8">
+        <f>J8*$D$1+K8*$E$1+M8*$E$1+N8*$D$1+O8*$E$1</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9">
+        <v>45</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="N9">
+        <v>21</v>
+      </c>
+      <c r="O9">
+        <v>45</v>
+      </c>
+      <c r="P9">
+        <f>J9*$D$1+K9*$E$1+M9*$E$1+N9*$D$1+O9*$E$1</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>240</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>70</v>
+      </c>
+      <c r="L13">
+        <v>40</v>
+      </c>
+      <c r="M13">
+        <v>79</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13">
+        <v>77</v>
+      </c>
+      <c r="P13">
+        <f>J13*$J$12+K13*$K$12+L13*$L$12+M13*$M$12+N13*$N$12+O13*$O$12</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14">
+        <v>45</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <v>22</v>
+      </c>
+      <c r="O14">
+        <v>45</v>
+      </c>
+      <c r="P14">
+        <f>J14*$J$12+K14*$K$12+L14*$L$12+M14*$M$12+N14*$N$12+O14*$O$12</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>240</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>51</v>
+      </c>
+      <c r="L18">
+        <v>40</v>
+      </c>
+      <c r="M18">
+        <v>80</v>
+      </c>
+      <c r="N18">
+        <v>15</v>
+      </c>
+      <c r="O18">
+        <v>77</v>
+      </c>
+      <c r="P18">
+        <f>J18*$J$17+K18*$K$17+M18*$M$17+N18*$N$17+O18*$O$17</f>
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19">
+        <v>22</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <v>25</v>
+      </c>
+      <c r="N19">
+        <v>21</v>
+      </c>
+      <c r="O19">
+        <v>34</v>
+      </c>
+      <c r="P19">
+        <f>J19*$J$17+K19*$K$17+M19*$M$17+N19*$N$17+O19*$O$17</f>
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>22</v>
+      </c>
+      <c r="K22">
+        <v>9</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>18</v>
+      </c>
+      <c r="O22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>240</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <v>51</v>
+      </c>
+      <c r="L23">
+        <v>40</v>
+      </c>
+      <c r="M23">
+        <v>77</v>
+      </c>
+      <c r="N23">
+        <v>12</v>
+      </c>
+      <c r="O23">
+        <v>50</v>
+      </c>
+      <c r="P23">
+        <f>J23*$J$22+K23*$K$22+M23*$M$22+N23*$N$22+O23*$O$22</f>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="I24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24">
+        <v>22</v>
+      </c>
+      <c r="K24">
+        <v>27</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="M24">
+        <v>25</v>
+      </c>
+      <c r="N24">
+        <v>21</v>
+      </c>
+      <c r="O24">
+        <v>34</v>
+      </c>
+      <c r="P24">
+        <f>J24*$J$22+K24*$K$22+M24*$M$22+N24*$N$22+O24*$O$22</f>
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>22</v>
+      </c>
+      <c r="K28">
+        <v>9</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <v>18</v>
+      </c>
+      <c r="O28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>255</v>
+      </c>
+      <c r="G29">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29">
+        <v>15</v>
+      </c>
+      <c r="K29">
+        <v>27</v>
+      </c>
+      <c r="L29">
+        <v>12</v>
+      </c>
+      <c r="M29">
+        <v>15</v>
+      </c>
+      <c r="N29">
+        <v>12</v>
+      </c>
+      <c r="O29">
+        <v>17</v>
+      </c>
+      <c r="P29">
+        <f>J29*$J$28+K29*$K$28+M29*$M$28+N29*$N$28+O29*$O$28</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30">
+        <v>13</v>
+      </c>
+      <c r="K30">
+        <v>16</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="M30">
+        <v>16</v>
+      </c>
+      <c r="N30">
+        <v>17</v>
+      </c>
+      <c r="O30">
+        <v>23</v>
+      </c>
+      <c r="P30">
+        <f>J30*$J$22+K30*$K$22+M30*$M$22+N30*$N$22+O30*$O$22</f>
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="I2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test/test_runs_combat.xlsx
+++ b/Test/test_runs_combat.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shield\Documents\Story\AgranariTTRPG\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A846CC20-5C2E-44BB-AD7E-5682269E8539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507F4AD0-7952-479E-825B-179CEAAF77FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34635" yWindow="0" windowWidth="17070" windowHeight="20985" xr2:uid="{F8D463A0-768A-4A18-944B-E333205F072A}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="_TEST_Runs" sheetId="2" r:id="rId1"/>
     <sheet name="_TEST_Characters" sheetId="3" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="108">
   <si>
     <t>Cat Soldier</t>
   </si>
@@ -369,6 +372,21 @@
   <si>
     <t>HIT</t>
   </si>
+  <si>
+    <t>WP Bonus</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Upper Leg</t>
+  </si>
+  <si>
+    <t>Shoulder</t>
+  </si>
 </sst>
 </file>
 
@@ -624,7 +642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -685,6 +703,9 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,6 +721,52 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Species"/>
+      <sheetName val="Species_Stats"/>
+      <sheetName val="Species_OLD"/>
+      <sheetName val="_TMPLT_Character"/>
+      <sheetName val="Calculator"/>
+      <sheetName val="Wound Generator"/>
+      <sheetName val="Wryonin"/>
+      <sheetName val="Cat Soldier"/>
+      <sheetName val="Weapons"/>
+      <sheetName val="Features"/>
+      <sheetName val="Features (Species)"/>
+      <sheetName val="STAT COSTS"/>
+      <sheetName val="Sources"/>
+      <sheetName val="Changelog"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="ClearStats"/>
+      <definedName name="Roll"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1019,10 +1086,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7A2475-8FD1-4D1A-98B6-D7C93564AF9C}">
-  <dimension ref="A1:X430"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Y525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="I381" sqref="I381"/>
+    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
+      <selection activeCell="M461" sqref="M461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9000,6 +9068,3052 @@
       <c r="V430" s="29"/>
       <c r="W430" s="34"/>
     </row>
+    <row r="450" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A450" s="29"/>
+      <c r="B450" s="29"/>
+      <c r="C450" s="29"/>
+      <c r="D450" s="29"/>
+      <c r="E450" s="29"/>
+      <c r="F450" s="29"/>
+      <c r="G450" s="29"/>
+      <c r="H450" s="29"/>
+      <c r="I450" s="29"/>
+      <c r="J450" s="29"/>
+      <c r="K450" s="29"/>
+      <c r="L450" s="29"/>
+      <c r="M450" s="29"/>
+      <c r="N450" s="29"/>
+      <c r="O450" s="29"/>
+      <c r="P450" s="29"/>
+      <c r="Q450" s="29"/>
+      <c r="R450" s="29"/>
+      <c r="S450" s="29"/>
+      <c r="T450" s="29"/>
+      <c r="U450" s="29"/>
+      <c r="V450" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="W450" s="30"/>
+      <c r="X450" s="30"/>
+      <c r="Y450" s="30"/>
+    </row>
+    <row r="451" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A451" s="31"/>
+      <c r="B451" s="31"/>
+      <c r="C451" s="31"/>
+      <c r="D451" s="31"/>
+      <c r="E451" s="31"/>
+      <c r="F451" s="31"/>
+      <c r="G451" s="31"/>
+      <c r="H451" s="31"/>
+      <c r="I451" s="31"/>
+      <c r="J451" s="31"/>
+      <c r="K451" s="31"/>
+      <c r="L451" s="29"/>
+      <c r="M451" s="29"/>
+      <c r="N451" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="O451" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="P451" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q451" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R451" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="S451" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="T451" s="29"/>
+      <c r="U451" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="V451" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="W451" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="X451" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y451" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="452" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A452" s="31"/>
+      <c r="B452" s="31"/>
+      <c r="C452" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D452" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E452" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F452" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G452" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="H452" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I452" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J452" s="31"/>
+      <c r="K452" s="31"/>
+      <c r="L452" s="29"/>
+      <c r="M452" s="29"/>
+      <c r="N452" s="34">
+        <v>1</v>
+      </c>
+      <c r="O452" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P452" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q452" s="34">
+        <v>47</v>
+      </c>
+      <c r="R452" s="35">
+        <v>2</v>
+      </c>
+      <c r="S452" s="35">
+        <v>2</v>
+      </c>
+      <c r="T452" s="29"/>
+      <c r="U452" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="V452" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="W452" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="X452" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y452" s="34">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A453" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B453" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C453" s="38">
+        <v>3.4090909090909092</v>
+      </c>
+      <c r="D453" s="39"/>
+      <c r="E453" s="38">
+        <v>3.8632000486056013</v>
+      </c>
+      <c r="F453" s="46">
+        <v>1</v>
+      </c>
+      <c r="G453" s="38">
+        <v>2.25</v>
+      </c>
+      <c r="H453" s="38">
+        <v>1</v>
+      </c>
+      <c r="I453" s="40">
+        <v>9.5222909576965105</v>
+      </c>
+      <c r="J453" s="41"/>
+      <c r="K453" s="31"/>
+      <c r="L453" s="29"/>
+      <c r="M453" s="29"/>
+      <c r="N453" s="34">
+        <v>2</v>
+      </c>
+      <c r="O453" s="29"/>
+      <c r="P453" s="29"/>
+      <c r="Q453" s="34"/>
+      <c r="R453" s="35"/>
+      <c r="S453" s="35"/>
+      <c r="T453" s="29"/>
+      <c r="U453" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="V453" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="W453" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="X453" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y453" s="34">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="454" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A454" s="31"/>
+      <c r="B454" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C454" s="38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D454" s="39"/>
+      <c r="E454" s="38"/>
+      <c r="F454" s="46"/>
+      <c r="G454" s="38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H454" s="38">
+        <v>1</v>
+      </c>
+      <c r="I454" s="40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J454" s="41"/>
+      <c r="K454" s="31"/>
+      <c r="L454" s="29"/>
+      <c r="M454" s="29"/>
+      <c r="N454" s="34"/>
+      <c r="O454" s="29"/>
+      <c r="P454" s="29"/>
+      <c r="Q454" s="34"/>
+      <c r="R454" s="35"/>
+      <c r="S454" s="35"/>
+      <c r="T454" s="29"/>
+      <c r="U454" s="29"/>
+      <c r="V454" s="29"/>
+      <c r="W454" s="29"/>
+      <c r="X454" s="29"/>
+      <c r="Y454" s="34"/>
+    </row>
+    <row r="455" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A455" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B455" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C455" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="D455" s="39"/>
+      <c r="E455" s="38">
+        <v>4.3035850524902344</v>
+      </c>
+      <c r="F455" s="46">
+        <v>2</v>
+      </c>
+      <c r="G455" s="38">
+        <v>2.7199999999999998</v>
+      </c>
+      <c r="H455" s="38">
+        <v>1</v>
+      </c>
+      <c r="I455" s="40">
+        <v>7.8235850524902339</v>
+      </c>
+      <c r="J455" s="41"/>
+      <c r="K455" s="31"/>
+      <c r="L455" s="29"/>
+      <c r="M455" s="29"/>
+      <c r="N455" s="34">
+        <v>3</v>
+      </c>
+      <c r="O455" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P455" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q455" s="34">
+        <v>0</v>
+      </c>
+      <c r="R455" s="35"/>
+      <c r="S455" s="35"/>
+      <c r="T455" s="29"/>
+      <c r="U455" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="V455" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="W455" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="X455" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y455" s="34">
+        <v>23.099999999999998</v>
+      </c>
+    </row>
+    <row r="456" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A456" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B456" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C456" s="38">
+        <v>10</v>
+      </c>
+      <c r="D456" s="39"/>
+      <c r="E456" s="38">
+        <v>0.23094022274017334</v>
+      </c>
+      <c r="F456" s="46"/>
+      <c r="G456" s="38">
+        <v>0</v>
+      </c>
+      <c r="H456" s="38">
+        <v>1</v>
+      </c>
+      <c r="I456" s="40">
+        <v>10.230940222740173</v>
+      </c>
+      <c r="J456" s="41"/>
+      <c r="K456" s="31"/>
+      <c r="L456" s="29"/>
+      <c r="M456" s="29"/>
+      <c r="N456" s="34">
+        <v>4</v>
+      </c>
+      <c r="O456" s="29"/>
+      <c r="P456" s="29"/>
+      <c r="Q456" s="34"/>
+      <c r="R456" s="35"/>
+      <c r="S456" s="35"/>
+      <c r="T456" s="29"/>
+      <c r="U456" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="V456" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="W456" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="X456" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y456" s="34">
+        <v>17.499999999999996</v>
+      </c>
+    </row>
+    <row r="457" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A457" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B457" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C457" s="38"/>
+      <c r="D457" s="38"/>
+      <c r="E457" s="38"/>
+      <c r="F457" s="47"/>
+      <c r="G457" s="38">
+        <v>0</v>
+      </c>
+      <c r="H457" s="38">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I457" s="42">
+        <v>8.5257835189501456</v>
+      </c>
+      <c r="J457" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="K457" s="31"/>
+      <c r="L457" s="29"/>
+      <c r="M457" s="29"/>
+      <c r="N457" s="34">
+        <v>5</v>
+      </c>
+      <c r="O457" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P457" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q457" s="34">
+        <v>0</v>
+      </c>
+      <c r="R457" s="35"/>
+      <c r="S457" s="35"/>
+      <c r="T457" s="29"/>
+      <c r="U457" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="V457" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="W457" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="X457" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y457" s="34">
+        <v>20.000000000000004</v>
+      </c>
+    </row>
+    <row r="458" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A458" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B458" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C458" s="38">
+        <v>24.983333333333334</v>
+      </c>
+      <c r="D458" s="39"/>
+      <c r="E458" s="38">
+        <v>4.631061321496964</v>
+      </c>
+      <c r="F458" s="46"/>
+      <c r="G458" s="38">
+        <v>0</v>
+      </c>
+      <c r="H458" s="38">
+        <v>1</v>
+      </c>
+      <c r="I458" s="40">
+        <v>29.614394654830299</v>
+      </c>
+      <c r="J458" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="K458" s="31"/>
+      <c r="L458" s="29"/>
+      <c r="M458" s="29"/>
+      <c r="N458" s="34">
+        <v>6</v>
+      </c>
+      <c r="O458" s="29"/>
+      <c r="P458" s="29"/>
+      <c r="Q458" s="34"/>
+      <c r="R458" s="35"/>
+      <c r="S458" s="35"/>
+      <c r="T458" s="29"/>
+      <c r="U458" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="V458" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="W458" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="X458" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y458" s="34">
+        <v>12.100000000000001</v>
+      </c>
+    </row>
+    <row r="459" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A459" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B459" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C459" s="38">
+        <v>13.893181818181819</v>
+      </c>
+      <c r="D459" s="39"/>
+      <c r="E459" s="38">
+        <v>0.94192725867033023</v>
+      </c>
+      <c r="F459" s="46"/>
+      <c r="G459" s="38">
+        <v>0</v>
+      </c>
+      <c r="H459" s="38">
+        <v>1</v>
+      </c>
+      <c r="I459" s="40">
+        <v>14.835109076852149</v>
+      </c>
+      <c r="J459" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="K459" s="31"/>
+      <c r="L459" s="29"/>
+      <c r="M459" s="29"/>
+      <c r="N459" s="34">
+        <v>7</v>
+      </c>
+      <c r="O459" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P459" s="29"/>
+      <c r="Q459" s="34">
+        <v>10.292499999999999</v>
+      </c>
+      <c r="R459" s="35"/>
+      <c r="S459" s="35"/>
+      <c r="T459" s="29"/>
+      <c r="U459" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="V459" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="W459" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="X459" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y459" s="34">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A460" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B460" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C460" s="38">
+        <v>123.75</v>
+      </c>
+      <c r="D460" s="39"/>
+      <c r="E460" s="38">
+        <v>62.510688221454622</v>
+      </c>
+      <c r="F460" s="46"/>
+      <c r="G460" s="38">
+        <v>0</v>
+      </c>
+      <c r="H460" s="38">
+        <v>1</v>
+      </c>
+      <c r="I460" s="40">
+        <v>186.26068822145461</v>
+      </c>
+      <c r="J460" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K460" s="31"/>
+      <c r="L460" s="29"/>
+      <c r="M460" s="29"/>
+      <c r="N460" s="34">
+        <v>8</v>
+      </c>
+      <c r="O460" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P460" s="29"/>
+      <c r="Q460" s="34">
+        <v>9.2575000000000003</v>
+      </c>
+      <c r="R460" s="35"/>
+      <c r="S460" s="35"/>
+      <c r="T460" s="29"/>
+      <c r="U460" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="V460" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="W460" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="X460" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y460" s="34">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="461" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A461" s="31"/>
+      <c r="B461" s="31"/>
+      <c r="C461" s="31"/>
+      <c r="D461" s="31"/>
+      <c r="E461" s="31"/>
+      <c r="F461" s="31"/>
+      <c r="G461" s="31"/>
+      <c r="H461" s="31"/>
+      <c r="I461" s="31"/>
+      <c r="J461" s="31"/>
+      <c r="K461" s="31"/>
+      <c r="L461" s="29"/>
+      <c r="M461" s="29"/>
+      <c r="N461" s="34">
+        <v>9</v>
+      </c>
+      <c r="O461" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P461" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q461" s="34">
+        <v>0</v>
+      </c>
+      <c r="R461" s="35"/>
+      <c r="S461" s="35"/>
+      <c r="T461" s="29"/>
+      <c r="U461" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="V461" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="W461" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="X461" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y461" s="34">
+        <v>7.0999999999999979</v>
+      </c>
+    </row>
+    <row r="462" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A462" s="29"/>
+      <c r="B462" s="29"/>
+      <c r="C462" s="29"/>
+      <c r="D462" s="29"/>
+      <c r="E462" s="29"/>
+      <c r="F462" s="29"/>
+      <c r="G462" s="29"/>
+      <c r="H462" s="29"/>
+      <c r="I462" s="29"/>
+      <c r="J462" s="29"/>
+      <c r="K462" s="29"/>
+      <c r="L462" s="29"/>
+      <c r="M462" s="29"/>
+      <c r="N462" s="34">
+        <v>10</v>
+      </c>
+      <c r="O462" s="29"/>
+      <c r="P462" s="29"/>
+      <c r="Q462" s="34"/>
+      <c r="R462" s="35"/>
+      <c r="S462" s="35"/>
+      <c r="T462" s="29"/>
+      <c r="U462" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="V462" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="W462" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="X462" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y462" s="34">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="463" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A463" s="29"/>
+      <c r="B463" s="29"/>
+      <c r="C463" s="29"/>
+      <c r="D463" s="29"/>
+      <c r="E463" s="29"/>
+      <c r="F463" s="29"/>
+      <c r="G463" s="29"/>
+      <c r="H463" s="29"/>
+      <c r="I463" s="29"/>
+      <c r="J463" s="29"/>
+      <c r="K463" s="29"/>
+      <c r="L463" s="29"/>
+      <c r="M463" s="29"/>
+      <c r="N463" s="34">
+        <v>11</v>
+      </c>
+      <c r="O463" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P463" s="29"/>
+      <c r="Q463" s="34">
+        <v>4.83</v>
+      </c>
+      <c r="R463" s="35"/>
+      <c r="S463" s="35"/>
+      <c r="T463" s="29"/>
+      <c r="U463" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="V463" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="W463" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="X463" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y463" s="34">
+        <v>0.90000000000000568</v>
+      </c>
+    </row>
+    <row r="464" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A464" s="29"/>
+      <c r="B464" s="29"/>
+      <c r="C464" s="29"/>
+      <c r="D464" s="29"/>
+      <c r="E464" s="29"/>
+      <c r="F464" s="29"/>
+      <c r="G464" s="29"/>
+      <c r="H464" s="29"/>
+      <c r="I464" s="29"/>
+      <c r="J464" s="29"/>
+      <c r="K464" s="29"/>
+      <c r="L464" s="29"/>
+      <c r="M464" s="29"/>
+      <c r="N464" s="34">
+        <v>12</v>
+      </c>
+      <c r="O464" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P464" s="29"/>
+      <c r="Q464" s="34">
+        <v>11.614999999999998</v>
+      </c>
+      <c r="R464" s="35"/>
+      <c r="S464" s="35"/>
+      <c r="T464" s="29"/>
+      <c r="U464" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="V464" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="W464" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="X464" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y464" s="34">
+        <v>1.6000000000000014</v>
+      </c>
+    </row>
+    <row r="465" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A465" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B465" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C465" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D465" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E465" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F465" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G465" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H465" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I465" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J465" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="K465" s="30"/>
+      <c r="L465" s="30"/>
+      <c r="M465" s="30"/>
+      <c r="N465" s="34">
+        <v>13</v>
+      </c>
+      <c r="O465" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P465" s="29"/>
+      <c r="Q465" s="34">
+        <v>7.5324999999999989</v>
+      </c>
+      <c r="R465" s="35"/>
+      <c r="S465" s="35"/>
+      <c r="T465" s="29"/>
+      <c r="U465" s="29"/>
+      <c r="V465" s="29"/>
+      <c r="W465" s="29"/>
+      <c r="X465" s="29"/>
+      <c r="Y465" s="34"/>
+    </row>
+    <row r="466" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A466" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B466" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C466" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D466" s="34">
+        <v>16</v>
+      </c>
+      <c r="E466" s="34">
+        <v>-6.6999999999999886</v>
+      </c>
+      <c r="F466" s="34">
+        <v>241.5</v>
+      </c>
+      <c r="G466" s="34">
+        <v>-0.33333333333333215</v>
+      </c>
+      <c r="H466" s="34">
+        <v>28.666666666666668</v>
+      </c>
+      <c r="I466" s="34"/>
+      <c r="J466" s="29"/>
+      <c r="K466" s="29"/>
+      <c r="L466" s="29"/>
+      <c r="M466" s="29"/>
+      <c r="N466" s="34">
+        <v>14</v>
+      </c>
+      <c r="O466" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P466" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q466" s="34">
+        <v>52.7</v>
+      </c>
+      <c r="R466" s="35">
+        <v>1</v>
+      </c>
+      <c r="S466" s="35">
+        <v>18</v>
+      </c>
+      <c r="T466" s="29"/>
+      <c r="U466" s="29"/>
+      <c r="V466" s="29"/>
+      <c r="W466" s="29"/>
+      <c r="X466" s="29"/>
+      <c r="Y466" s="34"/>
+    </row>
+    <row r="467" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A467" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B467" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C467" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D467" s="34">
+        <v>21</v>
+      </c>
+      <c r="E467" s="34">
+        <v>100</v>
+      </c>
+      <c r="F467" s="34">
+        <v>147</v>
+      </c>
+      <c r="G467" s="34">
+        <v>20.166666666666664</v>
+      </c>
+      <c r="H467" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I467" s="34"/>
+      <c r="J467" s="34">
+        <v>0</v>
+      </c>
+      <c r="K467" s="34"/>
+      <c r="L467" s="34"/>
+      <c r="M467" s="34"/>
+      <c r="N467" s="34">
+        <v>15</v>
+      </c>
+      <c r="O467" s="29"/>
+      <c r="P467" s="29"/>
+      <c r="Q467" s="34"/>
+      <c r="R467" s="35"/>
+      <c r="S467" s="35"/>
+      <c r="T467" s="29"/>
+      <c r="U467" s="29"/>
+      <c r="V467" s="29"/>
+      <c r="W467" s="29"/>
+      <c r="X467" s="29"/>
+      <c r="Y467" s="34"/>
+    </row>
+    <row r="468" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A468" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B468" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C468" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D468" s="34">
+        <v>21</v>
+      </c>
+      <c r="E468" s="34">
+        <v>52.900000000000006</v>
+      </c>
+      <c r="F468" s="34">
+        <v>147</v>
+      </c>
+      <c r="G468" s="34">
+        <v>41.166666666666664</v>
+      </c>
+      <c r="H468" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I468" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J468" s="34">
+        <v>8.0433333333333366</v>
+      </c>
+      <c r="K468" s="34"/>
+      <c r="L468" s="34"/>
+      <c r="M468" s="34"/>
+      <c r="N468" s="34">
+        <v>16</v>
+      </c>
+      <c r="O468" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P468" s="29"/>
+      <c r="Q468" s="34">
+        <v>4.8874999999999993</v>
+      </c>
+      <c r="R468" s="35"/>
+      <c r="S468" s="35"/>
+      <c r="T468" s="29"/>
+      <c r="U468" s="29"/>
+      <c r="V468" s="29"/>
+      <c r="W468" s="29"/>
+      <c r="X468" s="29"/>
+      <c r="Y468" s="34"/>
+    </row>
+    <row r="469" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A469" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B469" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C469" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D469" s="34">
+        <v>21</v>
+      </c>
+      <c r="E469" s="34">
+        <v>97.1</v>
+      </c>
+      <c r="F469" s="34">
+        <v>147</v>
+      </c>
+      <c r="G469" s="34">
+        <v>51.166666666666664</v>
+      </c>
+      <c r="H469" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I469" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J469" s="34">
+        <v>64.343333333333334</v>
+      </c>
+      <c r="K469" s="34"/>
+      <c r="L469" s="34"/>
+      <c r="M469" s="34"/>
+      <c r="N469" s="34">
+        <v>17</v>
+      </c>
+      <c r="O469" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P469" s="29"/>
+      <c r="Q469" s="34">
+        <v>8.3374999999999986</v>
+      </c>
+      <c r="R469" s="35"/>
+      <c r="S469" s="35"/>
+      <c r="T469" s="29"/>
+      <c r="U469" s="29"/>
+      <c r="V469" s="29"/>
+      <c r="W469" s="29"/>
+      <c r="X469" s="29"/>
+      <c r="Y469" s="34"/>
+    </row>
+    <row r="470" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A470" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B470" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C470" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D470" s="34">
+        <v>21</v>
+      </c>
+      <c r="E470" s="34">
+        <v>100.2</v>
+      </c>
+      <c r="F470" s="34">
+        <v>147</v>
+      </c>
+      <c r="G470" s="34">
+        <v>42.166666666666664</v>
+      </c>
+      <c r="H470" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I470" s="34"/>
+      <c r="J470" s="34">
+        <v>0</v>
+      </c>
+      <c r="K470" s="34"/>
+      <c r="L470" s="34"/>
+      <c r="M470" s="34"/>
+      <c r="N470" s="34">
+        <v>18</v>
+      </c>
+      <c r="O470" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P470" s="29"/>
+      <c r="Q470" s="34">
+        <v>9.6024999999999991</v>
+      </c>
+      <c r="R470" s="35"/>
+      <c r="S470" s="35"/>
+      <c r="T470" s="29"/>
+      <c r="U470" s="29"/>
+      <c r="V470" s="29"/>
+      <c r="W470" s="29"/>
+      <c r="X470" s="29"/>
+      <c r="Y470" s="34"/>
+    </row>
+    <row r="471" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A471" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B471" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C471" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D471" s="34">
+        <v>21</v>
+      </c>
+      <c r="E471" s="34">
+        <v>106.8</v>
+      </c>
+      <c r="F471" s="34">
+        <v>147</v>
+      </c>
+      <c r="G471" s="34">
+        <v>39.166666666666664</v>
+      </c>
+      <c r="H471" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I471" s="34"/>
+      <c r="J471" s="34">
+        <v>0</v>
+      </c>
+      <c r="K471" s="34"/>
+      <c r="L471" s="34"/>
+      <c r="M471" s="34"/>
+      <c r="N471" s="34">
+        <v>19</v>
+      </c>
+      <c r="O471" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P471" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q471" s="34">
+        <v>49.9</v>
+      </c>
+      <c r="R471" s="35">
+        <v>2</v>
+      </c>
+      <c r="S471" s="35">
+        <v>8</v>
+      </c>
+      <c r="T471" s="29"/>
+      <c r="U471" s="29"/>
+      <c r="V471" s="29"/>
+      <c r="W471" s="29"/>
+      <c r="X471" s="29"/>
+      <c r="Y471" s="34"/>
+    </row>
+    <row r="472" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A472" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B472" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C472" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D472" s="34">
+        <v>21</v>
+      </c>
+      <c r="E472" s="34">
+        <v>111.9</v>
+      </c>
+      <c r="F472" s="34">
+        <v>147</v>
+      </c>
+      <c r="G472" s="34">
+        <v>16.166666666666664</v>
+      </c>
+      <c r="H472" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I472" s="34"/>
+      <c r="J472" s="34">
+        <v>0</v>
+      </c>
+      <c r="K472" s="34"/>
+      <c r="L472" s="34"/>
+      <c r="M472" s="34"/>
+      <c r="N472" s="34">
+        <v>20</v>
+      </c>
+      <c r="O472" s="29"/>
+      <c r="P472" s="29"/>
+      <c r="Q472" s="34"/>
+      <c r="R472" s="35"/>
+      <c r="S472" s="35"/>
+      <c r="T472" s="29"/>
+      <c r="U472" s="29"/>
+      <c r="V472" s="29"/>
+      <c r="W472" s="29"/>
+      <c r="X472" s="29"/>
+      <c r="Y472" s="34"/>
+    </row>
+    <row r="473" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A473" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B473" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C473" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D473" s="34">
+        <v>21</v>
+      </c>
+      <c r="E473" s="34">
+        <v>98.1</v>
+      </c>
+      <c r="F473" s="34">
+        <v>147</v>
+      </c>
+      <c r="G473" s="34">
+        <v>39.166666666666664</v>
+      </c>
+      <c r="H473" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I473" s="34"/>
+      <c r="J473" s="34">
+        <v>0</v>
+      </c>
+      <c r="K473" s="34"/>
+      <c r="L473" s="34"/>
+      <c r="M473" s="34"/>
+      <c r="N473" s="34">
+        <v>21</v>
+      </c>
+      <c r="O473" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P473" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q473" s="34">
+        <v>46.8</v>
+      </c>
+      <c r="R473" s="35">
+        <v>1</v>
+      </c>
+      <c r="S473" s="35">
+        <v>3</v>
+      </c>
+      <c r="T473" s="29"/>
+      <c r="U473" s="29"/>
+      <c r="V473" s="29"/>
+      <c r="W473" s="29"/>
+      <c r="X473" s="29"/>
+      <c r="Y473" s="34"/>
+    </row>
+    <row r="474" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A474" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B474" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C474" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D474" s="34">
+        <v>21</v>
+      </c>
+      <c r="E474" s="34">
+        <v>104.4</v>
+      </c>
+      <c r="F474" s="34">
+        <v>147</v>
+      </c>
+      <c r="G474" s="34">
+        <v>30.166666666666664</v>
+      </c>
+      <c r="H474" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I474" s="34"/>
+      <c r="J474" s="34">
+        <v>0</v>
+      </c>
+      <c r="K474" s="34"/>
+      <c r="L474" s="34"/>
+      <c r="M474" s="34"/>
+      <c r="N474" s="34">
+        <v>22</v>
+      </c>
+      <c r="O474" s="29"/>
+      <c r="P474" s="29"/>
+      <c r="Q474" s="34"/>
+      <c r="R474" s="35"/>
+      <c r="S474" s="35"/>
+      <c r="T474" s="29"/>
+      <c r="U474" s="29"/>
+      <c r="V474" s="29"/>
+      <c r="W474" s="29"/>
+      <c r="X474" s="29"/>
+      <c r="Y474" s="34"/>
+    </row>
+    <row r="475" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A475" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B475" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C475" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D475" s="34">
+        <v>21</v>
+      </c>
+      <c r="E475" s="34">
+        <v>110.6</v>
+      </c>
+      <c r="F475" s="34">
+        <v>147</v>
+      </c>
+      <c r="G475" s="34">
+        <v>21.166666666666664</v>
+      </c>
+      <c r="H475" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I475" s="34"/>
+      <c r="J475" s="34">
+        <v>0</v>
+      </c>
+      <c r="K475" s="34"/>
+      <c r="L475" s="34"/>
+      <c r="M475" s="34"/>
+      <c r="N475" s="34">
+        <v>23</v>
+      </c>
+      <c r="O475" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P475" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q475" s="34">
+        <v>0</v>
+      </c>
+      <c r="R475" s="35"/>
+      <c r="S475" s="35"/>
+      <c r="T475" s="29"/>
+      <c r="U475" s="29"/>
+      <c r="V475" s="29"/>
+      <c r="W475" s="29"/>
+      <c r="X475" s="29"/>
+      <c r="Y475" s="34"/>
+    </row>
+    <row r="476" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A476" s="29"/>
+      <c r="B476" s="29"/>
+      <c r="C476" s="29"/>
+      <c r="D476" s="29"/>
+      <c r="E476" s="29"/>
+      <c r="F476" s="29"/>
+      <c r="G476" s="29"/>
+      <c r="H476" s="29"/>
+      <c r="I476" s="29"/>
+      <c r="J476" s="29"/>
+      <c r="K476" s="29"/>
+      <c r="L476" s="29"/>
+      <c r="M476" s="29"/>
+      <c r="N476" s="34">
+        <v>24</v>
+      </c>
+      <c r="O476" s="29"/>
+      <c r="P476" s="29"/>
+      <c r="Q476" s="34"/>
+      <c r="R476" s="35"/>
+      <c r="S476" s="35"/>
+      <c r="T476" s="29"/>
+      <c r="U476" s="29"/>
+      <c r="V476" s="29"/>
+      <c r="W476" s="29"/>
+      <c r="X476" s="29"/>
+      <c r="Y476" s="34"/>
+    </row>
+    <row r="477" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A477" s="29"/>
+      <c r="B477" s="29"/>
+      <c r="C477" s="29"/>
+      <c r="D477" s="29"/>
+      <c r="E477" s="29"/>
+      <c r="F477" s="29"/>
+      <c r="G477" s="29"/>
+      <c r="H477" s="29"/>
+      <c r="I477" s="29"/>
+      <c r="J477" s="29"/>
+      <c r="K477" s="29"/>
+      <c r="L477" s="29"/>
+      <c r="M477" s="29"/>
+      <c r="N477" s="34">
+        <v>25</v>
+      </c>
+      <c r="O477" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P477" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q477" s="34">
+        <v>0</v>
+      </c>
+      <c r="R477" s="35"/>
+      <c r="S477" s="35"/>
+      <c r="T477" s="29"/>
+      <c r="U477" s="29"/>
+      <c r="V477" s="29"/>
+      <c r="W477" s="29"/>
+      <c r="X477" s="29"/>
+      <c r="Y477" s="34"/>
+    </row>
+    <row r="478" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A478" s="29"/>
+      <c r="B478" s="29"/>
+      <c r="C478" s="29"/>
+      <c r="D478" s="29"/>
+      <c r="E478" s="29"/>
+      <c r="F478" s="29"/>
+      <c r="G478" s="29"/>
+      <c r="H478" s="29"/>
+      <c r="I478" s="29"/>
+      <c r="J478" s="29"/>
+      <c r="K478" s="29"/>
+      <c r="L478" s="29"/>
+      <c r="M478" s="29"/>
+      <c r="N478" s="34">
+        <v>26</v>
+      </c>
+      <c r="O478" s="29"/>
+      <c r="P478" s="29"/>
+      <c r="Q478" s="34"/>
+      <c r="R478" s="35"/>
+      <c r="S478" s="35"/>
+      <c r="T478" s="29"/>
+      <c r="U478" s="29"/>
+      <c r="V478" s="29"/>
+      <c r="W478" s="29"/>
+      <c r="X478" s="29"/>
+      <c r="Y478" s="34"/>
+    </row>
+    <row r="479" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A479" s="29"/>
+      <c r="B479" s="29"/>
+      <c r="C479" s="29"/>
+      <c r="D479" s="29"/>
+      <c r="E479" s="29"/>
+      <c r="F479" s="29"/>
+      <c r="G479" s="29"/>
+      <c r="H479" s="29"/>
+      <c r="I479" s="29"/>
+      <c r="J479" s="29"/>
+      <c r="K479" s="29"/>
+      <c r="L479" s="29"/>
+      <c r="M479" s="29"/>
+      <c r="N479" s="34">
+        <v>27</v>
+      </c>
+      <c r="O479" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P479" s="29"/>
+      <c r="Q479" s="34">
+        <v>6.9574999999999996</v>
+      </c>
+      <c r="R479" s="35"/>
+      <c r="S479" s="35"/>
+      <c r="T479" s="29"/>
+      <c r="U479" s="29"/>
+      <c r="V479" s="29"/>
+      <c r="W479" s="29"/>
+      <c r="X479" s="29"/>
+      <c r="Y479" s="34"/>
+    </row>
+    <row r="480" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A480" s="29"/>
+      <c r="B480" s="29"/>
+      <c r="C480" s="29"/>
+      <c r="D480" s="29"/>
+      <c r="E480" s="29"/>
+      <c r="F480" s="29"/>
+      <c r="G480" s="29"/>
+      <c r="H480" s="29"/>
+      <c r="I480" s="29"/>
+      <c r="J480" s="29"/>
+      <c r="K480" s="29"/>
+      <c r="L480" s="29"/>
+      <c r="M480" s="29"/>
+      <c r="N480" s="34">
+        <v>28</v>
+      </c>
+      <c r="O480" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P480" s="29"/>
+      <c r="Q480" s="34">
+        <v>12.592499999999998</v>
+      </c>
+      <c r="R480" s="35"/>
+      <c r="S480" s="35"/>
+      <c r="T480" s="29"/>
+      <c r="U480" s="29"/>
+      <c r="V480" s="29"/>
+      <c r="W480" s="29"/>
+      <c r="X480" s="29"/>
+      <c r="Y480" s="34"/>
+    </row>
+    <row r="481" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A481" s="29"/>
+      <c r="B481" s="29"/>
+      <c r="C481" s="29"/>
+      <c r="D481" s="29"/>
+      <c r="E481" s="29"/>
+      <c r="F481" s="29"/>
+      <c r="G481" s="29"/>
+      <c r="H481" s="29"/>
+      <c r="I481" s="29"/>
+      <c r="J481" s="29"/>
+      <c r="K481" s="29"/>
+      <c r="L481" s="29"/>
+      <c r="M481" s="29"/>
+      <c r="N481" s="34">
+        <v>29</v>
+      </c>
+      <c r="O481" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P481" s="29"/>
+      <c r="Q481" s="34">
+        <v>6.7274999999999991</v>
+      </c>
+      <c r="R481" s="35"/>
+      <c r="S481" s="35"/>
+      <c r="T481" s="29"/>
+      <c r="U481" s="29"/>
+      <c r="V481" s="29"/>
+      <c r="W481" s="29"/>
+      <c r="X481" s="29"/>
+      <c r="Y481" s="34"/>
+    </row>
+    <row r="482" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A482" s="29"/>
+      <c r="B482" s="29"/>
+      <c r="C482" s="29"/>
+      <c r="D482" s="29"/>
+      <c r="E482" s="29"/>
+      <c r="F482" s="29"/>
+      <c r="G482" s="29"/>
+      <c r="H482" s="29"/>
+      <c r="I482" s="29"/>
+      <c r="J482" s="29"/>
+      <c r="K482" s="29"/>
+      <c r="L482" s="29"/>
+      <c r="M482" s="29"/>
+      <c r="N482" s="34">
+        <v>30</v>
+      </c>
+      <c r="O482" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P482" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q482" s="34">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="R482" s="35">
+        <v>5</v>
+      </c>
+      <c r="S482" s="35"/>
+      <c r="T482" s="29"/>
+      <c r="U482" s="29"/>
+      <c r="V482" s="29"/>
+      <c r="W482" s="29"/>
+      <c r="X482" s="29"/>
+      <c r="Y482" s="34"/>
+    </row>
+    <row r="483" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A483" s="29"/>
+      <c r="B483" s="29"/>
+      <c r="C483" s="29"/>
+      <c r="D483" s="29"/>
+      <c r="E483" s="29"/>
+      <c r="F483" s="29"/>
+      <c r="G483" s="29"/>
+      <c r="H483" s="29"/>
+      <c r="I483" s="29"/>
+      <c r="J483" s="29"/>
+      <c r="K483" s="29"/>
+      <c r="L483" s="29"/>
+      <c r="M483" s="29"/>
+      <c r="N483" s="34">
+        <v>31</v>
+      </c>
+      <c r="O483" s="29"/>
+      <c r="P483" s="29"/>
+      <c r="Q483" s="34"/>
+      <c r="R483" s="35"/>
+      <c r="S483" s="35"/>
+      <c r="T483" s="29"/>
+      <c r="U483" s="29"/>
+      <c r="V483" s="29"/>
+      <c r="W483" s="29"/>
+      <c r="X483" s="29"/>
+      <c r="Y483" s="34"/>
+    </row>
+    <row r="484" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A484" s="29"/>
+      <c r="B484" s="29"/>
+      <c r="C484" s="29"/>
+      <c r="D484" s="29"/>
+      <c r="E484" s="29"/>
+      <c r="F484" s="29"/>
+      <c r="G484" s="29"/>
+      <c r="H484" s="29"/>
+      <c r="I484" s="29"/>
+      <c r="J484" s="29"/>
+      <c r="K484" s="29"/>
+      <c r="L484" s="29"/>
+      <c r="M484" s="29"/>
+      <c r="N484" s="34">
+        <v>32</v>
+      </c>
+      <c r="O484" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P484" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q484" s="34">
+        <v>35.1</v>
+      </c>
+      <c r="R484" s="35">
+        <v>1</v>
+      </c>
+      <c r="S484" s="35">
+        <v>2</v>
+      </c>
+      <c r="T484" s="29"/>
+      <c r="U484" s="29"/>
+      <c r="V484" s="29"/>
+      <c r="W484" s="29"/>
+      <c r="X484" s="29"/>
+      <c r="Y484" s="34"/>
+    </row>
+    <row r="485" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A485" s="29"/>
+      <c r="B485" s="29"/>
+      <c r="C485" s="29"/>
+      <c r="D485" s="29"/>
+      <c r="E485" s="29"/>
+      <c r="F485" s="29"/>
+      <c r="G485" s="29"/>
+      <c r="H485" s="29"/>
+      <c r="I485" s="29"/>
+      <c r="J485" s="29"/>
+      <c r="K485" s="29"/>
+      <c r="L485" s="29"/>
+      <c r="M485" s="29"/>
+      <c r="N485" s="34">
+        <v>33</v>
+      </c>
+      <c r="O485" s="29"/>
+      <c r="P485" s="29"/>
+      <c r="Q485" s="34"/>
+      <c r="R485" s="35"/>
+      <c r="S485" s="35"/>
+      <c r="T485" s="29"/>
+      <c r="U485" s="29"/>
+      <c r="V485" s="29"/>
+      <c r="W485" s="29"/>
+      <c r="X485" s="29"/>
+      <c r="Y485" s="34"/>
+    </row>
+    <row r="486" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A486" s="29"/>
+      <c r="B486" s="29"/>
+      <c r="C486" s="29"/>
+      <c r="D486" s="29"/>
+      <c r="E486" s="29"/>
+      <c r="F486" s="29"/>
+      <c r="G486" s="29"/>
+      <c r="H486" s="29"/>
+      <c r="I486" s="29"/>
+      <c r="J486" s="29"/>
+      <c r="K486" s="29"/>
+      <c r="L486" s="29"/>
+      <c r="M486" s="29"/>
+      <c r="N486" s="34">
+        <v>34</v>
+      </c>
+      <c r="O486" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P486" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q486" s="34">
+        <v>48.9</v>
+      </c>
+      <c r="R486" s="35">
+        <v>1</v>
+      </c>
+      <c r="S486" s="35">
+        <v>2</v>
+      </c>
+      <c r="T486" s="29"/>
+      <c r="U486" s="29"/>
+      <c r="V486" s="29"/>
+      <c r="W486" s="29"/>
+      <c r="X486" s="29"/>
+      <c r="Y486" s="34"/>
+    </row>
+    <row r="487" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A487" s="29"/>
+      <c r="B487" s="29"/>
+      <c r="C487" s="29"/>
+      <c r="D487" s="29"/>
+      <c r="E487" s="29"/>
+      <c r="F487" s="29"/>
+      <c r="G487" s="29"/>
+      <c r="H487" s="29"/>
+      <c r="I487" s="29"/>
+      <c r="J487" s="29"/>
+      <c r="K487" s="29"/>
+      <c r="L487" s="29"/>
+      <c r="M487" s="29"/>
+      <c r="N487" s="34">
+        <v>35</v>
+      </c>
+      <c r="O487" s="29"/>
+      <c r="P487" s="29"/>
+      <c r="Q487" s="34"/>
+      <c r="R487" s="35"/>
+      <c r="S487" s="35"/>
+      <c r="T487" s="29"/>
+      <c r="U487" s="29"/>
+      <c r="V487" s="29"/>
+      <c r="W487" s="29"/>
+      <c r="X487" s="29"/>
+      <c r="Y487" s="34"/>
+    </row>
+    <row r="488" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A488" s="29"/>
+      <c r="B488" s="29"/>
+      <c r="C488" s="29"/>
+      <c r="D488" s="29"/>
+      <c r="E488" s="29"/>
+      <c r="F488" s="29"/>
+      <c r="G488" s="29"/>
+      <c r="H488" s="29"/>
+      <c r="I488" s="29"/>
+      <c r="J488" s="29"/>
+      <c r="K488" s="29"/>
+      <c r="L488" s="29"/>
+      <c r="M488" s="29"/>
+      <c r="N488" s="34">
+        <v>36</v>
+      </c>
+      <c r="O488" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P488" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q488" s="34">
+        <v>0</v>
+      </c>
+      <c r="R488" s="35"/>
+      <c r="S488" s="35"/>
+      <c r="T488" s="29"/>
+      <c r="U488" s="29"/>
+      <c r="V488" s="29"/>
+      <c r="W488" s="29"/>
+      <c r="X488" s="29"/>
+      <c r="Y488" s="34"/>
+    </row>
+    <row r="489" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A489" s="29"/>
+      <c r="B489" s="29"/>
+      <c r="C489" s="29"/>
+      <c r="D489" s="29"/>
+      <c r="E489" s="29"/>
+      <c r="F489" s="29"/>
+      <c r="G489" s="29"/>
+      <c r="H489" s="29"/>
+      <c r="I489" s="29"/>
+      <c r="J489" s="29"/>
+      <c r="K489" s="29"/>
+      <c r="L489" s="29"/>
+      <c r="M489" s="29"/>
+      <c r="N489" s="34">
+        <v>37</v>
+      </c>
+      <c r="O489" s="29"/>
+      <c r="P489" s="29"/>
+      <c r="Q489" s="34"/>
+      <c r="R489" s="35"/>
+      <c r="S489" s="35"/>
+      <c r="T489" s="29"/>
+      <c r="U489" s="29"/>
+      <c r="V489" s="29"/>
+      <c r="W489" s="29"/>
+      <c r="X489" s="29"/>
+      <c r="Y489" s="34"/>
+    </row>
+    <row r="490" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A490" s="29"/>
+      <c r="B490" s="29"/>
+      <c r="C490" s="29"/>
+      <c r="D490" s="29"/>
+      <c r="E490" s="29"/>
+      <c r="F490" s="29"/>
+      <c r="G490" s="29"/>
+      <c r="H490" s="29"/>
+      <c r="I490" s="29"/>
+      <c r="J490" s="29"/>
+      <c r="K490" s="29"/>
+      <c r="L490" s="29"/>
+      <c r="M490" s="29"/>
+      <c r="N490" s="34">
+        <v>38</v>
+      </c>
+      <c r="O490" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P490" s="29"/>
+      <c r="Q490" s="34">
+        <v>12.017499999999998</v>
+      </c>
+      <c r="R490" s="35"/>
+      <c r="S490" s="35"/>
+      <c r="T490" s="29"/>
+      <c r="U490" s="29"/>
+      <c r="V490" s="29"/>
+      <c r="W490" s="29"/>
+      <c r="X490" s="29"/>
+      <c r="Y490" s="34"/>
+    </row>
+    <row r="491" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A491" s="29"/>
+      <c r="B491" s="29"/>
+      <c r="C491" s="29"/>
+      <c r="D491" s="29"/>
+      <c r="E491" s="29"/>
+      <c r="F491" s="29"/>
+      <c r="G491" s="29"/>
+      <c r="H491" s="29"/>
+      <c r="I491" s="29"/>
+      <c r="J491" s="29"/>
+      <c r="K491" s="29"/>
+      <c r="L491" s="29"/>
+      <c r="M491" s="29"/>
+      <c r="N491" s="34">
+        <v>39</v>
+      </c>
+      <c r="O491" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P491" s="29"/>
+      <c r="Q491" s="34">
+        <v>4.6574999999999998</v>
+      </c>
+      <c r="R491" s="35"/>
+      <c r="S491" s="35"/>
+      <c r="T491" s="29"/>
+      <c r="U491" s="29"/>
+      <c r="V491" s="29"/>
+      <c r="W491" s="29"/>
+      <c r="X491" s="29"/>
+      <c r="Y491" s="34"/>
+    </row>
+    <row r="492" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A492" s="29"/>
+      <c r="B492" s="29"/>
+      <c r="C492" s="29"/>
+      <c r="D492" s="29"/>
+      <c r="E492" s="29"/>
+      <c r="F492" s="29"/>
+      <c r="G492" s="29"/>
+      <c r="H492" s="29"/>
+      <c r="I492" s="29"/>
+      <c r="J492" s="29"/>
+      <c r="K492" s="29"/>
+      <c r="L492" s="29"/>
+      <c r="M492" s="29"/>
+      <c r="N492" s="34">
+        <v>40</v>
+      </c>
+      <c r="O492" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P492" s="29"/>
+      <c r="Q492" s="34">
+        <v>12.074999999999999</v>
+      </c>
+      <c r="R492" s="35"/>
+      <c r="S492" s="35"/>
+      <c r="T492" s="29"/>
+      <c r="U492" s="29"/>
+      <c r="V492" s="29"/>
+      <c r="W492" s="29"/>
+      <c r="X492" s="29"/>
+      <c r="Y492" s="34"/>
+    </row>
+    <row r="493" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A493" s="29"/>
+      <c r="B493" s="29"/>
+      <c r="C493" s="29"/>
+      <c r="D493" s="29"/>
+      <c r="E493" s="29"/>
+      <c r="F493" s="29"/>
+      <c r="G493" s="29"/>
+      <c r="H493" s="29"/>
+      <c r="I493" s="29"/>
+      <c r="J493" s="29"/>
+      <c r="K493" s="29"/>
+      <c r="L493" s="29"/>
+      <c r="M493" s="29"/>
+      <c r="N493" s="34">
+        <v>41</v>
+      </c>
+      <c r="O493" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P493" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q493" s="34">
+        <v>42.6</v>
+      </c>
+      <c r="R493" s="35">
+        <v>2</v>
+      </c>
+      <c r="S493" s="35">
+        <v>7</v>
+      </c>
+      <c r="T493" s="29"/>
+      <c r="U493" s="29"/>
+      <c r="V493" s="29"/>
+      <c r="W493" s="29"/>
+      <c r="X493" s="29"/>
+      <c r="Y493" s="34"/>
+    </row>
+    <row r="494" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A494" s="29"/>
+      <c r="B494" s="29"/>
+      <c r="C494" s="29"/>
+      <c r="D494" s="29"/>
+      <c r="E494" s="29"/>
+      <c r="F494" s="29"/>
+      <c r="G494" s="29"/>
+      <c r="H494" s="29"/>
+      <c r="I494" s="29"/>
+      <c r="J494" s="29"/>
+      <c r="K494" s="29"/>
+      <c r="L494" s="29"/>
+      <c r="M494" s="29"/>
+      <c r="N494" s="34">
+        <v>42</v>
+      </c>
+      <c r="O494" s="29"/>
+      <c r="P494" s="29"/>
+      <c r="Q494" s="34"/>
+      <c r="R494" s="35"/>
+      <c r="S494" s="35"/>
+      <c r="T494" s="29"/>
+      <c r="U494" s="29"/>
+      <c r="V494" s="29"/>
+      <c r="W494" s="29"/>
+      <c r="X494" s="29"/>
+      <c r="Y494" s="34"/>
+    </row>
+    <row r="495" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A495" s="29"/>
+      <c r="B495" s="29"/>
+      <c r="C495" s="29"/>
+      <c r="D495" s="29"/>
+      <c r="E495" s="29"/>
+      <c r="F495" s="29"/>
+      <c r="G495" s="29"/>
+      <c r="H495" s="29"/>
+      <c r="I495" s="29"/>
+      <c r="J495" s="29"/>
+      <c r="K495" s="29"/>
+      <c r="L495" s="29"/>
+      <c r="M495" s="29"/>
+      <c r="N495" s="34">
+        <v>43</v>
+      </c>
+      <c r="O495" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P495" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q495" s="34">
+        <v>36.4</v>
+      </c>
+      <c r="R495" s="35">
+        <v>1</v>
+      </c>
+      <c r="S495" s="35">
+        <v>4</v>
+      </c>
+      <c r="T495" s="29"/>
+      <c r="U495" s="29"/>
+      <c r="V495" s="29"/>
+      <c r="W495" s="29"/>
+      <c r="X495" s="29"/>
+      <c r="Y495" s="34"/>
+    </row>
+    <row r="496" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A496" s="29"/>
+      <c r="B496" s="29"/>
+      <c r="C496" s="29"/>
+      <c r="D496" s="29"/>
+      <c r="E496" s="29"/>
+      <c r="F496" s="29"/>
+      <c r="G496" s="29"/>
+      <c r="H496" s="29"/>
+      <c r="I496" s="29"/>
+      <c r="J496" s="29"/>
+      <c r="K496" s="29"/>
+      <c r="L496" s="29"/>
+      <c r="M496" s="29"/>
+      <c r="N496" s="34">
+        <v>44</v>
+      </c>
+      <c r="O496" s="29"/>
+      <c r="P496" s="29"/>
+      <c r="Q496" s="34"/>
+      <c r="R496" s="35"/>
+      <c r="S496" s="35"/>
+      <c r="T496" s="29"/>
+      <c r="U496" s="29"/>
+      <c r="V496" s="29"/>
+      <c r="W496" s="29"/>
+      <c r="X496" s="29"/>
+      <c r="Y496" s="34"/>
+    </row>
+    <row r="497" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A497" s="29"/>
+      <c r="B497" s="29"/>
+      <c r="C497" s="29"/>
+      <c r="D497" s="29"/>
+      <c r="E497" s="29"/>
+      <c r="F497" s="29"/>
+      <c r="G497" s="29"/>
+      <c r="H497" s="29"/>
+      <c r="I497" s="29"/>
+      <c r="J497" s="29"/>
+      <c r="K497" s="29"/>
+      <c r="L497" s="29"/>
+      <c r="M497" s="29"/>
+      <c r="N497" s="34">
+        <v>45</v>
+      </c>
+      <c r="O497" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P497" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q497" s="29">
+        <v>0</v>
+      </c>
+      <c r="R497" s="35"/>
+      <c r="S497" s="35"/>
+      <c r="T497" s="29"/>
+      <c r="U497" s="29"/>
+      <c r="V497" s="29"/>
+      <c r="W497" s="29"/>
+      <c r="X497" s="29"/>
+      <c r="Y497" s="34"/>
+    </row>
+    <row r="498" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A498" s="29"/>
+      <c r="B498" s="29"/>
+      <c r="C498" s="29"/>
+      <c r="D498" s="29"/>
+      <c r="E498" s="29"/>
+      <c r="F498" s="29"/>
+      <c r="G498" s="29"/>
+      <c r="H498" s="29"/>
+      <c r="I498" s="29"/>
+      <c r="J498" s="29"/>
+      <c r="K498" s="29"/>
+      <c r="L498" s="29"/>
+      <c r="M498" s="29"/>
+      <c r="N498" s="34">
+        <v>46</v>
+      </c>
+      <c r="O498" s="29"/>
+      <c r="P498" s="29"/>
+      <c r="Q498" s="29"/>
+      <c r="R498" s="35"/>
+      <c r="S498" s="35"/>
+      <c r="T498" s="29"/>
+      <c r="U498" s="29"/>
+      <c r="V498" s="29"/>
+      <c r="W498" s="29"/>
+      <c r="X498" s="29"/>
+      <c r="Y498" s="34"/>
+    </row>
+    <row r="499" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A499" s="29"/>
+      <c r="B499" s="29"/>
+      <c r="C499" s="29"/>
+      <c r="D499" s="29"/>
+      <c r="E499" s="29"/>
+      <c r="F499" s="29"/>
+      <c r="G499" s="29"/>
+      <c r="H499" s="29"/>
+      <c r="I499" s="29"/>
+      <c r="J499" s="29"/>
+      <c r="K499" s="29"/>
+      <c r="L499" s="29"/>
+      <c r="M499" s="29"/>
+      <c r="N499" s="34">
+        <v>47</v>
+      </c>
+      <c r="O499" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P499" s="29"/>
+      <c r="Q499" s="34">
+        <v>8.9699999999999989</v>
+      </c>
+      <c r="R499" s="35"/>
+      <c r="S499" s="35"/>
+      <c r="T499" s="29"/>
+      <c r="U499" s="29"/>
+      <c r="V499" s="29"/>
+      <c r="W499" s="29"/>
+      <c r="X499" s="29"/>
+      <c r="Y499" s="34"/>
+    </row>
+    <row r="500" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A500" s="29"/>
+      <c r="B500" s="29"/>
+      <c r="C500" s="29"/>
+      <c r="D500" s="29"/>
+      <c r="E500" s="29"/>
+      <c r="F500" s="29"/>
+      <c r="G500" s="29"/>
+      <c r="H500" s="29"/>
+      <c r="I500" s="29"/>
+      <c r="J500" s="29"/>
+      <c r="K500" s="29"/>
+      <c r="L500" s="29"/>
+      <c r="M500" s="29"/>
+      <c r="N500" s="34">
+        <v>48</v>
+      </c>
+      <c r="O500" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P500" s="29"/>
+      <c r="Q500" s="34">
+        <v>12.247499999999999</v>
+      </c>
+      <c r="R500" s="35"/>
+      <c r="S500" s="35"/>
+      <c r="T500" s="29"/>
+      <c r="U500" s="29"/>
+      <c r="V500" s="29"/>
+      <c r="W500" s="29"/>
+      <c r="X500" s="29"/>
+      <c r="Y500" s="34"/>
+    </row>
+    <row r="501" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A501" s="29"/>
+      <c r="B501" s="29"/>
+      <c r="C501" s="29"/>
+      <c r="D501" s="29"/>
+      <c r="E501" s="29"/>
+      <c r="F501" s="29"/>
+      <c r="G501" s="29"/>
+      <c r="H501" s="29"/>
+      <c r="I501" s="29"/>
+      <c r="J501" s="29"/>
+      <c r="K501" s="29"/>
+      <c r="L501" s="29"/>
+      <c r="M501" s="29"/>
+      <c r="N501" s="34">
+        <v>49</v>
+      </c>
+      <c r="O501" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P501" s="29"/>
+      <c r="Q501" s="34">
+        <v>8.625</v>
+      </c>
+      <c r="R501" s="35"/>
+      <c r="S501" s="35"/>
+      <c r="T501" s="29"/>
+      <c r="U501" s="29"/>
+      <c r="V501" s="29"/>
+      <c r="W501" s="29"/>
+      <c r="X501" s="29"/>
+      <c r="Y501" s="34"/>
+    </row>
+    <row r="502" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A502" s="29"/>
+      <c r="B502" s="29"/>
+      <c r="C502" s="29"/>
+      <c r="D502" s="29"/>
+      <c r="E502" s="29"/>
+      <c r="F502" s="29"/>
+      <c r="G502" s="29"/>
+      <c r="H502" s="29"/>
+      <c r="I502" s="29"/>
+      <c r="J502" s="29"/>
+      <c r="K502" s="29"/>
+      <c r="L502" s="29"/>
+      <c r="M502" s="29"/>
+      <c r="N502" s="34">
+        <v>50</v>
+      </c>
+      <c r="O502" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P502" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q502" s="29">
+        <v>41.4</v>
+      </c>
+      <c r="R502" s="35">
+        <v>9</v>
+      </c>
+      <c r="S502" s="35"/>
+      <c r="T502" s="29"/>
+      <c r="U502" s="29"/>
+      <c r="V502" s="29"/>
+      <c r="W502" s="29"/>
+      <c r="X502" s="29"/>
+      <c r="Y502" s="34"/>
+    </row>
+    <row r="503" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A503" s="29"/>
+      <c r="B503" s="29"/>
+      <c r="C503" s="29"/>
+      <c r="D503" s="29"/>
+      <c r="E503" s="29"/>
+      <c r="F503" s="29"/>
+      <c r="G503" s="29"/>
+      <c r="H503" s="29"/>
+      <c r="I503" s="29"/>
+      <c r="J503" s="29"/>
+      <c r="K503" s="29"/>
+      <c r="L503" s="29"/>
+      <c r="M503" s="29"/>
+      <c r="N503" s="34">
+        <v>51</v>
+      </c>
+      <c r="O503" s="29"/>
+      <c r="P503" s="29"/>
+      <c r="Q503" s="29"/>
+      <c r="R503" s="35"/>
+      <c r="S503" s="35"/>
+      <c r="T503" s="29"/>
+      <c r="U503" s="29"/>
+      <c r="V503" s="29"/>
+      <c r="W503" s="29"/>
+      <c r="X503" s="29"/>
+      <c r="Y503" s="34"/>
+    </row>
+    <row r="504" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A504" s="29"/>
+      <c r="B504" s="29"/>
+      <c r="C504" s="29"/>
+      <c r="D504" s="29"/>
+      <c r="E504" s="29"/>
+      <c r="F504" s="29"/>
+      <c r="G504" s="29"/>
+      <c r="H504" s="29"/>
+      <c r="I504" s="29"/>
+      <c r="J504" s="29"/>
+      <c r="K504" s="29"/>
+      <c r="L504" s="29"/>
+      <c r="M504" s="29"/>
+      <c r="N504" s="34">
+        <v>52</v>
+      </c>
+      <c r="O504" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P504" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q504" s="29">
+        <v>0</v>
+      </c>
+      <c r="R504" s="35"/>
+      <c r="S504" s="35"/>
+      <c r="T504" s="29"/>
+      <c r="U504" s="29"/>
+      <c r="V504" s="29"/>
+      <c r="W504" s="29"/>
+      <c r="X504" s="29"/>
+      <c r="Y504" s="34"/>
+    </row>
+    <row r="505" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A505" s="29"/>
+      <c r="B505" s="29"/>
+      <c r="C505" s="29"/>
+      <c r="D505" s="29"/>
+      <c r="E505" s="29"/>
+      <c r="F505" s="29"/>
+      <c r="G505" s="29"/>
+      <c r="H505" s="29"/>
+      <c r="I505" s="29"/>
+      <c r="J505" s="29"/>
+      <c r="K505" s="29"/>
+      <c r="L505" s="29"/>
+      <c r="M505" s="29"/>
+      <c r="N505" s="34">
+        <v>53</v>
+      </c>
+      <c r="O505" s="29"/>
+      <c r="P505" s="29"/>
+      <c r="Q505" s="29"/>
+      <c r="R505" s="35"/>
+      <c r="S505" s="35"/>
+      <c r="T505" s="29"/>
+      <c r="U505" s="29"/>
+      <c r="V505" s="29"/>
+      <c r="W505" s="29"/>
+      <c r="X505" s="29"/>
+      <c r="Y505" s="34"/>
+    </row>
+    <row r="506" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A506" s="29"/>
+      <c r="B506" s="29"/>
+      <c r="C506" s="29"/>
+      <c r="D506" s="29"/>
+      <c r="E506" s="29"/>
+      <c r="F506" s="29"/>
+      <c r="G506" s="29"/>
+      <c r="H506" s="29"/>
+      <c r="I506" s="29"/>
+      <c r="J506" s="29"/>
+      <c r="K506" s="29"/>
+      <c r="L506" s="29"/>
+      <c r="M506" s="29"/>
+      <c r="N506" s="34">
+        <v>54</v>
+      </c>
+      <c r="O506" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P506" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q506" s="29">
+        <v>0</v>
+      </c>
+      <c r="R506" s="35"/>
+      <c r="S506" s="35"/>
+      <c r="T506" s="29"/>
+      <c r="U506" s="29"/>
+      <c r="V506" s="29"/>
+      <c r="W506" s="29"/>
+      <c r="X506" s="29"/>
+      <c r="Y506" s="34"/>
+    </row>
+    <row r="507" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A507" s="29"/>
+      <c r="B507" s="29"/>
+      <c r="C507" s="29"/>
+      <c r="D507" s="29"/>
+      <c r="E507" s="29"/>
+      <c r="F507" s="29"/>
+      <c r="G507" s="29"/>
+      <c r="H507" s="29"/>
+      <c r="I507" s="29"/>
+      <c r="J507" s="29"/>
+      <c r="K507" s="29"/>
+      <c r="L507" s="29"/>
+      <c r="M507" s="29"/>
+      <c r="N507" s="34">
+        <v>54.1</v>
+      </c>
+      <c r="O507" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="P507" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q507" s="29">
+        <v>9.1</v>
+      </c>
+      <c r="R507" s="35">
+        <v>18</v>
+      </c>
+      <c r="S507" s="35"/>
+      <c r="T507" s="29"/>
+      <c r="U507" s="29"/>
+      <c r="V507" s="29"/>
+      <c r="W507" s="29"/>
+      <c r="X507" s="29"/>
+      <c r="Y507" s="34"/>
+    </row>
+    <row r="508" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A508" s="29"/>
+      <c r="B508" s="29"/>
+      <c r="C508" s="29"/>
+      <c r="D508" s="29"/>
+      <c r="E508" s="29"/>
+      <c r="F508" s="29"/>
+      <c r="G508" s="29"/>
+      <c r="H508" s="29"/>
+      <c r="I508" s="29"/>
+      <c r="J508" s="29"/>
+      <c r="K508" s="29"/>
+      <c r="L508" s="29"/>
+      <c r="M508" s="29"/>
+      <c r="N508" s="34">
+        <v>54.2</v>
+      </c>
+      <c r="O508" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P508" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q508" s="29">
+        <v>8.5</v>
+      </c>
+      <c r="R508" s="35">
+        <v>4</v>
+      </c>
+      <c r="S508" s="35"/>
+      <c r="T508" s="29"/>
+      <c r="U508" s="29"/>
+      <c r="V508" s="29"/>
+      <c r="W508" s="29"/>
+      <c r="X508" s="29"/>
+      <c r="Y508" s="34"/>
+    </row>
+    <row r="509" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A509" s="29"/>
+      <c r="B509" s="29"/>
+      <c r="C509" s="29"/>
+      <c r="D509" s="29"/>
+      <c r="E509" s="29"/>
+      <c r="F509" s="29"/>
+      <c r="G509" s="29"/>
+      <c r="H509" s="29"/>
+      <c r="I509" s="29"/>
+      <c r="J509" s="29"/>
+      <c r="K509" s="29"/>
+      <c r="L509" s="29"/>
+      <c r="M509" s="29"/>
+      <c r="N509" s="34">
+        <v>54.3</v>
+      </c>
+      <c r="O509" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="P509" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q509" s="29">
+        <v>13.3</v>
+      </c>
+      <c r="R509" s="35">
+        <v>5</v>
+      </c>
+      <c r="S509" s="35"/>
+      <c r="T509" s="29"/>
+      <c r="U509" s="29"/>
+      <c r="V509" s="29"/>
+      <c r="W509" s="29"/>
+      <c r="X509" s="29"/>
+      <c r="Y509" s="34"/>
+    </row>
+    <row r="510" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A510" s="29"/>
+      <c r="B510" s="29"/>
+      <c r="C510" s="29"/>
+      <c r="D510" s="29"/>
+      <c r="E510" s="29"/>
+      <c r="F510" s="29"/>
+      <c r="G510" s="29"/>
+      <c r="H510" s="29"/>
+      <c r="I510" s="29"/>
+      <c r="J510" s="29"/>
+      <c r="K510" s="29"/>
+      <c r="L510" s="29"/>
+      <c r="M510" s="29"/>
+      <c r="N510" s="34">
+        <v>54.4</v>
+      </c>
+      <c r="O510" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="P510" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q510" s="29">
+        <v>13.6</v>
+      </c>
+      <c r="R510" s="35">
+        <v>5</v>
+      </c>
+      <c r="S510" s="35"/>
+      <c r="T510" s="29"/>
+      <c r="U510" s="29"/>
+      <c r="V510" s="29"/>
+      <c r="W510" s="29"/>
+      <c r="X510" s="29"/>
+      <c r="Y510" s="34"/>
+    </row>
+    <row r="511" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A511" s="29"/>
+      <c r="B511" s="29"/>
+      <c r="C511" s="29"/>
+      <c r="D511" s="29"/>
+      <c r="E511" s="29"/>
+      <c r="F511" s="29"/>
+      <c r="G511" s="29"/>
+      <c r="H511" s="29"/>
+      <c r="I511" s="29"/>
+      <c r="J511" s="29"/>
+      <c r="K511" s="29"/>
+      <c r="L511" s="29"/>
+      <c r="M511" s="29"/>
+      <c r="N511" s="34">
+        <v>54.5</v>
+      </c>
+      <c r="O511" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="P511" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q511" s="29">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R511" s="35">
+        <v>9</v>
+      </c>
+      <c r="S511" s="35"/>
+      <c r="T511" s="29"/>
+      <c r="U511" s="29"/>
+      <c r="V511" s="29"/>
+      <c r="W511" s="29"/>
+      <c r="X511" s="29"/>
+      <c r="Y511" s="34"/>
+    </row>
+    <row r="512" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A512" s="29"/>
+      <c r="B512" s="29"/>
+      <c r="C512" s="29"/>
+      <c r="D512" s="29"/>
+      <c r="E512" s="29"/>
+      <c r="F512" s="29"/>
+      <c r="G512" s="29"/>
+      <c r="H512" s="29"/>
+      <c r="I512" s="29"/>
+      <c r="J512" s="29"/>
+      <c r="K512" s="29"/>
+      <c r="L512" s="29"/>
+      <c r="M512" s="29"/>
+      <c r="N512" s="34">
+        <v>54.6</v>
+      </c>
+      <c r="O512" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="P512" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q512" s="29">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="R512" s="35">
+        <v>22</v>
+      </c>
+      <c r="S512" s="35"/>
+      <c r="T512" s="29"/>
+      <c r="U512" s="29"/>
+      <c r="V512" s="29"/>
+      <c r="W512" s="29"/>
+      <c r="X512" s="29"/>
+      <c r="Y512" s="34"/>
+    </row>
+    <row r="513" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A513" s="29"/>
+      <c r="B513" s="29"/>
+      <c r="C513" s="29"/>
+      <c r="D513" s="29"/>
+      <c r="E513" s="29"/>
+      <c r="F513" s="29"/>
+      <c r="G513" s="29"/>
+      <c r="H513" s="29"/>
+      <c r="I513" s="29"/>
+      <c r="J513" s="29"/>
+      <c r="K513" s="29"/>
+      <c r="L513" s="29"/>
+      <c r="M513" s="29"/>
+      <c r="N513" s="34">
+        <v>54.7</v>
+      </c>
+      <c r="O513" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="P513" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q513" s="29">
+        <v>49.6</v>
+      </c>
+      <c r="R513" s="35">
+        <v>28</v>
+      </c>
+      <c r="S513" s="35"/>
+      <c r="T513" s="29"/>
+      <c r="U513" s="29"/>
+      <c r="V513" s="29"/>
+      <c r="W513" s="29"/>
+      <c r="X513" s="29"/>
+      <c r="Y513" s="34"/>
+    </row>
+    <row r="514" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A514" s="29"/>
+      <c r="B514" s="29"/>
+      <c r="C514" s="29"/>
+      <c r="D514" s="29"/>
+      <c r="E514" s="29"/>
+      <c r="F514" s="29"/>
+      <c r="G514" s="29"/>
+      <c r="H514" s="29"/>
+      <c r="I514" s="29"/>
+      <c r="J514" s="29"/>
+      <c r="K514" s="29"/>
+      <c r="L514" s="29"/>
+      <c r="M514" s="29"/>
+      <c r="N514" s="34">
+        <v>55</v>
+      </c>
+      <c r="O514" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="P514" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q514" s="29">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="R514" s="35">
+        <v>9</v>
+      </c>
+      <c r="S514" s="35"/>
+      <c r="T514" s="29"/>
+      <c r="U514" s="29"/>
+      <c r="V514" s="29"/>
+      <c r="W514" s="29"/>
+      <c r="X514" s="29"/>
+      <c r="Y514" s="34"/>
+    </row>
+    <row r="515" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A515" s="29"/>
+      <c r="B515" s="29"/>
+      <c r="C515" s="29"/>
+      <c r="D515" s="29"/>
+      <c r="E515" s="29"/>
+      <c r="F515" s="29"/>
+      <c r="G515" s="29"/>
+      <c r="H515" s="29"/>
+      <c r="I515" s="29"/>
+      <c r="J515" s="29"/>
+      <c r="K515" s="29"/>
+      <c r="L515" s="29"/>
+      <c r="M515" s="29"/>
+      <c r="N515" s="43">
+        <v>55.1</v>
+      </c>
+      <c r="O515" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="P515" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q515" s="44">
+        <v>9.9</v>
+      </c>
+      <c r="R515" s="48"/>
+      <c r="S515" s="45">
+        <v>1</v>
+      </c>
+      <c r="T515" s="29"/>
+      <c r="U515" s="29"/>
+      <c r="V515" s="29"/>
+      <c r="W515" s="29"/>
+      <c r="X515" s="29"/>
+      <c r="Y515" s="34"/>
+    </row>
+    <row r="516" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A516" s="29"/>
+      <c r="B516" s="29"/>
+      <c r="C516" s="29"/>
+      <c r="D516" s="29"/>
+      <c r="E516" s="29"/>
+      <c r="F516" s="29"/>
+      <c r="G516" s="29"/>
+      <c r="H516" s="29"/>
+      <c r="I516" s="29"/>
+      <c r="J516" s="29"/>
+      <c r="K516" s="29"/>
+      <c r="L516" s="29"/>
+      <c r="M516" s="29"/>
+      <c r="N516" s="34">
+        <v>55.2</v>
+      </c>
+      <c r="O516" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="P516" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q516" s="29">
+        <v>15</v>
+      </c>
+      <c r="R516" s="35">
+        <v>5</v>
+      </c>
+      <c r="S516" s="35"/>
+      <c r="T516" s="29"/>
+      <c r="U516" s="29"/>
+      <c r="V516" s="29"/>
+      <c r="W516" s="29"/>
+      <c r="X516" s="29"/>
+      <c r="Y516" s="34"/>
+    </row>
+    <row r="517" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A517" s="29"/>
+      <c r="B517" s="29"/>
+      <c r="C517" s="29"/>
+      <c r="D517" s="29"/>
+      <c r="E517" s="29"/>
+      <c r="F517" s="29"/>
+      <c r="G517" s="29"/>
+      <c r="H517" s="29"/>
+      <c r="I517" s="29"/>
+      <c r="J517" s="29"/>
+      <c r="K517" s="29"/>
+      <c r="L517" s="29"/>
+      <c r="M517" s="29"/>
+      <c r="N517" s="34">
+        <v>55.3</v>
+      </c>
+      <c r="O517" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="P517" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q517" s="29">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="R517" s="35">
+        <v>17</v>
+      </c>
+      <c r="S517" s="35"/>
+      <c r="T517" s="29"/>
+      <c r="U517" s="29"/>
+      <c r="V517" s="29"/>
+      <c r="W517" s="29"/>
+      <c r="X517" s="29"/>
+      <c r="Y517" s="34"/>
+    </row>
+    <row r="518" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A518" s="29"/>
+      <c r="B518" s="29"/>
+      <c r="C518" s="29"/>
+      <c r="D518" s="29"/>
+      <c r="E518" s="29"/>
+      <c r="F518" s="29"/>
+      <c r="G518" s="29"/>
+      <c r="H518" s="29"/>
+      <c r="I518" s="29"/>
+      <c r="J518" s="29"/>
+      <c r="K518" s="29"/>
+      <c r="L518" s="29"/>
+      <c r="M518" s="29"/>
+      <c r="N518" s="34">
+        <v>55.4</v>
+      </c>
+      <c r="O518" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="P518" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q518" s="29">
+        <v>10</v>
+      </c>
+      <c r="R518" s="35">
+        <v>8</v>
+      </c>
+      <c r="S518" s="35"/>
+      <c r="T518" s="29"/>
+      <c r="U518" s="29"/>
+      <c r="V518" s="29"/>
+      <c r="W518" s="29"/>
+      <c r="X518" s="29"/>
+      <c r="Y518" s="34"/>
+    </row>
+    <row r="519" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A519" s="29"/>
+      <c r="B519" s="29"/>
+      <c r="C519" s="29"/>
+      <c r="D519" s="29"/>
+      <c r="E519" s="29"/>
+      <c r="F519" s="29"/>
+      <c r="G519" s="29"/>
+      <c r="H519" s="29"/>
+      <c r="I519" s="29"/>
+      <c r="J519" s="29"/>
+      <c r="K519" s="29"/>
+      <c r="L519" s="29"/>
+      <c r="M519" s="29"/>
+      <c r="N519" s="34">
+        <v>55.5</v>
+      </c>
+      <c r="O519" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="P519" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q519" s="29">
+        <v>9</v>
+      </c>
+      <c r="R519" s="35"/>
+      <c r="S519" s="35"/>
+      <c r="T519" s="29"/>
+      <c r="U519" s="29"/>
+      <c r="V519" s="29"/>
+      <c r="W519" s="29"/>
+      <c r="X519" s="29"/>
+      <c r="Y519" s="34"/>
+    </row>
+    <row r="520" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A520" s="29"/>
+      <c r="B520" s="29"/>
+      <c r="C520" s="29"/>
+      <c r="D520" s="29"/>
+      <c r="E520" s="29"/>
+      <c r="F520" s="29"/>
+      <c r="G520" s="29"/>
+      <c r="H520" s="29"/>
+      <c r="I520" s="29"/>
+      <c r="J520" s="29"/>
+      <c r="K520" s="29"/>
+      <c r="L520" s="29"/>
+      <c r="M520" s="29"/>
+      <c r="N520" s="34">
+        <v>55.6</v>
+      </c>
+      <c r="O520" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="P520" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q520" s="29">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="R520" s="35">
+        <v>6</v>
+      </c>
+      <c r="S520" s="35"/>
+      <c r="T520" s="29"/>
+      <c r="U520" s="29"/>
+      <c r="V520" s="29"/>
+      <c r="W520" s="29"/>
+      <c r="X520" s="29"/>
+      <c r="Y520" s="34"/>
+    </row>
+    <row r="521" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A521" s="29"/>
+      <c r="B521" s="29"/>
+      <c r="C521" s="29"/>
+      <c r="D521" s="29"/>
+      <c r="E521" s="29"/>
+      <c r="F521" s="29"/>
+      <c r="G521" s="29"/>
+      <c r="H521" s="29"/>
+      <c r="I521" s="29"/>
+      <c r="J521" s="29"/>
+      <c r="K521" s="29"/>
+      <c r="L521" s="29"/>
+      <c r="M521" s="29"/>
+      <c r="N521" s="34">
+        <v>56</v>
+      </c>
+      <c r="O521" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="P521" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q521" s="29">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R521" s="35">
+        <v>10</v>
+      </c>
+      <c r="S521" s="35"/>
+      <c r="T521" s="29"/>
+      <c r="U521" s="29"/>
+      <c r="V521" s="29"/>
+      <c r="W521" s="29"/>
+      <c r="X521" s="29"/>
+      <c r="Y521" s="34"/>
+    </row>
+    <row r="522" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A522" s="29"/>
+      <c r="B522" s="29"/>
+      <c r="C522" s="29"/>
+      <c r="D522" s="29"/>
+      <c r="E522" s="29"/>
+      <c r="F522" s="29"/>
+      <c r="G522" s="29"/>
+      <c r="H522" s="29"/>
+      <c r="I522" s="29"/>
+      <c r="J522" s="29"/>
+      <c r="K522" s="29"/>
+      <c r="L522" s="29"/>
+      <c r="M522" s="29"/>
+      <c r="N522" s="34">
+        <v>56.1</v>
+      </c>
+      <c r="O522" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P522" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q522" s="29">
+        <v>8.9</v>
+      </c>
+      <c r="R522" s="35">
+        <v>10</v>
+      </c>
+      <c r="S522" s="35"/>
+      <c r="T522" s="29"/>
+      <c r="U522" s="29"/>
+      <c r="V522" s="29"/>
+      <c r="W522" s="29"/>
+      <c r="X522" s="29"/>
+      <c r="Y522" s="34"/>
+    </row>
+    <row r="523" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A523" s="29"/>
+      <c r="B523" s="29"/>
+      <c r="C523" s="29"/>
+      <c r="D523" s="29"/>
+      <c r="E523" s="29"/>
+      <c r="F523" s="29"/>
+      <c r="G523" s="29"/>
+      <c r="H523" s="29"/>
+      <c r="I523" s="29"/>
+      <c r="J523" s="29"/>
+      <c r="K523" s="29"/>
+      <c r="L523" s="29"/>
+      <c r="M523" s="29"/>
+      <c r="N523" s="34">
+        <v>56.2</v>
+      </c>
+      <c r="O523" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="P523" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q523" s="29">
+        <v>9.4</v>
+      </c>
+      <c r="R523" s="35">
+        <v>10</v>
+      </c>
+      <c r="S523" s="35"/>
+      <c r="T523" s="29"/>
+      <c r="U523" s="29"/>
+      <c r="V523" s="29"/>
+      <c r="W523" s="29"/>
+      <c r="X523" s="29"/>
+      <c r="Y523" s="34"/>
+    </row>
+    <row r="524" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A524" s="29"/>
+      <c r="B524" s="29"/>
+      <c r="C524" s="29"/>
+      <c r="D524" s="29"/>
+      <c r="E524" s="29"/>
+      <c r="F524" s="29"/>
+      <c r="G524" s="29"/>
+      <c r="H524" s="29"/>
+      <c r="I524" s="29"/>
+      <c r="J524" s="29"/>
+      <c r="K524" s="29"/>
+      <c r="L524" s="29"/>
+      <c r="M524" s="29"/>
+      <c r="N524" s="34">
+        <v>56.3</v>
+      </c>
+      <c r="O524" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="P524" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q524" s="29">
+        <v>0</v>
+      </c>
+      <c r="R524" s="35">
+        <v>19</v>
+      </c>
+      <c r="S524" s="35">
+        <v>1</v>
+      </c>
+      <c r="T524" s="29"/>
+      <c r="U524" s="29"/>
+      <c r="V524" s="29"/>
+      <c r="W524" s="29"/>
+      <c r="X524" s="29"/>
+      <c r="Y524" s="34"/>
+    </row>
+    <row r="525" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A525" s="29"/>
+      <c r="B525" s="29"/>
+      <c r="C525" s="29"/>
+      <c r="D525" s="29"/>
+      <c r="E525" s="29"/>
+      <c r="F525" s="29"/>
+      <c r="G525" s="29"/>
+      <c r="H525" s="29"/>
+      <c r="I525" s="29"/>
+      <c r="J525" s="29"/>
+      <c r="K525" s="29"/>
+      <c r="L525" s="29"/>
+      <c r="M525" s="29"/>
+      <c r="N525" s="34">
+        <v>56.4</v>
+      </c>
+      <c r="O525" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="P525" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q525" s="29">
+        <v>8.5</v>
+      </c>
+      <c r="R525" s="35">
+        <v>1</v>
+      </c>
+      <c r="S525" s="35">
+        <v>2</v>
+      </c>
+      <c r="T525" s="29"/>
+      <c r="U525" s="29"/>
+      <c r="V525" s="29"/>
+      <c r="W525" s="29"/>
+      <c r="X525" s="29"/>
+      <c r="Y525" s="34"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="G190:I190"/>
@@ -9014,6 +12128,26 @@
     <mergeCell ref="V197:W197"/>
   </mergeCells>
   <conditionalFormatting sqref="G366:H375">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFA6C9EC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E367:F375">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF7C7AC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G466:H475">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9023,7 +12157,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E367:F375">
+  <conditionalFormatting sqref="E467:F475">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -9034,7 +12168,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L299:M332 S352:S430 M352:N430" xr:uid="{804F0AFC-E07C-4B9B-A3FD-AEB68EC6AC1C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L299:M332 S352:S430 M352:N430 U452:U525 O452:P525" xr:uid="{804F0AFC-E07C-4B9B-A3FD-AEB68EC6AC1C}">
       <formula1>$A$18:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B208:C208" xr:uid="{605C8630-B0BC-4DB7-8E8F-8A6B69239C15}">
@@ -9047,6 +12181,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF9672D-A6E2-47FF-A2A9-82EDCB1C1F81}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test/test_runs_combat.xlsx
+++ b/Test/test_runs_combat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shield\Documents\Story\AgranariTTRPG\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507F4AD0-7952-479E-825B-179CEAAF77FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81201208-7899-47F1-9FCC-4DA87F4B8F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34635" yWindow="0" windowWidth="17070" windowHeight="20985" xr2:uid="{F8D463A0-768A-4A18-944B-E333205F072A}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="116">
   <si>
     <t>Cat Soldier</t>
   </si>
@@ -386,6 +386,30 @@
   </si>
   <si>
     <t>Shoulder</t>
+  </si>
+  <si>
+    <t>Face</t>
+  </si>
+  <si>
+    <t>Groin</t>
+  </si>
+  <si>
+    <t>Heel</t>
+  </si>
+  <si>
+    <t>Forearm</t>
+  </si>
+  <si>
+    <t>WINCED</t>
+  </si>
+  <si>
+    <t>1 Mudrich</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>Mudrich</t>
   </si>
 </sst>
 </file>
@@ -737,6 +761,7 @@
       <sheetName val="Calculator"/>
       <sheetName val="Wound Generator"/>
       <sheetName val="Wryonin"/>
+      <sheetName val="Mudrich"/>
       <sheetName val="Cat Soldier"/>
       <sheetName val="Weapons"/>
       <sheetName val="Features"/>
@@ -746,6 +771,7 @@
       <sheetName val="Changelog"/>
     </sheetNames>
     <definedNames>
+      <definedName name="ClearHistory"/>
       <definedName name="ClearStats"/>
       <definedName name="Roll"/>
     </definedNames>
@@ -764,6 +790,7 @@
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1087,10 +1114,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7A2475-8FD1-4D1A-98B6-D7C93564AF9C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y525"/>
+  <dimension ref="A1:Y671"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
-      <selection activeCell="M461" sqref="M461"/>
+    <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
+      <selection activeCell="A570" sqref="A570:X671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12114,6 +12141,5760 @@
       <c r="X525" s="29"/>
       <c r="Y525" s="34"/>
     </row>
+    <row r="530" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A530" s="29"/>
+      <c r="B530" s="29"/>
+      <c r="C530" s="29"/>
+      <c r="D530" s="29"/>
+      <c r="E530" s="29"/>
+      <c r="F530" s="29"/>
+      <c r="G530" s="29"/>
+      <c r="H530" s="29"/>
+      <c r="I530" s="29"/>
+      <c r="J530" s="29"/>
+      <c r="K530" s="29"/>
+      <c r="L530" s="29"/>
+      <c r="M530" s="29"/>
+      <c r="N530" s="29"/>
+      <c r="O530" s="29"/>
+      <c r="P530" s="29"/>
+      <c r="Q530" s="29"/>
+      <c r="R530" s="29"/>
+      <c r="S530" s="29"/>
+      <c r="T530" s="29"/>
+      <c r="U530" s="29"/>
+      <c r="V530" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="W530" s="30"/>
+      <c r="X530" s="30"/>
+      <c r="Y530" s="30"/>
+    </row>
+    <row r="531" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A531" s="31"/>
+      <c r="B531" s="31"/>
+      <c r="C531" s="31"/>
+      <c r="D531" s="31"/>
+      <c r="E531" s="31"/>
+      <c r="F531" s="31"/>
+      <c r="G531" s="31"/>
+      <c r="H531" s="31"/>
+      <c r="I531" s="31"/>
+      <c r="J531" s="31"/>
+      <c r="K531" s="31"/>
+      <c r="L531" s="29"/>
+      <c r="M531" s="29"/>
+      <c r="N531" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="O531" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="P531" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q531" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R531" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="S531" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="T531" s="29"/>
+      <c r="U531" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="V531" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="W531" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="X531" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y531" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="532" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A532" s="31"/>
+      <c r="B532" s="31"/>
+      <c r="C532" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D532" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E532" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F532" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G532" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="H532" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I532" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J532" s="31"/>
+      <c r="K532" s="31"/>
+      <c r="L532" s="29"/>
+      <c r="M532" s="29"/>
+      <c r="N532" s="34">
+        <v>1</v>
+      </c>
+      <c r="O532" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P532" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q532" s="34">
+        <v>0</v>
+      </c>
+      <c r="R532" s="35"/>
+      <c r="S532" s="35"/>
+      <c r="T532" s="29"/>
+      <c r="U532" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="V532" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="W532" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="X532" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y532" s="34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="533" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A533" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B533" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C533" s="38">
+        <v>3.4090909090909092</v>
+      </c>
+      <c r="D533" s="39"/>
+      <c r="E533" s="38">
+        <v>0.49159576495488488</v>
+      </c>
+      <c r="F533" s="46">
+        <v>10</v>
+      </c>
+      <c r="G533" s="38">
+        <v>22.5</v>
+      </c>
+      <c r="H533" s="38">
+        <v>1</v>
+      </c>
+      <c r="I533" s="40">
+        <v>26.400686674045794</v>
+      </c>
+      <c r="J533" s="41"/>
+      <c r="K533" s="31"/>
+      <c r="L533" s="29"/>
+      <c r="M533" s="29"/>
+      <c r="N533" s="34">
+        <v>2</v>
+      </c>
+      <c r="O533" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P533" s="29"/>
+      <c r="Q533" s="34">
+        <v>7.7624999999999993</v>
+      </c>
+      <c r="R533" s="35"/>
+      <c r="S533" s="35"/>
+      <c r="T533" s="29"/>
+      <c r="U533" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="V533" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="W533" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="X533" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y533" s="34">
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="534" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A534" s="31"/>
+      <c r="B534" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C534" s="38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D534" s="39"/>
+      <c r="E534" s="38"/>
+      <c r="F534" s="46"/>
+      <c r="G534" s="38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H534" s="38">
+        <v>1</v>
+      </c>
+      <c r="I534" s="40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J534" s="41"/>
+      <c r="K534" s="31"/>
+      <c r="L534" s="29"/>
+      <c r="M534" s="29"/>
+      <c r="N534" s="34"/>
+      <c r="O534" s="29"/>
+      <c r="P534" s="29"/>
+      <c r="Q534" s="34">
+        <v>18.409090909090907</v>
+      </c>
+      <c r="R534" s="35"/>
+      <c r="S534" s="35"/>
+      <c r="T534" s="29"/>
+      <c r="U534" s="29"/>
+      <c r="V534" s="29"/>
+      <c r="W534" s="29"/>
+      <c r="X534" s="29"/>
+      <c r="Y534" s="34"/>
+    </row>
+    <row r="535" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A535" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B535" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C535" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="D535" s="39"/>
+      <c r="E535" s="38">
+        <v>11.226139068603516</v>
+      </c>
+      <c r="F535" s="46">
+        <v>1</v>
+      </c>
+      <c r="G535" s="38">
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="H535" s="38">
+        <v>1</v>
+      </c>
+      <c r="I535" s="40">
+        <v>13.386139068603516</v>
+      </c>
+      <c r="J535" s="41"/>
+      <c r="K535" s="31"/>
+      <c r="L535" s="29"/>
+      <c r="M535" s="29"/>
+      <c r="N535" s="34">
+        <v>3</v>
+      </c>
+      <c r="O535" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P535" s="29"/>
+      <c r="Q535" s="34">
+        <v>10.637499999999999</v>
+      </c>
+      <c r="R535" s="35"/>
+      <c r="S535" s="35"/>
+      <c r="T535" s="29"/>
+      <c r="U535" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="V535" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="W535" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="X535" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y535" s="34">
+        <v>21.799999999999997</v>
+      </c>
+    </row>
+    <row r="536" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A536" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B536" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C536" s="38">
+        <v>10</v>
+      </c>
+      <c r="D536" s="39"/>
+      <c r="E536" s="38">
+        <v>1.2060874700546265</v>
+      </c>
+      <c r="F536" s="46">
+        <v>17</v>
+      </c>
+      <c r="G536" s="38">
+        <v>38.25</v>
+      </c>
+      <c r="H536" s="38">
+        <v>1</v>
+      </c>
+      <c r="I536" s="40">
+        <v>49.456087470054626</v>
+      </c>
+      <c r="J536" s="41"/>
+      <c r="K536" s="31"/>
+      <c r="L536" s="29"/>
+      <c r="M536" s="29"/>
+      <c r="N536" s="34">
+        <v>4</v>
+      </c>
+      <c r="O536" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P536" s="29"/>
+      <c r="Q536" s="34">
+        <v>9.7174999999999976</v>
+      </c>
+      <c r="R536" s="35"/>
+      <c r="S536" s="35"/>
+      <c r="T536" s="29"/>
+      <c r="U536" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="V536" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="W536" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="X536" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y536" s="34">
+        <v>27.299999999999997</v>
+      </c>
+    </row>
+    <row r="537" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A537" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B537" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C537" s="38"/>
+      <c r="D537" s="38"/>
+      <c r="E537" s="38"/>
+      <c r="F537" s="47"/>
+      <c r="G537" s="38">
+        <v>0</v>
+      </c>
+      <c r="H537" s="38">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I537" s="42">
+        <v>41.213406225045524</v>
+      </c>
+      <c r="J537" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="K537" s="31"/>
+      <c r="L537" s="29"/>
+      <c r="M537" s="29"/>
+      <c r="N537" s="34">
+        <v>5</v>
+      </c>
+      <c r="O537" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P537" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q537" s="34">
+        <v>40</v>
+      </c>
+      <c r="R537" s="35">
+        <v>1</v>
+      </c>
+      <c r="S537" s="35">
+        <v>12</v>
+      </c>
+      <c r="T537" s="29"/>
+      <c r="U537" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="V537" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="W537" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="X537" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y537" s="34">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="538" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A538" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B538" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C538" s="38">
+        <v>24.983333333333334</v>
+      </c>
+      <c r="D538" s="39"/>
+      <c r="E538" s="38">
+        <v>13.796522766351702</v>
+      </c>
+      <c r="F538" s="46"/>
+      <c r="G538" s="38">
+        <v>0</v>
+      </c>
+      <c r="H538" s="38">
+        <v>1</v>
+      </c>
+      <c r="I538" s="40">
+        <v>38.779856099685034</v>
+      </c>
+      <c r="J538" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="K538" s="31"/>
+      <c r="L538" s="29"/>
+      <c r="M538" s="29"/>
+      <c r="N538" s="34">
+        <v>6</v>
+      </c>
+      <c r="O538" s="29"/>
+      <c r="P538" s="29"/>
+      <c r="Q538" s="34"/>
+      <c r="R538" s="35"/>
+      <c r="S538" s="35"/>
+      <c r="T538" s="29"/>
+      <c r="U538" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="V538" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="W538" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="X538" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y538" s="34">
+        <v>4.7000000000000028</v>
+      </c>
+    </row>
+    <row r="539" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A539" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B539" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C539" s="38">
+        <v>13.893181818181819</v>
+      </c>
+      <c r="D539" s="39"/>
+      <c r="E539" s="38">
+        <v>11.675269000232221</v>
+      </c>
+      <c r="F539" s="46"/>
+      <c r="G539" s="38">
+        <v>0</v>
+      </c>
+      <c r="H539" s="38">
+        <v>1</v>
+      </c>
+      <c r="I539" s="40">
+        <v>25.568450818414043</v>
+      </c>
+      <c r="J539" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="K539" s="31"/>
+      <c r="L539" s="29"/>
+      <c r="M539" s="29"/>
+      <c r="N539" s="34">
+        <v>7</v>
+      </c>
+      <c r="O539" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P539" s="29"/>
+      <c r="Q539" s="34">
+        <v>10.234999999999999</v>
+      </c>
+      <c r="R539" s="35"/>
+      <c r="S539" s="35"/>
+      <c r="T539" s="29"/>
+      <c r="U539" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="V539" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="W539" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="X539" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y539" s="34">
+        <v>18.400000000000002</v>
+      </c>
+    </row>
+    <row r="540" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A540" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B540" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C540" s="38">
+        <v>123.75</v>
+      </c>
+      <c r="D540" s="39"/>
+      <c r="E540" s="38">
+        <v>28.825738441944122</v>
+      </c>
+      <c r="F540" s="46"/>
+      <c r="G540" s="38">
+        <v>0</v>
+      </c>
+      <c r="H540" s="38">
+        <v>1</v>
+      </c>
+      <c r="I540" s="40">
+        <v>152.57573844194411</v>
+      </c>
+      <c r="J540" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="K540" s="31"/>
+      <c r="L540" s="29"/>
+      <c r="M540" s="29"/>
+      <c r="N540" s="34">
+        <v>8</v>
+      </c>
+      <c r="O540" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P540" s="29"/>
+      <c r="Q540" s="34">
+        <v>10.522499999999999</v>
+      </c>
+      <c r="R540" s="35"/>
+      <c r="S540" s="35"/>
+      <c r="T540" s="29"/>
+      <c r="U540" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="V540" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="W540" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="X540" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y540" s="34">
+        <v>25.099999999999998</v>
+      </c>
+    </row>
+    <row r="541" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A541" s="31"/>
+      <c r="B541" s="31"/>
+      <c r="C541" s="31"/>
+      <c r="D541" s="31"/>
+      <c r="E541" s="31"/>
+      <c r="F541" s="31"/>
+      <c r="G541" s="31"/>
+      <c r="H541" s="31"/>
+      <c r="I541" s="31"/>
+      <c r="J541" s="31"/>
+      <c r="K541" s="31"/>
+      <c r="L541" s="29"/>
+      <c r="M541" s="29"/>
+      <c r="N541" s="34">
+        <v>9</v>
+      </c>
+      <c r="O541" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P541" s="29"/>
+      <c r="Q541" s="34">
+        <v>7.4174999999999995</v>
+      </c>
+      <c r="R541" s="35"/>
+      <c r="S541" s="35"/>
+      <c r="T541" s="29"/>
+      <c r="U541" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="V541" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="W541" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="X541" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y541" s="34">
+        <v>13.600000000000001</v>
+      </c>
+    </row>
+    <row r="542" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A542" s="29"/>
+      <c r="B542" s="29"/>
+      <c r="C542" s="29"/>
+      <c r="D542" s="29"/>
+      <c r="E542" s="29"/>
+      <c r="F542" s="29"/>
+      <c r="G542" s="29"/>
+      <c r="H542" s="29"/>
+      <c r="I542" s="29"/>
+      <c r="J542" s="29"/>
+      <c r="K542" s="29"/>
+      <c r="L542" s="29"/>
+      <c r="M542" s="29"/>
+      <c r="N542" s="34">
+        <v>10</v>
+      </c>
+      <c r="O542" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P542" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q542" s="34">
+        <v>45.7</v>
+      </c>
+      <c r="R542" s="35">
+        <v>2</v>
+      </c>
+      <c r="S542" s="35">
+        <v>19</v>
+      </c>
+      <c r="T542" s="29"/>
+      <c r="U542" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="V542" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="W542" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="X542" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y542" s="34">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="543" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A543" s="29"/>
+      <c r="B543" s="29"/>
+      <c r="C543" s="29"/>
+      <c r="D543" s="29"/>
+      <c r="E543" s="29"/>
+      <c r="F543" s="29"/>
+      <c r="G543" s="29"/>
+      <c r="H543" s="29"/>
+      <c r="I543" s="29"/>
+      <c r="J543" s="29"/>
+      <c r="K543" s="29"/>
+      <c r="L543" s="29"/>
+      <c r="M543" s="29"/>
+      <c r="N543" s="34">
+        <v>11</v>
+      </c>
+      <c r="O543" s="29"/>
+      <c r="P543" s="29"/>
+      <c r="Q543" s="34"/>
+      <c r="R543" s="35"/>
+      <c r="S543" s="35"/>
+      <c r="T543" s="29"/>
+      <c r="U543" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="V543" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="W543" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="X543" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y543" s="34">
+        <v>15.099999999999998</v>
+      </c>
+    </row>
+    <row r="544" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A544" s="29"/>
+      <c r="B544" s="29"/>
+      <c r="C544" s="29"/>
+      <c r="D544" s="29"/>
+      <c r="E544" s="29"/>
+      <c r="F544" s="29"/>
+      <c r="G544" s="29"/>
+      <c r="H544" s="29"/>
+      <c r="I544" s="29"/>
+      <c r="J544" s="29"/>
+      <c r="K544" s="29"/>
+      <c r="L544" s="29"/>
+      <c r="M544" s="29"/>
+      <c r="N544" s="34">
+        <v>12</v>
+      </c>
+      <c r="O544" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P544" s="29"/>
+      <c r="Q544" s="34">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="R544" s="35"/>
+      <c r="S544" s="35"/>
+      <c r="T544" s="29"/>
+      <c r="U544" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="V544" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="W544" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="X544" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y544" s="34">
+        <v>2.4000000000000057</v>
+      </c>
+    </row>
+    <row r="545" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A545" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B545" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C545" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D545" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E545" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F545" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G545" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H545" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I545" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J545" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="K545" s="30"/>
+      <c r="L545" s="30"/>
+      <c r="M545" s="30"/>
+      <c r="N545" s="34">
+        <v>13</v>
+      </c>
+      <c r="O545" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P545" s="29"/>
+      <c r="Q545" s="34">
+        <v>12.42</v>
+      </c>
+      <c r="R545" s="35"/>
+      <c r="S545" s="35"/>
+      <c r="T545" s="29"/>
+      <c r="U545" s="29"/>
+      <c r="V545" s="29"/>
+      <c r="W545" s="29"/>
+      <c r="X545" s="29"/>
+      <c r="Y545" s="34"/>
+    </row>
+    <row r="546" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A546" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B546" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C546" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D546" s="34">
+        <v>16</v>
+      </c>
+      <c r="E546" s="34">
+        <v>-22.600000000000023</v>
+      </c>
+      <c r="F546" s="34">
+        <v>241.5</v>
+      </c>
+      <c r="G546" s="34">
+        <v>0.66666666666666785</v>
+      </c>
+      <c r="H546" s="34">
+        <v>28.666666666666668</v>
+      </c>
+      <c r="I546" s="34"/>
+      <c r="J546" s="29"/>
+      <c r="K546" s="29"/>
+      <c r="L546" s="29"/>
+      <c r="M546" s="29"/>
+      <c r="N546" s="34">
+        <v>14</v>
+      </c>
+      <c r="O546" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P546" s="29"/>
+      <c r="Q546" s="34">
+        <v>8.567499999999999</v>
+      </c>
+      <c r="R546" s="35"/>
+      <c r="S546" s="35"/>
+      <c r="T546" s="29"/>
+      <c r="U546" s="29"/>
+      <c r="V546" s="29"/>
+      <c r="W546" s="29"/>
+      <c r="X546" s="29"/>
+      <c r="Y546" s="34"/>
+    </row>
+    <row r="547" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A547" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B547" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C547" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D547" s="34">
+        <v>21</v>
+      </c>
+      <c r="E547" s="34">
+        <v>61.3</v>
+      </c>
+      <c r="F547" s="34">
+        <v>147</v>
+      </c>
+      <c r="G547" s="34">
+        <v>28.166666666666664</v>
+      </c>
+      <c r="H547" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I547" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J547" s="34">
+        <v>83.11</v>
+      </c>
+      <c r="K547" s="34"/>
+      <c r="L547" s="34"/>
+      <c r="M547" s="34"/>
+      <c r="N547" s="34">
+        <v>15</v>
+      </c>
+      <c r="O547" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P547" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q547" s="34">
+        <v>39.9</v>
+      </c>
+      <c r="R547" s="35">
+        <v>1</v>
+      </c>
+      <c r="S547" s="35">
+        <v>6</v>
+      </c>
+      <c r="T547" s="29"/>
+      <c r="U547" s="29"/>
+      <c r="V547" s="29"/>
+      <c r="W547" s="29"/>
+      <c r="X547" s="29"/>
+      <c r="Y547" s="34"/>
+    </row>
+    <row r="548" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A548" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B548" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C548" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D548" s="34">
+        <v>21</v>
+      </c>
+      <c r="E548" s="34">
+        <v>66.2</v>
+      </c>
+      <c r="F548" s="34">
+        <v>147</v>
+      </c>
+      <c r="G548" s="34">
+        <v>45.166666666666664</v>
+      </c>
+      <c r="H548" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I548" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J548" s="34">
+        <v>64.343333333333334</v>
+      </c>
+      <c r="K548" s="34"/>
+      <c r="L548" s="34"/>
+      <c r="M548" s="34"/>
+      <c r="N548" s="34">
+        <v>16</v>
+      </c>
+      <c r="O548" s="29"/>
+      <c r="P548" s="29"/>
+      <c r="Q548" s="34"/>
+      <c r="R548" s="35"/>
+      <c r="S548" s="35"/>
+      <c r="T548" s="29"/>
+      <c r="U548" s="29"/>
+      <c r="V548" s="29"/>
+      <c r="W548" s="29"/>
+      <c r="X548" s="29"/>
+      <c r="Y548" s="34"/>
+    </row>
+    <row r="549" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A549" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B549" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C549" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D549" s="34">
+        <v>21</v>
+      </c>
+      <c r="E549" s="34">
+        <v>64.5</v>
+      </c>
+      <c r="F549" s="34">
+        <v>147</v>
+      </c>
+      <c r="G549" s="34">
+        <v>-0.8333333333333357</v>
+      </c>
+      <c r="H549" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I549" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J549" s="34">
+        <v>45.576666666666668</v>
+      </c>
+      <c r="K549" s="34"/>
+      <c r="L549" s="34"/>
+      <c r="M549" s="34"/>
+      <c r="N549" s="34">
+        <v>17</v>
+      </c>
+      <c r="O549" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P549" s="29"/>
+      <c r="Q549" s="34">
+        <v>8.7399999999999984</v>
+      </c>
+      <c r="R549" s="35"/>
+      <c r="S549" s="35"/>
+      <c r="T549" s="29"/>
+      <c r="U549" s="29"/>
+      <c r="V549" s="29"/>
+      <c r="W549" s="29"/>
+      <c r="X549" s="29"/>
+      <c r="Y549" s="34"/>
+    </row>
+    <row r="550" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A550" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B550" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C550" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D550" s="34">
+        <v>21</v>
+      </c>
+      <c r="E550" s="34">
+        <v>101.4</v>
+      </c>
+      <c r="F550" s="34">
+        <v>147</v>
+      </c>
+      <c r="G550" s="34">
+        <v>2.1666666666666643</v>
+      </c>
+      <c r="H550" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I550" s="34"/>
+      <c r="J550" s="34">
+        <v>0</v>
+      </c>
+      <c r="K550" s="34"/>
+      <c r="L550" s="34"/>
+      <c r="M550" s="34"/>
+      <c r="N550" s="34">
+        <v>18</v>
+      </c>
+      <c r="O550" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P550" s="29"/>
+      <c r="Q550" s="34">
+        <v>9.0849999999999991</v>
+      </c>
+      <c r="R550" s="35"/>
+      <c r="S550" s="35"/>
+      <c r="T550" s="29"/>
+      <c r="U550" s="29"/>
+      <c r="V550" s="29"/>
+      <c r="W550" s="29"/>
+      <c r="X550" s="29"/>
+      <c r="Y550" s="34"/>
+    </row>
+    <row r="551" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A551" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B551" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C551" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D551" s="34">
+        <v>21</v>
+      </c>
+      <c r="E551" s="34">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="F551" s="34">
+        <v>147</v>
+      </c>
+      <c r="G551" s="34">
+        <v>42.166666666666664</v>
+      </c>
+      <c r="H551" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I551" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J551" s="34">
+        <v>17.426666666666662</v>
+      </c>
+      <c r="K551" s="34"/>
+      <c r="L551" s="34"/>
+      <c r="M551" s="34"/>
+      <c r="N551" s="34">
+        <v>19</v>
+      </c>
+      <c r="O551" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P551" s="29"/>
+      <c r="Q551" s="34">
+        <v>9.8899999999999988</v>
+      </c>
+      <c r="R551" s="35"/>
+      <c r="S551" s="35"/>
+      <c r="T551" s="29"/>
+      <c r="U551" s="29"/>
+      <c r="V551" s="29"/>
+      <c r="W551" s="29"/>
+      <c r="X551" s="29"/>
+      <c r="Y551" s="34"/>
+    </row>
+    <row r="552" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A552" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B552" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C552" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D552" s="34">
+        <v>21</v>
+      </c>
+      <c r="E552" s="34">
+        <v>61.5</v>
+      </c>
+      <c r="F552" s="34">
+        <v>147</v>
+      </c>
+      <c r="G552" s="34">
+        <v>46.166666666666664</v>
+      </c>
+      <c r="H552" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I552" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J552" s="34">
+        <v>4.289999999999992</v>
+      </c>
+      <c r="K552" s="34"/>
+      <c r="L552" s="34"/>
+      <c r="M552" s="34"/>
+      <c r="N552" s="34">
+        <v>20</v>
+      </c>
+      <c r="O552" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P552" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q552" s="34">
+        <v>40.9</v>
+      </c>
+      <c r="R552" s="35">
+        <v>1</v>
+      </c>
+      <c r="S552" s="35">
+        <v>8</v>
+      </c>
+      <c r="T552" s="29"/>
+      <c r="U552" s="29"/>
+      <c r="V552" s="29"/>
+      <c r="W552" s="29"/>
+      <c r="X552" s="29"/>
+      <c r="Y552" s="34"/>
+    </row>
+    <row r="553" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A553" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B553" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C553" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D553" s="34">
+        <v>21</v>
+      </c>
+      <c r="E553" s="34">
+        <v>147</v>
+      </c>
+      <c r="F553" s="34">
+        <v>147</v>
+      </c>
+      <c r="G553" s="34">
+        <v>2.1666666666666643</v>
+      </c>
+      <c r="H553" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I553" s="34"/>
+      <c r="J553" s="34">
+        <v>0</v>
+      </c>
+      <c r="K553" s="34"/>
+      <c r="L553" s="34"/>
+      <c r="M553" s="34"/>
+      <c r="N553" s="34">
+        <v>21</v>
+      </c>
+      <c r="O553" s="29"/>
+      <c r="P553" s="29"/>
+      <c r="Q553" s="34"/>
+      <c r="R553" s="35"/>
+      <c r="S553" s="35"/>
+      <c r="T553" s="29"/>
+      <c r="U553" s="29"/>
+      <c r="V553" s="29"/>
+      <c r="W553" s="29"/>
+      <c r="X553" s="29"/>
+      <c r="Y553" s="34"/>
+    </row>
+    <row r="554" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A554" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B554" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C554" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D554" s="34">
+        <v>21</v>
+      </c>
+      <c r="E554" s="34">
+        <v>147</v>
+      </c>
+      <c r="F554" s="34">
+        <v>147</v>
+      </c>
+      <c r="G554" s="34">
+        <v>5.1666666666666643</v>
+      </c>
+      <c r="H554" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I554" s="34"/>
+      <c r="J554" s="34">
+        <v>0</v>
+      </c>
+      <c r="K554" s="34"/>
+      <c r="L554" s="34"/>
+      <c r="M554" s="34"/>
+      <c r="N554" s="34">
+        <v>22</v>
+      </c>
+      <c r="O554" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P554" s="29"/>
+      <c r="Q554" s="34">
+        <v>10.177499999999998</v>
+      </c>
+      <c r="R554" s="35"/>
+      <c r="S554" s="35"/>
+      <c r="T554" s="29"/>
+      <c r="U554" s="29"/>
+      <c r="V554" s="29"/>
+      <c r="W554" s="29"/>
+      <c r="X554" s="29"/>
+      <c r="Y554" s="34"/>
+    </row>
+    <row r="555" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A555" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B555" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C555" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D555" s="34">
+        <v>21</v>
+      </c>
+      <c r="E555" s="34">
+        <v>147</v>
+      </c>
+      <c r="F555" s="34">
+        <v>147</v>
+      </c>
+      <c r="G555" s="34">
+        <v>-0.8333333333333357</v>
+      </c>
+      <c r="H555" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I555" s="34"/>
+      <c r="J555" s="34">
+        <v>0</v>
+      </c>
+      <c r="K555" s="34"/>
+      <c r="L555" s="34"/>
+      <c r="M555" s="34"/>
+      <c r="N555" s="34">
+        <v>23</v>
+      </c>
+      <c r="O555" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P555" s="29"/>
+      <c r="Q555" s="34">
+        <v>10.695</v>
+      </c>
+      <c r="R555" s="35"/>
+      <c r="S555" s="35"/>
+      <c r="T555" s="29"/>
+      <c r="U555" s="29"/>
+      <c r="V555" s="29"/>
+      <c r="W555" s="29"/>
+      <c r="X555" s="29"/>
+      <c r="Y555" s="34"/>
+    </row>
+    <row r="556" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A556" s="29"/>
+      <c r="B556" s="29"/>
+      <c r="C556" s="29"/>
+      <c r="D556" s="29"/>
+      <c r="E556" s="29"/>
+      <c r="F556" s="29"/>
+      <c r="G556" s="29"/>
+      <c r="H556" s="29"/>
+      <c r="I556" s="29"/>
+      <c r="J556" s="29"/>
+      <c r="K556" s="29"/>
+      <c r="L556" s="29"/>
+      <c r="M556" s="29"/>
+      <c r="N556" s="34">
+        <v>24</v>
+      </c>
+      <c r="O556" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P556" s="29"/>
+      <c r="Q556" s="34">
+        <v>8.567499999999999</v>
+      </c>
+      <c r="R556" s="35"/>
+      <c r="S556" s="35"/>
+      <c r="T556" s="29"/>
+      <c r="U556" s="29"/>
+      <c r="V556" s="29"/>
+      <c r="W556" s="29"/>
+      <c r="X556" s="29"/>
+      <c r="Y556" s="34"/>
+    </row>
+    <row r="557" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A557" s="29"/>
+      <c r="B557" s="29"/>
+      <c r="C557" s="29"/>
+      <c r="D557" s="29"/>
+      <c r="E557" s="29"/>
+      <c r="F557" s="29"/>
+      <c r="G557" s="29"/>
+      <c r="H557" s="29"/>
+      <c r="I557" s="29"/>
+      <c r="J557" s="29"/>
+      <c r="K557" s="29"/>
+      <c r="L557" s="29"/>
+      <c r="M557" s="29"/>
+      <c r="N557" s="34"/>
+      <c r="O557" s="29"/>
+      <c r="P557" s="29"/>
+      <c r="Q557" s="34">
+        <v>8.7399999999999984</v>
+      </c>
+      <c r="R557" s="35"/>
+      <c r="S557" s="35"/>
+      <c r="T557" s="29"/>
+      <c r="U557" s="29"/>
+      <c r="V557" s="29"/>
+      <c r="W557" s="29"/>
+      <c r="X557" s="29"/>
+      <c r="Y557" s="34"/>
+    </row>
+    <row r="558" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A558" s="29"/>
+      <c r="B558" s="29"/>
+      <c r="C558" s="29"/>
+      <c r="D558" s="29"/>
+      <c r="E558" s="29"/>
+      <c r="F558" s="29"/>
+      <c r="G558" s="29"/>
+      <c r="H558" s="29"/>
+      <c r="I558" s="29"/>
+      <c r="J558" s="29"/>
+      <c r="K558" s="29"/>
+      <c r="L558" s="29"/>
+      <c r="M558" s="29"/>
+      <c r="N558" s="34"/>
+      <c r="O558" s="29"/>
+      <c r="P558" s="29"/>
+      <c r="Q558" s="34">
+        <v>8.7399999999999984</v>
+      </c>
+      <c r="R558" s="35"/>
+      <c r="S558" s="35"/>
+      <c r="T558" s="29"/>
+      <c r="U558" s="29"/>
+      <c r="V558" s="29"/>
+      <c r="W558" s="29"/>
+      <c r="X558" s="29"/>
+      <c r="Y558" s="34"/>
+    </row>
+    <row r="559" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A559" s="29"/>
+      <c r="B559" s="29"/>
+      <c r="C559" s="29"/>
+      <c r="D559" s="29"/>
+      <c r="E559" s="29"/>
+      <c r="F559" s="29"/>
+      <c r="G559" s="29"/>
+      <c r="H559" s="29"/>
+      <c r="I559" s="29"/>
+      <c r="J559" s="29"/>
+      <c r="K559" s="29"/>
+      <c r="L559" s="29"/>
+      <c r="M559" s="29"/>
+      <c r="N559" s="34"/>
+      <c r="O559" s="29"/>
+      <c r="P559" s="29"/>
+      <c r="Q559" s="34">
+        <v>8.7399999999999984</v>
+      </c>
+      <c r="R559" s="35"/>
+      <c r="S559" s="35"/>
+      <c r="T559" s="29"/>
+      <c r="U559" s="29"/>
+      <c r="V559" s="29"/>
+      <c r="W559" s="29"/>
+      <c r="X559" s="29"/>
+      <c r="Y559" s="34"/>
+    </row>
+    <row r="560" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A560" s="29"/>
+      <c r="B560" s="29"/>
+      <c r="C560" s="29"/>
+      <c r="D560" s="29"/>
+      <c r="E560" s="29"/>
+      <c r="F560" s="29"/>
+      <c r="G560" s="29"/>
+      <c r="H560" s="29"/>
+      <c r="I560" s="29"/>
+      <c r="J560" s="29"/>
+      <c r="K560" s="29"/>
+      <c r="L560" s="29"/>
+      <c r="M560" s="29"/>
+      <c r="N560" s="34"/>
+      <c r="O560" s="29"/>
+      <c r="P560" s="29"/>
+      <c r="Q560" s="34">
+        <v>8.7399999999999984</v>
+      </c>
+      <c r="R560" s="35"/>
+      <c r="S560" s="35"/>
+      <c r="T560" s="29"/>
+      <c r="U560" s="29"/>
+      <c r="V560" s="29"/>
+      <c r="W560" s="29"/>
+      <c r="X560" s="29"/>
+      <c r="Y560" s="34"/>
+    </row>
+    <row r="561" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A561" s="29"/>
+      <c r="B561" s="29"/>
+      <c r="C561" s="29"/>
+      <c r="D561" s="29"/>
+      <c r="E561" s="29"/>
+      <c r="F561" s="29"/>
+      <c r="G561" s="29"/>
+      <c r="H561" s="29"/>
+      <c r="I561" s="29"/>
+      <c r="J561" s="29"/>
+      <c r="K561" s="29"/>
+      <c r="L561" s="29"/>
+      <c r="M561" s="29"/>
+      <c r="N561" s="34"/>
+      <c r="O561" s="29"/>
+      <c r="P561" s="29"/>
+      <c r="Q561" s="34">
+        <v>8.7399999999999984</v>
+      </c>
+      <c r="R561" s="35"/>
+      <c r="S561" s="35"/>
+      <c r="T561" s="29"/>
+      <c r="U561" s="29"/>
+      <c r="V561" s="29"/>
+      <c r="W561" s="29"/>
+      <c r="X561" s="29"/>
+      <c r="Y561" s="34"/>
+    </row>
+    <row r="562" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A562" s="29"/>
+      <c r="B562" s="29"/>
+      <c r="C562" s="29"/>
+      <c r="D562" s="29"/>
+      <c r="E562" s="29"/>
+      <c r="F562" s="29"/>
+      <c r="G562" s="29"/>
+      <c r="H562" s="29"/>
+      <c r="I562" s="29"/>
+      <c r="J562" s="29"/>
+      <c r="K562" s="29"/>
+      <c r="L562" s="29"/>
+      <c r="M562" s="29"/>
+      <c r="N562" s="34"/>
+      <c r="O562" s="29"/>
+      <c r="P562" s="29"/>
+      <c r="Q562" s="34">
+        <v>8.7399999999999984</v>
+      </c>
+      <c r="R562" s="35"/>
+      <c r="S562" s="35"/>
+      <c r="T562" s="29"/>
+      <c r="U562" s="29"/>
+      <c r="V562" s="29"/>
+      <c r="W562" s="29"/>
+      <c r="X562" s="29"/>
+      <c r="Y562" s="34"/>
+    </row>
+    <row r="563" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A563" s="29"/>
+      <c r="B563" s="29"/>
+      <c r="C563" s="29"/>
+      <c r="D563" s="29"/>
+      <c r="E563" s="29"/>
+      <c r="F563" s="29"/>
+      <c r="G563" s="29"/>
+      <c r="H563" s="29"/>
+      <c r="I563" s="29"/>
+      <c r="J563" s="29"/>
+      <c r="K563" s="29"/>
+      <c r="L563" s="29"/>
+      <c r="M563" s="29"/>
+      <c r="N563" s="34"/>
+      <c r="O563" s="29"/>
+      <c r="P563" s="29"/>
+      <c r="Q563" s="34">
+        <v>8.7399999999999984</v>
+      </c>
+      <c r="R563" s="35"/>
+      <c r="S563" s="35"/>
+      <c r="T563" s="29"/>
+      <c r="U563" s="29"/>
+      <c r="V563" s="29"/>
+      <c r="W563" s="29"/>
+      <c r="X563" s="29"/>
+      <c r="Y563" s="34"/>
+    </row>
+    <row r="564" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A564" s="29"/>
+      <c r="B564" s="29"/>
+      <c r="C564" s="29"/>
+      <c r="D564" s="29"/>
+      <c r="E564" s="29"/>
+      <c r="F564" s="29"/>
+      <c r="G564" s="29"/>
+      <c r="H564" s="29"/>
+      <c r="I564" s="29"/>
+      <c r="J564" s="29"/>
+      <c r="K564" s="29"/>
+      <c r="L564" s="29"/>
+      <c r="M564" s="29"/>
+      <c r="N564" s="34"/>
+      <c r="O564" s="29"/>
+      <c r="P564" s="29"/>
+      <c r="Q564" s="34">
+        <v>8.7399999999999984</v>
+      </c>
+      <c r="R564" s="35"/>
+      <c r="S564" s="35"/>
+      <c r="T564" s="29"/>
+      <c r="U564" s="29"/>
+      <c r="V564" s="29"/>
+      <c r="W564" s="29"/>
+      <c r="X564" s="29"/>
+      <c r="Y564" s="34"/>
+    </row>
+    <row r="565" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A565" s="29"/>
+      <c r="B565" s="29"/>
+      <c r="C565" s="29"/>
+      <c r="D565" s="29"/>
+      <c r="E565" s="29"/>
+      <c r="F565" s="29"/>
+      <c r="G565" s="29"/>
+      <c r="H565" s="29"/>
+      <c r="I565" s="29"/>
+      <c r="J565" s="29"/>
+      <c r="K565" s="29"/>
+      <c r="L565" s="29"/>
+      <c r="M565" s="29"/>
+      <c r="N565" s="34"/>
+      <c r="O565" s="29"/>
+      <c r="P565" s="29"/>
+      <c r="Q565" s="34">
+        <v>8.7399999999999984</v>
+      </c>
+      <c r="R565" s="35"/>
+      <c r="S565" s="35"/>
+      <c r="T565" s="29"/>
+      <c r="U565" s="29"/>
+      <c r="V565" s="29"/>
+      <c r="W565" s="29"/>
+      <c r="X565" s="29"/>
+      <c r="Y565" s="34"/>
+    </row>
+    <row r="566" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A566" s="29"/>
+      <c r="B566" s="29"/>
+      <c r="C566" s="29"/>
+      <c r="D566" s="29"/>
+      <c r="E566" s="29"/>
+      <c r="F566" s="29"/>
+      <c r="G566" s="29"/>
+      <c r="H566" s="29"/>
+      <c r="I566" s="29"/>
+      <c r="J566" s="29"/>
+      <c r="K566" s="29"/>
+      <c r="L566" s="29"/>
+      <c r="M566" s="29"/>
+      <c r="N566" s="34"/>
+      <c r="O566" s="29"/>
+      <c r="P566" s="29"/>
+      <c r="Q566" s="34">
+        <v>8.7399999999999984</v>
+      </c>
+      <c r="R566" s="35"/>
+      <c r="S566" s="35"/>
+      <c r="T566" s="29"/>
+      <c r="U566" s="29"/>
+      <c r="V566" s="29"/>
+      <c r="W566" s="29"/>
+      <c r="X566" s="29"/>
+      <c r="Y566" s="34"/>
+    </row>
+    <row r="567" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A567" s="29"/>
+      <c r="B567" s="29"/>
+      <c r="C567" s="29"/>
+      <c r="D567" s="29"/>
+      <c r="E567" s="29"/>
+      <c r="F567" s="29"/>
+      <c r="G567" s="29"/>
+      <c r="H567" s="29"/>
+      <c r="I567" s="29"/>
+      <c r="J567" s="29"/>
+      <c r="K567" s="29"/>
+      <c r="L567" s="29"/>
+      <c r="M567" s="29"/>
+      <c r="N567" s="34"/>
+      <c r="O567" s="29"/>
+      <c r="P567" s="29"/>
+      <c r="Q567" s="34">
+        <v>8.7399999999999984</v>
+      </c>
+      <c r="R567" s="35"/>
+      <c r="S567" s="35"/>
+      <c r="T567" s="29"/>
+      <c r="U567" s="29"/>
+      <c r="V567" s="29"/>
+      <c r="W567" s="29"/>
+      <c r="X567" s="29"/>
+      <c r="Y567" s="34"/>
+    </row>
+    <row r="568" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A568" s="29"/>
+      <c r="B568" s="29"/>
+      <c r="C568" s="29"/>
+      <c r="D568" s="29"/>
+      <c r="E568" s="29"/>
+      <c r="F568" s="29"/>
+      <c r="G568" s="29"/>
+      <c r="H568" s="29"/>
+      <c r="I568" s="29"/>
+      <c r="J568" s="29"/>
+      <c r="K568" s="29"/>
+      <c r="L568" s="29"/>
+      <c r="M568" s="29"/>
+      <c r="N568" s="34"/>
+      <c r="O568" s="29"/>
+      <c r="P568" s="29"/>
+      <c r="Q568" s="34">
+        <v>8.7399999999999984</v>
+      </c>
+      <c r="R568" s="35"/>
+      <c r="S568" s="35"/>
+      <c r="T568" s="29"/>
+      <c r="U568" s="29"/>
+      <c r="V568" s="29"/>
+      <c r="W568" s="29"/>
+      <c r="X568" s="29"/>
+      <c r="Y568" s="34"/>
+    </row>
+    <row r="569" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A569" s="29"/>
+      <c r="B569" s="29"/>
+      <c r="C569" s="29"/>
+      <c r="D569" s="29"/>
+      <c r="E569" s="29"/>
+      <c r="F569" s="29"/>
+      <c r="G569" s="29"/>
+      <c r="H569" s="29"/>
+      <c r="I569" s="29"/>
+      <c r="J569" s="29"/>
+      <c r="K569" s="29"/>
+      <c r="L569" s="29"/>
+      <c r="M569" s="29"/>
+      <c r="N569" s="34"/>
+      <c r="O569" s="29"/>
+      <c r="P569" s="29"/>
+      <c r="Q569" s="34">
+        <v>8.7399999999999984</v>
+      </c>
+      <c r="R569" s="35"/>
+      <c r="S569" s="35"/>
+      <c r="T569" s="29"/>
+      <c r="U569" s="29"/>
+      <c r="V569" s="29"/>
+      <c r="W569" s="29"/>
+      <c r="X569" s="29"/>
+      <c r="Y569" s="34"/>
+    </row>
+    <row r="570" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A570" s="29"/>
+      <c r="B570" s="29"/>
+      <c r="C570" s="29"/>
+      <c r="D570" s="29"/>
+      <c r="E570" s="29"/>
+      <c r="F570" s="29"/>
+      <c r="G570" s="29"/>
+      <c r="H570" s="29"/>
+      <c r="I570" s="29"/>
+      <c r="J570" s="29"/>
+      <c r="K570" s="29"/>
+      <c r="L570" s="29"/>
+      <c r="M570" s="29"/>
+      <c r="N570" s="29"/>
+      <c r="O570" s="29"/>
+      <c r="P570" s="29"/>
+      <c r="Q570" s="29"/>
+      <c r="R570" s="29"/>
+      <c r="S570" s="29"/>
+      <c r="T570" s="29"/>
+      <c r="U570" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="V570" s="30"/>
+      <c r="W570" s="30"/>
+      <c r="X570" s="30"/>
+      <c r="Y570" s="34"/>
+    </row>
+    <row r="571" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A571" s="31"/>
+      <c r="B571" s="31"/>
+      <c r="C571" s="31"/>
+      <c r="D571" s="31"/>
+      <c r="E571" s="31"/>
+      <c r="F571" s="31"/>
+      <c r="G571" s="31"/>
+      <c r="H571" s="31"/>
+      <c r="I571" s="31"/>
+      <c r="J571" s="31"/>
+      <c r="K571" s="31"/>
+      <c r="L571" s="29"/>
+      <c r="M571" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N571" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="O571" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="P571" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q571" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="R571" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S571" s="29"/>
+      <c r="T571" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="U571" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="V571" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="W571" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="X571" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y571" s="34"/>
+    </row>
+    <row r="572" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A572" s="31"/>
+      <c r="B572" s="31"/>
+      <c r="C572" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D572" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E572" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F572" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G572" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="H572" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I572" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J572" s="31"/>
+      <c r="K572" s="31"/>
+      <c r="L572" s="29"/>
+      <c r="M572" s="34">
+        <v>1</v>
+      </c>
+      <c r="N572" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O572" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="P572" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q572" s="35"/>
+      <c r="R572" s="35"/>
+      <c r="S572" s="29"/>
+      <c r="T572" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U572" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="V572" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="W572" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="X572" s="34">
+        <v>25.999999999999996</v>
+      </c>
+      <c r="Y572" s="34"/>
+    </row>
+    <row r="573" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A573" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B573" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C573" s="38">
+        <v>7.7272727272727275</v>
+      </c>
+      <c r="D573" s="39"/>
+      <c r="E573" s="38">
+        <v>5.8072126573986482</v>
+      </c>
+      <c r="F573" s="46"/>
+      <c r="G573" s="38">
+        <v>0</v>
+      </c>
+      <c r="H573" s="38">
+        <v>1</v>
+      </c>
+      <c r="I573" s="40">
+        <v>13.534485384671376</v>
+      </c>
+      <c r="J573" s="41"/>
+      <c r="K573" s="31"/>
+      <c r="L573" s="29"/>
+      <c r="M573" s="34">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N573" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O573" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="P573" s="34">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="Q573" s="35">
+        <v>7</v>
+      </c>
+      <c r="R573" s="35"/>
+      <c r="S573" s="29"/>
+      <c r="T573" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="U573" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="V573" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="W573" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="X573" s="34">
+        <v>26.5</v>
+      </c>
+      <c r="Y573" s="34"/>
+    </row>
+    <row r="574" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A574" s="31"/>
+      <c r="B574" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C574" s="38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D574" s="39"/>
+      <c r="E574" s="38"/>
+      <c r="F574" s="46"/>
+      <c r="G574" s="38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H574" s="38">
+        <v>1</v>
+      </c>
+      <c r="I574" s="40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J574" s="41"/>
+      <c r="K574" s="31"/>
+      <c r="L574" s="29"/>
+      <c r="M574" s="34"/>
+      <c r="N574" s="29"/>
+      <c r="O574" s="29"/>
+      <c r="P574" s="34"/>
+      <c r="Q574" s="35"/>
+      <c r="R574" s="35"/>
+      <c r="S574" s="29"/>
+      <c r="T574" s="29"/>
+      <c r="U574" s="29"/>
+      <c r="V574" s="29"/>
+      <c r="W574" s="29"/>
+      <c r="X574" s="34"/>
+      <c r="Y574" s="34"/>
+    </row>
+    <row r="575" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A575" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B575" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C575" s="38">
+        <v>3.2</v>
+      </c>
+      <c r="D575" s="39"/>
+      <c r="E575" s="38">
+        <v>12.723072135448456</v>
+      </c>
+      <c r="F575" s="46"/>
+      <c r="G575" s="38">
+        <v>0</v>
+      </c>
+      <c r="H575" s="38">
+        <v>1</v>
+      </c>
+      <c r="I575" s="40">
+        <v>15.923072135448457</v>
+      </c>
+      <c r="J575" s="41"/>
+      <c r="K575" s="31"/>
+      <c r="L575" s="29"/>
+      <c r="M575" s="34">
+        <v>1.2</v>
+      </c>
+      <c r="N575" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="O575" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P575" s="34">
+        <v>8.6</v>
+      </c>
+      <c r="Q575" s="35"/>
+      <c r="R575" s="35">
+        <v>1</v>
+      </c>
+      <c r="S575" s="29"/>
+      <c r="T575" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="U575" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="V575" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="W575" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="X575" s="34">
+        <v>30.099999999999998</v>
+      </c>
+      <c r="Y575" s="34"/>
+    </row>
+    <row r="576" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A576" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B576" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C576" s="38">
+        <v>40</v>
+      </c>
+      <c r="D576" s="39"/>
+      <c r="E576" s="38">
+        <v>6.1605924367904663</v>
+      </c>
+      <c r="F576" s="46"/>
+      <c r="G576" s="38">
+        <v>0</v>
+      </c>
+      <c r="H576" s="38">
+        <v>1</v>
+      </c>
+      <c r="I576" s="40">
+        <v>0</v>
+      </c>
+      <c r="J576" s="41"/>
+      <c r="K576" s="31"/>
+      <c r="L576" s="29"/>
+      <c r="M576" s="34">
+        <v>1.3</v>
+      </c>
+      <c r="N576" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="O576" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P576" s="34">
+        <v>8.4</v>
+      </c>
+      <c r="Q576" s="35">
+        <v>12</v>
+      </c>
+      <c r="R576" s="35"/>
+      <c r="S576" s="29"/>
+      <c r="T576" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="U576" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="V576" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="W576" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="X576" s="34">
+        <v>17</v>
+      </c>
+      <c r="Y576" s="34"/>
+    </row>
+    <row r="577" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A577" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B577" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C577" s="38"/>
+      <c r="D577" s="38"/>
+      <c r="E577" s="38"/>
+      <c r="F577" s="47"/>
+      <c r="G577" s="38">
+        <v>0</v>
+      </c>
+      <c r="H577" s="38">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I577" s="42">
+        <v>0</v>
+      </c>
+      <c r="J577" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K577" s="31"/>
+      <c r="L577" s="29"/>
+      <c r="M577" s="34">
+        <v>1.4</v>
+      </c>
+      <c r="N577" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="O577" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P577" s="34">
+        <v>7.5</v>
+      </c>
+      <c r="Q577" s="35">
+        <v>16</v>
+      </c>
+      <c r="R577" s="35"/>
+      <c r="S577" s="29"/>
+      <c r="T577" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="U577" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="V577" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="W577" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="X577" s="34">
+        <v>59.699999999999996</v>
+      </c>
+      <c r="Y577" s="34"/>
+    </row>
+    <row r="578" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A578" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B578" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C578" s="38">
+        <v>30.666666666666668</v>
+      </c>
+      <c r="D578" s="39"/>
+      <c r="E578" s="38">
+        <v>13.971023786067963</v>
+      </c>
+      <c r="F578" s="46"/>
+      <c r="G578" s="38">
+        <v>0</v>
+      </c>
+      <c r="H578" s="38">
+        <v>1</v>
+      </c>
+      <c r="I578" s="40">
+        <v>44.637690452734631</v>
+      </c>
+      <c r="J578" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="K578" s="31"/>
+      <c r="L578" s="29"/>
+      <c r="M578" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="N578" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O578" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P578" s="34">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Q578" s="35">
+        <v>1</v>
+      </c>
+      <c r="R578" s="35"/>
+      <c r="S578" s="29"/>
+      <c r="T578" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="U578" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="V578" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="W578" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="X578" s="34">
+        <v>11.699999999999996</v>
+      </c>
+      <c r="Y578" s="34"/>
+    </row>
+    <row r="579" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A579" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B579" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C579" s="38">
+        <v>21.090909090909093</v>
+      </c>
+      <c r="D579" s="39"/>
+      <c r="E579" s="38">
+        <v>1.7454835212230684</v>
+      </c>
+      <c r="F579" s="46"/>
+      <c r="G579" s="38">
+        <v>0</v>
+      </c>
+      <c r="H579" s="38">
+        <v>1</v>
+      </c>
+      <c r="I579" s="40">
+        <v>22.836392612132162</v>
+      </c>
+      <c r="J579" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="K579" s="31"/>
+      <c r="L579" s="29"/>
+      <c r="M579" s="34">
+        <v>1.6</v>
+      </c>
+      <c r="N579" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="O579" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P579" s="34">
+        <v>7.9</v>
+      </c>
+      <c r="Q579" s="35">
+        <v>5</v>
+      </c>
+      <c r="R579" s="35"/>
+      <c r="S579" s="29"/>
+      <c r="T579" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="U579" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="V579" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="W579" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="X579" s="34">
+        <v>16.699999999999996</v>
+      </c>
+      <c r="Y579" s="34"/>
+    </row>
+    <row r="580" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A580" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B580" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C580" s="38">
+        <v>128</v>
+      </c>
+      <c r="D580" s="39"/>
+      <c r="E580" s="38">
+        <v>1.0040590167045593</v>
+      </c>
+      <c r="F580" s="46"/>
+      <c r="G580" s="38">
+        <v>0</v>
+      </c>
+      <c r="H580" s="38">
+        <v>1</v>
+      </c>
+      <c r="I580" s="40">
+        <v>129.00405901670456</v>
+      </c>
+      <c r="J580" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="K580" s="31"/>
+      <c r="L580" s="29"/>
+      <c r="M580" s="34">
+        <v>1.7</v>
+      </c>
+      <c r="N580" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="O580" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P580" s="34">
+        <v>8.4</v>
+      </c>
+      <c r="Q580" s="35">
+        <v>7</v>
+      </c>
+      <c r="R580" s="35"/>
+      <c r="S580" s="29"/>
+      <c r="T580" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="U580" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="V580" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="W580" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="X580" s="34">
+        <v>16.400000000000002</v>
+      </c>
+      <c r="Y580" s="34"/>
+    </row>
+    <row r="581" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A581" s="31"/>
+      <c r="B581" s="31"/>
+      <c r="C581" s="31"/>
+      <c r="D581" s="31"/>
+      <c r="E581" s="31"/>
+      <c r="F581" s="31"/>
+      <c r="G581" s="31"/>
+      <c r="H581" s="31"/>
+      <c r="I581" s="31"/>
+      <c r="J581" s="31"/>
+      <c r="K581" s="31"/>
+      <c r="L581" s="29"/>
+      <c r="M581" s="34">
+        <v>1.8</v>
+      </c>
+      <c r="N581" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="O581" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P581" s="34">
+        <v>8.5</v>
+      </c>
+      <c r="Q581" s="35">
+        <v>10</v>
+      </c>
+      <c r="R581" s="35"/>
+      <c r="S581" s="29"/>
+      <c r="T581" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="U581" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="V581" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="W581" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="X581" s="34">
+        <v>20.599999999999998</v>
+      </c>
+      <c r="Y581" s="34"/>
+    </row>
+    <row r="582" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A582" s="29"/>
+      <c r="B582" s="29"/>
+      <c r="C582" s="29"/>
+      <c r="D582" s="29"/>
+      <c r="E582" s="29"/>
+      <c r="F582" s="29"/>
+      <c r="G582" s="29"/>
+      <c r="H582" s="29"/>
+      <c r="I582" s="29"/>
+      <c r="J582" s="29"/>
+      <c r="K582" s="29"/>
+      <c r="L582" s="29"/>
+      <c r="M582" s="34">
+        <v>2</v>
+      </c>
+      <c r="N582" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O582" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P582" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q582" s="35"/>
+      <c r="R582" s="35"/>
+      <c r="S582" s="29"/>
+      <c r="T582" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="U582" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="V582" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="W582" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="X582" s="34">
+        <v>13.099999999999998</v>
+      </c>
+      <c r="Y582" s="34"/>
+    </row>
+    <row r="583" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A583" s="29"/>
+      <c r="B583" s="29"/>
+      <c r="C583" s="29"/>
+      <c r="D583" s="29"/>
+      <c r="E583" s="29"/>
+      <c r="F583" s="29"/>
+      <c r="G583" s="29"/>
+      <c r="H583" s="29"/>
+      <c r="I583" s="29"/>
+      <c r="J583" s="29"/>
+      <c r="K583" s="29"/>
+      <c r="L583" s="29"/>
+      <c r="M583" s="34">
+        <v>2.1</v>
+      </c>
+      <c r="N583" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="O583" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P583" s="34">
+        <v>7</v>
+      </c>
+      <c r="Q583" s="35">
+        <v>1</v>
+      </c>
+      <c r="R583" s="35"/>
+      <c r="S583" s="29"/>
+      <c r="T583" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="U583" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="V583" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="W583" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="X583" s="34">
+        <v>24.4</v>
+      </c>
+      <c r="Y583" s="34"/>
+    </row>
+    <row r="584" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A584" s="29"/>
+      <c r="B584" s="29"/>
+      <c r="C584" s="29"/>
+      <c r="D584" s="29"/>
+      <c r="E584" s="29"/>
+      <c r="F584" s="29"/>
+      <c r="G584" s="29"/>
+      <c r="H584" s="29"/>
+      <c r="I584" s="29"/>
+      <c r="J584" s="29"/>
+      <c r="K584" s="29"/>
+      <c r="L584" s="29"/>
+      <c r="M584" s="34">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N584" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="O584" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P584" s="34">
+        <v>7.8</v>
+      </c>
+      <c r="Q584" s="35">
+        <v>3</v>
+      </c>
+      <c r="R584" s="35"/>
+      <c r="S584" s="29"/>
+      <c r="T584" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="U584" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="V584" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="W584" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="X584" s="34">
+        <v>10.5</v>
+      </c>
+      <c r="Y584" s="34"/>
+    </row>
+    <row r="585" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A585" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B585" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C585" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D585" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E585" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F585" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G585" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H585" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I585" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J585" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="K585" s="30"/>
+      <c r="L585" s="30"/>
+      <c r="M585" s="34">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N585" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="O585" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P585" s="34">
+        <v>7.1</v>
+      </c>
+      <c r="Q585" s="35">
+        <v>10</v>
+      </c>
+      <c r="R585" s="35"/>
+      <c r="S585" s="29"/>
+      <c r="T585" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="U585" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="V585" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="W585" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="X585" s="34">
+        <v>27.9</v>
+      </c>
+      <c r="Y585" s="34"/>
+    </row>
+    <row r="586" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A586" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B586" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C586" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D586" s="34">
+        <v>16</v>
+      </c>
+      <c r="E586" s="34">
+        <v>241.5</v>
+      </c>
+      <c r="F586" s="34">
+        <v>241.5</v>
+      </c>
+      <c r="G586" s="34">
+        <v>0.66666666666666785</v>
+      </c>
+      <c r="H586" s="34">
+        <v>28.666666666666668</v>
+      </c>
+      <c r="I586" s="34"/>
+      <c r="J586" s="29"/>
+      <c r="K586" s="29"/>
+      <c r="L586" s="29"/>
+      <c r="M586" s="34">
+        <v>2.4</v>
+      </c>
+      <c r="N586" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="O586" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P586" s="34">
+        <v>7.5</v>
+      </c>
+      <c r="Q586" s="35">
+        <v>1</v>
+      </c>
+      <c r="R586" s="35"/>
+      <c r="S586" s="29"/>
+      <c r="T586" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="U586" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="V586" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="W586" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="X586" s="34">
+        <v>13.100000000000001</v>
+      </c>
+      <c r="Y586" s="34"/>
+    </row>
+    <row r="587" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A587" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B587" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C587" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D587" s="34">
+        <v>16</v>
+      </c>
+      <c r="E587" s="34">
+        <v>120</v>
+      </c>
+      <c r="F587" s="34">
+        <v>240</v>
+      </c>
+      <c r="G587" s="34">
+        <v>0</v>
+      </c>
+      <c r="H587" s="34">
+        <v>28</v>
+      </c>
+      <c r="I587" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J587" s="34"/>
+      <c r="K587" s="34"/>
+      <c r="L587" s="34"/>
+      <c r="M587" s="34">
+        <v>2.5</v>
+      </c>
+      <c r="N587" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O587" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P587" s="34">
+        <v>8</v>
+      </c>
+      <c r="Q587" s="35">
+        <v>10</v>
+      </c>
+      <c r="R587" s="35"/>
+      <c r="S587" s="29"/>
+      <c r="T587" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="U587" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="V587" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="W587" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="X587" s="34">
+        <v>25.1</v>
+      </c>
+      <c r="Y587" s="34"/>
+    </row>
+    <row r="588" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A588" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B588" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C588" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D588" s="34">
+        <v>21</v>
+      </c>
+      <c r="E588" s="34">
+        <v>36.430000000000007</v>
+      </c>
+      <c r="F588" s="34">
+        <v>147</v>
+      </c>
+      <c r="G588" s="34">
+        <v>52.166666666666664</v>
+      </c>
+      <c r="H588" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I588" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J588" s="34"/>
+      <c r="K588" s="34"/>
+      <c r="L588" s="34"/>
+      <c r="M588" s="34">
+        <v>2.6</v>
+      </c>
+      <c r="N588" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="O588" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P588" s="34">
+        <v>6.7</v>
+      </c>
+      <c r="Q588" s="35">
+        <v>15</v>
+      </c>
+      <c r="R588" s="35"/>
+      <c r="S588" s="29"/>
+      <c r="T588" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="U588" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="V588" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="W588" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="X588" s="34">
+        <v>7.8999999999999986</v>
+      </c>
+      <c r="Y588" s="34"/>
+    </row>
+    <row r="589" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A589" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B589" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C589" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D589" s="34">
+        <v>21</v>
+      </c>
+      <c r="E589" s="34">
+        <v>57.900000000000006</v>
+      </c>
+      <c r="F589" s="34">
+        <v>147</v>
+      </c>
+      <c r="G589" s="34">
+        <v>-0.8333333333333357</v>
+      </c>
+      <c r="H589" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I589" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J589" s="34">
+        <v>0</v>
+      </c>
+      <c r="K589" s="34"/>
+      <c r="L589" s="34"/>
+      <c r="M589" s="34">
+        <v>2.7</v>
+      </c>
+      <c r="N589" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="O589" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P589" s="34">
+        <v>7.7</v>
+      </c>
+      <c r="Q589" s="35">
+        <v>10</v>
+      </c>
+      <c r="R589" s="35"/>
+      <c r="S589" s="29"/>
+      <c r="T589" s="29"/>
+      <c r="U589" s="29"/>
+      <c r="V589" s="29"/>
+      <c r="W589" s="29"/>
+      <c r="X589" s="34"/>
+      <c r="Y589" s="34"/>
+    </row>
+    <row r="590" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A590" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B590" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C590" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D590" s="34">
+        <v>21</v>
+      </c>
+      <c r="E590" s="34">
+        <v>61.599999999999994</v>
+      </c>
+      <c r="F590" s="34">
+        <v>147</v>
+      </c>
+      <c r="G590" s="34">
+        <v>30.166666666666664</v>
+      </c>
+      <c r="H590" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I590" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J590" s="34"/>
+      <c r="K590" s="34"/>
+      <c r="L590" s="34"/>
+      <c r="M590" s="34">
+        <v>2.8</v>
+      </c>
+      <c r="N590" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="O590" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P590" s="34">
+        <v>7.3</v>
+      </c>
+      <c r="Q590" s="35">
+        <v>12</v>
+      </c>
+      <c r="R590" s="35"/>
+      <c r="S590" s="29"/>
+      <c r="T590" s="29"/>
+      <c r="U590" s="29"/>
+      <c r="V590" s="29"/>
+      <c r="W590" s="29"/>
+      <c r="X590" s="34"/>
+      <c r="Y590" s="34"/>
+    </row>
+    <row r="591" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A591" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B591" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C591" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D591" s="34">
+        <v>21</v>
+      </c>
+      <c r="E591" s="34">
+        <v>63.2</v>
+      </c>
+      <c r="F591" s="34">
+        <v>147</v>
+      </c>
+      <c r="G591" s="34">
+        <v>4.1666666666666643</v>
+      </c>
+      <c r="H591" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I591" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J591" s="34">
+        <v>77.2</v>
+      </c>
+      <c r="K591" s="34"/>
+      <c r="L591" s="34"/>
+      <c r="M591" s="34">
+        <v>3</v>
+      </c>
+      <c r="N591" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O591" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="P591" s="34">
+        <v>45</v>
+      </c>
+      <c r="Q591" s="35">
+        <v>2</v>
+      </c>
+      <c r="R591" s="35">
+        <v>6</v>
+      </c>
+      <c r="S591" s="29"/>
+      <c r="T591" s="29"/>
+      <c r="U591" s="29"/>
+      <c r="V591" s="29"/>
+      <c r="W591" s="29"/>
+      <c r="X591" s="34"/>
+      <c r="Y591" s="34"/>
+    </row>
+    <row r="592" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A592" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B592" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C592" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D592" s="34">
+        <v>21</v>
+      </c>
+      <c r="E592" s="34">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="F592" s="34">
+        <v>147</v>
+      </c>
+      <c r="G592" s="34">
+        <v>30.166666666666664</v>
+      </c>
+      <c r="H592" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I592" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J592" s="34">
+        <v>0</v>
+      </c>
+      <c r="K592" s="34"/>
+      <c r="L592" s="34"/>
+      <c r="M592" s="34">
+        <v>3.1</v>
+      </c>
+      <c r="N592" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O592" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P592" s="34">
+        <v>44.9</v>
+      </c>
+      <c r="Q592" s="35">
+        <v>1</v>
+      </c>
+      <c r="R592" s="35">
+        <v>7</v>
+      </c>
+      <c r="S592" s="29"/>
+      <c r="T592" s="29"/>
+      <c r="U592" s="29"/>
+      <c r="V592" s="29"/>
+      <c r="W592" s="29"/>
+      <c r="X592" s="34"/>
+      <c r="Y592" s="34"/>
+    </row>
+    <row r="593" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A593" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B593" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C593" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D593" s="34">
+        <v>21</v>
+      </c>
+      <c r="E593" s="34">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="F593" s="34">
+        <v>147</v>
+      </c>
+      <c r="G593" s="34">
+        <v>-15.833333333333336</v>
+      </c>
+      <c r="H593" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I593" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J593" s="34">
+        <v>98.1</v>
+      </c>
+      <c r="K593" s="34"/>
+      <c r="L593" s="34"/>
+      <c r="M593" s="34">
+        <v>3.2</v>
+      </c>
+      <c r="N593" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="O593" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P593" s="34">
+        <v>7.1</v>
+      </c>
+      <c r="Q593" s="35"/>
+      <c r="R593" s="35"/>
+      <c r="S593" s="29"/>
+      <c r="T593" s="29"/>
+      <c r="U593" s="29"/>
+      <c r="V593" s="29"/>
+      <c r="W593" s="29"/>
+      <c r="X593" s="34"/>
+      <c r="Y593" s="34"/>
+    </row>
+    <row r="594" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A594" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B594" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C594" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D594" s="34">
+        <v>21</v>
+      </c>
+      <c r="E594" s="34">
+        <v>30.700000000000003</v>
+      </c>
+      <c r="F594" s="34">
+        <v>147</v>
+      </c>
+      <c r="G594" s="34">
+        <v>8.1666666666666643</v>
+      </c>
+      <c r="H594" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I594" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J594" s="34">
+        <v>86.7</v>
+      </c>
+      <c r="K594" s="34"/>
+      <c r="L594" s="34"/>
+      <c r="M594" s="34">
+        <v>3.3</v>
+      </c>
+      <c r="N594" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="O594" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P594" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q594" s="35">
+        <v>15</v>
+      </c>
+      <c r="R594" s="35">
+        <v>4</v>
+      </c>
+      <c r="S594" s="29"/>
+      <c r="T594" s="29"/>
+      <c r="U594" s="29"/>
+      <c r="V594" s="29"/>
+      <c r="W594" s="29"/>
+      <c r="X594" s="34"/>
+      <c r="Y594" s="34"/>
+    </row>
+    <row r="595" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A595" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B595" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C595" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D595" s="34">
+        <v>21</v>
+      </c>
+      <c r="E595" s="34">
+        <v>59.2</v>
+      </c>
+      <c r="F595" s="34">
+        <v>147</v>
+      </c>
+      <c r="G595" s="34">
+        <v>20.166666666666664</v>
+      </c>
+      <c r="H595" s="34">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I595" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="J595" s="34">
+        <v>67.7</v>
+      </c>
+      <c r="K595" s="34"/>
+      <c r="L595" s="34"/>
+      <c r="M595" s="34">
+        <v>3.4</v>
+      </c>
+      <c r="N595" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O595" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P595" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q595" s="35">
+        <v>2</v>
+      </c>
+      <c r="R595" s="35">
+        <v>1</v>
+      </c>
+      <c r="S595" s="29"/>
+      <c r="T595" s="29"/>
+      <c r="U595" s="29"/>
+      <c r="V595" s="29"/>
+      <c r="W595" s="29"/>
+      <c r="X595" s="34"/>
+      <c r="Y595" s="34"/>
+    </row>
+    <row r="596" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A596" s="29"/>
+      <c r="B596" s="29"/>
+      <c r="C596" s="29"/>
+      <c r="D596" s="29"/>
+      <c r="E596" s="29"/>
+      <c r="F596" s="29"/>
+      <c r="G596" s="29"/>
+      <c r="H596" s="29"/>
+      <c r="I596" s="29"/>
+      <c r="J596" s="29"/>
+      <c r="K596" s="29"/>
+      <c r="L596" s="29"/>
+      <c r="M596" s="34">
+        <v>3.5</v>
+      </c>
+      <c r="N596" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="O596" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P596" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q596" s="35">
+        <v>10</v>
+      </c>
+      <c r="R596" s="35">
+        <v>1</v>
+      </c>
+      <c r="S596" s="29"/>
+      <c r="T596" s="29"/>
+      <c r="U596" s="29"/>
+      <c r="V596" s="29"/>
+      <c r="W596" s="29"/>
+      <c r="X596" s="34"/>
+      <c r="Y596" s="34"/>
+    </row>
+    <row r="597" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A597" s="29"/>
+      <c r="B597" s="29"/>
+      <c r="C597" s="29"/>
+      <c r="D597" s="29"/>
+      <c r="E597" s="29"/>
+      <c r="F597" s="29"/>
+      <c r="G597" s="29"/>
+      <c r="H597" s="29"/>
+      <c r="I597" s="29"/>
+      <c r="J597" s="29"/>
+      <c r="K597" s="29"/>
+      <c r="L597" s="29"/>
+      <c r="M597" s="34">
+        <v>3.6</v>
+      </c>
+      <c r="N597" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="O597" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P597" s="34">
+        <v>7.1</v>
+      </c>
+      <c r="Q597" s="35">
+        <v>7</v>
+      </c>
+      <c r="R597" s="35"/>
+      <c r="S597" s="29"/>
+      <c r="T597" s="29"/>
+      <c r="U597" s="29"/>
+      <c r="V597" s="29"/>
+      <c r="W597" s="29"/>
+      <c r="X597" s="34"/>
+      <c r="Y597" s="34"/>
+    </row>
+    <row r="598" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A598" s="29"/>
+      <c r="B598" s="29"/>
+      <c r="C598" s="29"/>
+      <c r="D598" s="29"/>
+      <c r="E598" s="29"/>
+      <c r="F598" s="29"/>
+      <c r="G598" s="29"/>
+      <c r="H598" s="29"/>
+      <c r="I598" s="29"/>
+      <c r="J598" s="29"/>
+      <c r="K598" s="29"/>
+      <c r="L598" s="29"/>
+      <c r="M598" s="34">
+        <v>3.7</v>
+      </c>
+      <c r="N598" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="O598" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P598" s="34">
+        <v>7.2</v>
+      </c>
+      <c r="Q598" s="35"/>
+      <c r="R598" s="35"/>
+      <c r="S598" s="29"/>
+      <c r="T598" s="29"/>
+      <c r="U598" s="29"/>
+      <c r="V598" s="29"/>
+      <c r="W598" s="29"/>
+      <c r="X598" s="34"/>
+      <c r="Y598" s="34"/>
+    </row>
+    <row r="599" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A599" s="29"/>
+      <c r="B599" s="29"/>
+      <c r="C599" s="29"/>
+      <c r="D599" s="29"/>
+      <c r="E599" s="29"/>
+      <c r="F599" s="29"/>
+      <c r="G599" s="29"/>
+      <c r="H599" s="29"/>
+      <c r="I599" s="29"/>
+      <c r="J599" s="29"/>
+      <c r="K599" s="29"/>
+      <c r="L599" s="29"/>
+      <c r="M599" s="34">
+        <v>4</v>
+      </c>
+      <c r="N599" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O599" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P599" s="34">
+        <v>40.5</v>
+      </c>
+      <c r="Q599" s="35">
+        <v>2</v>
+      </c>
+      <c r="R599" s="35"/>
+      <c r="S599" s="29"/>
+      <c r="T599" s="29"/>
+      <c r="U599" s="29"/>
+      <c r="V599" s="29"/>
+      <c r="W599" s="29"/>
+      <c r="X599" s="34"/>
+      <c r="Y599" s="34"/>
+    </row>
+    <row r="600" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A600" s="29"/>
+      <c r="B600" s="29"/>
+      <c r="C600" s="29"/>
+      <c r="D600" s="29"/>
+      <c r="E600" s="29"/>
+      <c r="F600" s="29"/>
+      <c r="G600" s="29"/>
+      <c r="H600" s="29"/>
+      <c r="I600" s="29"/>
+      <c r="J600" s="29"/>
+      <c r="K600" s="29"/>
+      <c r="L600" s="29"/>
+      <c r="M600" s="34">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N600" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="O600" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P600" s="34">
+        <v>7.6</v>
+      </c>
+      <c r="Q600" s="35">
+        <v>5</v>
+      </c>
+      <c r="R600" s="35"/>
+      <c r="S600" s="29"/>
+      <c r="T600" s="29"/>
+      <c r="U600" s="29"/>
+      <c r="V600" s="29"/>
+      <c r="W600" s="29"/>
+      <c r="X600" s="34"/>
+      <c r="Y600" s="34"/>
+    </row>
+    <row r="601" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A601" s="29"/>
+      <c r="B601" s="29"/>
+      <c r="C601" s="29"/>
+      <c r="D601" s="29"/>
+      <c r="E601" s="29"/>
+      <c r="F601" s="29"/>
+      <c r="G601" s="29"/>
+      <c r="H601" s="29"/>
+      <c r="I601" s="29"/>
+      <c r="J601" s="29"/>
+      <c r="K601" s="29"/>
+      <c r="L601" s="29"/>
+      <c r="M601" s="34">
+        <v>4.2</v>
+      </c>
+      <c r="N601" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="O601" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P601" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q601" s="35">
+        <v>8</v>
+      </c>
+      <c r="R601" s="35">
+        <v>2</v>
+      </c>
+      <c r="S601" s="29"/>
+      <c r="T601" s="29"/>
+      <c r="U601" s="29"/>
+      <c r="V601" s="29"/>
+      <c r="W601" s="29"/>
+      <c r="X601" s="34"/>
+      <c r="Y601" s="34"/>
+    </row>
+    <row r="602" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A602" s="29"/>
+      <c r="B602" s="29"/>
+      <c r="C602" s="29"/>
+      <c r="D602" s="29"/>
+      <c r="E602" s="29"/>
+      <c r="F602" s="29"/>
+      <c r="G602" s="29"/>
+      <c r="H602" s="29"/>
+      <c r="I602" s="29"/>
+      <c r="J602" s="29"/>
+      <c r="K602" s="29"/>
+      <c r="L602" s="29"/>
+      <c r="M602" s="34">
+        <v>4.3</v>
+      </c>
+      <c r="N602" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O602" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P602" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q602" s="35">
+        <v>10</v>
+      </c>
+      <c r="R602" s="35">
+        <v>6</v>
+      </c>
+      <c r="S602" s="29"/>
+      <c r="T602" s="29"/>
+      <c r="U602" s="29"/>
+      <c r="V602" s="29"/>
+      <c r="W602" s="29"/>
+      <c r="X602" s="34"/>
+      <c r="Y602" s="34"/>
+    </row>
+    <row r="603" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A603" s="29"/>
+      <c r="B603" s="29"/>
+      <c r="C603" s="29"/>
+      <c r="D603" s="29"/>
+      <c r="E603" s="29"/>
+      <c r="F603" s="29"/>
+      <c r="G603" s="29"/>
+      <c r="H603" s="29"/>
+      <c r="I603" s="29"/>
+      <c r="J603" s="29"/>
+      <c r="K603" s="29"/>
+      <c r="L603" s="29"/>
+      <c r="M603" s="34">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N603" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="O603" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P603" s="34">
+        <v>30.3</v>
+      </c>
+      <c r="Q603" s="35">
+        <v>45</v>
+      </c>
+      <c r="R603" s="35">
+        <v>3</v>
+      </c>
+      <c r="S603" s="29"/>
+      <c r="T603" s="29"/>
+      <c r="U603" s="29"/>
+      <c r="V603" s="29"/>
+      <c r="W603" s="29"/>
+      <c r="X603" s="34"/>
+      <c r="Y603" s="34"/>
+    </row>
+    <row r="604" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A604" s="29"/>
+      <c r="B604" s="29"/>
+      <c r="C604" s="29"/>
+      <c r="D604" s="29"/>
+      <c r="E604" s="29"/>
+      <c r="F604" s="29"/>
+      <c r="G604" s="29"/>
+      <c r="H604" s="29"/>
+      <c r="I604" s="29"/>
+      <c r="J604" s="29"/>
+      <c r="K604" s="29"/>
+      <c r="L604" s="29"/>
+      <c r="M604" s="34">
+        <v>4.5</v>
+      </c>
+      <c r="N604" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="O604" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P604" s="34">
+        <v>7.4</v>
+      </c>
+      <c r="Q604" s="35">
+        <v>20</v>
+      </c>
+      <c r="R604" s="35"/>
+      <c r="S604" s="29"/>
+      <c r="T604" s="29"/>
+      <c r="U604" s="29"/>
+      <c r="V604" s="29"/>
+      <c r="W604" s="29"/>
+      <c r="X604" s="34"/>
+      <c r="Y604" s="34"/>
+    </row>
+    <row r="605" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A605" s="29"/>
+      <c r="B605" s="29"/>
+      <c r="C605" s="29"/>
+      <c r="D605" s="29"/>
+      <c r="E605" s="29"/>
+      <c r="F605" s="29"/>
+      <c r="G605" s="29"/>
+      <c r="H605" s="29"/>
+      <c r="I605" s="29"/>
+      <c r="J605" s="29"/>
+      <c r="K605" s="29"/>
+      <c r="L605" s="29"/>
+      <c r="M605" s="34">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N605" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="O605" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P605" s="34">
+        <v>10.8</v>
+      </c>
+      <c r="Q605" s="35">
+        <v>10</v>
+      </c>
+      <c r="R605" s="35"/>
+      <c r="S605" s="29"/>
+      <c r="T605" s="29"/>
+      <c r="U605" s="29"/>
+      <c r="V605" s="29"/>
+      <c r="W605" s="29"/>
+      <c r="X605" s="34"/>
+      <c r="Y605" s="34"/>
+    </row>
+    <row r="606" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A606" s="29"/>
+      <c r="B606" s="29"/>
+      <c r="C606" s="29"/>
+      <c r="D606" s="29"/>
+      <c r="E606" s="29"/>
+      <c r="F606" s="29"/>
+      <c r="G606" s="29"/>
+      <c r="H606" s="29"/>
+      <c r="I606" s="29"/>
+      <c r="J606" s="29"/>
+      <c r="K606" s="29"/>
+      <c r="L606" s="29"/>
+      <c r="M606" s="34">
+        <v>5</v>
+      </c>
+      <c r="N606" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O606" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="P606" s="34">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="Q606" s="35">
+        <v>6</v>
+      </c>
+      <c r="R606" s="35"/>
+      <c r="S606" s="29"/>
+      <c r="T606" s="29"/>
+      <c r="U606" s="29"/>
+      <c r="V606" s="29"/>
+      <c r="W606" s="29"/>
+      <c r="X606" s="34"/>
+      <c r="Y606" s="34"/>
+    </row>
+    <row r="607" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A607" s="29"/>
+      <c r="B607" s="29"/>
+      <c r="C607" s="29"/>
+      <c r="D607" s="29"/>
+      <c r="E607" s="29"/>
+      <c r="F607" s="29"/>
+      <c r="G607" s="29"/>
+      <c r="H607" s="29"/>
+      <c r="I607" s="29"/>
+      <c r="J607" s="29"/>
+      <c r="K607" s="29"/>
+      <c r="L607" s="29"/>
+      <c r="M607" s="34">
+        <v>6</v>
+      </c>
+      <c r="N607" s="29"/>
+      <c r="O607" s="29"/>
+      <c r="P607" s="34"/>
+      <c r="Q607" s="35"/>
+      <c r="R607" s="35"/>
+      <c r="S607" s="29"/>
+      <c r="T607" s="29"/>
+      <c r="U607" s="29"/>
+      <c r="V607" s="29"/>
+      <c r="W607" s="29"/>
+      <c r="X607" s="34"/>
+      <c r="Y607" s="34"/>
+    </row>
+    <row r="608" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A608" s="29"/>
+      <c r="B608" s="29"/>
+      <c r="C608" s="29"/>
+      <c r="D608" s="29"/>
+      <c r="E608" s="29"/>
+      <c r="F608" s="29"/>
+      <c r="G608" s="29"/>
+      <c r="H608" s="29"/>
+      <c r="I608" s="29"/>
+      <c r="J608" s="29"/>
+      <c r="K608" s="29"/>
+      <c r="L608" s="29"/>
+      <c r="M608" s="34">
+        <v>7</v>
+      </c>
+      <c r="N608" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O608" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="P608" s="34">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="Q608" s="35">
+        <v>6</v>
+      </c>
+      <c r="R608" s="35"/>
+      <c r="S608" s="29"/>
+      <c r="T608" s="29"/>
+      <c r="U608" s="29"/>
+      <c r="V608" s="29"/>
+      <c r="W608" s="29"/>
+      <c r="X608" s="34"/>
+      <c r="Y608" s="34"/>
+    </row>
+    <row r="609" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A609" s="29"/>
+      <c r="B609" s="29"/>
+      <c r="C609" s="29"/>
+      <c r="D609" s="29"/>
+      <c r="E609" s="29"/>
+      <c r="F609" s="29"/>
+      <c r="G609" s="29"/>
+      <c r="H609" s="29"/>
+      <c r="I609" s="29"/>
+      <c r="J609" s="29"/>
+      <c r="K609" s="29"/>
+      <c r="L609" s="29"/>
+      <c r="M609" s="34">
+        <v>8</v>
+      </c>
+      <c r="N609" s="29"/>
+      <c r="O609" s="29"/>
+      <c r="P609" s="34"/>
+      <c r="Q609" s="35"/>
+      <c r="R609" s="35"/>
+      <c r="S609" s="29"/>
+      <c r="T609" s="29"/>
+      <c r="U609" s="29"/>
+      <c r="V609" s="29"/>
+      <c r="W609" s="29"/>
+      <c r="X609" s="34"/>
+      <c r="Y609" s="34"/>
+    </row>
+    <row r="610" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A610" s="29"/>
+      <c r="B610" s="29"/>
+      <c r="C610" s="29"/>
+      <c r="D610" s="29"/>
+      <c r="E610" s="29"/>
+      <c r="F610" s="29"/>
+      <c r="G610" s="29"/>
+      <c r="H610" s="29"/>
+      <c r="I610" s="29"/>
+      <c r="J610" s="29"/>
+      <c r="K610" s="29"/>
+      <c r="L610" s="29"/>
+      <c r="M610" s="34">
+        <v>9</v>
+      </c>
+      <c r="N610" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O610" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="P610" s="34">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="Q610" s="35">
+        <v>2</v>
+      </c>
+      <c r="R610" s="35">
+        <v>4</v>
+      </c>
+      <c r="S610" s="29"/>
+      <c r="T610" s="29"/>
+      <c r="U610" s="29"/>
+      <c r="V610" s="29"/>
+      <c r="W610" s="29"/>
+      <c r="X610" s="34"/>
+      <c r="Y610" s="34"/>
+    </row>
+    <row r="611" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A611" s="29"/>
+      <c r="B611" s="29"/>
+      <c r="C611" s="29"/>
+      <c r="D611" s="29"/>
+      <c r="E611" s="29"/>
+      <c r="F611" s="29"/>
+      <c r="G611" s="29"/>
+      <c r="H611" s="29"/>
+      <c r="I611" s="29"/>
+      <c r="J611" s="29"/>
+      <c r="K611" s="29"/>
+      <c r="L611" s="29"/>
+      <c r="M611" s="34">
+        <v>10</v>
+      </c>
+      <c r="N611" s="29"/>
+      <c r="O611" s="29"/>
+      <c r="P611" s="34"/>
+      <c r="Q611" s="35"/>
+      <c r="R611" s="35"/>
+      <c r="S611" s="29"/>
+      <c r="T611" s="29"/>
+      <c r="U611" s="29"/>
+      <c r="V611" s="29"/>
+      <c r="W611" s="29"/>
+      <c r="X611" s="34"/>
+      <c r="Y611" s="34"/>
+    </row>
+    <row r="612" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A612" s="29"/>
+      <c r="B612" s="29"/>
+      <c r="C612" s="29"/>
+      <c r="D612" s="29"/>
+      <c r="E612" s="29"/>
+      <c r="F612" s="29"/>
+      <c r="G612" s="29"/>
+      <c r="H612" s="29"/>
+      <c r="I612" s="29"/>
+      <c r="J612" s="29"/>
+      <c r="K612" s="29"/>
+      <c r="L612" s="29"/>
+      <c r="M612" s="34">
+        <v>11</v>
+      </c>
+      <c r="N612" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O612" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="P612" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q612" s="35"/>
+      <c r="R612" s="35"/>
+      <c r="S612" s="29"/>
+      <c r="T612" s="29"/>
+      <c r="U612" s="29"/>
+      <c r="V612" s="29"/>
+      <c r="W612" s="29"/>
+      <c r="X612" s="34"/>
+      <c r="Y612" s="34"/>
+    </row>
+    <row r="613" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A613" s="29"/>
+      <c r="B613" s="29"/>
+      <c r="C613" s="29"/>
+      <c r="D613" s="29"/>
+      <c r="E613" s="29"/>
+      <c r="F613" s="29"/>
+      <c r="G613" s="29"/>
+      <c r="H613" s="29"/>
+      <c r="I613" s="29"/>
+      <c r="J613" s="29"/>
+      <c r="K613" s="29"/>
+      <c r="L613" s="29"/>
+      <c r="M613" s="34">
+        <v>12</v>
+      </c>
+      <c r="N613" s="29"/>
+      <c r="O613" s="29"/>
+      <c r="P613" s="34"/>
+      <c r="Q613" s="35"/>
+      <c r="R613" s="35"/>
+      <c r="S613" s="29"/>
+      <c r="T613" s="29"/>
+      <c r="U613" s="29"/>
+      <c r="V613" s="29"/>
+      <c r="W613" s="29"/>
+      <c r="X613" s="34"/>
+      <c r="Y613" s="34"/>
+    </row>
+    <row r="614" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A614" s="29"/>
+      <c r="B614" s="29"/>
+      <c r="C614" s="29"/>
+      <c r="D614" s="29"/>
+      <c r="E614" s="29"/>
+      <c r="F614" s="29"/>
+      <c r="G614" s="29"/>
+      <c r="H614" s="29"/>
+      <c r="I614" s="29"/>
+      <c r="J614" s="29"/>
+      <c r="K614" s="29"/>
+      <c r="L614" s="29"/>
+      <c r="M614" s="34">
+        <v>13</v>
+      </c>
+      <c r="N614" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O614" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="P614" s="34">
+        <v>45.7</v>
+      </c>
+      <c r="Q614" s="35">
+        <v>1</v>
+      </c>
+      <c r="R614" s="35">
+        <v>3</v>
+      </c>
+      <c r="S614" s="29"/>
+      <c r="T614" s="29"/>
+      <c r="U614" s="29"/>
+      <c r="V614" s="29"/>
+      <c r="W614" s="29"/>
+      <c r="X614" s="34"/>
+      <c r="Y614" s="34"/>
+    </row>
+    <row r="615" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A615" s="29"/>
+      <c r="B615" s="29"/>
+      <c r="C615" s="29"/>
+      <c r="D615" s="29"/>
+      <c r="E615" s="29"/>
+      <c r="F615" s="29"/>
+      <c r="G615" s="29"/>
+      <c r="H615" s="29"/>
+      <c r="I615" s="29"/>
+      <c r="J615" s="29"/>
+      <c r="K615" s="29"/>
+      <c r="L615" s="29"/>
+      <c r="M615" s="34">
+        <v>14</v>
+      </c>
+      <c r="N615" s="29"/>
+      <c r="O615" s="29"/>
+      <c r="P615" s="34"/>
+      <c r="Q615" s="35"/>
+      <c r="R615" s="35"/>
+      <c r="S615" s="29"/>
+      <c r="T615" s="29"/>
+      <c r="U615" s="29"/>
+      <c r="V615" s="29"/>
+      <c r="W615" s="29"/>
+      <c r="X615" s="34"/>
+      <c r="Y615" s="34"/>
+    </row>
+    <row r="616" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A616" s="29"/>
+      <c r="B616" s="29"/>
+      <c r="C616" s="29"/>
+      <c r="D616" s="29"/>
+      <c r="E616" s="29"/>
+      <c r="F616" s="29"/>
+      <c r="G616" s="29"/>
+      <c r="H616" s="29"/>
+      <c r="I616" s="29"/>
+      <c r="J616" s="29"/>
+      <c r="K616" s="29"/>
+      <c r="L616" s="29"/>
+      <c r="M616" s="34">
+        <v>15</v>
+      </c>
+      <c r="N616" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O616" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="P616" s="34">
+        <v>43.9</v>
+      </c>
+      <c r="Q616" s="35">
+        <v>1</v>
+      </c>
+      <c r="R616" s="35">
+        <v>7</v>
+      </c>
+      <c r="S616" s="29"/>
+      <c r="T616" s="29"/>
+      <c r="U616" s="29"/>
+      <c r="V616" s="29"/>
+      <c r="W616" s="29"/>
+      <c r="X616" s="34"/>
+      <c r="Y616" s="34"/>
+    </row>
+    <row r="617" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A617" s="29"/>
+      <c r="B617" s="29"/>
+      <c r="C617" s="29"/>
+      <c r="D617" s="29"/>
+      <c r="E617" s="29"/>
+      <c r="F617" s="29"/>
+      <c r="G617" s="29"/>
+      <c r="H617" s="29"/>
+      <c r="I617" s="29"/>
+      <c r="J617" s="29"/>
+      <c r="K617" s="29"/>
+      <c r="L617" s="29"/>
+      <c r="M617" s="34">
+        <v>16</v>
+      </c>
+      <c r="N617" s="29"/>
+      <c r="O617" s="29"/>
+      <c r="P617" s="34"/>
+      <c r="Q617" s="35"/>
+      <c r="R617" s="35"/>
+      <c r="S617" s="29"/>
+      <c r="T617" s="29"/>
+      <c r="U617" s="29"/>
+      <c r="V617" s="29"/>
+      <c r="W617" s="29"/>
+      <c r="X617" s="34"/>
+      <c r="Y617" s="34"/>
+    </row>
+    <row r="618" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A618" s="29"/>
+      <c r="B618" s="29"/>
+      <c r="C618" s="29"/>
+      <c r="D618" s="29"/>
+      <c r="E618" s="29"/>
+      <c r="F618" s="29"/>
+      <c r="G618" s="29"/>
+      <c r="H618" s="29"/>
+      <c r="I618" s="29"/>
+      <c r="J618" s="29"/>
+      <c r="K618" s="29"/>
+      <c r="L618" s="29"/>
+      <c r="M618" s="34">
+        <v>17</v>
+      </c>
+      <c r="N618" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O618" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="P618" s="34">
+        <v>39.9</v>
+      </c>
+      <c r="Q618" s="35">
+        <v>2</v>
+      </c>
+      <c r="R618" s="35">
+        <v>8</v>
+      </c>
+      <c r="S618" s="29"/>
+      <c r="T618" s="29"/>
+      <c r="U618" s="29"/>
+      <c r="V618" s="29"/>
+      <c r="W618" s="29"/>
+      <c r="X618" s="34"/>
+      <c r="Y618" s="34"/>
+    </row>
+    <row r="619" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A619" s="29"/>
+      <c r="B619" s="29"/>
+      <c r="C619" s="29"/>
+      <c r="D619" s="29"/>
+      <c r="E619" s="29"/>
+      <c r="F619" s="29"/>
+      <c r="G619" s="29"/>
+      <c r="H619" s="29"/>
+      <c r="I619" s="29"/>
+      <c r="J619" s="29"/>
+      <c r="K619" s="29"/>
+      <c r="L619" s="29"/>
+      <c r="M619" s="34">
+        <v>18</v>
+      </c>
+      <c r="N619" s="29"/>
+      <c r="O619" s="29"/>
+      <c r="P619" s="34"/>
+      <c r="Q619" s="35"/>
+      <c r="R619" s="35"/>
+      <c r="S619" s="29"/>
+      <c r="T619" s="29"/>
+      <c r="U619" s="29"/>
+      <c r="V619" s="29"/>
+      <c r="W619" s="29"/>
+      <c r="X619" s="34"/>
+      <c r="Y619" s="34"/>
+    </row>
+    <row r="620" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A620" s="29"/>
+      <c r="B620" s="29"/>
+      <c r="C620" s="29"/>
+      <c r="D620" s="29"/>
+      <c r="E620" s="29"/>
+      <c r="F620" s="29"/>
+      <c r="G620" s="29"/>
+      <c r="H620" s="29"/>
+      <c r="I620" s="29"/>
+      <c r="J620" s="29"/>
+      <c r="K620" s="29"/>
+      <c r="L620" s="29"/>
+      <c r="M620" s="34">
+        <v>19</v>
+      </c>
+      <c r="N620" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O620" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="P620" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q620" s="35"/>
+      <c r="R620" s="35"/>
+      <c r="S620" s="29"/>
+      <c r="T620" s="29"/>
+      <c r="U620" s="29"/>
+      <c r="V620" s="29"/>
+      <c r="W620" s="29"/>
+      <c r="X620" s="34"/>
+      <c r="Y620" s="34"/>
+    </row>
+    <row r="621" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A621" s="29"/>
+      <c r="B621" s="29"/>
+      <c r="C621" s="29"/>
+      <c r="D621" s="29"/>
+      <c r="E621" s="29"/>
+      <c r="F621" s="29"/>
+      <c r="G621" s="29"/>
+      <c r="H621" s="29"/>
+      <c r="I621" s="29"/>
+      <c r="J621" s="29"/>
+      <c r="K621" s="29"/>
+      <c r="L621" s="29"/>
+      <c r="M621" s="34">
+        <v>20</v>
+      </c>
+      <c r="N621" s="29"/>
+      <c r="O621" s="29"/>
+      <c r="P621" s="34"/>
+      <c r="Q621" s="35"/>
+      <c r="R621" s="35"/>
+      <c r="S621" s="29"/>
+      <c r="T621" s="29"/>
+      <c r="U621" s="29"/>
+      <c r="V621" s="29"/>
+      <c r="W621" s="29"/>
+      <c r="X621" s="34"/>
+      <c r="Y621" s="34"/>
+    </row>
+    <row r="622" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A622" s="29"/>
+      <c r="B622" s="29"/>
+      <c r="C622" s="29"/>
+      <c r="D622" s="29"/>
+      <c r="E622" s="29"/>
+      <c r="F622" s="29"/>
+      <c r="G622" s="29"/>
+      <c r="H622" s="29"/>
+      <c r="I622" s="29"/>
+      <c r="J622" s="29"/>
+      <c r="K622" s="29"/>
+      <c r="L622" s="29"/>
+      <c r="M622" s="34">
+        <v>21</v>
+      </c>
+      <c r="N622" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O622" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="P622" s="34">
+        <v>53.4</v>
+      </c>
+      <c r="Q622" s="35">
+        <v>1</v>
+      </c>
+      <c r="R622" s="35">
+        <v>6</v>
+      </c>
+      <c r="S622" s="29"/>
+      <c r="T622" s="29"/>
+      <c r="U622" s="29"/>
+      <c r="V622" s="29"/>
+      <c r="W622" s="29"/>
+      <c r="X622" s="34"/>
+      <c r="Y622" s="34"/>
+    </row>
+    <row r="623" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A623" s="29"/>
+      <c r="B623" s="29"/>
+      <c r="C623" s="29"/>
+      <c r="D623" s="29"/>
+      <c r="E623" s="29"/>
+      <c r="F623" s="29"/>
+      <c r="G623" s="29"/>
+      <c r="H623" s="29"/>
+      <c r="I623" s="29"/>
+      <c r="J623" s="29"/>
+      <c r="K623" s="29"/>
+      <c r="L623" s="29"/>
+      <c r="M623" s="34">
+        <v>22</v>
+      </c>
+      <c r="N623" s="29"/>
+      <c r="O623" s="29"/>
+      <c r="P623" s="34"/>
+      <c r="Q623" s="35"/>
+      <c r="R623" s="35"/>
+      <c r="S623" s="29"/>
+      <c r="T623" s="29"/>
+      <c r="U623" s="29"/>
+      <c r="V623" s="29"/>
+      <c r="W623" s="29"/>
+      <c r="X623" s="34"/>
+      <c r="Y623" s="34"/>
+    </row>
+    <row r="624" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A624" s="29"/>
+      <c r="B624" s="29"/>
+      <c r="C624" s="29"/>
+      <c r="D624" s="29"/>
+      <c r="E624" s="29"/>
+      <c r="F624" s="29"/>
+      <c r="G624" s="29"/>
+      <c r="H624" s="29"/>
+      <c r="I624" s="29"/>
+      <c r="J624" s="29"/>
+      <c r="K624" s="29"/>
+      <c r="L624" s="29"/>
+      <c r="M624" s="34">
+        <v>23</v>
+      </c>
+      <c r="N624" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O624" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="P624" s="34">
+        <v>34.4</v>
+      </c>
+      <c r="Q624" s="35">
+        <v>1</v>
+      </c>
+      <c r="R624" s="35">
+        <v>1</v>
+      </c>
+      <c r="S624" s="29"/>
+      <c r="T624" s="29"/>
+      <c r="U624" s="29"/>
+      <c r="V624" s="29"/>
+      <c r="W624" s="29"/>
+      <c r="X624" s="34"/>
+      <c r="Y624" s="34"/>
+    </row>
+    <row r="625" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A625" s="29"/>
+      <c r="B625" s="29"/>
+      <c r="C625" s="29"/>
+      <c r="D625" s="29"/>
+      <c r="E625" s="29"/>
+      <c r="F625" s="29"/>
+      <c r="G625" s="29"/>
+      <c r="H625" s="29"/>
+      <c r="I625" s="29"/>
+      <c r="J625" s="29"/>
+      <c r="K625" s="29"/>
+      <c r="L625" s="29"/>
+      <c r="M625" s="34">
+        <v>24</v>
+      </c>
+      <c r="N625" s="29"/>
+      <c r="O625" s="29"/>
+      <c r="P625" s="34"/>
+      <c r="Q625" s="35"/>
+      <c r="R625" s="35"/>
+      <c r="S625" s="29"/>
+      <c r="T625" s="29"/>
+      <c r="U625" s="29"/>
+      <c r="V625" s="29"/>
+      <c r="W625" s="29"/>
+      <c r="X625" s="34"/>
+      <c r="Y625" s="34"/>
+    </row>
+    <row r="626" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A626" s="29"/>
+      <c r="B626" s="29"/>
+      <c r="C626" s="29"/>
+      <c r="D626" s="29"/>
+      <c r="E626" s="29"/>
+      <c r="F626" s="29"/>
+      <c r="G626" s="29"/>
+      <c r="H626" s="29"/>
+      <c r="I626" s="29"/>
+      <c r="J626" s="29"/>
+      <c r="K626" s="29"/>
+      <c r="L626" s="29"/>
+      <c r="M626" s="34">
+        <v>25</v>
+      </c>
+      <c r="N626" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O626" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="P626" s="34">
+        <v>42.4</v>
+      </c>
+      <c r="Q626" s="35">
+        <v>1</v>
+      </c>
+      <c r="R626" s="35">
+        <v>5</v>
+      </c>
+      <c r="S626" s="29"/>
+      <c r="T626" s="29"/>
+      <c r="U626" s="29"/>
+      <c r="V626" s="29"/>
+      <c r="W626" s="29"/>
+      <c r="X626" s="34"/>
+      <c r="Y626" s="34"/>
+    </row>
+    <row r="627" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A627" s="29"/>
+      <c r="B627" s="29"/>
+      <c r="C627" s="29"/>
+      <c r="D627" s="29"/>
+      <c r="E627" s="29"/>
+      <c r="F627" s="29"/>
+      <c r="G627" s="29"/>
+      <c r="H627" s="29"/>
+      <c r="I627" s="29"/>
+      <c r="J627" s="29"/>
+      <c r="K627" s="29"/>
+      <c r="L627" s="29"/>
+      <c r="M627" s="34">
+        <v>26</v>
+      </c>
+      <c r="N627" s="29"/>
+      <c r="O627" s="29"/>
+      <c r="P627" s="34"/>
+      <c r="Q627" s="35"/>
+      <c r="R627" s="35"/>
+      <c r="S627" s="29"/>
+      <c r="T627" s="29"/>
+      <c r="U627" s="29"/>
+      <c r="V627" s="29"/>
+      <c r="W627" s="29"/>
+      <c r="X627" s="34"/>
+      <c r="Y627" s="34"/>
+    </row>
+    <row r="628" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A628" s="29"/>
+      <c r="B628" s="29"/>
+      <c r="C628" s="29"/>
+      <c r="D628" s="29"/>
+      <c r="E628" s="29"/>
+      <c r="F628" s="29"/>
+      <c r="G628" s="29"/>
+      <c r="H628" s="29"/>
+      <c r="I628" s="29"/>
+      <c r="J628" s="29"/>
+      <c r="K628" s="29"/>
+      <c r="L628" s="29"/>
+      <c r="M628" s="34">
+        <v>27</v>
+      </c>
+      <c r="N628" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O628" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="P628" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q628" s="35"/>
+      <c r="R628" s="35"/>
+      <c r="S628" s="29"/>
+      <c r="T628" s="29"/>
+      <c r="U628" s="29"/>
+      <c r="V628" s="29"/>
+      <c r="W628" s="29"/>
+      <c r="X628" s="34"/>
+      <c r="Y628" s="34"/>
+    </row>
+    <row r="629" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A629" s="29"/>
+      <c r="B629" s="29"/>
+      <c r="C629" s="29"/>
+      <c r="D629" s="29"/>
+      <c r="E629" s="29"/>
+      <c r="F629" s="29"/>
+      <c r="G629" s="29"/>
+      <c r="H629" s="29"/>
+      <c r="I629" s="29"/>
+      <c r="J629" s="29"/>
+      <c r="K629" s="29"/>
+      <c r="L629" s="29"/>
+      <c r="M629" s="34">
+        <v>28</v>
+      </c>
+      <c r="N629" s="29"/>
+      <c r="O629" s="29"/>
+      <c r="P629" s="34"/>
+      <c r="Q629" s="35"/>
+      <c r="R629" s="35"/>
+      <c r="S629" s="29"/>
+      <c r="T629" s="29"/>
+      <c r="U629" s="29"/>
+      <c r="V629" s="29"/>
+      <c r="W629" s="29"/>
+      <c r="X629" s="34"/>
+      <c r="Y629" s="34"/>
+    </row>
+    <row r="630" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A630" s="29"/>
+      <c r="B630" s="29"/>
+      <c r="C630" s="29"/>
+      <c r="D630" s="29"/>
+      <c r="E630" s="29"/>
+      <c r="F630" s="29"/>
+      <c r="G630" s="29"/>
+      <c r="H630" s="29"/>
+      <c r="I630" s="29"/>
+      <c r="J630" s="29"/>
+      <c r="K630" s="29"/>
+      <c r="L630" s="29"/>
+      <c r="M630" s="34">
+        <v>29</v>
+      </c>
+      <c r="N630" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O630" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="P630" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q630" s="35"/>
+      <c r="R630" s="35"/>
+      <c r="S630" s="29"/>
+      <c r="T630" s="29"/>
+      <c r="U630" s="29"/>
+      <c r="V630" s="29"/>
+      <c r="W630" s="29"/>
+      <c r="X630" s="34"/>
+      <c r="Y630" s="34"/>
+    </row>
+    <row r="631" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A631" s="29"/>
+      <c r="B631" s="29"/>
+      <c r="C631" s="29"/>
+      <c r="D631" s="29"/>
+      <c r="E631" s="29"/>
+      <c r="F631" s="29"/>
+      <c r="G631" s="29"/>
+      <c r="H631" s="29"/>
+      <c r="I631" s="29"/>
+      <c r="J631" s="29"/>
+      <c r="K631" s="29"/>
+      <c r="L631" s="29"/>
+      <c r="M631" s="34">
+        <v>30</v>
+      </c>
+      <c r="N631" s="29"/>
+      <c r="O631" s="29"/>
+      <c r="P631" s="29"/>
+      <c r="Q631" s="35"/>
+      <c r="R631" s="35"/>
+      <c r="S631" s="29"/>
+      <c r="T631" s="29"/>
+      <c r="U631" s="29"/>
+      <c r="V631" s="29"/>
+      <c r="W631" s="29"/>
+      <c r="X631" s="34"/>
+      <c r="Y631" s="34"/>
+    </row>
+    <row r="632" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A632" s="29"/>
+      <c r="B632" s="29"/>
+      <c r="C632" s="29"/>
+      <c r="D632" s="29"/>
+      <c r="E632" s="29"/>
+      <c r="F632" s="29"/>
+      <c r="G632" s="29"/>
+      <c r="H632" s="29"/>
+      <c r="I632" s="29"/>
+      <c r="J632" s="29"/>
+      <c r="K632" s="29"/>
+      <c r="L632" s="29"/>
+      <c r="M632" s="34">
+        <v>31</v>
+      </c>
+      <c r="N632" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O632" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="P632" s="29">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="Q632" s="35">
+        <v>2</v>
+      </c>
+      <c r="R632" s="35">
+        <v>1</v>
+      </c>
+      <c r="S632" s="29"/>
+      <c r="T632" s="29"/>
+      <c r="U632" s="29"/>
+      <c r="V632" s="29"/>
+      <c r="W632" s="29"/>
+      <c r="X632" s="34"/>
+      <c r="Y632" s="34"/>
+    </row>
+    <row r="633" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A633" s="29"/>
+      <c r="B633" s="29"/>
+      <c r="C633" s="29"/>
+      <c r="D633" s="29"/>
+      <c r="E633" s="29"/>
+      <c r="F633" s="29"/>
+      <c r="G633" s="29"/>
+      <c r="H633" s="29"/>
+      <c r="I633" s="29"/>
+      <c r="J633" s="29"/>
+      <c r="K633" s="29"/>
+      <c r="L633" s="29"/>
+      <c r="M633" s="34">
+        <v>32</v>
+      </c>
+      <c r="N633" s="29"/>
+      <c r="O633" s="29"/>
+      <c r="P633" s="34"/>
+      <c r="Q633" s="35"/>
+      <c r="R633" s="35"/>
+      <c r="S633" s="29"/>
+      <c r="T633" s="29"/>
+      <c r="U633" s="29"/>
+      <c r="V633" s="29"/>
+      <c r="W633" s="29"/>
+      <c r="X633" s="34"/>
+      <c r="Y633" s="34"/>
+    </row>
+    <row r="634" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A634" s="29"/>
+      <c r="B634" s="29"/>
+      <c r="C634" s="29"/>
+      <c r="D634" s="29"/>
+      <c r="E634" s="29"/>
+      <c r="F634" s="29"/>
+      <c r="G634" s="29"/>
+      <c r="H634" s="29"/>
+      <c r="I634" s="29"/>
+      <c r="J634" s="29"/>
+      <c r="K634" s="29"/>
+      <c r="L634" s="29"/>
+      <c r="M634" s="34">
+        <v>33</v>
+      </c>
+      <c r="N634" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O634" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P634" s="34">
+        <v>53.6</v>
+      </c>
+      <c r="Q634" s="35">
+        <v>3</v>
+      </c>
+      <c r="R634" s="35"/>
+      <c r="S634" s="29"/>
+      <c r="T634" s="29"/>
+      <c r="U634" s="29"/>
+      <c r="V634" s="29"/>
+      <c r="W634" s="29"/>
+      <c r="X634" s="34"/>
+      <c r="Y634" s="34"/>
+    </row>
+    <row r="635" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A635" s="29"/>
+      <c r="B635" s="29"/>
+      <c r="C635" s="29"/>
+      <c r="D635" s="29"/>
+      <c r="E635" s="29"/>
+      <c r="F635" s="29"/>
+      <c r="G635" s="29"/>
+      <c r="H635" s="29"/>
+      <c r="I635" s="29"/>
+      <c r="J635" s="29"/>
+      <c r="K635" s="29"/>
+      <c r="L635" s="29"/>
+      <c r="M635" s="34">
+        <v>34</v>
+      </c>
+      <c r="N635" s="29"/>
+      <c r="O635" s="29"/>
+      <c r="P635" s="34"/>
+      <c r="Q635" s="29"/>
+      <c r="R635" s="29"/>
+      <c r="S635" s="29"/>
+      <c r="T635" s="29"/>
+      <c r="U635" s="29"/>
+      <c r="V635" s="29"/>
+      <c r="W635" s="29"/>
+      <c r="X635" s="34"/>
+      <c r="Y635" s="34"/>
+    </row>
+    <row r="636" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A636" s="29"/>
+      <c r="B636" s="29"/>
+      <c r="C636" s="29"/>
+      <c r="D636" s="29"/>
+      <c r="E636" s="29"/>
+      <c r="F636" s="29"/>
+      <c r="G636" s="29"/>
+      <c r="H636" s="29"/>
+      <c r="I636" s="29"/>
+      <c r="J636" s="29"/>
+      <c r="K636" s="29"/>
+      <c r="L636" s="29"/>
+      <c r="M636" s="34">
+        <v>35</v>
+      </c>
+      <c r="N636" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O636" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P636" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q636" s="35"/>
+      <c r="R636" s="35">
+        <v>3</v>
+      </c>
+      <c r="S636" s="29"/>
+      <c r="T636" s="29"/>
+      <c r="U636" s="29"/>
+      <c r="V636" s="29"/>
+      <c r="W636" s="29"/>
+      <c r="X636" s="34"/>
+      <c r="Y636" s="34"/>
+    </row>
+    <row r="637" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A637" s="29"/>
+      <c r="B637" s="29"/>
+      <c r="C637" s="29"/>
+      <c r="D637" s="29"/>
+      <c r="E637" s="29"/>
+      <c r="F637" s="29"/>
+      <c r="G637" s="29"/>
+      <c r="H637" s="29"/>
+      <c r="I637" s="29"/>
+      <c r="J637" s="29"/>
+      <c r="K637" s="29"/>
+      <c r="L637" s="29"/>
+      <c r="M637" s="34">
+        <v>36</v>
+      </c>
+      <c r="N637" s="29"/>
+      <c r="O637" s="29"/>
+      <c r="P637" s="29"/>
+      <c r="Q637" s="35"/>
+      <c r="R637" s="35"/>
+      <c r="S637" s="29"/>
+      <c r="T637" s="29"/>
+      <c r="U637" s="29"/>
+      <c r="V637" s="29"/>
+      <c r="W637" s="29"/>
+      <c r="X637" s="34"/>
+      <c r="Y637" s="34"/>
+    </row>
+    <row r="638" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A638" s="29"/>
+      <c r="B638" s="29"/>
+      <c r="C638" s="29"/>
+      <c r="D638" s="29"/>
+      <c r="E638" s="29"/>
+      <c r="F638" s="29"/>
+      <c r="G638" s="29"/>
+      <c r="H638" s="29"/>
+      <c r="I638" s="29"/>
+      <c r="J638" s="29"/>
+      <c r="K638" s="29"/>
+      <c r="L638" s="29"/>
+      <c r="M638" s="34">
+        <v>37</v>
+      </c>
+      <c r="N638" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O638" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P638" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q638" s="35"/>
+      <c r="R638" s="35">
+        <v>10</v>
+      </c>
+      <c r="S638" s="29"/>
+      <c r="T638" s="29"/>
+      <c r="U638" s="29"/>
+      <c r="V638" s="29"/>
+      <c r="W638" s="29"/>
+      <c r="X638" s="34"/>
+      <c r="Y638" s="34"/>
+    </row>
+    <row r="639" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A639" s="29"/>
+      <c r="B639" s="29"/>
+      <c r="C639" s="29"/>
+      <c r="D639" s="29"/>
+      <c r="E639" s="29"/>
+      <c r="F639" s="29"/>
+      <c r="G639" s="29"/>
+      <c r="H639" s="29"/>
+      <c r="I639" s="29"/>
+      <c r="J639" s="29"/>
+      <c r="K639" s="29"/>
+      <c r="L639" s="29"/>
+      <c r="M639" s="34">
+        <v>38</v>
+      </c>
+      <c r="N639" s="29"/>
+      <c r="O639" s="29"/>
+      <c r="P639" s="34"/>
+      <c r="Q639" s="35"/>
+      <c r="R639" s="35"/>
+      <c r="S639" s="29"/>
+      <c r="T639" s="29"/>
+      <c r="U639" s="29"/>
+      <c r="V639" s="29"/>
+      <c r="W639" s="29"/>
+      <c r="X639" s="34"/>
+      <c r="Y639" s="34"/>
+    </row>
+    <row r="640" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A640" s="29"/>
+      <c r="B640" s="29"/>
+      <c r="C640" s="29"/>
+      <c r="D640" s="29"/>
+      <c r="E640" s="29"/>
+      <c r="F640" s="29"/>
+      <c r="G640" s="29"/>
+      <c r="H640" s="29"/>
+      <c r="I640" s="29"/>
+      <c r="J640" s="29"/>
+      <c r="K640" s="29"/>
+      <c r="L640" s="29"/>
+      <c r="M640" s="34">
+        <v>39</v>
+      </c>
+      <c r="N640" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O640" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P640" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q640" s="35"/>
+      <c r="R640" s="35"/>
+      <c r="S640" s="29"/>
+      <c r="T640" s="29"/>
+      <c r="U640" s="29"/>
+      <c r="V640" s="29"/>
+      <c r="W640" s="29"/>
+      <c r="X640" s="34"/>
+      <c r="Y640" s="34"/>
+    </row>
+    <row r="641" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A641" s="29"/>
+      <c r="B641" s="29"/>
+      <c r="C641" s="29"/>
+      <c r="D641" s="29"/>
+      <c r="E641" s="29"/>
+      <c r="F641" s="29"/>
+      <c r="G641" s="29"/>
+      <c r="H641" s="29"/>
+      <c r="I641" s="29"/>
+      <c r="J641" s="29"/>
+      <c r="K641" s="29"/>
+      <c r="L641" s="29"/>
+      <c r="M641" s="34">
+        <v>40</v>
+      </c>
+      <c r="N641" s="29"/>
+      <c r="O641" s="29"/>
+      <c r="P641" s="29"/>
+      <c r="Q641" s="35"/>
+      <c r="R641" s="35"/>
+      <c r="S641" s="29"/>
+      <c r="T641" s="29"/>
+      <c r="U641" s="29"/>
+      <c r="V641" s="29"/>
+      <c r="W641" s="29"/>
+      <c r="X641" s="34"/>
+      <c r="Y641" s="34"/>
+    </row>
+    <row r="642" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A642" s="29"/>
+      <c r="B642" s="29"/>
+      <c r="C642" s="29"/>
+      <c r="D642" s="29"/>
+      <c r="E642" s="29"/>
+      <c r="F642" s="29"/>
+      <c r="G642" s="29"/>
+      <c r="H642" s="29"/>
+      <c r="I642" s="29"/>
+      <c r="J642" s="29"/>
+      <c r="K642" s="29"/>
+      <c r="L642" s="29"/>
+      <c r="M642" s="34">
+        <v>41</v>
+      </c>
+      <c r="N642" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O642" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P642" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q642" s="35"/>
+      <c r="R642" s="35"/>
+      <c r="S642" s="29"/>
+      <c r="T642" s="29"/>
+      <c r="U642" s="29"/>
+      <c r="V642" s="29"/>
+      <c r="W642" s="29"/>
+      <c r="X642" s="34"/>
+      <c r="Y642" s="34"/>
+    </row>
+    <row r="643" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A643" s="29"/>
+      <c r="B643" s="29"/>
+      <c r="C643" s="29"/>
+      <c r="D643" s="29"/>
+      <c r="E643" s="29"/>
+      <c r="F643" s="29"/>
+      <c r="G643" s="29"/>
+      <c r="H643" s="29"/>
+      <c r="I643" s="29"/>
+      <c r="J643" s="29"/>
+      <c r="K643" s="29"/>
+      <c r="L643" s="29"/>
+      <c r="M643" s="34">
+        <v>42</v>
+      </c>
+      <c r="N643" s="29"/>
+      <c r="O643" s="29"/>
+      <c r="P643" s="34"/>
+      <c r="Q643" s="35"/>
+      <c r="R643" s="35"/>
+      <c r="S643" s="29"/>
+      <c r="T643" s="29"/>
+      <c r="U643" s="29"/>
+      <c r="V643" s="29"/>
+      <c r="W643" s="29"/>
+      <c r="X643" s="34"/>
+      <c r="Y643" s="34"/>
+    </row>
+    <row r="644" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A644" s="29"/>
+      <c r="B644" s="29"/>
+      <c r="C644" s="29"/>
+      <c r="D644" s="29"/>
+      <c r="E644" s="29"/>
+      <c r="F644" s="29"/>
+      <c r="G644" s="29"/>
+      <c r="H644" s="29"/>
+      <c r="I644" s="29"/>
+      <c r="J644" s="29"/>
+      <c r="K644" s="29"/>
+      <c r="L644" s="29"/>
+      <c r="M644" s="34">
+        <v>43</v>
+      </c>
+      <c r="N644" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O644" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P644" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q644" s="35"/>
+      <c r="R644" s="35">
+        <v>10</v>
+      </c>
+      <c r="S644" s="29"/>
+      <c r="T644" s="29"/>
+      <c r="U644" s="29"/>
+      <c r="V644" s="29"/>
+      <c r="W644" s="29"/>
+      <c r="X644" s="34"/>
+    </row>
+    <row r="645" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A645" s="29"/>
+      <c r="B645" s="29"/>
+      <c r="C645" s="29"/>
+      <c r="D645" s="29"/>
+      <c r="E645" s="29"/>
+      <c r="F645" s="29"/>
+      <c r="G645" s="29"/>
+      <c r="H645" s="29"/>
+      <c r="I645" s="29"/>
+      <c r="J645" s="29"/>
+      <c r="K645" s="29"/>
+      <c r="L645" s="29"/>
+      <c r="M645" s="34">
+        <v>44</v>
+      </c>
+      <c r="N645" s="29"/>
+      <c r="O645" s="29"/>
+      <c r="P645" s="34"/>
+      <c r="Q645" s="35"/>
+      <c r="R645" s="35"/>
+      <c r="S645" s="29"/>
+      <c r="T645" s="29"/>
+      <c r="U645" s="29"/>
+      <c r="V645" s="29"/>
+      <c r="W645" s="29"/>
+      <c r="X645" s="34"/>
+    </row>
+    <row r="646" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A646" s="29"/>
+      <c r="B646" s="29"/>
+      <c r="C646" s="29"/>
+      <c r="D646" s="29"/>
+      <c r="E646" s="29"/>
+      <c r="F646" s="29"/>
+      <c r="G646" s="29"/>
+      <c r="H646" s="29"/>
+      <c r="I646" s="29"/>
+      <c r="J646" s="29"/>
+      <c r="K646" s="29"/>
+      <c r="L646" s="29"/>
+      <c r="M646" s="34">
+        <v>45</v>
+      </c>
+      <c r="N646" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O646" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P646" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q646" s="35"/>
+      <c r="R646" s="35"/>
+      <c r="S646" s="29"/>
+      <c r="T646" s="29"/>
+      <c r="U646" s="29"/>
+      <c r="V646" s="29"/>
+      <c r="W646" s="29"/>
+      <c r="X646" s="34"/>
+    </row>
+    <row r="647" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A647" s="29"/>
+      <c r="B647" s="29"/>
+      <c r="C647" s="29"/>
+      <c r="D647" s="29"/>
+      <c r="E647" s="29"/>
+      <c r="F647" s="29"/>
+      <c r="G647" s="29"/>
+      <c r="H647" s="29"/>
+      <c r="I647" s="29"/>
+      <c r="J647" s="29"/>
+      <c r="K647" s="29"/>
+      <c r="L647" s="29"/>
+      <c r="M647" s="34">
+        <v>46</v>
+      </c>
+      <c r="N647" s="29"/>
+      <c r="O647" s="29"/>
+      <c r="P647" s="29"/>
+      <c r="Q647" s="35"/>
+      <c r="R647" s="35"/>
+      <c r="S647" s="29"/>
+      <c r="T647" s="29"/>
+      <c r="U647" s="29"/>
+      <c r="V647" s="29"/>
+      <c r="W647" s="29"/>
+      <c r="X647" s="34"/>
+    </row>
+    <row r="648" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A648" s="29"/>
+      <c r="B648" s="29"/>
+      <c r="C648" s="29"/>
+      <c r="D648" s="29"/>
+      <c r="E648" s="29"/>
+      <c r="F648" s="29"/>
+      <c r="G648" s="29"/>
+      <c r="H648" s="29"/>
+      <c r="I648" s="29"/>
+      <c r="J648" s="29"/>
+      <c r="K648" s="29"/>
+      <c r="L648" s="29"/>
+      <c r="M648" s="34">
+        <v>47</v>
+      </c>
+      <c r="N648" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O648" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P648" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q648" s="35"/>
+      <c r="R648" s="35">
+        <v>10</v>
+      </c>
+      <c r="S648" s="29"/>
+      <c r="T648" s="29"/>
+      <c r="U648" s="29"/>
+      <c r="V648" s="29"/>
+      <c r="W648" s="29"/>
+      <c r="X648" s="34"/>
+    </row>
+    <row r="649" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A649" s="29"/>
+      <c r="B649" s="29"/>
+      <c r="C649" s="29"/>
+      <c r="D649" s="29"/>
+      <c r="E649" s="29"/>
+      <c r="F649" s="29"/>
+      <c r="G649" s="29"/>
+      <c r="H649" s="29"/>
+      <c r="I649" s="29"/>
+      <c r="J649" s="29"/>
+      <c r="K649" s="29"/>
+      <c r="L649" s="29"/>
+      <c r="M649" s="34">
+        <v>48</v>
+      </c>
+      <c r="N649" s="29"/>
+      <c r="O649" s="29"/>
+      <c r="P649" s="34"/>
+      <c r="Q649" s="35"/>
+      <c r="R649" s="35"/>
+      <c r="S649" s="29"/>
+      <c r="T649" s="29"/>
+      <c r="U649" s="29"/>
+      <c r="V649" s="29"/>
+      <c r="W649" s="29"/>
+      <c r="X649" s="34"/>
+    </row>
+    <row r="650" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A650" s="29"/>
+      <c r="B650" s="29"/>
+      <c r="C650" s="29"/>
+      <c r="D650" s="29"/>
+      <c r="E650" s="29"/>
+      <c r="F650" s="29"/>
+      <c r="G650" s="29"/>
+      <c r="H650" s="29"/>
+      <c r="I650" s="29"/>
+      <c r="J650" s="29"/>
+      <c r="K650" s="29"/>
+      <c r="L650" s="29"/>
+      <c r="M650" s="34">
+        <v>49</v>
+      </c>
+      <c r="N650" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O650" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P650" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q650" s="35"/>
+      <c r="R650" s="35"/>
+      <c r="S650" s="29"/>
+      <c r="T650" s="29"/>
+      <c r="U650" s="29"/>
+      <c r="V650" s="29"/>
+      <c r="W650" s="29"/>
+      <c r="X650" s="34"/>
+    </row>
+    <row r="651" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A651" s="29"/>
+      <c r="B651" s="29"/>
+      <c r="C651" s="29"/>
+      <c r="D651" s="29"/>
+      <c r="E651" s="29"/>
+      <c r="F651" s="29"/>
+      <c r="G651" s="29"/>
+      <c r="H651" s="29"/>
+      <c r="I651" s="29"/>
+      <c r="J651" s="29"/>
+      <c r="K651" s="29"/>
+      <c r="L651" s="29"/>
+      <c r="M651" s="34">
+        <v>50</v>
+      </c>
+      <c r="N651" s="29"/>
+      <c r="O651" s="29"/>
+      <c r="P651" s="29"/>
+      <c r="Q651" s="35"/>
+      <c r="R651" s="35"/>
+      <c r="S651" s="29"/>
+      <c r="T651" s="29"/>
+      <c r="U651" s="29"/>
+      <c r="V651" s="29"/>
+      <c r="W651" s="29"/>
+      <c r="X651" s="34"/>
+    </row>
+    <row r="652" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A652" s="29"/>
+      <c r="B652" s="29"/>
+      <c r="C652" s="29"/>
+      <c r="D652" s="29"/>
+      <c r="E652" s="29"/>
+      <c r="F652" s="29"/>
+      <c r="G652" s="29"/>
+      <c r="H652" s="29"/>
+      <c r="I652" s="29"/>
+      <c r="J652" s="29"/>
+      <c r="K652" s="29"/>
+      <c r="L652" s="29"/>
+      <c r="M652" s="34">
+        <v>51</v>
+      </c>
+      <c r="N652" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O652" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P652" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q652" s="35"/>
+      <c r="R652" s="35">
+        <v>10</v>
+      </c>
+      <c r="S652" s="29"/>
+      <c r="T652" s="29"/>
+      <c r="U652" s="29"/>
+      <c r="V652" s="29"/>
+      <c r="W652" s="29"/>
+      <c r="X652" s="34"/>
+    </row>
+    <row r="653" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A653" s="29"/>
+      <c r="B653" s="29"/>
+      <c r="C653" s="29"/>
+      <c r="D653" s="29"/>
+      <c r="E653" s="29"/>
+      <c r="F653" s="29"/>
+      <c r="G653" s="29"/>
+      <c r="H653" s="29"/>
+      <c r="I653" s="29"/>
+      <c r="J653" s="29"/>
+      <c r="K653" s="29"/>
+      <c r="L653" s="29"/>
+      <c r="M653" s="34">
+        <v>52</v>
+      </c>
+      <c r="N653" s="29"/>
+      <c r="O653" s="29"/>
+      <c r="P653" s="34"/>
+      <c r="Q653" s="35"/>
+      <c r="R653" s="35"/>
+      <c r="S653" s="29"/>
+      <c r="T653" s="29"/>
+      <c r="U653" s="29"/>
+      <c r="V653" s="29"/>
+      <c r="W653" s="29"/>
+      <c r="X653" s="34"/>
+    </row>
+    <row r="654" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A654" s="29"/>
+      <c r="B654" s="29"/>
+      <c r="C654" s="29"/>
+      <c r="D654" s="29"/>
+      <c r="E654" s="29"/>
+      <c r="F654" s="29"/>
+      <c r="G654" s="29"/>
+      <c r="H654" s="29"/>
+      <c r="I654" s="29"/>
+      <c r="J654" s="29"/>
+      <c r="K654" s="29"/>
+      <c r="L654" s="29"/>
+      <c r="M654" s="34">
+        <v>53</v>
+      </c>
+      <c r="N654" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O654" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P654" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q654" s="35"/>
+      <c r="R654" s="35"/>
+      <c r="S654" s="29"/>
+      <c r="T654" s="29"/>
+      <c r="U654" s="29"/>
+      <c r="V654" s="29"/>
+      <c r="W654" s="29"/>
+      <c r="X654" s="34"/>
+    </row>
+    <row r="655" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A655" s="29"/>
+      <c r="B655" s="29"/>
+      <c r="C655" s="29"/>
+      <c r="D655" s="29"/>
+      <c r="E655" s="29"/>
+      <c r="F655" s="29"/>
+      <c r="G655" s="29"/>
+      <c r="H655" s="29"/>
+      <c r="I655" s="29"/>
+      <c r="J655" s="29"/>
+      <c r="K655" s="29"/>
+      <c r="L655" s="29"/>
+      <c r="M655" s="34">
+        <v>54</v>
+      </c>
+      <c r="N655" s="29"/>
+      <c r="O655" s="29"/>
+      <c r="P655" s="34"/>
+      <c r="Q655" s="35"/>
+      <c r="R655" s="35"/>
+      <c r="S655" s="29"/>
+      <c r="T655" s="29"/>
+      <c r="U655" s="29"/>
+      <c r="V655" s="29"/>
+      <c r="W655" s="29"/>
+      <c r="X655" s="34"/>
+    </row>
+    <row r="656" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A656" s="29"/>
+      <c r="B656" s="29"/>
+      <c r="C656" s="29"/>
+      <c r="D656" s="29"/>
+      <c r="E656" s="29"/>
+      <c r="F656" s="29"/>
+      <c r="G656" s="29"/>
+      <c r="H656" s="29"/>
+      <c r="I656" s="29"/>
+      <c r="J656" s="29"/>
+      <c r="K656" s="29"/>
+      <c r="L656" s="29"/>
+      <c r="M656" s="34">
+        <v>55</v>
+      </c>
+      <c r="N656" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O656" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P656" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q656" s="35"/>
+      <c r="R656" s="35">
+        <v>9</v>
+      </c>
+      <c r="S656" s="29"/>
+      <c r="T656" s="29"/>
+      <c r="U656" s="29"/>
+      <c r="V656" s="29"/>
+      <c r="W656" s="29"/>
+      <c r="X656" s="34"/>
+    </row>
+    <row r="657" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A657" s="29"/>
+      <c r="B657" s="29"/>
+      <c r="C657" s="29"/>
+      <c r="D657" s="29"/>
+      <c r="E657" s="29"/>
+      <c r="F657" s="29"/>
+      <c r="G657" s="29"/>
+      <c r="H657" s="29"/>
+      <c r="I657" s="29"/>
+      <c r="J657" s="29">
+        <v>-6.4055218005440082</v>
+      </c>
+      <c r="K657" s="29"/>
+      <c r="L657" s="29"/>
+      <c r="M657" s="34">
+        <v>56</v>
+      </c>
+      <c r="N657" s="29"/>
+      <c r="O657" s="29"/>
+      <c r="P657" s="29"/>
+      <c r="Q657" s="35"/>
+      <c r="R657" s="35"/>
+      <c r="S657" s="29"/>
+      <c r="T657" s="29"/>
+      <c r="U657" s="29"/>
+      <c r="V657" s="29"/>
+      <c r="W657" s="29"/>
+      <c r="X657" s="34"/>
+    </row>
+    <row r="658" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A658" s="29"/>
+      <c r="B658" s="29"/>
+      <c r="C658" s="29"/>
+      <c r="D658" s="29"/>
+      <c r="E658" s="29"/>
+      <c r="F658" s="29"/>
+      <c r="G658" s="29"/>
+      <c r="H658" s="29"/>
+      <c r="I658" s="29"/>
+      <c r="J658" s="29"/>
+      <c r="K658" s="29"/>
+      <c r="L658" s="29"/>
+      <c r="M658" s="34">
+        <v>57</v>
+      </c>
+      <c r="N658" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O658" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P658" s="29">
+        <v>35.5</v>
+      </c>
+      <c r="Q658" s="35"/>
+      <c r="R658" s="35"/>
+      <c r="S658" s="29"/>
+      <c r="T658" s="29"/>
+      <c r="U658" s="29"/>
+      <c r="V658" s="29"/>
+      <c r="W658" s="29"/>
+      <c r="X658" s="34"/>
+    </row>
+    <row r="659" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A659" s="29"/>
+      <c r="B659" s="29"/>
+      <c r="C659" s="29"/>
+      <c r="D659" s="29"/>
+      <c r="E659" s="29"/>
+      <c r="F659" s="29"/>
+      <c r="G659" s="29"/>
+      <c r="H659" s="29"/>
+      <c r="I659" s="29"/>
+      <c r="J659" s="29"/>
+      <c r="K659" s="29"/>
+      <c r="L659" s="29"/>
+      <c r="M659" s="34">
+        <v>94</v>
+      </c>
+      <c r="N659" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O659" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P659" s="29">
+        <v>-9.6</v>
+      </c>
+      <c r="Q659" s="35"/>
+      <c r="R659" s="35"/>
+      <c r="S659" s="29"/>
+      <c r="T659" s="29"/>
+      <c r="U659" s="29"/>
+      <c r="V659" s="29"/>
+      <c r="W659" s="29"/>
+      <c r="X659" s="34"/>
+    </row>
+    <row r="660" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A660" s="29"/>
+      <c r="B660" s="29"/>
+      <c r="C660" s="29"/>
+      <c r="D660" s="29"/>
+      <c r="E660" s="29"/>
+      <c r="F660" s="29"/>
+      <c r="G660" s="29"/>
+      <c r="H660" s="29"/>
+      <c r="I660" s="29"/>
+      <c r="J660" s="29"/>
+      <c r="K660" s="29"/>
+      <c r="L660" s="29"/>
+      <c r="M660" s="34">
+        <v>95</v>
+      </c>
+      <c r="N660" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O660" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P660" s="29">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="Q660" s="35"/>
+      <c r="R660" s="35"/>
+      <c r="S660" s="29"/>
+      <c r="T660" s="29"/>
+      <c r="U660" s="29"/>
+      <c r="V660" s="29"/>
+      <c r="W660" s="29"/>
+      <c r="X660" s="34"/>
+    </row>
+    <row r="661" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A661" s="29"/>
+      <c r="B661" s="29"/>
+      <c r="C661" s="29"/>
+      <c r="D661" s="29"/>
+      <c r="E661" s="29"/>
+      <c r="F661" s="29"/>
+      <c r="G661" s="29"/>
+      <c r="H661" s="29"/>
+      <c r="I661" s="29"/>
+      <c r="J661" s="29"/>
+      <c r="K661" s="29"/>
+      <c r="L661" s="29"/>
+      <c r="M661" s="34">
+        <v>96</v>
+      </c>
+      <c r="N661" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O661" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P661" s="29">
+        <v>-4</v>
+      </c>
+      <c r="Q661" s="35"/>
+      <c r="R661" s="35"/>
+      <c r="S661" s="29"/>
+      <c r="T661" s="29"/>
+      <c r="U661" s="29"/>
+      <c r="V661" s="29"/>
+      <c r="W661" s="29"/>
+      <c r="X661" s="34"/>
+    </row>
+    <row r="662" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A662" s="29"/>
+      <c r="B662" s="29"/>
+      <c r="C662" s="29"/>
+      <c r="D662" s="29"/>
+      <c r="E662" s="29"/>
+      <c r="F662" s="29"/>
+      <c r="G662" s="29"/>
+      <c r="H662" s="29"/>
+      <c r="I662" s="29"/>
+      <c r="J662" s="29"/>
+      <c r="K662" s="29"/>
+      <c r="L662" s="29"/>
+      <c r="M662" s="34">
+        <v>97</v>
+      </c>
+      <c r="N662" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O662" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P662" s="29">
+        <v>-6.7</v>
+      </c>
+      <c r="Q662" s="35"/>
+      <c r="R662" s="35"/>
+      <c r="S662" s="29"/>
+      <c r="T662" s="29"/>
+      <c r="U662" s="29"/>
+      <c r="V662" s="29"/>
+      <c r="W662" s="29"/>
+      <c r="X662" s="34"/>
+    </row>
+    <row r="663" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A663" s="29"/>
+      <c r="B663" s="29"/>
+      <c r="C663" s="29"/>
+      <c r="D663" s="29"/>
+      <c r="E663" s="29"/>
+      <c r="F663" s="29"/>
+      <c r="G663" s="29"/>
+      <c r="H663" s="29"/>
+      <c r="I663" s="29"/>
+      <c r="J663" s="29"/>
+      <c r="K663" s="29"/>
+      <c r="L663" s="29"/>
+      <c r="M663" s="34">
+        <v>98</v>
+      </c>
+      <c r="N663" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O663" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P663" s="29">
+        <v>-9.1</v>
+      </c>
+      <c r="Q663" s="35"/>
+      <c r="R663" s="35"/>
+      <c r="S663" s="29"/>
+      <c r="T663" s="29"/>
+      <c r="U663" s="29"/>
+      <c r="V663" s="29"/>
+      <c r="W663" s="29"/>
+      <c r="X663" s="34"/>
+    </row>
+    <row r="664" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A664" s="29"/>
+      <c r="B664" s="29"/>
+      <c r="C664" s="29"/>
+      <c r="D664" s="29"/>
+      <c r="E664" s="29"/>
+      <c r="F664" s="29"/>
+      <c r="G664" s="29"/>
+      <c r="H664" s="29"/>
+      <c r="I664" s="29"/>
+      <c r="J664" s="29"/>
+      <c r="K664" s="29"/>
+      <c r="L664" s="29"/>
+      <c r="M664" s="34">
+        <v>99</v>
+      </c>
+      <c r="N664" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O664" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P664" s="29">
+        <v>-2.5</v>
+      </c>
+      <c r="Q664" s="35"/>
+      <c r="R664" s="35"/>
+      <c r="S664" s="29"/>
+      <c r="T664" s="29"/>
+      <c r="U664" s="29"/>
+      <c r="V664" s="29"/>
+      <c r="W664" s="29"/>
+      <c r="X664" s="34"/>
+    </row>
+    <row r="665" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A665" s="29"/>
+      <c r="B665" s="29"/>
+      <c r="C665" s="29"/>
+      <c r="D665" s="29"/>
+      <c r="E665" s="29"/>
+      <c r="F665" s="29"/>
+      <c r="G665" s="29"/>
+      <c r="H665" s="29"/>
+      <c r="I665" s="29"/>
+      <c r="J665" s="29"/>
+      <c r="K665" s="29"/>
+      <c r="L665" s="29"/>
+      <c r="M665" s="34">
+        <v>100</v>
+      </c>
+      <c r="N665" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O665" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P665" s="29">
+        <v>-3.9</v>
+      </c>
+      <c r="Q665" s="35"/>
+      <c r="R665" s="35"/>
+      <c r="S665" s="29"/>
+      <c r="T665" s="29"/>
+      <c r="U665" s="29"/>
+      <c r="V665" s="29"/>
+      <c r="W665" s="29"/>
+      <c r="X665" s="34"/>
+    </row>
+    <row r="666" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A666" s="29"/>
+      <c r="B666" s="29"/>
+      <c r="C666" s="29"/>
+      <c r="D666" s="29"/>
+      <c r="E666" s="29"/>
+      <c r="F666" s="29"/>
+      <c r="G666" s="29"/>
+      <c r="H666" s="29"/>
+      <c r="I666" s="29"/>
+      <c r="J666" s="29"/>
+      <c r="K666" s="29"/>
+      <c r="L666" s="29"/>
+      <c r="M666" s="34">
+        <v>101</v>
+      </c>
+      <c r="N666" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O666" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P666" s="29">
+        <v>-3.2</v>
+      </c>
+      <c r="Q666" s="35"/>
+      <c r="R666" s="35"/>
+      <c r="S666" s="29"/>
+      <c r="T666" s="29"/>
+      <c r="U666" s="29"/>
+      <c r="V666" s="29"/>
+      <c r="W666" s="29"/>
+      <c r="X666" s="34"/>
+    </row>
+    <row r="667" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A667" s="29"/>
+      <c r="B667" s="29"/>
+      <c r="C667" s="29"/>
+      <c r="D667" s="29"/>
+      <c r="E667" s="29"/>
+      <c r="F667" s="29"/>
+      <c r="G667" s="29"/>
+      <c r="H667" s="29"/>
+      <c r="I667" s="29"/>
+      <c r="J667" s="29"/>
+      <c r="K667" s="29"/>
+      <c r="L667" s="29"/>
+      <c r="M667" s="34">
+        <v>102</v>
+      </c>
+      <c r="N667" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O667" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P667" s="29">
+        <v>-2.8</v>
+      </c>
+      <c r="Q667" s="35"/>
+      <c r="R667" s="35"/>
+      <c r="S667" s="29"/>
+      <c r="T667" s="29"/>
+      <c r="U667" s="29"/>
+      <c r="V667" s="29"/>
+      <c r="W667" s="29"/>
+      <c r="X667" s="34"/>
+    </row>
+    <row r="668" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A668" s="29"/>
+      <c r="B668" s="29"/>
+      <c r="C668" s="29"/>
+      <c r="D668" s="29"/>
+      <c r="E668" s="29"/>
+      <c r="F668" s="29"/>
+      <c r="G668" s="29"/>
+      <c r="H668" s="29"/>
+      <c r="I668" s="29"/>
+      <c r="J668" s="29"/>
+      <c r="K668" s="29"/>
+      <c r="L668" s="29"/>
+      <c r="M668" s="34">
+        <v>103</v>
+      </c>
+      <c r="N668" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O668" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P668" s="29">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="Q668" s="35"/>
+      <c r="R668" s="35"/>
+      <c r="S668" s="29"/>
+      <c r="T668" s="29"/>
+      <c r="U668" s="29"/>
+      <c r="V668" s="29"/>
+      <c r="W668" s="29"/>
+      <c r="X668" s="34"/>
+    </row>
+    <row r="669" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A669" s="29"/>
+      <c r="B669" s="29"/>
+      <c r="C669" s="29"/>
+      <c r="D669" s="29"/>
+      <c r="E669" s="29"/>
+      <c r="F669" s="29"/>
+      <c r="G669" s="29"/>
+      <c r="H669" s="29"/>
+      <c r="I669" s="29"/>
+      <c r="J669" s="29"/>
+      <c r="K669" s="29"/>
+      <c r="L669" s="29"/>
+      <c r="M669" s="34">
+        <v>104</v>
+      </c>
+      <c r="N669" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O669" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P669" s="29">
+        <v>-0.5</v>
+      </c>
+      <c r="Q669" s="35"/>
+      <c r="R669" s="35"/>
+      <c r="S669" s="29"/>
+      <c r="T669" s="29"/>
+      <c r="U669" s="29"/>
+      <c r="V669" s="29"/>
+      <c r="W669" s="29"/>
+      <c r="X669" s="34"/>
+    </row>
+    <row r="670" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A670" s="29"/>
+      <c r="B670" s="29"/>
+      <c r="C670" s="29"/>
+      <c r="D670" s="29"/>
+      <c r="E670" s="29"/>
+      <c r="F670" s="29"/>
+      <c r="G670" s="29"/>
+      <c r="H670" s="29"/>
+      <c r="I670" s="29"/>
+      <c r="J670" s="29"/>
+      <c r="K670" s="29"/>
+      <c r="L670" s="29"/>
+      <c r="M670" s="34">
+        <v>105</v>
+      </c>
+      <c r="N670" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O670" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P670" s="29">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="Q670" s="35"/>
+      <c r="R670" s="35"/>
+      <c r="S670" s="29"/>
+      <c r="T670" s="29"/>
+      <c r="U670" s="29"/>
+      <c r="V670" s="29"/>
+      <c r="W670" s="29"/>
+      <c r="X670" s="34"/>
+    </row>
+    <row r="671" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A671" s="29"/>
+      <c r="B671" s="29"/>
+      <c r="C671" s="29"/>
+      <c r="D671" s="29"/>
+      <c r="E671" s="29"/>
+      <c r="F671" s="29"/>
+      <c r="G671" s="29"/>
+      <c r="H671" s="29"/>
+      <c r="I671" s="29"/>
+      <c r="J671" s="29"/>
+      <c r="K671" s="29"/>
+      <c r="L671" s="29"/>
+      <c r="M671" s="34">
+        <v>106</v>
+      </c>
+      <c r="N671" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O671" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P671" s="29">
+        <v>-9.9</v>
+      </c>
+      <c r="Q671" s="35"/>
+      <c r="R671" s="35"/>
+      <c r="S671" s="29"/>
+      <c r="T671" s="29"/>
+      <c r="U671" s="29"/>
+      <c r="V671" s="29"/>
+      <c r="W671" s="29"/>
+      <c r="X671" s="34"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="G190:I190"/>
@@ -12128,6 +17909,46 @@
     <mergeCell ref="V197:W197"/>
   </mergeCells>
   <conditionalFormatting sqref="G366:H375">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFA6C9EC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E367:F375">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF7C7AC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G466:H475">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFA6C9EC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E467:F475">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF7C7AC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G546:H555">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -12137,7 +17958,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E367:F375">
+  <conditionalFormatting sqref="E547:F555">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -12147,7 +17968,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G466:H475">
+  <conditionalFormatting sqref="G586:H595">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -12157,7 +17978,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E467:F475">
+  <conditionalFormatting sqref="E588:F595">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -12168,7 +17989,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L299:M332 S352:S430 M352:N430 U452:U525 O452:P525" xr:uid="{804F0AFC-E07C-4B9B-A3FD-AEB68EC6AC1C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L299:M332 S352:S430 M352:N430 U452:U525 O452:P525 O532:P569 U532:U569 T572:T671 N572:O671" xr:uid="{804F0AFC-E07C-4B9B-A3FD-AEB68EC6AC1C}">
       <formula1>$A$18:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B208:C208" xr:uid="{605C8630-B0BC-4DB7-8E8F-8A6B69239C15}">

--- a/Test/test_runs_combat.xlsx
+++ b/Test/test_runs_combat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shield\Documents\Story\AgranariTTRPG\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0178F633-74C2-4BD9-A3FB-605139EE2A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349EA99A-8BF4-4484-8EDF-B5BBB194BA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12975" yWindow="405" windowWidth="29070" windowHeight="12600" xr2:uid="{F8D463A0-768A-4A18-944B-E333205F072A}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="122">
   <si>
     <t>Cat Soldier</t>
   </si>
@@ -426,6 +426,9 @@
   <si>
     <t>CRIT!</t>
   </si>
+  <si>
+    <t>Elbow</t>
+  </si>
 </sst>
 </file>
 
@@ -752,7 +755,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FFBFBFBF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFBFBFBF"/>
@@ -1154,10 +1167,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7A2475-8FD1-4D1A-98B6-D7C93564AF9C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y779"/>
+  <dimension ref="A1:Y807"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A674" workbookViewId="0">
-      <selection activeCell="L688" sqref="L688"/>
+    <sheetView tabSelected="1" topLeftCell="A785" workbookViewId="0">
+      <selection activeCell="A790" sqref="A790:X807"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22095,6 +22108,816 @@
       <c r="W779" s="27"/>
       <c r="X779" s="32"/>
     </row>
+    <row r="790" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A790" s="27"/>
+      <c r="B790" s="27"/>
+      <c r="C790" s="27"/>
+      <c r="D790" s="27"/>
+      <c r="E790" s="27"/>
+      <c r="F790" s="27"/>
+      <c r="G790" s="27"/>
+      <c r="H790" s="27"/>
+      <c r="I790" s="27"/>
+      <c r="J790" s="27"/>
+      <c r="K790" s="27"/>
+      <c r="L790" s="27"/>
+      <c r="M790" s="27"/>
+      <c r="N790" s="27"/>
+      <c r="O790" s="27"/>
+      <c r="P790" s="27"/>
+      <c r="Q790" s="27"/>
+      <c r="R790" s="27"/>
+      <c r="S790" s="27"/>
+      <c r="T790" s="27"/>
+      <c r="U790" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="V790" s="28"/>
+      <c r="W790" s="28"/>
+      <c r="X790" s="28"/>
+    </row>
+    <row r="791" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A791" s="29"/>
+      <c r="B791" s="29"/>
+      <c r="C791" s="29"/>
+      <c r="D791" s="29"/>
+      <c r="E791" s="29"/>
+      <c r="F791" s="29"/>
+      <c r="G791" s="29"/>
+      <c r="H791" s="29"/>
+      <c r="I791" s="29"/>
+      <c r="J791" s="29"/>
+      <c r="K791" s="29"/>
+      <c r="L791" s="27"/>
+      <c r="M791" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="N791" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="O791" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P791" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q791" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R791" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="S791" s="27"/>
+      <c r="T791" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="U791" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="V791" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="W791" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="X791" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="792" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A792" s="29"/>
+      <c r="B792" s="29"/>
+      <c r="C792" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D792" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E792" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F792" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G792" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H792" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I792" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J792" s="29"/>
+      <c r="K792" s="29"/>
+      <c r="L792" s="27"/>
+      <c r="M792" s="49">
+        <v>1</v>
+      </c>
+      <c r="N792" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O792" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P792" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q792" s="33">
+        <v>1</v>
+      </c>
+      <c r="R792" s="33">
+        <v>1</v>
+      </c>
+      <c r="S792" s="27"/>
+      <c r="T792" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="U792" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="V792" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="W792" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="X792" s="32">
+        <v>4.4159660180409759</v>
+      </c>
+    </row>
+    <row r="793" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A793" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B793" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C793" s="36">
+        <v>7.7272727272727275</v>
+      </c>
+      <c r="D793" s="37"/>
+      <c r="E793" s="36">
+        <v>26.453222831090294</v>
+      </c>
+      <c r="F793" s="44"/>
+      <c r="G793" s="36">
+        <v>0</v>
+      </c>
+      <c r="H793" s="36">
+        <v>1</v>
+      </c>
+      <c r="I793" s="38">
+        <v>34.18049555836302</v>
+      </c>
+      <c r="J793" s="39"/>
+      <c r="K793" s="29"/>
+      <c r="L793" s="27"/>
+      <c r="M793" s="49">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N793" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O793" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P793" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q793" s="33">
+        <v>11</v>
+      </c>
+      <c r="R793" s="33">
+        <v>1</v>
+      </c>
+      <c r="S793" s="27"/>
+      <c r="T793" s="27"/>
+      <c r="U793" s="27"/>
+      <c r="V793" s="27"/>
+      <c r="W793" s="27"/>
+      <c r="X793" s="32"/>
+    </row>
+    <row r="794" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A794" s="29"/>
+      <c r="B794" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C794" s="36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D794" s="37"/>
+      <c r="E794" s="36"/>
+      <c r="F794" s="44"/>
+      <c r="G794" s="36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H794" s="36">
+        <v>1</v>
+      </c>
+      <c r="I794" s="38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J794" s="39"/>
+      <c r="K794" s="29"/>
+      <c r="L794" s="27"/>
+      <c r="M794" s="49">
+        <v>2</v>
+      </c>
+      <c r="N794" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O794" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P794" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q794" s="33">
+        <v>2</v>
+      </c>
+      <c r="R794" s="33">
+        <v>2</v>
+      </c>
+      <c r="S794" s="27"/>
+      <c r="T794" s="27">
+        <v>0</v>
+      </c>
+      <c r="U794" s="27"/>
+      <c r="V794" s="27"/>
+      <c r="W794" s="27"/>
+      <c r="X794" s="32"/>
+    </row>
+    <row r="795" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A795" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B795" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C795" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="D795" s="37"/>
+      <c r="E795" s="36">
+        <v>30.866805553436279</v>
+      </c>
+      <c r="F795" s="44"/>
+      <c r="G795" s="36">
+        <v>0</v>
+      </c>
+      <c r="H795" s="36">
+        <v>1</v>
+      </c>
+      <c r="I795" s="38">
+        <v>31.66680555343628</v>
+      </c>
+      <c r="J795" s="39"/>
+      <c r="K795" s="29"/>
+      <c r="L795" s="27"/>
+      <c r="M795" s="49">
+        <v>3</v>
+      </c>
+      <c r="N795" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O795" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P795" s="32">
+        <v>34.182987610499062</v>
+      </c>
+      <c r="Q795" s="33">
+        <v>1</v>
+      </c>
+      <c r="R795" s="33">
+        <v>13</v>
+      </c>
+      <c r="S795" s="27"/>
+      <c r="T795" s="27"/>
+      <c r="U795" s="27"/>
+      <c r="V795" s="27"/>
+      <c r="W795" s="27"/>
+      <c r="X795" s="32"/>
+    </row>
+    <row r="796" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A796" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B796" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C796" s="36">
+        <v>50</v>
+      </c>
+      <c r="D796" s="37"/>
+      <c r="E796" s="36">
+        <v>2.6082723140716553</v>
+      </c>
+      <c r="F796" s="44"/>
+      <c r="G796" s="36">
+        <v>0</v>
+      </c>
+      <c r="H796" s="36">
+        <v>1</v>
+      </c>
+      <c r="I796" s="38">
+        <v>52.608272314071655</v>
+      </c>
+      <c r="J796" s="39"/>
+      <c r="K796" s="29"/>
+      <c r="L796" s="27"/>
+      <c r="M796" s="49">
+        <v>4</v>
+      </c>
+      <c r="N796" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O796" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P796" s="32">
+        <v>51.062067846457168</v>
+      </c>
+      <c r="Q796" s="33">
+        <v>1</v>
+      </c>
+      <c r="R796" s="33">
+        <v>22</v>
+      </c>
+      <c r="S796" s="27"/>
+      <c r="T796" s="27"/>
+      <c r="U796" s="27"/>
+      <c r="V796" s="27"/>
+      <c r="W796" s="27"/>
+      <c r="X796" s="32"/>
+    </row>
+    <row r="797" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A797" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B797" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C797" s="36"/>
+      <c r="D797" s="36"/>
+      <c r="E797" s="36"/>
+      <c r="F797" s="45"/>
+      <c r="G797" s="36">
+        <v>0</v>
+      </c>
+      <c r="H797" s="36">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I797" s="40">
+        <v>43.840226928393051</v>
+      </c>
+      <c r="J797" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="K797" s="29"/>
+      <c r="L797" s="27"/>
+      <c r="M797" s="49">
+        <v>5</v>
+      </c>
+      <c r="N797" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O797" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P797" s="32">
+        <v>51.148905555407211</v>
+      </c>
+      <c r="Q797" s="33">
+        <v>0</v>
+      </c>
+      <c r="R797" s="33">
+        <v>1</v>
+      </c>
+      <c r="S797" s="27"/>
+      <c r="T797" s="27"/>
+      <c r="U797" s="27"/>
+      <c r="V797" s="27"/>
+      <c r="W797" s="27"/>
+      <c r="X797" s="32"/>
+    </row>
+    <row r="798" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A798" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B798" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C798" s="36">
+        <v>24.983333333333334</v>
+      </c>
+      <c r="D798" s="37"/>
+      <c r="E798" s="36">
+        <v>14.440927577018739</v>
+      </c>
+      <c r="F798" s="44"/>
+      <c r="G798" s="36">
+        <v>0</v>
+      </c>
+      <c r="H798" s="36">
+        <v>1</v>
+      </c>
+      <c r="I798" s="38">
+        <v>39.424260910352075</v>
+      </c>
+      <c r="J798" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="K798" s="29"/>
+      <c r="L798" s="27"/>
+      <c r="M798" s="49">
+        <v>6</v>
+      </c>
+      <c r="N798" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O798" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P798" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q798" s="33">
+        <v>0</v>
+      </c>
+      <c r="R798" s="33">
+        <v>0</v>
+      </c>
+      <c r="S798" s="27"/>
+      <c r="T798" s="27"/>
+      <c r="U798" s="27"/>
+      <c r="V798" s="27"/>
+      <c r="W798" s="27"/>
+      <c r="X798" s="32"/>
+    </row>
+    <row r="799" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A799" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B799" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C799" s="36">
+        <v>13.893181818181819</v>
+      </c>
+      <c r="D799" s="37"/>
+      <c r="E799" s="36">
+        <v>8.1309923484921462</v>
+      </c>
+      <c r="F799" s="44"/>
+      <c r="G799" s="36">
+        <v>0</v>
+      </c>
+      <c r="H799" s="36">
+        <v>1</v>
+      </c>
+      <c r="I799" s="38">
+        <v>22.024174166673966</v>
+      </c>
+      <c r="J799" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="K799" s="29"/>
+      <c r="L799" s="27"/>
+      <c r="M799" s="49">
+        <v>7</v>
+      </c>
+      <c r="N799" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O799" s="27"/>
+      <c r="P799" s="32"/>
+      <c r="Q799" s="33"/>
+      <c r="R799" s="33"/>
+      <c r="S799" s="27"/>
+      <c r="T799" s="27"/>
+      <c r="U799" s="27"/>
+      <c r="V799" s="27"/>
+      <c r="W799" s="27"/>
+      <c r="X799" s="32"/>
+    </row>
+    <row r="800" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A800" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B800" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C800" s="36">
+        <v>123.75</v>
+      </c>
+      <c r="D800" s="37"/>
+      <c r="E800" s="36">
+        <v>6.4162985622882847</v>
+      </c>
+      <c r="F800" s="44"/>
+      <c r="G800" s="36">
+        <v>0</v>
+      </c>
+      <c r="H800" s="36">
+        <v>1</v>
+      </c>
+      <c r="I800" s="38">
+        <v>130.16629856228829</v>
+      </c>
+      <c r="J800" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K800" s="29"/>
+      <c r="L800" s="27"/>
+      <c r="M800" s="49">
+        <v>7.1</v>
+      </c>
+      <c r="N800" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O800" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P800" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q800" s="33">
+        <v>0</v>
+      </c>
+      <c r="R800" s="33">
+        <v>0</v>
+      </c>
+      <c r="S800" s="27"/>
+      <c r="T800" s="27"/>
+      <c r="U800" s="27"/>
+      <c r="V800" s="27"/>
+      <c r="W800" s="27"/>
+      <c r="X800" s="32"/>
+    </row>
+    <row r="801" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A801" s="29"/>
+      <c r="B801" s="29"/>
+      <c r="C801" s="29"/>
+      <c r="D801" s="29"/>
+      <c r="E801" s="29"/>
+      <c r="F801" s="29"/>
+      <c r="G801" s="29"/>
+      <c r="H801" s="29"/>
+      <c r="I801" s="29"/>
+      <c r="J801" s="29"/>
+      <c r="K801" s="29"/>
+      <c r="L801" s="27"/>
+      <c r="M801" s="49">
+        <v>8</v>
+      </c>
+      <c r="N801" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O801" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P801" s="32">
+        <v>38.284235397974648</v>
+      </c>
+      <c r="Q801" s="33">
+        <v>0</v>
+      </c>
+      <c r="R801" s="33">
+        <v>0</v>
+      </c>
+      <c r="S801" s="27"/>
+      <c r="T801" s="27"/>
+      <c r="U801" s="27"/>
+      <c r="V801" s="27"/>
+      <c r="W801" s="27"/>
+      <c r="X801" s="32"/>
+    </row>
+    <row r="802" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A802" s="27"/>
+      <c r="B802" s="27"/>
+      <c r="C802" s="27"/>
+      <c r="D802" s="27"/>
+      <c r="E802" s="27"/>
+      <c r="F802" s="27"/>
+      <c r="G802" s="27"/>
+      <c r="H802" s="27"/>
+      <c r="I802" s="27"/>
+      <c r="J802" s="27"/>
+      <c r="K802" s="27"/>
+      <c r="L802" s="27"/>
+      <c r="M802" s="49">
+        <v>9</v>
+      </c>
+      <c r="N802" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O802" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P802" s="32">
+        <v>43.840226928393051</v>
+      </c>
+      <c r="Q802" s="33">
+        <v>0</v>
+      </c>
+      <c r="R802" s="33">
+        <v>0</v>
+      </c>
+      <c r="S802" s="27"/>
+      <c r="T802" s="27"/>
+      <c r="U802" s="27"/>
+      <c r="V802" s="27"/>
+      <c r="W802" s="27"/>
+      <c r="X802" s="32"/>
+    </row>
+    <row r="803" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A803" s="27"/>
+      <c r="B803" s="27"/>
+      <c r="C803" s="27"/>
+      <c r="D803" s="27"/>
+      <c r="E803" s="27"/>
+      <c r="F803" s="27"/>
+      <c r="G803" s="27"/>
+      <c r="H803" s="27"/>
+      <c r="I803" s="27"/>
+      <c r="J803" s="27"/>
+      <c r="K803" s="27"/>
+      <c r="L803" s="27"/>
+      <c r="M803" s="49"/>
+      <c r="N803" s="27"/>
+      <c r="O803" s="27"/>
+      <c r="P803" s="32"/>
+      <c r="Q803" s="33"/>
+      <c r="R803" s="33"/>
+      <c r="S803" s="27"/>
+      <c r="T803" s="27"/>
+      <c r="U803" s="27"/>
+      <c r="V803" s="27"/>
+      <c r="W803" s="27"/>
+      <c r="X803" s="32"/>
+    </row>
+    <row r="804" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A804" s="27"/>
+      <c r="B804" s="27"/>
+      <c r="C804" s="27"/>
+      <c r="D804" s="27"/>
+      <c r="E804" s="27"/>
+      <c r="F804" s="27"/>
+      <c r="G804" s="27"/>
+      <c r="H804" s="27"/>
+      <c r="I804" s="27"/>
+      <c r="J804" s="27"/>
+      <c r="K804" s="27"/>
+      <c r="L804" s="27"/>
+      <c r="M804" s="49"/>
+      <c r="N804" s="27"/>
+      <c r="O804" s="27"/>
+      <c r="P804" s="32"/>
+      <c r="Q804" s="33"/>
+      <c r="R804" s="33"/>
+      <c r="S804" s="27"/>
+      <c r="T804" s="27"/>
+      <c r="U804" s="27"/>
+      <c r="V804" s="27"/>
+      <c r="W804" s="27"/>
+      <c r="X804" s="32"/>
+    </row>
+    <row r="805" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A805" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B805" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C805" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D805" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E805" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F805" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G805" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H805" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I805" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J805" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="K805" s="28"/>
+      <c r="L805" s="28"/>
+      <c r="M805" s="49"/>
+      <c r="N805" s="27"/>
+      <c r="O805" s="27"/>
+      <c r="P805" s="32"/>
+      <c r="Q805" s="33"/>
+      <c r="R805" s="33"/>
+      <c r="S805" s="27"/>
+      <c r="T805" s="27"/>
+      <c r="U805" s="27"/>
+      <c r="V805" s="27"/>
+      <c r="W805" s="27"/>
+      <c r="X805" s="32"/>
+    </row>
+    <row r="806" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A806" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B806" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C806" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D806" s="32">
+        <v>16</v>
+      </c>
+      <c r="E806" s="32">
+        <v>95.448799669742584</v>
+      </c>
+      <c r="F806" s="32">
+        <v>241.5</v>
+      </c>
+      <c r="G806" s="32">
+        <v>0.66666666666666785</v>
+      </c>
+      <c r="H806" s="32">
+        <v>28.666666666666668</v>
+      </c>
+      <c r="I806" s="32"/>
+      <c r="J806" s="27">
+        <v>0</v>
+      </c>
+      <c r="K806" s="27"/>
+      <c r="L806" s="27"/>
+      <c r="M806" s="49"/>
+      <c r="N806" s="27"/>
+      <c r="O806" s="27"/>
+      <c r="P806" s="32"/>
+      <c r="Q806" s="33"/>
+      <c r="R806" s="33"/>
+      <c r="S806" s="27"/>
+      <c r="T806" s="27"/>
+      <c r="U806" s="27"/>
+      <c r="V806" s="27"/>
+      <c r="W806" s="27"/>
+      <c r="X806" s="32"/>
+    </row>
+    <row r="807" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A807" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B807" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C807" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D807" s="32">
+        <v>16</v>
+      </c>
+      <c r="E807" s="32">
+        <v>167.5327769915263</v>
+      </c>
+      <c r="F807" s="32">
+        <v>240</v>
+      </c>
+      <c r="G807" s="32">
+        <v>0</v>
+      </c>
+      <c r="H807" s="32">
+        <v>28</v>
+      </c>
+      <c r="I807" s="32"/>
+      <c r="J807" s="32">
+        <v>0</v>
+      </c>
+      <c r="K807" s="32"/>
+      <c r="L807" s="32"/>
+      <c r="M807" s="49"/>
+      <c r="N807" s="27"/>
+      <c r="O807" s="27"/>
+      <c r="P807" s="32"/>
+      <c r="Q807" s="33"/>
+      <c r="R807" s="33"/>
+      <c r="S807" s="27"/>
+      <c r="T807" s="27"/>
+      <c r="U807" s="27"/>
+      <c r="V807" s="27"/>
+      <c r="W807" s="27"/>
+      <c r="X807" s="32"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="G197:I197"/>
@@ -22109,6 +22932,16 @@
     <mergeCell ref="V190:W190"/>
   </mergeCells>
   <conditionalFormatting sqref="E367:F375">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF7C7AC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E467:F475">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -22118,7 +22951,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E467:F475">
+  <conditionalFormatting sqref="E547:F555">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -22128,7 +22961,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E547:F555">
+  <conditionalFormatting sqref="E588:F595">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -22138,7 +22971,57 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E588:F595">
+  <conditionalFormatting sqref="G366:H375">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFA6C9EC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G466:H475">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFA6C9EC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G546:H555">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFA6C9EC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G586:H595">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFA6C9EC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G693:H702">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFA6C9EC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E695:F702">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -22148,8 +23031,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G366:H375">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="P677:R779">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G806:H807">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -22158,63 +23046,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G466:H475">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFA6C9EC"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G546:H555">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFA6C9EC"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G586:H595">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFA6C9EC"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G693:H702">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFA6C9EC"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E695:F702">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFF7C7AC"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P677:R779">
+  <conditionalFormatting sqref="P790:R807">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L299:M332 S352:S430 M352:N430 U452:U525 O452:P525 O532:P569 U532:U569 T572:T671 N572:O671 T682:T779 T679:T680 N679:O779" xr:uid="{804F0AFC-E07C-4B9B-A3FD-AEB68EC6AC1C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L299:M332 S352:S430 M352:N430 U452:U525 O452:P525 O532:P569 U532:U569 T572:T671 N572:O671 T682:T779 T679:T680 N679:O779 T795:T807 T792:T793 N792:O807" xr:uid="{804F0AFC-E07C-4B9B-A3FD-AEB68EC6AC1C}">
       <formula1>$A$18:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B208:C208" xr:uid="{605C8630-B0BC-4DB7-8E8F-8A6B69239C15}">

--- a/Test/test_runs_combat.xlsx
+++ b/Test/test_runs_combat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shield\Documents\Story\AgranariTTRPG\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349EA99A-8BF4-4484-8EDF-B5BBB194BA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB7650A-B984-4C39-8BDA-048706BBE90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12975" yWindow="405" windowWidth="29070" windowHeight="12600" xr2:uid="{F8D463A0-768A-4A18-944B-E333205F072A}"/>
   </bookViews>

--- a/Test/test_runs_combat.xlsx
+++ b/Test/test_runs_combat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shield\Documents\Story\AgranariTTRPG\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB7650A-B984-4C39-8BDA-048706BBE90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21023C10-A636-44C2-A541-7B7F1FCC9C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12975" yWindow="405" windowWidth="29070" windowHeight="12600" xr2:uid="{F8D463A0-768A-4A18-944B-E333205F072A}"/>
   </bookViews>
@@ -1170,7 +1170,7 @@
   <dimension ref="A1:Y807"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A785" workbookViewId="0">
-      <selection activeCell="A790" sqref="A790:X807"/>
+      <selection activeCell="Z794" sqref="Z794"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test/test_runs_combat.xlsx
+++ b/Test/test_runs_combat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shield\Documents\Story\AgranariTTRPG\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21023C10-A636-44C2-A541-7B7F1FCC9C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FCEC16-DCF4-4809-96FA-5DCFDC8A2AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12975" yWindow="405" windowWidth="29070" windowHeight="12600" xr2:uid="{F8D463A0-768A-4A18-944B-E333205F072A}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="123">
   <si>
     <t>Cat Soldier</t>
   </si>
@@ -429,6 +429,9 @@
   <si>
     <t>Elbow</t>
   </si>
+  <si>
+    <t>?</t>
+  </si>
 </sst>
 </file>
 
@@ -755,7 +758,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FFBFBFBF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFBFBFBF"/>
@@ -1167,10 +1180,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7A2475-8FD1-4D1A-98B6-D7C93564AF9C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y807"/>
+  <dimension ref="A1:Y920"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A785" workbookViewId="0">
-      <selection activeCell="Z794" sqref="Z794"/>
+    <sheetView tabSelected="1" topLeftCell="A860" workbookViewId="0">
+      <selection activeCell="A820" sqref="A820:X920"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22918,6 +22931,4100 @@
       <c r="W807" s="27"/>
       <c r="X807" s="32"/>
     </row>
+    <row r="820" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A820" s="27"/>
+      <c r="B820" s="27"/>
+      <c r="C820" s="27"/>
+      <c r="D820" s="27"/>
+      <c r="E820" s="27"/>
+      <c r="F820" s="27"/>
+      <c r="G820" s="27"/>
+      <c r="H820" s="27"/>
+      <c r="I820" s="27"/>
+      <c r="J820" s="27"/>
+      <c r="K820" s="27"/>
+      <c r="L820" s="27"/>
+      <c r="M820" s="27"/>
+      <c r="N820" s="27"/>
+      <c r="O820" s="27"/>
+      <c r="P820" s="27"/>
+      <c r="Q820" s="27"/>
+      <c r="R820" s="27"/>
+      <c r="S820" s="27"/>
+      <c r="T820" s="27"/>
+      <c r="U820" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="V820" s="28"/>
+      <c r="W820" s="28"/>
+      <c r="X820" s="28"/>
+    </row>
+    <row r="821" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A821" s="29"/>
+      <c r="B821" s="29"/>
+      <c r="C821" s="29"/>
+      <c r="D821" s="29"/>
+      <c r="E821" s="29"/>
+      <c r="F821" s="29"/>
+      <c r="G821" s="29"/>
+      <c r="H821" s="29"/>
+      <c r="I821" s="29"/>
+      <c r="J821" s="29"/>
+      <c r="K821" s="29"/>
+      <c r="L821" s="27"/>
+      <c r="M821" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="N821" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="O821" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="P821" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q821" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="R821" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="S821" s="27"/>
+      <c r="T821" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="U821" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="V821" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="W821" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="X821" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="822" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A822" s="29"/>
+      <c r="B822" s="29"/>
+      <c r="C822" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D822" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E822" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F822" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G822" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H822" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I822" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J822" s="29"/>
+      <c r="K822" s="29"/>
+      <c r="L822" s="27"/>
+      <c r="M822" s="49">
+        <v>1</v>
+      </c>
+      <c r="N822" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O822" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="P822" s="32">
+        <v>42.290546802374038</v>
+      </c>
+      <c r="Q822" s="33">
+        <v>2</v>
+      </c>
+      <c r="R822" s="33">
+        <v>0</v>
+      </c>
+      <c r="S822" s="27"/>
+      <c r="T822" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="U822" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="V822" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="W822" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="X822" s="32">
+        <v>22.153280569009297</v>
+      </c>
+    </row>
+    <row r="823" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A823" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B823" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C823" s="36">
+        <v>12.272727272727273</v>
+      </c>
+      <c r="D823" s="37"/>
+      <c r="E823" s="36">
+        <v>17.565063238143921</v>
+      </c>
+      <c r="F823" s="44">
+        <v>1</v>
+      </c>
+      <c r="G823" s="36">
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="H823" s="36">
+        <v>1</v>
+      </c>
+      <c r="I823" s="38">
+        <v>31.197790510871194</v>
+      </c>
+      <c r="J823" s="39"/>
+      <c r="K823" s="29"/>
+      <c r="L823" s="27"/>
+      <c r="M823" s="49">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N823" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="O823" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P823" s="32">
+        <v>7.4867621262868242</v>
+      </c>
+      <c r="Q823" s="33">
+        <v>7</v>
+      </c>
+      <c r="R823" s="33">
+        <v>0</v>
+      </c>
+      <c r="S823" s="27"/>
+      <c r="T823" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="U823" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="V823" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="W823" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="X823" s="32">
+        <v>3.5874567916454456</v>
+      </c>
+    </row>
+    <row r="824" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A824" s="29"/>
+      <c r="B824" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C824" s="36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D824" s="37"/>
+      <c r="E824" s="36"/>
+      <c r="F824" s="44"/>
+      <c r="G824" s="36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H824" s="36">
+        <v>1</v>
+      </c>
+      <c r="I824" s="38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J824" s="39"/>
+      <c r="K824" s="29"/>
+      <c r="L824" s="27"/>
+      <c r="M824" s="49">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N824" s="27"/>
+      <c r="O824" s="27"/>
+      <c r="P824" s="32"/>
+      <c r="Q824" s="33"/>
+      <c r="R824" s="33"/>
+      <c r="S824" s="27"/>
+      <c r="T824" s="27">
+        <v>0</v>
+      </c>
+      <c r="U824" s="27"/>
+      <c r="V824" s="27"/>
+      <c r="W824" s="27"/>
+      <c r="X824" s="32"/>
+    </row>
+    <row r="825" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A825" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B825" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C825" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="D825" s="37"/>
+      <c r="E825" s="36">
+        <v>5.3876210093498234</v>
+      </c>
+      <c r="F825" s="44">
+        <v>11</v>
+      </c>
+      <c r="G825" s="36">
+        <v>24.75</v>
+      </c>
+      <c r="H825" s="36">
+        <v>1</v>
+      </c>
+      <c r="I825" s="38">
+        <v>30.537621009349824</v>
+      </c>
+      <c r="J825" s="39"/>
+      <c r="K825" s="29"/>
+      <c r="L825" s="27"/>
+      <c r="M825" s="49">
+        <v>1.25</v>
+      </c>
+      <c r="N825" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="O825" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P825" s="32">
+        <v>7.2268151442209874</v>
+      </c>
+      <c r="Q825" s="33">
+        <v>3</v>
+      </c>
+      <c r="R825" s="33">
+        <v>0</v>
+      </c>
+      <c r="S825" s="27"/>
+      <c r="T825" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="U825" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="V825" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="W825" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="X825" s="32">
+        <v>0.35191208029404919</v>
+      </c>
+    </row>
+    <row r="826" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A826" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B826" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C826" s="36">
+        <v>40</v>
+      </c>
+      <c r="D826" s="37"/>
+      <c r="E826" s="36">
+        <v>7.4731153249740601</v>
+      </c>
+      <c r="F826" s="44"/>
+      <c r="G826" s="36">
+        <v>0</v>
+      </c>
+      <c r="H826" s="36">
+        <v>1</v>
+      </c>
+      <c r="I826" s="38">
+        <v>47.47311532497406</v>
+      </c>
+      <c r="J826" s="39"/>
+      <c r="K826" s="29"/>
+      <c r="L826" s="27"/>
+      <c r="M826" s="49">
+        <v>1.35</v>
+      </c>
+      <c r="N826" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="O826" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P826" s="32">
+        <v>6.7453219890594482</v>
+      </c>
+      <c r="Q826" s="33">
+        <v>7</v>
+      </c>
+      <c r="R826" s="33">
+        <v>0</v>
+      </c>
+      <c r="S826" s="27"/>
+      <c r="T826" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="U826" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="V826" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="W826" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="X826" s="32">
+        <v>32.039752358167604</v>
+      </c>
+    </row>
+    <row r="827" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A827" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B827" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C827" s="36"/>
+      <c r="D827" s="36"/>
+      <c r="E827" s="36"/>
+      <c r="F827" s="45"/>
+      <c r="G827" s="36">
+        <v>0</v>
+      </c>
+      <c r="H827" s="36">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="I827" s="40">
+        <v>36.517781019210815</v>
+      </c>
+      <c r="J827" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="K827" s="29"/>
+      <c r="L827" s="27"/>
+      <c r="M827" s="49">
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="N827" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="O827" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P827" s="32">
+        <v>7.8790644804636631</v>
+      </c>
+      <c r="Q827" s="33">
+        <v>3</v>
+      </c>
+      <c r="R827" s="33">
+        <v>0</v>
+      </c>
+      <c r="S827" s="27"/>
+      <c r="T827" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="U827" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="V827" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="W827" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="X827" s="32">
+        <v>24.751175143137964</v>
+      </c>
+    </row>
+    <row r="828" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A828" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B828" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C828" s="36">
+        <v>13.646666666666665</v>
+      </c>
+      <c r="D828" s="37"/>
+      <c r="E828" s="36">
+        <v>9.6968857169151317</v>
+      </c>
+      <c r="F828" s="44"/>
+      <c r="G828" s="36">
+        <v>0</v>
+      </c>
+      <c r="H828" s="36">
+        <v>1</v>
+      </c>
+      <c r="I828" s="38">
+        <v>23.343552383581795</v>
+      </c>
+      <c r="J828" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="K828" s="29"/>
+      <c r="L828" s="27"/>
+      <c r="M828" s="49">
+        <v>1.5500000000000003</v>
+      </c>
+      <c r="N828" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="O828" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P828" s="32">
+        <v>6.7461558183034258</v>
+      </c>
+      <c r="Q828" s="33">
+        <v>0</v>
+      </c>
+      <c r="R828" s="33">
+        <v>0</v>
+      </c>
+      <c r="S828" s="27"/>
+      <c r="T828" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="U828" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="V828" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="W828" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="X828" s="32">
+        <v>11.921300337834243</v>
+      </c>
+    </row>
+    <row r="829" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A829" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B829" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C829" s="36">
+        <v>6.334545454545454</v>
+      </c>
+      <c r="D829" s="37"/>
+      <c r="E829" s="36">
+        <v>4.2158440101146697</v>
+      </c>
+      <c r="F829" s="44"/>
+      <c r="G829" s="36">
+        <v>0</v>
+      </c>
+      <c r="H829" s="36">
+        <v>1</v>
+      </c>
+      <c r="I829" s="38">
+        <v>10.550389464660125</v>
+      </c>
+      <c r="J829" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="K829" s="29"/>
+      <c r="L829" s="27"/>
+      <c r="M829" s="49">
+        <v>1.6500000000000004</v>
+      </c>
+      <c r="N829" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="O829" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P829" s="32">
+        <v>7.7219520409901934</v>
+      </c>
+      <c r="Q829" s="33">
+        <v>10</v>
+      </c>
+      <c r="R829" s="33">
+        <v>0</v>
+      </c>
+      <c r="S829" s="27"/>
+      <c r="T829" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="U829" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="V829" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="W829" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="X829" s="32">
+        <v>12.142331217771925</v>
+      </c>
+    </row>
+    <row r="830" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A830" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B830" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C830" s="36">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="D830" s="37"/>
+      <c r="E830" s="36">
+        <v>1.3223668932914734</v>
+      </c>
+      <c r="F830" s="44">
+        <v>4</v>
+      </c>
+      <c r="G830" s="36">
+        <v>9</v>
+      </c>
+      <c r="H830" s="36">
+        <v>1</v>
+      </c>
+      <c r="I830" s="38">
+        <v>77.472366893291479</v>
+      </c>
+      <c r="J830" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K830" s="29"/>
+      <c r="L830" s="27"/>
+      <c r="M830" s="49">
+        <v>1.7500000000000004</v>
+      </c>
+      <c r="N830" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="O830" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P830" s="32">
+        <v>7.8785051504770909</v>
+      </c>
+      <c r="Q830" s="33">
+        <v>9</v>
+      </c>
+      <c r="R830" s="33">
+        <v>0</v>
+      </c>
+      <c r="S830" s="27"/>
+      <c r="T830" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="U830" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="V830" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="W830" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="X830" s="32">
+        <v>22.635457468460768</v>
+      </c>
+    </row>
+    <row r="831" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A831" s="29"/>
+      <c r="B831" s="29"/>
+      <c r="C831" s="29"/>
+      <c r="D831" s="29"/>
+      <c r="E831" s="29"/>
+      <c r="F831" s="29"/>
+      <c r="G831" s="29"/>
+      <c r="H831" s="29"/>
+      <c r="I831" s="29"/>
+      <c r="J831" s="29"/>
+      <c r="K831" s="29"/>
+      <c r="L831" s="27"/>
+      <c r="M831" s="49">
+        <v>2</v>
+      </c>
+      <c r="N831" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O831" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="P831" s="32">
+        <v>18.105769230769234</v>
+      </c>
+      <c r="Q831" s="33">
+        <v>0</v>
+      </c>
+      <c r="R831" s="33">
+        <v>0</v>
+      </c>
+      <c r="S831" s="27"/>
+      <c r="T831" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="U831" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="V831" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="W831" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="X831" s="32">
+        <v>15.668106187276358</v>
+      </c>
+    </row>
+    <row r="832" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A832" s="27"/>
+      <c r="B832" s="27"/>
+      <c r="C832" s="27"/>
+      <c r="D832" s="27"/>
+      <c r="E832" s="27"/>
+      <c r="F832" s="27"/>
+      <c r="G832" s="27"/>
+      <c r="H832" s="27"/>
+      <c r="I832" s="27"/>
+      <c r="J832" s="27"/>
+      <c r="K832" s="27"/>
+      <c r="L832" s="27"/>
+      <c r="M832" s="49">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="N832" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O832" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="P832" s="32">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="Q832" s="33"/>
+      <c r="R832" s="33"/>
+      <c r="S832" s="27"/>
+      <c r="T832" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="U832" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="V832" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="W832" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="X832" s="32">
+        <v>17.321761273848708</v>
+      </c>
+    </row>
+    <row r="833" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A833" s="27"/>
+      <c r="B833" s="27"/>
+      <c r="C833" s="27"/>
+      <c r="D833" s="27"/>
+      <c r="E833" s="27"/>
+      <c r="F833" s="27"/>
+      <c r="G833" s="27"/>
+      <c r="H833" s="27"/>
+      <c r="I833" s="27"/>
+      <c r="J833" s="27"/>
+      <c r="K833" s="27"/>
+      <c r="L833" s="27"/>
+      <c r="M833" s="49">
+        <v>2.02</v>
+      </c>
+      <c r="N833" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O833" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="P833" s="32">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="Q833" s="33"/>
+      <c r="R833" s="33"/>
+      <c r="S833" s="27"/>
+      <c r="T833" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="U833" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="V833" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="W833" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="X833" s="32">
+        <v>7.0504091161642357</v>
+      </c>
+    </row>
+    <row r="834" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A834" s="27"/>
+      <c r="B834" s="27"/>
+      <c r="C834" s="27"/>
+      <c r="D834" s="27"/>
+      <c r="E834" s="27"/>
+      <c r="F834" s="27"/>
+      <c r="G834" s="27"/>
+      <c r="H834" s="27"/>
+      <c r="I834" s="27"/>
+      <c r="J834" s="27"/>
+      <c r="K834" s="27"/>
+      <c r="L834" s="27"/>
+      <c r="M834" s="49">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="N834" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O834" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="P834" s="32">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="Q834" s="33"/>
+      <c r="R834" s="33"/>
+      <c r="S834" s="27"/>
+      <c r="T834" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="U834" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="V834" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="W834" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="X834" s="32">
+        <v>31.989190877370355</v>
+      </c>
+    </row>
+    <row r="835" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A835" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B835" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C835" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D835" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E835" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F835" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G835" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H835" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I835" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J835" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="K835" s="28"/>
+      <c r="L835" s="28"/>
+      <c r="M835" s="49">
+        <v>2.04</v>
+      </c>
+      <c r="N835" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O835" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="P835" s="32">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="Q835" s="33"/>
+      <c r="R835" s="33"/>
+      <c r="S835" s="27"/>
+      <c r="T835" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="U835" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="V835" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="W835" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="X835" s="32">
+        <v>22.086061827463986</v>
+      </c>
+    </row>
+    <row r="836" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A836" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B836" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C836" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D836" s="32">
+        <v>16</v>
+      </c>
+      <c r="E836" s="32">
+        <v>241.5</v>
+      </c>
+      <c r="F836" s="32">
+        <v>241.5</v>
+      </c>
+      <c r="G836" s="32">
+        <v>-0.33333333333333215</v>
+      </c>
+      <c r="H836" s="32">
+        <v>28.666666666666668</v>
+      </c>
+      <c r="I836" s="32"/>
+      <c r="J836" s="27">
+        <v>0</v>
+      </c>
+      <c r="K836" s="27"/>
+      <c r="L836" s="27"/>
+      <c r="M836" s="49">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="N836" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O836" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="P836" s="32">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="Q836" s="33"/>
+      <c r="R836" s="33">
+        <v>2</v>
+      </c>
+      <c r="S836" s="27"/>
+      <c r="T836" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="U836" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="V836" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="W836" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="X836" s="32">
+        <v>22.476262166836324</v>
+      </c>
+    </row>
+    <row r="837" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A837" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B837" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C837" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D837" s="32">
+        <v>16</v>
+      </c>
+      <c r="E837" s="32">
+        <v>81.099710655212391</v>
+      </c>
+      <c r="F837" s="32">
+        <v>240</v>
+      </c>
+      <c r="G837" s="32">
+        <v>0</v>
+      </c>
+      <c r="H837" s="32">
+        <v>28</v>
+      </c>
+      <c r="I837" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J837" s="32">
+        <v>102</v>
+      </c>
+      <c r="K837" s="32"/>
+      <c r="L837" s="32"/>
+      <c r="M837" s="49">
+        <v>2.06</v>
+      </c>
+      <c r="N837" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O837" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="P837" s="32">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="Q837" s="33"/>
+      <c r="R837" s="33"/>
+      <c r="S837" s="27"/>
+      <c r="T837" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="U837" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="V837" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="W837" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="X837" s="32">
+        <v>18.617284450592138</v>
+      </c>
+    </row>
+    <row r="838" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A838" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B838" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C838" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D838" s="32">
+        <v>21</v>
+      </c>
+      <c r="E838" s="32">
+        <v>43.997249970069291</v>
+      </c>
+      <c r="F838" s="32">
+        <v>147</v>
+      </c>
+      <c r="G838" s="32">
+        <v>30.166666666666664</v>
+      </c>
+      <c r="H838" s="32">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I838" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J838" s="32">
+        <v>89.6</v>
+      </c>
+      <c r="K838" s="32"/>
+      <c r="L838" s="32"/>
+      <c r="M838" s="49">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="N838" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O838" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="P838" s="32">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="Q838" s="33"/>
+      <c r="R838" s="33"/>
+      <c r="S838" s="27"/>
+      <c r="T838" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="U838" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="V838" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="W838" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="X838" s="32">
+        <v>30.005113630997833</v>
+      </c>
+    </row>
+    <row r="839" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A839" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B839" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C839" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D839" s="32">
+        <v>21</v>
+      </c>
+      <c r="E839" s="32">
+        <v>39.361523899665244</v>
+      </c>
+      <c r="F839" s="32">
+        <v>147</v>
+      </c>
+      <c r="G839" s="32">
+        <v>-0.8333333333333357</v>
+      </c>
+      <c r="H839" s="32">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I839" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J839" s="32">
+        <v>26.9</v>
+      </c>
+      <c r="K839" s="32"/>
+      <c r="L839" s="32"/>
+      <c r="M839" s="49">
+        <v>2.17</v>
+      </c>
+      <c r="N839" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="O839" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P839" s="32">
+        <v>7.1414221922556553</v>
+      </c>
+      <c r="Q839" s="33">
+        <v>1</v>
+      </c>
+      <c r="R839" s="33">
+        <v>0</v>
+      </c>
+      <c r="S839" s="27"/>
+      <c r="T839" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="U839" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="V839" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="W839" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="X839" s="32">
+        <v>13.174228635629021</v>
+      </c>
+    </row>
+    <row r="840" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A840" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B840" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C840" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D840" s="32">
+        <v>21</v>
+      </c>
+      <c r="E840" s="32">
+        <v>49.553494504781867</v>
+      </c>
+      <c r="F840" s="32">
+        <v>147</v>
+      </c>
+      <c r="G840" s="32">
+        <v>11.166666666666664</v>
+      </c>
+      <c r="H840" s="32">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I840" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J840" s="32">
+        <v>66.8</v>
+      </c>
+      <c r="K840" s="32"/>
+      <c r="L840" s="32"/>
+      <c r="M840" s="49">
+        <v>2.27</v>
+      </c>
+      <c r="N840" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="O840" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P840" s="32">
+        <v>10.964134343465169</v>
+      </c>
+      <c r="Q840" s="33">
+        <v>20</v>
+      </c>
+      <c r="R840" s="33">
+        <v>0</v>
+      </c>
+      <c r="S840" s="27"/>
+      <c r="T840" s="27"/>
+      <c r="U840" s="27"/>
+      <c r="V840" s="27"/>
+      <c r="W840" s="27"/>
+      <c r="X840" s="32"/>
+    </row>
+    <row r="841" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A841" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B841" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C841" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D841" s="32">
+        <v>21</v>
+      </c>
+      <c r="E841" s="32">
+        <v>84.768239127672629</v>
+      </c>
+      <c r="F841" s="32">
+        <v>147</v>
+      </c>
+      <c r="G841" s="32">
+        <v>30.166666666666664</v>
+      </c>
+      <c r="H841" s="32">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I841" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J841" s="32">
+        <v>55.4</v>
+      </c>
+      <c r="K841" s="32"/>
+      <c r="L841" s="32"/>
+      <c r="M841" s="49">
+        <v>3</v>
+      </c>
+      <c r="N841" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O841" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="P841" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q841" s="33">
+        <v>0</v>
+      </c>
+      <c r="R841" s="33">
+        <v>5</v>
+      </c>
+      <c r="S841" s="27"/>
+      <c r="T841" s="27"/>
+      <c r="U841" s="27"/>
+      <c r="V841" s="27"/>
+      <c r="W841" s="27"/>
+      <c r="X841" s="32"/>
+    </row>
+    <row r="842" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A842" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B842" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C842" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D842" s="32">
+        <v>21</v>
+      </c>
+      <c r="E842" s="32">
+        <v>52.330752754211431</v>
+      </c>
+      <c r="F842" s="32">
+        <v>147</v>
+      </c>
+      <c r="G842" s="32">
+        <v>27.166666666666664</v>
+      </c>
+      <c r="H842" s="32">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I842" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J842" s="32">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="K842" s="32"/>
+      <c r="L842" s="32"/>
+      <c r="M842" s="49">
+        <v>3.1</v>
+      </c>
+      <c r="N842" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="O842" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P842" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q842" s="33">
+        <v>7</v>
+      </c>
+      <c r="R842" s="33">
+        <v>2</v>
+      </c>
+      <c r="S842" s="27"/>
+      <c r="T842" s="27"/>
+      <c r="U842" s="27"/>
+      <c r="V842" s="27"/>
+      <c r="W842" s="27"/>
+      <c r="X842" s="32"/>
+    </row>
+    <row r="843" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A843" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B843" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C843" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D843" s="32">
+        <v>21</v>
+      </c>
+      <c r="E843" s="32">
+        <v>71.780072648708625</v>
+      </c>
+      <c r="F843" s="32">
+        <v>147</v>
+      </c>
+      <c r="G843" s="32">
+        <v>-0.8333333333333357</v>
+      </c>
+      <c r="H843" s="32">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I843" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J843" s="32">
+        <v>103</v>
+      </c>
+      <c r="K843" s="32"/>
+      <c r="L843" s="32"/>
+      <c r="M843" s="49">
+        <v>3.2</v>
+      </c>
+      <c r="N843" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="O843" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P843" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q843" s="33">
+        <v>3</v>
+      </c>
+      <c r="R843" s="33">
+        <v>2</v>
+      </c>
+      <c r="S843" s="27"/>
+      <c r="T843" s="27"/>
+      <c r="U843" s="27"/>
+      <c r="V843" s="27"/>
+      <c r="W843" s="27"/>
+      <c r="X843" s="32"/>
+    </row>
+    <row r="844" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A844" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B844" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C844" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D844" s="32">
+        <v>21</v>
+      </c>
+      <c r="E844" s="32">
+        <v>52.228185081481925</v>
+      </c>
+      <c r="F844" s="32">
+        <v>147</v>
+      </c>
+      <c r="G844" s="32">
+        <v>7.1666666666666643</v>
+      </c>
+      <c r="H844" s="32">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I844" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J844" s="32">
+        <v>85.9</v>
+      </c>
+      <c r="K844" s="32"/>
+      <c r="L844" s="32"/>
+      <c r="M844" s="49">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="N844" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="O844" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P844" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q844" s="33">
+        <v>11</v>
+      </c>
+      <c r="R844" s="33">
+        <v>2</v>
+      </c>
+      <c r="S844" s="27"/>
+      <c r="T844" s="27"/>
+      <c r="U844" s="27"/>
+      <c r="V844" s="27"/>
+      <c r="W844" s="27"/>
+      <c r="X844" s="32"/>
+    </row>
+    <row r="845" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A845" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B845" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C845" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D845" s="32">
+        <v>21</v>
+      </c>
+      <c r="E845" s="32">
+        <v>55.890726360907905</v>
+      </c>
+      <c r="F845" s="32">
+        <v>147</v>
+      </c>
+      <c r="G845" s="32">
+        <v>33.166666666666664</v>
+      </c>
+      <c r="H845" s="32">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I845" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J845" s="32">
+        <v>97.3</v>
+      </c>
+      <c r="K845" s="32"/>
+      <c r="L845" s="32"/>
+      <c r="M845" s="49">
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="N845" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="O845" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P845" s="32">
+        <v>7.9719088077545166</v>
+      </c>
+      <c r="Q845" s="33">
+        <v>1</v>
+      </c>
+      <c r="R845" s="33">
+        <v>0</v>
+      </c>
+      <c r="S845" s="27"/>
+      <c r="T845" s="27"/>
+      <c r="U845" s="27"/>
+      <c r="V845" s="27"/>
+      <c r="W845" s="27"/>
+      <c r="X845" s="32"/>
+    </row>
+    <row r="846" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A846" s="27"/>
+      <c r="B846" s="27"/>
+      <c r="C846" s="27"/>
+      <c r="D846" s="27"/>
+      <c r="E846" s="27"/>
+      <c r="F846" s="27"/>
+      <c r="G846" s="27"/>
+      <c r="H846" s="27"/>
+      <c r="I846" s="27"/>
+      <c r="J846" s="32">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="K846" s="27"/>
+      <c r="L846" s="27"/>
+      <c r="M846" s="49">
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="N846" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="O846" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P846" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q846" s="33">
+        <v>2</v>
+      </c>
+      <c r="R846" s="33">
+        <v>1</v>
+      </c>
+      <c r="S846" s="27"/>
+      <c r="T846" s="27"/>
+      <c r="U846" s="27"/>
+      <c r="V846" s="27"/>
+      <c r="W846" s="27"/>
+      <c r="X846" s="32"/>
+    </row>
+    <row r="847" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A847" s="27"/>
+      <c r="B847" s="27"/>
+      <c r="C847" s="27"/>
+      <c r="D847" s="27"/>
+      <c r="E847" s="27"/>
+      <c r="F847" s="27"/>
+      <c r="G847" s="27"/>
+      <c r="H847" s="27"/>
+      <c r="I847" s="27"/>
+      <c r="J847" s="27"/>
+      <c r="K847" s="27"/>
+      <c r="L847" s="27"/>
+      <c r="M847" s="49">
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="N847" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="O847" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P847" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q847" s="33">
+        <v>6</v>
+      </c>
+      <c r="R847" s="33">
+        <v>2</v>
+      </c>
+      <c r="S847" s="27"/>
+      <c r="T847" s="27"/>
+      <c r="U847" s="27"/>
+      <c r="V847" s="27"/>
+      <c r="W847" s="27"/>
+      <c r="X847" s="32"/>
+    </row>
+    <row r="848" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A848" s="27"/>
+      <c r="B848" s="27"/>
+      <c r="C848" s="27"/>
+      <c r="D848" s="27"/>
+      <c r="E848" s="27"/>
+      <c r="F848" s="27"/>
+      <c r="G848" s="27"/>
+      <c r="H848" s="27"/>
+      <c r="I848" s="27"/>
+      <c r="J848" s="27"/>
+      <c r="K848" s="27"/>
+      <c r="L848" s="27"/>
+      <c r="M848" s="49">
+        <v>3.7000000000000006</v>
+      </c>
+      <c r="N848" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="O848" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P848" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q848" s="33">
+        <v>11</v>
+      </c>
+      <c r="R848" s="33">
+        <v>1</v>
+      </c>
+      <c r="S848" s="27"/>
+      <c r="T848" s="27"/>
+      <c r="U848" s="27"/>
+      <c r="V848" s="27"/>
+      <c r="W848" s="27"/>
+      <c r="X848" s="32"/>
+    </row>
+    <row r="849" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A849" s="27"/>
+      <c r="B849" s="27"/>
+      <c r="C849" s="27"/>
+      <c r="D849" s="27"/>
+      <c r="E849" s="27"/>
+      <c r="F849" s="27"/>
+      <c r="G849" s="27"/>
+      <c r="H849" s="27"/>
+      <c r="I849" s="27"/>
+      <c r="J849" s="27"/>
+      <c r="K849" s="27"/>
+      <c r="L849" s="27"/>
+      <c r="M849" s="49">
+        <v>3.8000000000000007</v>
+      </c>
+      <c r="N849" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="O849" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P849" s="32">
+        <v>7.8693284193674717</v>
+      </c>
+      <c r="Q849" s="33">
+        <v>1</v>
+      </c>
+      <c r="R849" s="33">
+        <v>0</v>
+      </c>
+      <c r="S849" s="27"/>
+      <c r="T849" s="27"/>
+      <c r="U849" s="27"/>
+      <c r="V849" s="27"/>
+      <c r="W849" s="27"/>
+      <c r="X849" s="32"/>
+    </row>
+    <row r="850" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A850" s="27"/>
+      <c r="B850" s="27"/>
+      <c r="C850" s="27"/>
+      <c r="D850" s="27"/>
+      <c r="E850" s="27"/>
+      <c r="F850" s="27"/>
+      <c r="G850" s="27"/>
+      <c r="H850" s="27"/>
+      <c r="I850" s="27"/>
+      <c r="J850" s="27"/>
+      <c r="K850" s="27"/>
+      <c r="L850" s="27"/>
+      <c r="M850" s="49">
+        <v>4</v>
+      </c>
+      <c r="N850" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="O850" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P850" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q850" s="33">
+        <v>9</v>
+      </c>
+      <c r="R850" s="33">
+        <v>1</v>
+      </c>
+      <c r="S850" s="27"/>
+      <c r="T850" s="27"/>
+      <c r="U850" s="27"/>
+      <c r="V850" s="27"/>
+      <c r="W850" s="27"/>
+      <c r="X850" s="32"/>
+    </row>
+    <row r="851" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A851" s="27"/>
+      <c r="B851" s="27"/>
+      <c r="C851" s="27"/>
+      <c r="D851" s="27"/>
+      <c r="E851" s="27"/>
+      <c r="F851" s="27"/>
+      <c r="G851" s="27"/>
+      <c r="H851" s="27"/>
+      <c r="I851" s="27"/>
+      <c r="J851" s="27"/>
+      <c r="K851" s="27"/>
+      <c r="L851" s="27"/>
+      <c r="M851" s="49">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N851" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="O851" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P851" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q851" s="33">
+        <v>8</v>
+      </c>
+      <c r="R851" s="33">
+        <v>2</v>
+      </c>
+      <c r="S851" s="27"/>
+      <c r="T851" s="27"/>
+      <c r="U851" s="27"/>
+      <c r="V851" s="27"/>
+      <c r="W851" s="27"/>
+      <c r="X851" s="32"/>
+    </row>
+    <row r="852" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A852" s="27"/>
+      <c r="B852" s="27"/>
+      <c r="C852" s="27"/>
+      <c r="D852" s="27"/>
+      <c r="E852" s="27"/>
+      <c r="F852" s="27"/>
+      <c r="G852" s="27"/>
+      <c r="H852" s="27"/>
+      <c r="I852" s="27"/>
+      <c r="J852" s="27"/>
+      <c r="K852" s="27"/>
+      <c r="L852" s="27"/>
+      <c r="M852" s="49">
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="N852" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="O852" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P852" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q852" s="33">
+        <v>8</v>
+      </c>
+      <c r="R852" s="33">
+        <v>2</v>
+      </c>
+      <c r="S852" s="27"/>
+      <c r="T852" s="27"/>
+      <c r="U852" s="27"/>
+      <c r="V852" s="27"/>
+      <c r="W852" s="27"/>
+      <c r="X852" s="32"/>
+    </row>
+    <row r="853" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A853" s="27"/>
+      <c r="B853" s="27"/>
+      <c r="C853" s="27"/>
+      <c r="D853" s="27"/>
+      <c r="E853" s="27"/>
+      <c r="F853" s="27"/>
+      <c r="G853" s="27"/>
+      <c r="H853" s="27"/>
+      <c r="I853" s="27"/>
+      <c r="J853" s="27"/>
+      <c r="K853" s="27"/>
+      <c r="L853" s="27"/>
+      <c r="M853" s="49">
+        <v>4.2999999999999989</v>
+      </c>
+      <c r="N853" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="O853" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P853" s="32">
+        <v>6.9306681156158447</v>
+      </c>
+      <c r="Q853" s="33">
+        <v>0</v>
+      </c>
+      <c r="R853" s="33">
+        <v>0</v>
+      </c>
+      <c r="S853" s="27"/>
+      <c r="T853" s="27"/>
+      <c r="U853" s="27"/>
+      <c r="V853" s="27"/>
+      <c r="W853" s="27"/>
+      <c r="X853" s="32"/>
+    </row>
+    <row r="854" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A854" s="27"/>
+      <c r="B854" s="27"/>
+      <c r="C854" s="27"/>
+      <c r="D854" s="27"/>
+      <c r="E854" s="27"/>
+      <c r="F854" s="27"/>
+      <c r="G854" s="27"/>
+      <c r="H854" s="27"/>
+      <c r="I854" s="27"/>
+      <c r="J854" s="27"/>
+      <c r="K854" s="27"/>
+      <c r="L854" s="27"/>
+      <c r="M854" s="49">
+        <v>4.3999999999999986</v>
+      </c>
+      <c r="N854" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="O854" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P854" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q854" s="33">
+        <v>5</v>
+      </c>
+      <c r="R854" s="33">
+        <v>2</v>
+      </c>
+      <c r="S854" s="27"/>
+      <c r="T854" s="27"/>
+      <c r="U854" s="27"/>
+      <c r="V854" s="27"/>
+      <c r="W854" s="27"/>
+      <c r="X854" s="32"/>
+    </row>
+    <row r="855" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A855" s="27"/>
+      <c r="B855" s="27"/>
+      <c r="C855" s="27"/>
+      <c r="D855" s="27"/>
+      <c r="E855" s="27"/>
+      <c r="F855" s="27"/>
+      <c r="G855" s="27"/>
+      <c r="H855" s="27"/>
+      <c r="I855" s="27"/>
+      <c r="J855" s="27"/>
+      <c r="K855" s="27"/>
+      <c r="L855" s="27"/>
+      <c r="M855" s="49">
+        <v>4.4999999999999982</v>
+      </c>
+      <c r="N855" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="O855" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P855" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q855" s="33">
+        <v>14</v>
+      </c>
+      <c r="R855" s="33">
+        <v>1</v>
+      </c>
+      <c r="S855" s="27"/>
+      <c r="T855" s="27"/>
+      <c r="U855" s="27"/>
+      <c r="V855" s="27"/>
+      <c r="W855" s="27"/>
+      <c r="X855" s="32"/>
+    </row>
+    <row r="856" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A856" s="27"/>
+      <c r="B856" s="27"/>
+      <c r="C856" s="27"/>
+      <c r="D856" s="27"/>
+      <c r="E856" s="27"/>
+      <c r="F856" s="27"/>
+      <c r="G856" s="27"/>
+      <c r="H856" s="27"/>
+      <c r="I856" s="27"/>
+      <c r="J856" s="27"/>
+      <c r="K856" s="27"/>
+      <c r="L856" s="27"/>
+      <c r="M856" s="49">
+        <v>4.5999999999999979</v>
+      </c>
+      <c r="N856" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="O856" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P856" s="32">
+        <v>7.2916479905446367</v>
+      </c>
+      <c r="Q856" s="33">
+        <v>1</v>
+      </c>
+      <c r="R856" s="33">
+        <v>0</v>
+      </c>
+      <c r="S856" s="27"/>
+      <c r="T856" s="27"/>
+      <c r="U856" s="27"/>
+      <c r="V856" s="27"/>
+      <c r="W856" s="27"/>
+      <c r="X856" s="32"/>
+    </row>
+    <row r="857" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A857" s="27"/>
+      <c r="B857" s="27"/>
+      <c r="C857" s="27"/>
+      <c r="D857" s="27"/>
+      <c r="E857" s="27"/>
+      <c r="F857" s="27"/>
+      <c r="G857" s="27"/>
+      <c r="H857" s="27"/>
+      <c r="I857" s="27"/>
+      <c r="J857" s="27"/>
+      <c r="K857" s="27"/>
+      <c r="L857" s="27"/>
+      <c r="M857" s="49">
+        <v>4.6999999999999975</v>
+      </c>
+      <c r="N857" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="O857" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P857" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q857" s="33">
+        <v>4</v>
+      </c>
+      <c r="R857" s="33">
+        <v>1</v>
+      </c>
+      <c r="S857" s="27"/>
+      <c r="T857" s="27"/>
+      <c r="U857" s="27"/>
+      <c r="V857" s="27"/>
+      <c r="W857" s="27"/>
+      <c r="X857" s="32"/>
+    </row>
+    <row r="858" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A858" s="27"/>
+      <c r="B858" s="27"/>
+      <c r="C858" s="27"/>
+      <c r="D858" s="27"/>
+      <c r="E858" s="27"/>
+      <c r="F858" s="27"/>
+      <c r="G858" s="27"/>
+      <c r="H858" s="27"/>
+      <c r="I858" s="27"/>
+      <c r="J858" s="27"/>
+      <c r="K858" s="27"/>
+      <c r="L858" s="27"/>
+      <c r="M858" s="49">
+        <v>5</v>
+      </c>
+      <c r="N858" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O858" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="P858" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q858" s="33">
+        <v>5</v>
+      </c>
+      <c r="R858" s="33">
+        <v>13</v>
+      </c>
+      <c r="S858" s="27"/>
+      <c r="T858" s="27"/>
+      <c r="U858" s="27"/>
+      <c r="V858" s="27"/>
+      <c r="W858" s="27"/>
+      <c r="X858" s="32"/>
+    </row>
+    <row r="859" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A859" s="27"/>
+      <c r="B859" s="27"/>
+      <c r="C859" s="27"/>
+      <c r="D859" s="27"/>
+      <c r="E859" s="27"/>
+      <c r="F859" s="27"/>
+      <c r="G859" s="27"/>
+      <c r="H859" s="27"/>
+      <c r="I859" s="27"/>
+      <c r="J859" s="27"/>
+      <c r="K859" s="27"/>
+      <c r="L859" s="27"/>
+      <c r="M859" s="49">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N859" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O859" s="27"/>
+      <c r="P859" s="32"/>
+      <c r="Q859" s="33"/>
+      <c r="R859" s="33"/>
+      <c r="S859" s="27"/>
+      <c r="T859" s="27"/>
+      <c r="U859" s="27"/>
+      <c r="V859" s="27"/>
+      <c r="W859" s="27"/>
+      <c r="X859" s="32"/>
+    </row>
+    <row r="860" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A860" s="27"/>
+      <c r="B860" s="27"/>
+      <c r="C860" s="27"/>
+      <c r="D860" s="27"/>
+      <c r="E860" s="27"/>
+      <c r="F860" s="27"/>
+      <c r="G860" s="27"/>
+      <c r="H860" s="27"/>
+      <c r="I860" s="27"/>
+      <c r="J860" s="27"/>
+      <c r="K860" s="27"/>
+      <c r="L860" s="27"/>
+      <c r="M860" s="49">
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="N860" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="O860" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P860" s="32">
+        <v>7.5302638212839756</v>
+      </c>
+      <c r="Q860" s="33">
+        <v>2</v>
+      </c>
+      <c r="R860" s="33">
+        <v>0</v>
+      </c>
+      <c r="S860" s="27"/>
+      <c r="T860" s="27"/>
+      <c r="U860" s="27"/>
+      <c r="V860" s="27"/>
+      <c r="W860" s="27"/>
+      <c r="X860" s="32"/>
+    </row>
+    <row r="861" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A861" s="27"/>
+      <c r="B861" s="27"/>
+      <c r="C861" s="27"/>
+      <c r="D861" s="27"/>
+      <c r="E861" s="27"/>
+      <c r="F861" s="27"/>
+      <c r="G861" s="27"/>
+      <c r="H861" s="27"/>
+      <c r="I861" s="27"/>
+      <c r="J861" s="27"/>
+      <c r="K861" s="27"/>
+      <c r="L861" s="27"/>
+      <c r="M861" s="49">
+        <v>5.2999999999999989</v>
+      </c>
+      <c r="N861" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="O861" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P861" s="32">
+        <v>7.2308919429779053</v>
+      </c>
+      <c r="Q861" s="33">
+        <v>3</v>
+      </c>
+      <c r="R861" s="33">
+        <v>0</v>
+      </c>
+      <c r="S861" s="27"/>
+      <c r="T861" s="27"/>
+      <c r="U861" s="27"/>
+      <c r="V861" s="27"/>
+      <c r="W861" s="27"/>
+      <c r="X861" s="32"/>
+    </row>
+    <row r="862" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A862" s="27"/>
+      <c r="B862" s="27"/>
+      <c r="C862" s="27"/>
+      <c r="D862" s="27"/>
+      <c r="E862" s="27"/>
+      <c r="F862" s="27"/>
+      <c r="G862" s="27"/>
+      <c r="H862" s="27"/>
+      <c r="I862" s="27"/>
+      <c r="J862" s="27"/>
+      <c r="K862" s="27"/>
+      <c r="L862" s="27"/>
+      <c r="M862" s="49">
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="N862" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="O862" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P862" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q862" s="33">
+        <v>8</v>
+      </c>
+      <c r="R862" s="33">
+        <v>2</v>
+      </c>
+      <c r="S862" s="27"/>
+      <c r="T862" s="27"/>
+      <c r="U862" s="27"/>
+      <c r="V862" s="27"/>
+      <c r="W862" s="27"/>
+      <c r="X862" s="32"/>
+    </row>
+    <row r="863" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A863" s="27"/>
+      <c r="B863" s="27"/>
+      <c r="C863" s="27"/>
+      <c r="D863" s="27"/>
+      <c r="E863" s="27"/>
+      <c r="F863" s="27"/>
+      <c r="G863" s="27"/>
+      <c r="H863" s="27"/>
+      <c r="I863" s="27"/>
+      <c r="J863" s="27"/>
+      <c r="K863" s="27"/>
+      <c r="L863" s="27"/>
+      <c r="M863" s="49">
+        <v>5.4999999999999982</v>
+      </c>
+      <c r="N863" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="O863" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P863" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q863" s="33">
+        <v>8</v>
+      </c>
+      <c r="R863" s="33">
+        <v>1</v>
+      </c>
+      <c r="S863" s="27"/>
+      <c r="T863" s="27"/>
+      <c r="U863" s="27"/>
+      <c r="V863" s="27"/>
+      <c r="W863" s="27"/>
+      <c r="X863" s="32"/>
+    </row>
+    <row r="864" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A864" s="27"/>
+      <c r="B864" s="27"/>
+      <c r="C864" s="27"/>
+      <c r="D864" s="27"/>
+      <c r="E864" s="27"/>
+      <c r="F864" s="27"/>
+      <c r="G864" s="27"/>
+      <c r="H864" s="27"/>
+      <c r="I864" s="27"/>
+      <c r="J864" s="27"/>
+      <c r="K864" s="27"/>
+      <c r="L864" s="27"/>
+      <c r="M864" s="49">
+        <v>5.5999999999999979</v>
+      </c>
+      <c r="N864" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="O864" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P864" s="32">
+        <v>7.0011595884958897</v>
+      </c>
+      <c r="Q864" s="33">
+        <v>0</v>
+      </c>
+      <c r="R864" s="33">
+        <v>1</v>
+      </c>
+      <c r="S864" s="27"/>
+      <c r="T864" s="27"/>
+      <c r="U864" s="27"/>
+      <c r="V864" s="27"/>
+      <c r="W864" s="27"/>
+      <c r="X864" s="32"/>
+    </row>
+    <row r="865" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A865" s="27"/>
+      <c r="B865" s="27"/>
+      <c r="C865" s="27"/>
+      <c r="D865" s="27"/>
+      <c r="E865" s="27"/>
+      <c r="F865" s="27"/>
+      <c r="G865" s="27"/>
+      <c r="H865" s="27"/>
+      <c r="I865" s="27"/>
+      <c r="J865" s="27"/>
+      <c r="K865" s="27"/>
+      <c r="L865" s="27"/>
+      <c r="M865" s="49">
+        <v>5.6999999999999975</v>
+      </c>
+      <c r="N865" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="O865" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P865" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q865" s="33">
+        <v>0</v>
+      </c>
+      <c r="R865" s="33">
+        <v>0</v>
+      </c>
+      <c r="S865" s="27"/>
+      <c r="T865" s="27"/>
+      <c r="U865" s="27"/>
+      <c r="V865" s="27"/>
+      <c r="W865" s="27"/>
+      <c r="X865" s="32"/>
+    </row>
+    <row r="866" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A866" s="27"/>
+      <c r="B866" s="27"/>
+      <c r="C866" s="27"/>
+      <c r="D866" s="27"/>
+      <c r="E866" s="27"/>
+      <c r="F866" s="27"/>
+      <c r="G866" s="27"/>
+      <c r="H866" s="27"/>
+      <c r="I866" s="27"/>
+      <c r="J866" s="27"/>
+      <c r="K866" s="27"/>
+      <c r="L866" s="27"/>
+      <c r="M866" s="49">
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="N866" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="O866" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P866" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q866" s="33">
+        <v>9</v>
+      </c>
+      <c r="R866" s="33">
+        <v>1</v>
+      </c>
+      <c r="S866" s="27"/>
+      <c r="T866" s="27"/>
+      <c r="U866" s="27"/>
+      <c r="V866" s="27"/>
+      <c r="W866" s="27"/>
+      <c r="X866" s="32"/>
+    </row>
+    <row r="867" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A867" s="27"/>
+      <c r="B867" s="27"/>
+      <c r="C867" s="27"/>
+      <c r="D867" s="27"/>
+      <c r="E867" s="27"/>
+      <c r="F867" s="27"/>
+      <c r="G867" s="27"/>
+      <c r="H867" s="27"/>
+      <c r="I867" s="27"/>
+      <c r="J867" s="27"/>
+      <c r="K867" s="27"/>
+      <c r="L867" s="27"/>
+      <c r="M867" s="49">
+        <v>5.8999999999999968</v>
+      </c>
+      <c r="N867" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="O867" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P867" s="32"/>
+      <c r="Q867" s="33"/>
+      <c r="R867" s="33"/>
+      <c r="S867" s="27"/>
+      <c r="T867" s="27"/>
+      <c r="U867" s="27"/>
+      <c r="V867" s="27"/>
+      <c r="W867" s="27"/>
+      <c r="X867" s="32"/>
+    </row>
+    <row r="868" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A868" s="27"/>
+      <c r="B868" s="27"/>
+      <c r="C868" s="27"/>
+      <c r="D868" s="27"/>
+      <c r="E868" s="27"/>
+      <c r="F868" s="27"/>
+      <c r="G868" s="27"/>
+      <c r="H868" s="27"/>
+      <c r="I868" s="27"/>
+      <c r="J868" s="27"/>
+      <c r="K868" s="27"/>
+      <c r="L868" s="27"/>
+      <c r="M868" s="49">
+        <v>6</v>
+      </c>
+      <c r="N868" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="O868" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="P868" s="32">
+        <v>17.875</v>
+      </c>
+      <c r="Q868" s="33">
+        <v>0</v>
+      </c>
+      <c r="R868" s="33">
+        <v>0</v>
+      </c>
+      <c r="S868" s="27"/>
+      <c r="T868" s="27"/>
+      <c r="U868" s="27"/>
+      <c r="V868" s="27"/>
+      <c r="W868" s="27"/>
+      <c r="X868" s="32"/>
+    </row>
+    <row r="869" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A869" s="27"/>
+      <c r="B869" s="27"/>
+      <c r="C869" s="27"/>
+      <c r="D869" s="27"/>
+      <c r="E869" s="27"/>
+      <c r="F869" s="27"/>
+      <c r="G869" s="27"/>
+      <c r="H869" s="27"/>
+      <c r="I869" s="27"/>
+      <c r="J869" s="27"/>
+      <c r="K869" s="27"/>
+      <c r="L869" s="27"/>
+      <c r="M869" s="49">
+        <v>6.1</v>
+      </c>
+      <c r="N869" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="O869" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P869" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q869" s="33">
+        <v>11</v>
+      </c>
+      <c r="R869" s="33">
+        <v>1</v>
+      </c>
+      <c r="S869" s="27"/>
+      <c r="T869" s="27"/>
+      <c r="U869" s="27"/>
+      <c r="V869" s="27"/>
+      <c r="W869" s="27"/>
+      <c r="X869" s="32"/>
+    </row>
+    <row r="870" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A870" s="27"/>
+      <c r="B870" s="27"/>
+      <c r="C870" s="27"/>
+      <c r="D870" s="27"/>
+      <c r="E870" s="27"/>
+      <c r="F870" s="27"/>
+      <c r="G870" s="27"/>
+      <c r="H870" s="27"/>
+      <c r="I870" s="27"/>
+      <c r="J870" s="27"/>
+      <c r="K870" s="27"/>
+      <c r="L870" s="27"/>
+      <c r="M870" s="49">
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="N870" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="O870" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P870" s="32">
+        <v>7.5345710913340245</v>
+      </c>
+      <c r="Q870" s="33">
+        <v>6</v>
+      </c>
+      <c r="R870" s="33">
+        <v>0</v>
+      </c>
+      <c r="S870" s="27"/>
+      <c r="T870" s="27"/>
+      <c r="U870" s="27"/>
+      <c r="V870" s="27"/>
+      <c r="W870" s="27"/>
+      <c r="X870" s="32"/>
+    </row>
+    <row r="871" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A871" s="27"/>
+      <c r="B871" s="27"/>
+      <c r="C871" s="27"/>
+      <c r="D871" s="27"/>
+      <c r="E871" s="27"/>
+      <c r="F871" s="27"/>
+      <c r="G871" s="27"/>
+      <c r="H871" s="27"/>
+      <c r="I871" s="27"/>
+      <c r="J871" s="27"/>
+      <c r="K871" s="27"/>
+      <c r="L871" s="27"/>
+      <c r="M871" s="49">
+        <v>7</v>
+      </c>
+      <c r="N871" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="O871" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="P871" s="49">
+        <v>39.244927351291366</v>
+      </c>
+      <c r="Q871" s="49">
+        <v>4</v>
+      </c>
+      <c r="R871" s="49">
+        <v>0</v>
+      </c>
+      <c r="S871" s="27"/>
+      <c r="T871" s="27"/>
+      <c r="U871" s="27"/>
+      <c r="V871" s="27"/>
+      <c r="W871" s="27"/>
+      <c r="X871" s="32"/>
+    </row>
+    <row r="872" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A872" s="27"/>
+      <c r="B872" s="27"/>
+      <c r="C872" s="27"/>
+      <c r="D872" s="27"/>
+      <c r="E872" s="27"/>
+      <c r="F872" s="27"/>
+      <c r="G872" s="27"/>
+      <c r="H872" s="27"/>
+      <c r="I872" s="27"/>
+      <c r="J872" s="27"/>
+      <c r="K872" s="27"/>
+      <c r="L872" s="27"/>
+      <c r="M872" s="49">
+        <v>7.1</v>
+      </c>
+      <c r="N872" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="O872" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P872" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q872" s="33">
+        <v>6</v>
+      </c>
+      <c r="R872" s="33">
+        <v>1</v>
+      </c>
+      <c r="S872" s="27"/>
+      <c r="T872" s="27"/>
+      <c r="U872" s="27"/>
+      <c r="V872" s="27"/>
+      <c r="W872" s="27"/>
+      <c r="X872" s="32"/>
+    </row>
+    <row r="873" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A873" s="27"/>
+      <c r="B873" s="27"/>
+      <c r="C873" s="27"/>
+      <c r="D873" s="27"/>
+      <c r="E873" s="27"/>
+      <c r="F873" s="27"/>
+      <c r="G873" s="27"/>
+      <c r="H873" s="27"/>
+      <c r="I873" s="27"/>
+      <c r="J873" s="27"/>
+      <c r="K873" s="27"/>
+      <c r="L873" s="27"/>
+      <c r="M873" s="49">
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="N873" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="O873" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P873" s="32">
+        <v>6.7058702309926348</v>
+      </c>
+      <c r="Q873" s="33">
+        <v>7</v>
+      </c>
+      <c r="R873" s="33">
+        <v>0</v>
+      </c>
+      <c r="S873" s="27"/>
+      <c r="T873" s="27"/>
+      <c r="U873" s="27"/>
+      <c r="V873" s="27"/>
+      <c r="W873" s="27"/>
+      <c r="X873" s="32"/>
+    </row>
+    <row r="874" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A874" s="27"/>
+      <c r="B874" s="27"/>
+      <c r="C874" s="27"/>
+      <c r="D874" s="27"/>
+      <c r="E874" s="27"/>
+      <c r="F874" s="27"/>
+      <c r="G874" s="27"/>
+      <c r="H874" s="27"/>
+      <c r="I874" s="27"/>
+      <c r="J874" s="27"/>
+      <c r="K874" s="27"/>
+      <c r="L874" s="27"/>
+      <c r="M874" s="49">
+        <v>7.2999999999999989</v>
+      </c>
+      <c r="N874" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="O874" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P874" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q874" s="33">
+        <v>5</v>
+      </c>
+      <c r="R874" s="33">
+        <v>1</v>
+      </c>
+      <c r="S874" s="27"/>
+      <c r="T874" s="27"/>
+      <c r="U874" s="27"/>
+      <c r="V874" s="27"/>
+      <c r="W874" s="27"/>
+      <c r="X874" s="32"/>
+    </row>
+    <row r="875" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A875" s="27"/>
+      <c r="B875" s="27"/>
+      <c r="C875" s="27"/>
+      <c r="D875" s="27"/>
+      <c r="E875" s="27"/>
+      <c r="F875" s="27"/>
+      <c r="G875" s="27"/>
+      <c r="H875" s="27"/>
+      <c r="I875" s="27"/>
+      <c r="J875" s="27"/>
+      <c r="K875" s="27"/>
+      <c r="L875" s="27"/>
+      <c r="M875" s="49">
+        <v>7.3999999999999986</v>
+      </c>
+      <c r="N875" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="O875" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P875" s="32">
+        <v>7.43379807472229</v>
+      </c>
+      <c r="Q875" s="33">
+        <v>2</v>
+      </c>
+      <c r="R875" s="33">
+        <v>0</v>
+      </c>
+      <c r="S875" s="27"/>
+      <c r="T875" s="27"/>
+      <c r="U875" s="27"/>
+      <c r="V875" s="27"/>
+      <c r="W875" s="27"/>
+      <c r="X875" s="32"/>
+    </row>
+    <row r="876" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A876" s="27"/>
+      <c r="B876" s="27"/>
+      <c r="C876" s="27"/>
+      <c r="D876" s="27"/>
+      <c r="E876" s="27"/>
+      <c r="F876" s="27"/>
+      <c r="G876" s="27"/>
+      <c r="H876" s="27"/>
+      <c r="I876" s="27"/>
+      <c r="J876" s="27"/>
+      <c r="K876" s="27"/>
+      <c r="L876" s="27"/>
+      <c r="M876" s="49">
+        <v>7.4999999999999982</v>
+      </c>
+      <c r="N876" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="O876" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P876" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q876" s="33">
+        <v>12</v>
+      </c>
+      <c r="R876" s="33">
+        <v>1</v>
+      </c>
+      <c r="S876" s="27"/>
+      <c r="T876" s="27"/>
+      <c r="U876" s="27"/>
+      <c r="V876" s="27"/>
+      <c r="W876" s="27"/>
+      <c r="X876" s="32"/>
+    </row>
+    <row r="877" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A877" s="27"/>
+      <c r="B877" s="27"/>
+      <c r="C877" s="27"/>
+      <c r="D877" s="27"/>
+      <c r="E877" s="27"/>
+      <c r="F877" s="27"/>
+      <c r="G877" s="27"/>
+      <c r="H877" s="27"/>
+      <c r="I877" s="27"/>
+      <c r="J877" s="27"/>
+      <c r="K877" s="27"/>
+      <c r="L877" s="27"/>
+      <c r="M877" s="49">
+        <v>7.5999999999999979</v>
+      </c>
+      <c r="N877" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="O877" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P877" s="32">
+        <v>7.9592163562774658</v>
+      </c>
+      <c r="Q877" s="33">
+        <v>1</v>
+      </c>
+      <c r="R877" s="33">
+        <v>0</v>
+      </c>
+      <c r="S877" s="27"/>
+      <c r="T877" s="27"/>
+      <c r="U877" s="27"/>
+      <c r="V877" s="27"/>
+      <c r="W877" s="27"/>
+      <c r="X877" s="32"/>
+    </row>
+    <row r="878" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A878" s="27"/>
+      <c r="B878" s="27"/>
+      <c r="C878" s="27"/>
+      <c r="D878" s="27"/>
+      <c r="E878" s="27"/>
+      <c r="F878" s="27"/>
+      <c r="G878" s="27"/>
+      <c r="H878" s="27"/>
+      <c r="I878" s="27"/>
+      <c r="J878" s="27"/>
+      <c r="K878" s="27"/>
+      <c r="L878" s="27"/>
+      <c r="M878" s="50">
+        <v>7.6999999999999975</v>
+      </c>
+      <c r="N878" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="O878" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="P878" s="51">
+        <v>7.6508316198984776</v>
+      </c>
+      <c r="Q878" s="46">
+        <v>10</v>
+      </c>
+      <c r="R878" s="43">
+        <v>0</v>
+      </c>
+      <c r="S878" s="27"/>
+      <c r="T878" s="27"/>
+      <c r="U878" s="27"/>
+      <c r="V878" s="27"/>
+      <c r="W878" s="27"/>
+      <c r="X878" s="32"/>
+    </row>
+    <row r="879" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A879" s="27"/>
+      <c r="B879" s="27"/>
+      <c r="C879" s="27"/>
+      <c r="D879" s="27"/>
+      <c r="E879" s="27"/>
+      <c r="F879" s="27"/>
+      <c r="G879" s="27"/>
+      <c r="H879" s="27"/>
+      <c r="I879" s="27"/>
+      <c r="J879" s="27"/>
+      <c r="K879" s="27"/>
+      <c r="L879" s="27"/>
+      <c r="M879" s="49">
+        <v>8</v>
+      </c>
+      <c r="N879" s="27"/>
+      <c r="O879" s="27"/>
+      <c r="P879" s="32"/>
+      <c r="Q879" s="33"/>
+      <c r="R879" s="33"/>
+      <c r="S879" s="27"/>
+      <c r="T879" s="27"/>
+      <c r="U879" s="27"/>
+      <c r="V879" s="27"/>
+      <c r="W879" s="27"/>
+      <c r="X879" s="32"/>
+    </row>
+    <row r="880" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A880" s="27"/>
+      <c r="B880" s="27"/>
+      <c r="C880" s="27"/>
+      <c r="D880" s="27"/>
+      <c r="E880" s="27"/>
+      <c r="F880" s="27"/>
+      <c r="G880" s="27"/>
+      <c r="H880" s="27"/>
+      <c r="I880" s="27"/>
+      <c r="J880" s="27"/>
+      <c r="K880" s="27"/>
+      <c r="L880" s="27"/>
+      <c r="M880" s="49">
+        <v>9</v>
+      </c>
+      <c r="N880" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O880" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="P880" s="32">
+        <v>32.146399296247047</v>
+      </c>
+      <c r="Q880" s="33">
+        <v>2</v>
+      </c>
+      <c r="R880" s="33">
+        <v>2</v>
+      </c>
+      <c r="S880" s="27"/>
+      <c r="T880" s="27"/>
+      <c r="U880" s="27"/>
+      <c r="V880" s="27"/>
+      <c r="W880" s="27"/>
+      <c r="X880" s="32"/>
+    </row>
+    <row r="881" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A881" s="27"/>
+      <c r="B881" s="27"/>
+      <c r="C881" s="27"/>
+      <c r="D881" s="27"/>
+      <c r="E881" s="27"/>
+      <c r="F881" s="27"/>
+      <c r="G881" s="27"/>
+      <c r="H881" s="27"/>
+      <c r="I881" s="27"/>
+      <c r="J881" s="27"/>
+      <c r="K881" s="27"/>
+      <c r="L881" s="27"/>
+      <c r="M881" s="49">
+        <v>10</v>
+      </c>
+      <c r="N881" s="27"/>
+      <c r="O881" s="27"/>
+      <c r="P881" s="32"/>
+      <c r="Q881" s="33"/>
+      <c r="R881" s="33"/>
+      <c r="S881" s="27"/>
+      <c r="T881" s="27"/>
+      <c r="U881" s="27"/>
+      <c r="V881" s="27"/>
+      <c r="W881" s="27"/>
+      <c r="X881" s="32"/>
+    </row>
+    <row r="882" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A882" s="27"/>
+      <c r="B882" s="27"/>
+      <c r="C882" s="27"/>
+      <c r="D882" s="27"/>
+      <c r="E882" s="27"/>
+      <c r="F882" s="27"/>
+      <c r="G882" s="27"/>
+      <c r="H882" s="27"/>
+      <c r="I882" s="27"/>
+      <c r="J882" s="27"/>
+      <c r="K882" s="27"/>
+      <c r="L882" s="27"/>
+      <c r="M882" s="49">
+        <v>11</v>
+      </c>
+      <c r="N882" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O882" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="P882" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q882" s="33">
+        <v>0</v>
+      </c>
+      <c r="R882" s="33">
+        <v>0</v>
+      </c>
+      <c r="S882" s="27"/>
+      <c r="T882" s="27"/>
+      <c r="U882" s="27"/>
+      <c r="V882" s="27"/>
+      <c r="W882" s="27"/>
+      <c r="X882" s="32"/>
+    </row>
+    <row r="883" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A883" s="27"/>
+      <c r="B883" s="27"/>
+      <c r="C883" s="27"/>
+      <c r="D883" s="27"/>
+      <c r="E883" s="27"/>
+      <c r="F883" s="27"/>
+      <c r="G883" s="27"/>
+      <c r="H883" s="27"/>
+      <c r="I883" s="27"/>
+      <c r="J883" s="27"/>
+      <c r="K883" s="27"/>
+      <c r="L883" s="27"/>
+      <c r="M883" s="49">
+        <v>12</v>
+      </c>
+      <c r="N883" s="27"/>
+      <c r="O883" s="27"/>
+      <c r="P883" s="32"/>
+      <c r="Q883" s="33"/>
+      <c r="R883" s="33"/>
+      <c r="S883" s="27"/>
+      <c r="T883" s="27"/>
+      <c r="U883" s="27"/>
+      <c r="V883" s="27"/>
+      <c r="W883" s="27"/>
+      <c r="X883" s="32"/>
+    </row>
+    <row r="884" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A884" s="27"/>
+      <c r="B884" s="27"/>
+      <c r="C884" s="27"/>
+      <c r="D884" s="27"/>
+      <c r="E884" s="27"/>
+      <c r="F884" s="27"/>
+      <c r="G884" s="27"/>
+      <c r="H884" s="27"/>
+      <c r="I884" s="27"/>
+      <c r="J884" s="27"/>
+      <c r="K884" s="27"/>
+      <c r="L884" s="27"/>
+      <c r="M884" s="49">
+        <v>13</v>
+      </c>
+      <c r="N884" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O884" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="P884" s="32">
+        <v>40.862874342845039</v>
+      </c>
+      <c r="Q884" s="33">
+        <v>2</v>
+      </c>
+      <c r="R884" s="33">
+        <v>0</v>
+      </c>
+      <c r="S884" s="27"/>
+      <c r="T884" s="27"/>
+      <c r="U884" s="27"/>
+      <c r="V884" s="27"/>
+      <c r="W884" s="27"/>
+      <c r="X884" s="32"/>
+    </row>
+    <row r="885" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A885" s="27"/>
+      <c r="B885" s="27"/>
+      <c r="C885" s="27"/>
+      <c r="D885" s="27"/>
+      <c r="E885" s="27"/>
+      <c r="F885" s="27"/>
+      <c r="G885" s="27"/>
+      <c r="H885" s="27"/>
+      <c r="I885" s="27"/>
+      <c r="J885" s="27"/>
+      <c r="K885" s="27"/>
+      <c r="L885" s="27"/>
+      <c r="M885" s="49">
+        <v>14</v>
+      </c>
+      <c r="N885" s="27"/>
+      <c r="O885" s="27"/>
+      <c r="P885" s="32"/>
+      <c r="Q885" s="27"/>
+      <c r="R885" s="27"/>
+      <c r="S885" s="27"/>
+      <c r="T885" s="27"/>
+      <c r="U885" s="27"/>
+      <c r="V885" s="27"/>
+      <c r="W885" s="27"/>
+      <c r="X885" s="32"/>
+    </row>
+    <row r="886" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A886" s="27"/>
+      <c r="B886" s="27"/>
+      <c r="C886" s="27"/>
+      <c r="D886" s="27"/>
+      <c r="E886" s="27"/>
+      <c r="F886" s="27"/>
+      <c r="G886" s="27"/>
+      <c r="H886" s="27"/>
+      <c r="I886" s="27"/>
+      <c r="J886" s="27"/>
+      <c r="K886" s="27"/>
+      <c r="L886" s="27"/>
+      <c r="M886" s="49">
+        <v>15</v>
+      </c>
+      <c r="N886" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O886" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="P886" s="32">
+        <v>42.606433996787437</v>
+      </c>
+      <c r="Q886" s="33">
+        <v>1</v>
+      </c>
+      <c r="R886" s="33">
+        <v>5</v>
+      </c>
+      <c r="S886" s="27"/>
+      <c r="T886" s="27"/>
+      <c r="U886" s="27"/>
+      <c r="V886" s="27"/>
+      <c r="W886" s="27"/>
+      <c r="X886" s="32"/>
+    </row>
+    <row r="887" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A887" s="27"/>
+      <c r="B887" s="27"/>
+      <c r="C887" s="27"/>
+      <c r="D887" s="27"/>
+      <c r="E887" s="27"/>
+      <c r="F887" s="27"/>
+      <c r="G887" s="27"/>
+      <c r="H887" s="27"/>
+      <c r="I887" s="27"/>
+      <c r="J887" s="27"/>
+      <c r="K887" s="27"/>
+      <c r="L887" s="27"/>
+      <c r="M887" s="49">
+        <v>16</v>
+      </c>
+      <c r="N887" s="27"/>
+      <c r="O887" s="27"/>
+      <c r="P887" s="32"/>
+      <c r="Q887" s="33"/>
+      <c r="R887" s="33"/>
+      <c r="S887" s="27"/>
+      <c r="T887" s="27"/>
+      <c r="U887" s="27"/>
+      <c r="V887" s="27"/>
+      <c r="W887" s="27"/>
+      <c r="X887" s="32"/>
+    </row>
+    <row r="888" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A888" s="27"/>
+      <c r="B888" s="27"/>
+      <c r="C888" s="27"/>
+      <c r="D888" s="27"/>
+      <c r="E888" s="27"/>
+      <c r="F888" s="27"/>
+      <c r="G888" s="27"/>
+      <c r="H888" s="27"/>
+      <c r="I888" s="27"/>
+      <c r="J888" s="27"/>
+      <c r="K888" s="27"/>
+      <c r="L888" s="27"/>
+      <c r="M888" s="49">
+        <v>17</v>
+      </c>
+      <c r="N888" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O888" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="P888" s="32">
+        <v>43.377091792913589</v>
+      </c>
+      <c r="Q888" s="33">
+        <v>1</v>
+      </c>
+      <c r="R888" s="33">
+        <v>6</v>
+      </c>
+      <c r="S888" s="27"/>
+      <c r="T888" s="27"/>
+      <c r="U888" s="27"/>
+      <c r="V888" s="27"/>
+      <c r="W888" s="27"/>
+      <c r="X888" s="32"/>
+    </row>
+    <row r="889" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A889" s="27"/>
+      <c r="B889" s="27"/>
+      <c r="C889" s="27"/>
+      <c r="D889" s="27"/>
+      <c r="E889" s="27"/>
+      <c r="F889" s="27"/>
+      <c r="G889" s="27"/>
+      <c r="H889" s="27"/>
+      <c r="I889" s="27"/>
+      <c r="J889" s="27"/>
+      <c r="K889" s="27"/>
+      <c r="L889" s="27"/>
+      <c r="M889" s="49">
+        <v>18</v>
+      </c>
+      <c r="N889" s="27"/>
+      <c r="O889" s="27"/>
+      <c r="P889" s="32"/>
+      <c r="Q889" s="33"/>
+      <c r="R889" s="33"/>
+      <c r="S889" s="27"/>
+      <c r="T889" s="27"/>
+      <c r="U889" s="27"/>
+      <c r="V889" s="27"/>
+      <c r="W889" s="27"/>
+      <c r="X889" s="32"/>
+    </row>
+    <row r="890" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A890" s="27"/>
+      <c r="B890" s="27"/>
+      <c r="C890" s="27"/>
+      <c r="D890" s="27"/>
+      <c r="E890" s="27"/>
+      <c r="F890" s="27"/>
+      <c r="G890" s="27"/>
+      <c r="H890" s="27"/>
+      <c r="I890" s="27"/>
+      <c r="J890" s="27"/>
+      <c r="K890" s="27"/>
+      <c r="L890" s="27"/>
+      <c r="M890" s="49">
+        <v>19</v>
+      </c>
+      <c r="N890" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O890" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="P890" s="32">
+        <v>33.294723125604484</v>
+      </c>
+      <c r="Q890" s="33">
+        <v>1</v>
+      </c>
+      <c r="R890" s="33">
+        <v>8</v>
+      </c>
+      <c r="S890" s="27"/>
+      <c r="T890" s="27"/>
+      <c r="U890" s="27"/>
+      <c r="V890" s="27"/>
+      <c r="W890" s="27"/>
+      <c r="X890" s="32"/>
+    </row>
+    <row r="891" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A891" s="27"/>
+      <c r="B891" s="27"/>
+      <c r="C891" s="27"/>
+      <c r="D891" s="27"/>
+      <c r="E891" s="27"/>
+      <c r="F891" s="27"/>
+      <c r="G891" s="27"/>
+      <c r="H891" s="27"/>
+      <c r="I891" s="27"/>
+      <c r="J891" s="27"/>
+      <c r="K891" s="27"/>
+      <c r="L891" s="27"/>
+      <c r="M891" s="49">
+        <v>20</v>
+      </c>
+      <c r="N891" s="27"/>
+      <c r="O891" s="27"/>
+      <c r="P891" s="32"/>
+      <c r="Q891" s="33"/>
+      <c r="R891" s="33"/>
+      <c r="S891" s="27"/>
+      <c r="T891" s="27"/>
+      <c r="U891" s="27"/>
+      <c r="V891" s="27"/>
+      <c r="W891" s="27"/>
+      <c r="X891" s="32"/>
+    </row>
+    <row r="892" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A892" s="27"/>
+      <c r="B892" s="27"/>
+      <c r="C892" s="27"/>
+      <c r="D892" s="27"/>
+      <c r="E892" s="27"/>
+      <c r="F892" s="27"/>
+      <c r="G892" s="27"/>
+      <c r="H892" s="27"/>
+      <c r="I892" s="27"/>
+      <c r="J892" s="27"/>
+      <c r="K892" s="27"/>
+      <c r="L892" s="27"/>
+      <c r="M892" s="49">
+        <v>21</v>
+      </c>
+      <c r="N892" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O892" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="P892" s="32">
+        <v>31.743682806308456</v>
+      </c>
+      <c r="Q892" s="33">
+        <v>1</v>
+      </c>
+      <c r="R892" s="33">
+        <v>6</v>
+      </c>
+      <c r="S892" s="27"/>
+      <c r="T892" s="27"/>
+      <c r="U892" s="27"/>
+      <c r="V892" s="27"/>
+      <c r="W892" s="27"/>
+      <c r="X892" s="32"/>
+    </row>
+    <row r="893" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A893" s="27"/>
+      <c r="B893" s="27"/>
+      <c r="C893" s="27"/>
+      <c r="D893" s="27"/>
+      <c r="E893" s="27"/>
+      <c r="F893" s="27"/>
+      <c r="G893" s="27"/>
+      <c r="H893" s="27"/>
+      <c r="I893" s="27"/>
+      <c r="J893" s="27"/>
+      <c r="K893" s="27"/>
+      <c r="L893" s="27"/>
+      <c r="M893" s="49">
+        <v>22</v>
+      </c>
+      <c r="N893" s="27"/>
+      <c r="O893" s="27"/>
+      <c r="P893" s="32"/>
+      <c r="Q893" s="33"/>
+      <c r="R893" s="33"/>
+      <c r="S893" s="27"/>
+      <c r="T893" s="27"/>
+      <c r="U893" s="27"/>
+      <c r="V893" s="27"/>
+      <c r="W893" s="27"/>
+      <c r="X893" s="32"/>
+    </row>
+    <row r="894" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A894" s="27"/>
+      <c r="B894" s="27"/>
+      <c r="C894" s="27"/>
+      <c r="D894" s="27"/>
+      <c r="E894" s="27"/>
+      <c r="F894" s="27"/>
+      <c r="G894" s="27"/>
+      <c r="H894" s="27"/>
+      <c r="I894" s="27"/>
+      <c r="J894" s="27"/>
+      <c r="K894" s="27"/>
+      <c r="L894" s="27"/>
+      <c r="M894" s="49">
+        <v>23</v>
+      </c>
+      <c r="N894" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O894" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="P894" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q894" s="33">
+        <v>0</v>
+      </c>
+      <c r="R894" s="33">
+        <v>0</v>
+      </c>
+      <c r="S894" s="27"/>
+      <c r="T894" s="27"/>
+      <c r="U894" s="27"/>
+      <c r="V894" s="27"/>
+      <c r="W894" s="27"/>
+      <c r="X894" s="32"/>
+    </row>
+    <row r="895" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A895" s="27"/>
+      <c r="B895" s="27"/>
+      <c r="C895" s="27"/>
+      <c r="D895" s="27"/>
+      <c r="E895" s="27"/>
+      <c r="F895" s="27"/>
+      <c r="G895" s="27"/>
+      <c r="H895" s="27"/>
+      <c r="I895" s="27"/>
+      <c r="J895" s="27"/>
+      <c r="K895" s="27"/>
+      <c r="L895" s="27"/>
+      <c r="M895" s="49">
+        <v>24</v>
+      </c>
+      <c r="N895" s="27"/>
+      <c r="O895" s="27"/>
+      <c r="P895" s="32"/>
+      <c r="Q895" s="33"/>
+      <c r="R895" s="33"/>
+      <c r="S895" s="27"/>
+      <c r="T895" s="27"/>
+      <c r="U895" s="27"/>
+      <c r="V895" s="27"/>
+      <c r="W895" s="27"/>
+      <c r="X895" s="32"/>
+    </row>
+    <row r="896" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A896" s="27"/>
+      <c r="B896" s="27"/>
+      <c r="C896" s="27"/>
+      <c r="D896" s="27"/>
+      <c r="E896" s="27"/>
+      <c r="F896" s="27"/>
+      <c r="G896" s="27"/>
+      <c r="H896" s="27"/>
+      <c r="I896" s="27"/>
+      <c r="J896" s="27"/>
+      <c r="K896" s="27"/>
+      <c r="L896" s="27"/>
+      <c r="M896" s="49">
+        <v>25</v>
+      </c>
+      <c r="N896" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O896" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="P896" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q896" s="33">
+        <v>0</v>
+      </c>
+      <c r="R896" s="33">
+        <v>0</v>
+      </c>
+      <c r="S896" s="27"/>
+      <c r="T896" s="27"/>
+      <c r="U896" s="27"/>
+      <c r="V896" s="27"/>
+      <c r="W896" s="27"/>
+      <c r="X896" s="32"/>
+    </row>
+    <row r="897" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A897" s="27"/>
+      <c r="B897" s="27"/>
+      <c r="C897" s="27"/>
+      <c r="D897" s="27"/>
+      <c r="E897" s="27"/>
+      <c r="F897" s="27"/>
+      <c r="G897" s="27"/>
+      <c r="H897" s="27"/>
+      <c r="I897" s="27"/>
+      <c r="J897" s="27"/>
+      <c r="K897" s="27"/>
+      <c r="L897" s="27"/>
+      <c r="M897" s="49">
+        <v>26</v>
+      </c>
+      <c r="N897" s="27"/>
+      <c r="O897" s="27"/>
+      <c r="P897" s="32"/>
+      <c r="Q897" s="33"/>
+      <c r="R897" s="33"/>
+      <c r="S897" s="27"/>
+      <c r="T897" s="27"/>
+      <c r="U897" s="27"/>
+      <c r="V897" s="27"/>
+      <c r="W897" s="27"/>
+      <c r="X897" s="32"/>
+    </row>
+    <row r="898" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A898" s="27"/>
+      <c r="B898" s="27"/>
+      <c r="C898" s="27"/>
+      <c r="D898" s="27"/>
+      <c r="E898" s="27"/>
+      <c r="F898" s="27"/>
+      <c r="G898" s="27"/>
+      <c r="H898" s="27"/>
+      <c r="I898" s="27"/>
+      <c r="J898" s="27"/>
+      <c r="K898" s="27"/>
+      <c r="L898" s="27"/>
+      <c r="M898" s="49">
+        <v>27</v>
+      </c>
+      <c r="N898" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O898" s="27"/>
+      <c r="P898" s="32">
+        <v>8.7974999999999994</v>
+      </c>
+      <c r="Q898" s="33"/>
+      <c r="R898" s="33"/>
+      <c r="S898" s="27"/>
+      <c r="T898" s="27"/>
+      <c r="U898" s="27"/>
+      <c r="V898" s="27"/>
+      <c r="W898" s="27"/>
+      <c r="X898" s="32"/>
+    </row>
+    <row r="899" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A899" s="27"/>
+      <c r="B899" s="27"/>
+      <c r="C899" s="27"/>
+      <c r="D899" s="27"/>
+      <c r="E899" s="27"/>
+      <c r="F899" s="27"/>
+      <c r="G899" s="27"/>
+      <c r="H899" s="27"/>
+      <c r="I899" s="27"/>
+      <c r="J899" s="27"/>
+      <c r="K899" s="27"/>
+      <c r="L899" s="27"/>
+      <c r="M899" s="49">
+        <v>28</v>
+      </c>
+      <c r="N899" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O899" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="P899" s="32">
+        <v>47.602822688909683</v>
+      </c>
+      <c r="Q899" s="33">
+        <v>1</v>
+      </c>
+      <c r="R899" s="33">
+        <v>7</v>
+      </c>
+      <c r="S899" s="27"/>
+      <c r="T899" s="27"/>
+      <c r="U899" s="27"/>
+      <c r="V899" s="27"/>
+      <c r="W899" s="27"/>
+      <c r="X899" s="32"/>
+    </row>
+    <row r="900" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A900" s="27"/>
+      <c r="B900" s="27"/>
+      <c r="C900" s="27"/>
+      <c r="D900" s="27"/>
+      <c r="E900" s="27"/>
+      <c r="F900" s="27"/>
+      <c r="G900" s="27"/>
+      <c r="H900" s="27"/>
+      <c r="I900" s="27"/>
+      <c r="J900" s="27"/>
+      <c r="K900" s="27"/>
+      <c r="L900" s="27"/>
+      <c r="M900" s="49">
+        <v>29</v>
+      </c>
+      <c r="N900" s="27"/>
+      <c r="O900" s="27"/>
+      <c r="P900" s="32"/>
+      <c r="Q900" s="33"/>
+      <c r="R900" s="33"/>
+      <c r="S900" s="27"/>
+      <c r="T900" s="27"/>
+      <c r="U900" s="27"/>
+      <c r="V900" s="27"/>
+      <c r="W900" s="27"/>
+      <c r="X900" s="32"/>
+    </row>
+    <row r="901" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A901" s="27"/>
+      <c r="B901" s="27"/>
+      <c r="C901" s="27"/>
+      <c r="D901" s="27"/>
+      <c r="E901" s="27"/>
+      <c r="F901" s="27"/>
+      <c r="G901" s="27"/>
+      <c r="H901" s="27"/>
+      <c r="I901" s="27"/>
+      <c r="J901" s="27"/>
+      <c r="K901" s="27"/>
+      <c r="L901" s="27"/>
+      <c r="M901" s="49">
+        <v>30</v>
+      </c>
+      <c r="N901" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O901" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="P901" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q901" s="33">
+        <v>0</v>
+      </c>
+      <c r="R901" s="33">
+        <v>0</v>
+      </c>
+      <c r="S901" s="27"/>
+      <c r="T901" s="27"/>
+      <c r="U901" s="27"/>
+      <c r="V901" s="27"/>
+      <c r="W901" s="27"/>
+      <c r="X901" s="32"/>
+    </row>
+    <row r="902" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A902" s="27"/>
+      <c r="B902" s="27"/>
+      <c r="C902" s="27"/>
+      <c r="D902" s="27"/>
+      <c r="E902" s="27"/>
+      <c r="F902" s="27"/>
+      <c r="G902" s="27"/>
+      <c r="H902" s="27"/>
+      <c r="I902" s="27"/>
+      <c r="J902" s="27"/>
+      <c r="K902" s="27"/>
+      <c r="L902" s="27"/>
+      <c r="M902" s="49">
+        <v>31</v>
+      </c>
+      <c r="N902" s="27"/>
+      <c r="O902" s="27"/>
+      <c r="P902" s="32"/>
+      <c r="Q902" s="33"/>
+      <c r="R902" s="33"/>
+      <c r="S902" s="27"/>
+      <c r="T902" s="27"/>
+      <c r="U902" s="27"/>
+      <c r="V902" s="27"/>
+      <c r="W902" s="27"/>
+      <c r="X902" s="32"/>
+    </row>
+    <row r="903" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A903" s="27"/>
+      <c r="B903" s="27"/>
+      <c r="C903" s="27"/>
+      <c r="D903" s="27"/>
+      <c r="E903" s="27"/>
+      <c r="F903" s="27"/>
+      <c r="G903" s="27"/>
+      <c r="H903" s="27"/>
+      <c r="I903" s="27"/>
+      <c r="J903" s="27"/>
+      <c r="K903" s="27"/>
+      <c r="L903" s="27"/>
+      <c r="M903" s="49">
+        <v>32</v>
+      </c>
+      <c r="N903" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O903" s="27"/>
+      <c r="P903" s="32">
+        <v>11.845000000000001</v>
+      </c>
+      <c r="Q903" s="33"/>
+      <c r="R903" s="33"/>
+      <c r="S903" s="27"/>
+      <c r="T903" s="27"/>
+      <c r="U903" s="27"/>
+      <c r="V903" s="27"/>
+      <c r="W903" s="27"/>
+      <c r="X903" s="32"/>
+    </row>
+    <row r="904" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A904" s="27"/>
+      <c r="B904" s="27"/>
+      <c r="C904" s="27"/>
+      <c r="D904" s="27"/>
+      <c r="E904" s="27"/>
+      <c r="F904" s="27"/>
+      <c r="G904" s="27"/>
+      <c r="H904" s="27"/>
+      <c r="I904" s="27"/>
+      <c r="J904" s="27"/>
+      <c r="K904" s="27"/>
+      <c r="L904" s="27"/>
+      <c r="M904" s="49">
+        <v>33</v>
+      </c>
+      <c r="N904" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O904" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="P904" s="32">
+        <v>44.131760872327369</v>
+      </c>
+      <c r="Q904" s="33">
+        <v>2</v>
+      </c>
+      <c r="R904" s="33">
+        <v>0</v>
+      </c>
+      <c r="S904" s="27"/>
+      <c r="T904" s="27"/>
+      <c r="U904" s="27"/>
+      <c r="V904" s="27"/>
+      <c r="W904" s="27"/>
+      <c r="X904" s="32"/>
+    </row>
+    <row r="905" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A905" s="27"/>
+      <c r="B905" s="27"/>
+      <c r="C905" s="27"/>
+      <c r="D905" s="27"/>
+      <c r="E905" s="27"/>
+      <c r="F905" s="27"/>
+      <c r="G905" s="27"/>
+      <c r="H905" s="27"/>
+      <c r="I905" s="27"/>
+      <c r="J905" s="27"/>
+      <c r="K905" s="27"/>
+      <c r="L905" s="27"/>
+      <c r="M905" s="49">
+        <v>34</v>
+      </c>
+      <c r="N905" s="27"/>
+      <c r="O905" s="27"/>
+      <c r="P905" s="32"/>
+      <c r="Q905" s="33"/>
+      <c r="R905" s="33"/>
+      <c r="S905" s="27"/>
+      <c r="T905" s="27"/>
+      <c r="U905" s="27"/>
+      <c r="V905" s="27"/>
+      <c r="W905" s="27"/>
+      <c r="X905" s="32"/>
+    </row>
+    <row r="906" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A906" s="27"/>
+      <c r="B906" s="27"/>
+      <c r="C906" s="27"/>
+      <c r="D906" s="27"/>
+      <c r="E906" s="27"/>
+      <c r="F906" s="27"/>
+      <c r="G906" s="27"/>
+      <c r="H906" s="27"/>
+      <c r="I906" s="27"/>
+      <c r="J906" s="27"/>
+      <c r="K906" s="27"/>
+      <c r="L906" s="27"/>
+      <c r="M906" s="49">
+        <v>35</v>
+      </c>
+      <c r="N906" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O906" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="P906" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q906" s="33">
+        <v>0</v>
+      </c>
+      <c r="R906" s="33">
+        <v>0</v>
+      </c>
+      <c r="S906" s="27"/>
+      <c r="T906" s="27"/>
+      <c r="U906" s="27"/>
+      <c r="V906" s="27"/>
+      <c r="W906" s="27"/>
+      <c r="X906" s="32"/>
+    </row>
+    <row r="907" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A907" s="27"/>
+      <c r="B907" s="27"/>
+      <c r="C907" s="27"/>
+      <c r="D907" s="27"/>
+      <c r="E907" s="27"/>
+      <c r="F907" s="27"/>
+      <c r="G907" s="27"/>
+      <c r="H907" s="27"/>
+      <c r="I907" s="27"/>
+      <c r="J907" s="27"/>
+      <c r="K907" s="27"/>
+      <c r="L907" s="27"/>
+      <c r="M907" s="49">
+        <v>36</v>
+      </c>
+      <c r="N907" s="27"/>
+      <c r="O907" s="27"/>
+      <c r="P907" s="32"/>
+      <c r="Q907" s="33"/>
+      <c r="R907" s="33"/>
+      <c r="S907" s="27"/>
+      <c r="T907" s="27"/>
+      <c r="U907" s="27"/>
+      <c r="V907" s="27"/>
+      <c r="W907" s="27"/>
+      <c r="X907" s="32"/>
+    </row>
+    <row r="908" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A908" s="27"/>
+      <c r="B908" s="27"/>
+      <c r="C908" s="27"/>
+      <c r="D908" s="27"/>
+      <c r="E908" s="27"/>
+      <c r="F908" s="27"/>
+      <c r="G908" s="27"/>
+      <c r="H908" s="27"/>
+      <c r="I908" s="27"/>
+      <c r="J908" s="27"/>
+      <c r="K908" s="27"/>
+      <c r="L908" s="27"/>
+      <c r="M908" s="49">
+        <v>37</v>
+      </c>
+      <c r="N908" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O908" s="27"/>
+      <c r="P908" s="32">
+        <v>15.409999999999998</v>
+      </c>
+      <c r="Q908" s="33"/>
+      <c r="R908" s="33"/>
+      <c r="S908" s="27"/>
+      <c r="T908" s="27"/>
+      <c r="U908" s="27"/>
+      <c r="V908" s="27"/>
+      <c r="W908" s="27"/>
+      <c r="X908" s="32"/>
+    </row>
+    <row r="909" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A909" s="27"/>
+      <c r="B909" s="27"/>
+      <c r="C909" s="27"/>
+      <c r="D909" s="27"/>
+      <c r="E909" s="27"/>
+      <c r="F909" s="27"/>
+      <c r="G909" s="27"/>
+      <c r="H909" s="27"/>
+      <c r="I909" s="27"/>
+      <c r="J909" s="27"/>
+      <c r="K909" s="27"/>
+      <c r="L909" s="27"/>
+      <c r="M909" s="49">
+        <v>38</v>
+      </c>
+      <c r="N909" s="27"/>
+      <c r="O909" s="27"/>
+      <c r="P909" s="32"/>
+      <c r="Q909" s="33"/>
+      <c r="R909" s="33"/>
+      <c r="S909" s="27"/>
+      <c r="T909" s="27"/>
+      <c r="U909" s="27"/>
+      <c r="V909" s="27"/>
+      <c r="W909" s="27"/>
+      <c r="X909" s="32"/>
+    </row>
+    <row r="910" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A910" s="27"/>
+      <c r="B910" s="27"/>
+      <c r="C910" s="27"/>
+      <c r="D910" s="27"/>
+      <c r="E910" s="27"/>
+      <c r="F910" s="27"/>
+      <c r="G910" s="27"/>
+      <c r="H910" s="27"/>
+      <c r="I910" s="27"/>
+      <c r="J910" s="27"/>
+      <c r="K910" s="27"/>
+      <c r="L910" s="27"/>
+      <c r="M910" s="49">
+        <v>39</v>
+      </c>
+      <c r="N910" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O910" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="P910" s="32">
+        <v>43.48776386334346</v>
+      </c>
+      <c r="Q910" s="33">
+        <v>2</v>
+      </c>
+      <c r="R910" s="33">
+        <v>6</v>
+      </c>
+      <c r="S910" s="27"/>
+      <c r="T910" s="27"/>
+      <c r="U910" s="27"/>
+      <c r="V910" s="27"/>
+      <c r="W910" s="27"/>
+      <c r="X910" s="32"/>
+    </row>
+    <row r="911" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A911" s="27"/>
+      <c r="B911" s="27"/>
+      <c r="C911" s="27"/>
+      <c r="D911" s="27"/>
+      <c r="E911" s="27"/>
+      <c r="F911" s="27"/>
+      <c r="G911" s="27"/>
+      <c r="H911" s="27"/>
+      <c r="I911" s="27"/>
+      <c r="J911" s="27"/>
+      <c r="K911" s="27"/>
+      <c r="L911" s="27"/>
+      <c r="M911" s="49">
+        <v>40</v>
+      </c>
+      <c r="N911" s="27"/>
+      <c r="O911" s="27"/>
+      <c r="P911" s="32"/>
+      <c r="Q911" s="33"/>
+      <c r="R911" s="33"/>
+      <c r="S911" s="27"/>
+      <c r="T911" s="27"/>
+      <c r="U911" s="27"/>
+      <c r="V911" s="27"/>
+      <c r="W911" s="27"/>
+      <c r="X911" s="32"/>
+    </row>
+    <row r="912" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A912" s="27"/>
+      <c r="B912" s="27"/>
+      <c r="C912" s="27"/>
+      <c r="D912" s="27"/>
+      <c r="E912" s="27"/>
+      <c r="F912" s="27"/>
+      <c r="G912" s="27"/>
+      <c r="H912" s="27"/>
+      <c r="I912" s="27"/>
+      <c r="J912" s="27"/>
+      <c r="K912" s="27"/>
+      <c r="L912" s="27"/>
+      <c r="M912" s="49">
+        <v>41</v>
+      </c>
+      <c r="N912" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O912" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="P912" s="32">
+        <v>33.081483382445114</v>
+      </c>
+      <c r="Q912" s="33">
+        <v>1</v>
+      </c>
+      <c r="R912" s="33">
+        <v>4</v>
+      </c>
+      <c r="S912" s="27"/>
+      <c r="T912" s="27"/>
+      <c r="U912" s="27"/>
+      <c r="V912" s="27"/>
+      <c r="W912" s="27"/>
+      <c r="X912" s="32"/>
+    </row>
+    <row r="913" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A913" s="27"/>
+      <c r="B913" s="27"/>
+      <c r="C913" s="27"/>
+      <c r="D913" s="27"/>
+      <c r="E913" s="27"/>
+      <c r="F913" s="27"/>
+      <c r="G913" s="27"/>
+      <c r="H913" s="27"/>
+      <c r="I913" s="27"/>
+      <c r="J913" s="27"/>
+      <c r="K913" s="27"/>
+      <c r="L913" s="27"/>
+      <c r="M913" s="49">
+        <v>42</v>
+      </c>
+      <c r="N913" s="27"/>
+      <c r="O913" s="27"/>
+      <c r="P913" s="32"/>
+      <c r="Q913" s="33"/>
+      <c r="R913" s="33"/>
+      <c r="S913" s="27"/>
+      <c r="T913" s="27"/>
+      <c r="U913" s="27"/>
+      <c r="V913" s="27"/>
+      <c r="W913" s="27"/>
+      <c r="X913" s="32"/>
+    </row>
+    <row r="914" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A914" s="27"/>
+      <c r="B914" s="27"/>
+      <c r="C914" s="27"/>
+      <c r="D914" s="27"/>
+      <c r="E914" s="27"/>
+      <c r="F914" s="27"/>
+      <c r="G914" s="27"/>
+      <c r="H914" s="27"/>
+      <c r="I914" s="27"/>
+      <c r="J914" s="27"/>
+      <c r="K914" s="27"/>
+      <c r="L914" s="27"/>
+      <c r="M914" s="49">
+        <v>43</v>
+      </c>
+      <c r="N914" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O914" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="P914" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q914" s="33">
+        <v>2</v>
+      </c>
+      <c r="R914" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="S914" s="27"/>
+      <c r="T914" s="27"/>
+      <c r="U914" s="27"/>
+      <c r="V914" s="27"/>
+      <c r="W914" s="27"/>
+      <c r="X914" s="32"/>
+    </row>
+    <row r="915" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A915" s="27"/>
+      <c r="B915" s="27"/>
+      <c r="C915" s="27"/>
+      <c r="D915" s="27"/>
+      <c r="E915" s="27"/>
+      <c r="F915" s="27"/>
+      <c r="G915" s="27"/>
+      <c r="H915" s="27"/>
+      <c r="I915" s="27"/>
+      <c r="J915" s="27"/>
+      <c r="K915" s="27"/>
+      <c r="L915" s="27"/>
+      <c r="M915" s="49">
+        <v>44</v>
+      </c>
+      <c r="N915" s="27"/>
+      <c r="O915" s="27"/>
+      <c r="P915" s="32"/>
+      <c r="Q915" s="33"/>
+      <c r="R915" s="33"/>
+      <c r="S915" s="27"/>
+      <c r="T915" s="27"/>
+      <c r="U915" s="27"/>
+      <c r="V915" s="27"/>
+      <c r="W915" s="27"/>
+      <c r="X915" s="32"/>
+    </row>
+    <row r="916" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A916" s="27"/>
+      <c r="B916" s="27"/>
+      <c r="C916" s="27"/>
+      <c r="D916" s="27"/>
+      <c r="E916" s="27"/>
+      <c r="F916" s="27"/>
+      <c r="G916" s="27"/>
+      <c r="H916" s="27"/>
+      <c r="I916" s="27"/>
+      <c r="J916" s="27"/>
+      <c r="K916" s="27"/>
+      <c r="L916" s="27"/>
+      <c r="M916" s="49">
+        <v>45</v>
+      </c>
+      <c r="N916" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O916" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="P916" s="32">
+        <v>53.020695081123939</v>
+      </c>
+      <c r="Q916" s="33">
+        <v>1</v>
+      </c>
+      <c r="R916" s="33">
+        <v>16</v>
+      </c>
+      <c r="S916" s="27"/>
+      <c r="T916" s="27"/>
+      <c r="U916" s="27"/>
+      <c r="V916" s="27"/>
+      <c r="W916" s="27"/>
+      <c r="X916" s="32"/>
+    </row>
+    <row r="917" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A917" s="27"/>
+      <c r="B917" s="27"/>
+      <c r="C917" s="27"/>
+      <c r="D917" s="27"/>
+      <c r="E917" s="27"/>
+      <c r="F917" s="27"/>
+      <c r="G917" s="27"/>
+      <c r="H917" s="27"/>
+      <c r="I917" s="27"/>
+      <c r="J917" s="27"/>
+      <c r="K917" s="27"/>
+      <c r="L917" s="27"/>
+      <c r="M917" s="49">
+        <v>46</v>
+      </c>
+      <c r="N917" s="27"/>
+      <c r="O917" s="27"/>
+      <c r="P917" s="32"/>
+      <c r="Q917" s="33"/>
+      <c r="R917" s="33"/>
+      <c r="S917" s="27"/>
+      <c r="T917" s="27"/>
+      <c r="U917" s="27"/>
+      <c r="V917" s="27"/>
+      <c r="W917" s="27"/>
+      <c r="X917" s="32"/>
+    </row>
+    <row r="918" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A918" s="27"/>
+      <c r="B918" s="27"/>
+      <c r="C918" s="27"/>
+      <c r="D918" s="27"/>
+      <c r="E918" s="27"/>
+      <c r="F918" s="27"/>
+      <c r="G918" s="27"/>
+      <c r="H918" s="27"/>
+      <c r="I918" s="27"/>
+      <c r="J918" s="27"/>
+      <c r="K918" s="27"/>
+      <c r="L918" s="27"/>
+      <c r="M918" s="49">
+        <v>47</v>
+      </c>
+      <c r="N918" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O918" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="P918" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q918" s="33">
+        <v>0</v>
+      </c>
+      <c r="R918" s="33">
+        <v>0</v>
+      </c>
+      <c r="S918" s="27"/>
+      <c r="T918" s="27"/>
+      <c r="U918" s="27"/>
+      <c r="V918" s="27"/>
+      <c r="W918" s="27"/>
+      <c r="X918" s="32"/>
+    </row>
+    <row r="919" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A919" s="27"/>
+      <c r="B919" s="27"/>
+      <c r="C919" s="27"/>
+      <c r="D919" s="27"/>
+      <c r="E919" s="27"/>
+      <c r="F919" s="27"/>
+      <c r="G919" s="27"/>
+      <c r="H919" s="27"/>
+      <c r="I919" s="27"/>
+      <c r="J919" s="27"/>
+      <c r="K919" s="27"/>
+      <c r="L919" s="27"/>
+      <c r="M919" s="49">
+        <v>48</v>
+      </c>
+      <c r="N919" s="27"/>
+      <c r="O919" s="27"/>
+      <c r="P919" s="32"/>
+      <c r="Q919" s="33"/>
+      <c r="R919" s="33"/>
+      <c r="S919" s="27"/>
+      <c r="T919" s="27"/>
+      <c r="U919" s="27"/>
+      <c r="V919" s="27"/>
+      <c r="W919" s="27"/>
+      <c r="X919" s="32"/>
+    </row>
+    <row r="920" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A920" s="27"/>
+      <c r="B920" s="27"/>
+      <c r="C920" s="27"/>
+      <c r="D920" s="27"/>
+      <c r="E920" s="27"/>
+      <c r="F920" s="27"/>
+      <c r="G920" s="27"/>
+      <c r="H920" s="27"/>
+      <c r="I920" s="27"/>
+      <c r="J920" s="27"/>
+      <c r="K920" s="27"/>
+      <c r="L920" s="27"/>
+      <c r="M920" s="49">
+        <v>49</v>
+      </c>
+      <c r="N920" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O920" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="P920" s="32">
+        <v>36.517781019210815</v>
+      </c>
+      <c r="Q920" s="33">
+        <v>1</v>
+      </c>
+      <c r="R920" s="33">
+        <v>15</v>
+      </c>
+      <c r="S920" s="27"/>
+      <c r="T920" s="27"/>
+      <c r="U920" s="27"/>
+      <c r="V920" s="27"/>
+      <c r="W920" s="27"/>
+      <c r="X920" s="32"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="G197:I197"/>
@@ -22932,7 +27039,7 @@
     <mergeCell ref="V190:W190"/>
   </mergeCells>
   <conditionalFormatting sqref="E367:F375">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -22942,7 +27049,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E467:F475">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -22952,7 +27059,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E547:F555">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -22962,7 +27069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E588:F595">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -22972,7 +27079,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G366:H375">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -22982,7 +27089,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466:H475">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -22992,7 +27099,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G546:H555">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -23002,7 +27109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G586:H595">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -23012,6 +27119,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G693:H702">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFA6C9EC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E695:F702">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF7C7AC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P677:R779">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G806:H807">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -23021,8 +27153,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E695:F702">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="P790:R807">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G836:H845">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFA6C9EC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E838:F845">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -23031,28 +27178,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P677:R779">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G806:H807">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFA6C9EC"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P790:R807">
+  <conditionalFormatting sqref="P820:R870 P872:R920">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L299:M332 S352:S430 M352:N430 U452:U525 O452:P525 O532:P569 U532:U569 T572:T671 N572:O671 T682:T779 T679:T680 N679:O779 T795:T807 T792:T793 N792:O807" xr:uid="{804F0AFC-E07C-4B9B-A3FD-AEB68EC6AC1C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L299:M332 S352:S430 M352:N430 U452:U525 O452:P525 O532:P569 U532:U569 T572:T671 N572:O671 T682:T779 T679:T680 N679:O779 T795:T807 T792:T793 N792:O807 T825:T920 T822:T823 N822:O920" xr:uid="{804F0AFC-E07C-4B9B-A3FD-AEB68EC6AC1C}">
       <formula1>$A$18:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B208:C208" xr:uid="{605C8630-B0BC-4DB7-8E8F-8A6B69239C15}">

--- a/Test/test_runs_combat.xlsx
+++ b/Test/test_runs_combat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shield\Documents\Story\AgranariTTRPG\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FCEC16-DCF4-4809-96FA-5DCFDC8A2AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C6FAFB-F4C0-4D31-9B8B-6E30D23254D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12975" yWindow="405" windowWidth="29070" windowHeight="12600" xr2:uid="{F8D463A0-768A-4A18-944B-E333205F072A}"/>
   </bookViews>
@@ -842,21 +842,21 @@
       <definedName name="WP_PainTolerance"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/Test/test_runs_combat.xlsx
+++ b/Test/test_runs_combat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shield\Documents\Story\AgranariTTRPG\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C6FAFB-F4C0-4D31-9B8B-6E30D23254D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45683B30-EEB9-4D39-B468-EA0D0678869A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12975" yWindow="405" windowWidth="29070" windowHeight="12600" xr2:uid="{F8D463A0-768A-4A18-944B-E333205F072A}"/>
+    <workbookView xWindow="11175" yWindow="4425" windowWidth="30240" windowHeight="12090" xr2:uid="{F8D463A0-768A-4A18-944B-E333205F072A}"/>
   </bookViews>
   <sheets>
     <sheet name="_TEST_Runs" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="127">
   <si>
     <t>Cat Soldier</t>
   </si>
@@ -432,6 +432,18 @@
   <si>
     <t>?</t>
   </si>
+  <si>
+    <t>0 Fang</t>
+  </si>
+  <si>
+    <t>(12.7 + d42.2) x0.6</t>
+  </si>
+  <si>
+    <t>Dodge Bonus</t>
+  </si>
+  <si>
+    <t>Fang</t>
+  </si>
 </sst>
 </file>
 
@@ -440,7 +452,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,6 +502,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
@@ -687,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -745,15 +763,18 @@
     <xf numFmtId="1" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,11 +792,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFBFBFBF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -786,7 +802,12 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color rgb="FFBFBFBF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFBFBFBF"/>
       </font>
     </dxf>
   </dxfs>
@@ -800,6 +821,1225 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>925</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="771525" cy="342900"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824BCD4E-F598-40B9-BA78-2CF6FB549061}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow"/>
+                </a:rPr>
+                <a:t>Roll</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>929</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>930</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Button 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA3E64E-81D2-43E0-8096-ACD8F080358A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow"/>
+                </a:rPr>
+                <a:t>Clear</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>923</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>924</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Button 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658F008E-04BB-4C6E-91E1-95DEEDDED4CB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow"/>
+                </a:rPr>
+                <a:t>Clear History</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>926</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>927</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Button 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F075C14-E02C-4C87-9688-55AA111B5B72}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow"/>
+                </a:rPr>
+                <a:t>WP</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>929</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>930</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Button 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B346F7D-0420-4D60-8F1F-8DF1F99543DE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow"/>
+                </a:rPr>
+                <a:t>WP</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>930</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>931</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Button 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC732338-D1F8-4D24-B834-8FD906A4929B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow"/>
+                </a:rPr>
+                <a:t>WP</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>932</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>933</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Button 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E2FC11-1BE2-4322-A5B9-992278624B95}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow"/>
+                </a:rPr>
+                <a:t>WP</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>933</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>934</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Button 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89CECF31-FCCF-4BCD-9C89-BC904179FDC7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow"/>
+                </a:rPr>
+                <a:t>WP</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>934</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>935</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Button 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76224A17-8C4B-4A98-8D6F-6E43530EC958}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow"/>
+                </a:rPr>
+                <a:t>WP</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>932</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>933</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Button 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A84064-8C16-43BE-9A63-4D2B00C8315F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow"/>
+                </a:rPr>
+                <a:t>Wound</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>923</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>352425</xdr:colOff>
+          <xdr:row>925</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Button 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87667864-6E0D-439D-A7FA-43A264DAB13F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow"/>
+                </a:rPr>
+                <a:t>Progress Time</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>409575</xdr:colOff>
+          <xdr:row>924</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>925</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Button 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDB6943-EB89-4A01-96F5-62E7C983AF50}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow"/>
+                </a:rPr>
+                <a:t>Next Turn</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>22</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>923</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>925</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Button 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCBCB628-D6D5-4F6E-BD49-7FEB85D1AB94}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow"/>
+                </a:rPr>
+                <a:t>Clear Wounds</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>929</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="581025" cy="438150"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Button 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108449A6-DD8B-444C-915A-7FFB5720501F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow"/>
+                </a:rPr>
+                <a:t>Record Rolls</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>936</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>938</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="Button 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FEFD810-9815-496F-BAB8-0A8B8C5A8C69}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow"/>
+                </a:rPr>
+                <a:t>Roll</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>936</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>938</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="Button 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36CFCFA6-ED53-4E28-8FE8-9FA4F87CAC39}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow"/>
+                </a:rPr>
+                <a:t>Bonus</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>937</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>938</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="Button 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4603D05-207B-4019-A016-703BE9BE6CD1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow"/>
+                </a:rPr>
+                <a:t>-&gt;</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -822,6 +2062,7 @@
       <sheetName val="Features"/>
       <sheetName val="Features (Species)"/>
       <sheetName val="STAT COSTS"/>
+      <sheetName val="Fang"/>
       <sheetName val="Sources"/>
       <sheetName val="Changelog"/>
     </sheetNames>
@@ -830,9 +2071,12 @@
       <definedName name="ClearStats"/>
       <definedName name="ClearWounds"/>
       <definedName name="NextTurn"/>
+      <definedName name="PlaceBonus"/>
       <definedName name="ProgressTime"/>
       <definedName name="RecordRolls"/>
       <definedName name="Roll"/>
+      <definedName name="RollStat"/>
+      <definedName name="StoreBonus"/>
       <definedName name="WoundAdd"/>
       <definedName name="WP_Accuracy"/>
       <definedName name="WP_Constitution"/>
@@ -842,21 +2086,22 @@
       <definedName name="WP_PainTolerance"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1178,12 +2423,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7A2475-8FD1-4D1A-98B6-D7C93564AF9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7A2475-8FD1-4D1A-98B6-D7C93564AF9C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y920"/>
+  <dimension ref="A1:Y955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A860" workbookViewId="0">
-      <selection activeCell="A820" sqref="A820:X920"/>
+    <sheetView tabSelected="1" topLeftCell="A926" workbookViewId="0">
+      <selection activeCell="L948" sqref="L948"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3610,37 +4855,37 @@
         <v>100</v>
       </c>
       <c r="E190" s="13"/>
-      <c r="G190" s="47" t="s">
+      <c r="G190" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="H190" s="47"/>
-      <c r="I190" s="47"/>
-      <c r="J190" s="47" t="s">
+      <c r="H190" s="50"/>
+      <c r="I190" s="50"/>
+      <c r="J190" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="K190" s="47"/>
-      <c r="L190" s="47"/>
-      <c r="M190" s="47"/>
-      <c r="N190" s="47" t="s">
+      <c r="K190" s="50"/>
+      <c r="L190" s="50"/>
+      <c r="M190" s="50"/>
+      <c r="N190" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="O190" s="47"/>
-      <c r="P190" s="47"/>
+      <c r="O190" s="50"/>
+      <c r="P190" s="50"/>
       <c r="Q190" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="R190" s="47" t="s">
+      <c r="R190" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="S190" s="47"/>
-      <c r="T190" s="47"/>
+      <c r="S190" s="50"/>
+      <c r="T190" s="50"/>
       <c r="U190" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V190" s="47" t="s">
+      <c r="V190" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="W190" s="47"/>
+      <c r="W190" s="50"/>
       <c r="X190" s="3"/>
     </row>
     <row r="191" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3902,37 +5147,37 @@
         <f t="shared" si="12"/>
         <v>58.5</v>
       </c>
-      <c r="G197" s="47" t="s">
+      <c r="G197" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="H197" s="47"/>
-      <c r="I197" s="47"/>
-      <c r="J197" s="47" t="s">
+      <c r="H197" s="50"/>
+      <c r="I197" s="50"/>
+      <c r="J197" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="K197" s="47"/>
-      <c r="L197" s="47"/>
-      <c r="M197" s="47"/>
-      <c r="N197" s="47" t="s">
+      <c r="K197" s="50"/>
+      <c r="L197" s="50"/>
+      <c r="M197" s="50"/>
+      <c r="N197" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="O197" s="47"/>
-      <c r="P197" s="47"/>
+      <c r="O197" s="50"/>
+      <c r="P197" s="50"/>
       <c r="Q197" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="R197" s="47" t="s">
+      <c r="R197" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="S197" s="47"/>
-      <c r="T197" s="47"/>
+      <c r="S197" s="50"/>
+      <c r="T197" s="50"/>
       <c r="U197" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V197" s="47" t="s">
+      <c r="V197" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="W197" s="47"/>
+      <c r="W197" s="50"/>
       <c r="X197" s="3"/>
     </row>
     <row r="198" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18064,7 +19309,7 @@
       <c r="J679" s="29"/>
       <c r="K679" s="29"/>
       <c r="L679" s="27"/>
-      <c r="M679" s="49">
+      <c r="M679" s="47">
         <v>1</v>
       </c>
       <c r="N679" s="27" t="s">
@@ -18126,7 +19371,7 @@
       <c r="J680" s="39"/>
       <c r="K680" s="29"/>
       <c r="L680" s="27"/>
-      <c r="M680" s="49">
+      <c r="M680" s="47">
         <v>1.1000000000000001</v>
       </c>
       <c r="N680" s="27" t="s">
@@ -18184,7 +19429,7 @@
       <c r="J681" s="39"/>
       <c r="K681" s="29"/>
       <c r="L681" s="27"/>
-      <c r="M681" s="49">
+      <c r="M681" s="47">
         <v>1.1499999999999999</v>
       </c>
       <c r="N681" s="27"/>
@@ -18228,7 +19473,7 @@
       <c r="J682" s="39"/>
       <c r="K682" s="29"/>
       <c r="L682" s="27"/>
-      <c r="M682" s="49">
+      <c r="M682" s="47">
         <v>1.2</v>
       </c>
       <c r="N682" s="27" t="s">
@@ -18290,7 +19535,7 @@
       <c r="J683" s="39"/>
       <c r="K683" s="29"/>
       <c r="L683" s="27"/>
-      <c r="M683" s="49">
+      <c r="M683" s="47">
         <v>1.3</v>
       </c>
       <c r="N683" s="27" t="s">
@@ -18350,7 +19595,7 @@
       </c>
       <c r="K684" s="29"/>
       <c r="L684" s="27"/>
-      <c r="M684" s="49">
+      <c r="M684" s="47">
         <v>1.4000000000000001</v>
       </c>
       <c r="N684" s="27" t="s">
@@ -18416,7 +19661,7 @@
       </c>
       <c r="K685" s="29"/>
       <c r="L685" s="27"/>
-      <c r="M685" s="49">
+      <c r="M685" s="47">
         <v>1.5000000000000002</v>
       </c>
       <c r="N685" s="27" t="s">
@@ -18482,7 +19727,7 @@
       </c>
       <c r="K686" s="29"/>
       <c r="L686" s="27"/>
-      <c r="M686" s="49">
+      <c r="M686" s="47">
         <v>1.6000000000000003</v>
       </c>
       <c r="N686" s="27" t="s">
@@ -18546,7 +19791,7 @@
       </c>
       <c r="K687" s="29"/>
       <c r="L687" s="27"/>
-      <c r="M687" s="49">
+      <c r="M687" s="47">
         <v>1.7000000000000004</v>
       </c>
       <c r="N687" s="27" t="s">
@@ -18594,7 +19839,7 @@
       <c r="J688" s="29"/>
       <c r="K688" s="29"/>
       <c r="L688" s="27"/>
-      <c r="M688" s="49">
+      <c r="M688" s="47">
         <v>1.8000000000000005</v>
       </c>
       <c r="N688" s="27" t="s">
@@ -18642,7 +19887,7 @@
       <c r="J689" s="27"/>
       <c r="K689" s="27"/>
       <c r="L689" s="27"/>
-      <c r="M689" s="49">
+      <c r="M689" s="47">
         <v>1.9000000000000006</v>
       </c>
       <c r="N689" s="27" t="s">
@@ -18690,7 +19935,7 @@
       <c r="J690" s="27"/>
       <c r="K690" s="27"/>
       <c r="L690" s="27"/>
-      <c r="M690" s="49">
+      <c r="M690" s="47">
         <v>2</v>
       </c>
       <c r="N690" s="27" t="s">
@@ -18738,7 +19983,7 @@
       <c r="J691" s="27"/>
       <c r="K691" s="27"/>
       <c r="L691" s="27"/>
-      <c r="M691" s="49">
+      <c r="M691" s="47">
         <v>2.1</v>
       </c>
       <c r="N691" s="27" t="s">
@@ -18806,7 +20051,7 @@
       </c>
       <c r="K692" s="28"/>
       <c r="L692" s="28"/>
-      <c r="M692" s="49">
+      <c r="M692" s="47">
         <v>2.2000000000000002</v>
       </c>
       <c r="N692" s="27" t="s">
@@ -18872,7 +20117,7 @@
       </c>
       <c r="K693" s="27"/>
       <c r="L693" s="27"/>
-      <c r="M693" s="49">
+      <c r="M693" s="47">
         <v>2.3000000000000003</v>
       </c>
       <c r="N693" s="27" t="s">
@@ -18940,7 +20185,7 @@
       </c>
       <c r="K694" s="32"/>
       <c r="L694" s="32"/>
-      <c r="M694" s="49">
+      <c r="M694" s="47">
         <v>2.4000000000000004</v>
       </c>
       <c r="N694" s="27" t="s">
@@ -19008,7 +20253,7 @@
       </c>
       <c r="K695" s="32"/>
       <c r="L695" s="32"/>
-      <c r="M695" s="49">
+      <c r="M695" s="47">
         <v>2.5000000000000004</v>
       </c>
       <c r="N695" s="27" t="s">
@@ -19066,7 +20311,7 @@
       </c>
       <c r="K696" s="32"/>
       <c r="L696" s="32"/>
-      <c r="M696" s="49">
+      <c r="M696" s="47">
         <v>2.6000000000000005</v>
       </c>
       <c r="N696" s="27" t="s">
@@ -19124,7 +20369,7 @@
       </c>
       <c r="K697" s="32"/>
       <c r="L697" s="32"/>
-      <c r="M697" s="49">
+      <c r="M697" s="47">
         <v>2.7000000000000006</v>
       </c>
       <c r="N697" s="27" t="s">
@@ -19182,7 +20427,7 @@
       </c>
       <c r="K698" s="32"/>
       <c r="L698" s="32"/>
-      <c r="M698" s="49">
+      <c r="M698" s="47">
         <v>2.8000000000000007</v>
       </c>
       <c r="N698" s="27" t="s">
@@ -19240,7 +20485,7 @@
       </c>
       <c r="K699" s="32"/>
       <c r="L699" s="32"/>
-      <c r="M699" s="49">
+      <c r="M699" s="47">
         <v>3</v>
       </c>
       <c r="N699" s="27" t="s">
@@ -19298,7 +20543,7 @@
       </c>
       <c r="K700" s="32"/>
       <c r="L700" s="32"/>
-      <c r="M700" s="49">
+      <c r="M700" s="47">
         <v>3.1</v>
       </c>
       <c r="N700" s="27" t="s">
@@ -19356,7 +20601,7 @@
       </c>
       <c r="K701" s="32"/>
       <c r="L701" s="32"/>
-      <c r="M701" s="49">
+      <c r="M701" s="47">
         <v>3.2</v>
       </c>
       <c r="N701" s="27" t="s">
@@ -19414,7 +20659,7 @@
       </c>
       <c r="K702" s="32"/>
       <c r="L702" s="32"/>
-      <c r="M702" s="49">
+      <c r="M702" s="47">
         <v>3.3000000000000003</v>
       </c>
       <c r="N702" s="27" t="s">
@@ -19454,7 +20699,7 @@
       </c>
       <c r="K703" s="27"/>
       <c r="L703" s="27"/>
-      <c r="M703" s="49">
+      <c r="M703" s="47">
         <v>3.4000000000000004</v>
       </c>
       <c r="N703" s="27" t="s">
@@ -19492,7 +20737,7 @@
       <c r="J704" s="27"/>
       <c r="K704" s="27"/>
       <c r="L704" s="27"/>
-      <c r="M704" s="49">
+      <c r="M704" s="47">
         <v>3.5000000000000004</v>
       </c>
       <c r="N704" s="27" t="s">
@@ -19530,7 +20775,7 @@
       <c r="J705" s="27"/>
       <c r="K705" s="27"/>
       <c r="L705" s="27"/>
-      <c r="M705" s="49">
+      <c r="M705" s="47">
         <v>3.6000000000000005</v>
       </c>
       <c r="N705" s="27" t="s">
@@ -19568,7 +20813,7 @@
       <c r="J706" s="27"/>
       <c r="K706" s="27"/>
       <c r="L706" s="27"/>
-      <c r="M706" s="49">
+      <c r="M706" s="47">
         <v>3.7000000000000006</v>
       </c>
       <c r="N706" s="27" t="s">
@@ -19606,7 +20851,7 @@
       <c r="J707" s="27"/>
       <c r="K707" s="27"/>
       <c r="L707" s="27"/>
-      <c r="M707" s="49">
+      <c r="M707" s="47">
         <v>3.8000000000000007</v>
       </c>
       <c r="N707" s="27" t="s">
@@ -19644,7 +20889,7 @@
       <c r="J708" s="27"/>
       <c r="K708" s="27"/>
       <c r="L708" s="27"/>
-      <c r="M708" s="49">
+      <c r="M708" s="47">
         <v>4</v>
       </c>
       <c r="N708" s="27" t="s">
@@ -19682,7 +20927,7 @@
       <c r="J709" s="27"/>
       <c r="K709" s="27"/>
       <c r="L709" s="27"/>
-      <c r="M709" s="49">
+      <c r="M709" s="47">
         <v>4.0999999999999996</v>
       </c>
       <c r="N709" s="27" t="s">
@@ -19720,7 +20965,7 @@
       <c r="J710" s="27"/>
       <c r="K710" s="27"/>
       <c r="L710" s="27"/>
-      <c r="M710" s="49">
+      <c r="M710" s="47">
         <v>4.1999999999999993</v>
       </c>
       <c r="N710" s="27" t="s">
@@ -19758,7 +21003,7 @@
       <c r="J711" s="27"/>
       <c r="K711" s="27"/>
       <c r="L711" s="27"/>
-      <c r="M711" s="49">
+      <c r="M711" s="47">
         <v>4.2999999999999989</v>
       </c>
       <c r="N711" s="27" t="s">
@@ -19796,7 +21041,7 @@
       <c r="J712" s="27"/>
       <c r="K712" s="27"/>
       <c r="L712" s="27"/>
-      <c r="M712" s="49">
+      <c r="M712" s="47">
         <v>4.3999999999999986</v>
       </c>
       <c r="N712" s="27" t="s">
@@ -19834,7 +21079,7 @@
       <c r="J713" s="27"/>
       <c r="K713" s="27"/>
       <c r="L713" s="27"/>
-      <c r="M713" s="49">
+      <c r="M713" s="47">
         <v>4.4999999999999982</v>
       </c>
       <c r="N713" s="27" t="s">
@@ -19872,7 +21117,7 @@
       <c r="J714" s="27"/>
       <c r="K714" s="27"/>
       <c r="L714" s="27"/>
-      <c r="M714" s="49">
+      <c r="M714" s="47">
         <v>4.5999999999999979</v>
       </c>
       <c r="N714" s="27" t="s">
@@ -19910,7 +21155,7 @@
       <c r="J715" s="27"/>
       <c r="K715" s="27"/>
       <c r="L715" s="27"/>
-      <c r="M715" s="49">
+      <c r="M715" s="47">
         <v>4.6999999999999975</v>
       </c>
       <c r="N715" s="27" t="s">
@@ -19948,7 +21193,7 @@
       <c r="J716" s="27"/>
       <c r="K716" s="27"/>
       <c r="L716" s="27"/>
-      <c r="M716" s="49">
+      <c r="M716" s="47">
         <v>5</v>
       </c>
       <c r="N716" s="27" t="s">
@@ -19986,7 +21231,7 @@
       <c r="J717" s="27"/>
       <c r="K717" s="27"/>
       <c r="L717" s="27"/>
-      <c r="M717" s="49">
+      <c r="M717" s="47">
         <v>5.0999999999999996</v>
       </c>
       <c r="N717" s="27" t="s">
@@ -20024,7 +21269,7 @@
       <c r="J718" s="27"/>
       <c r="K718" s="27"/>
       <c r="L718" s="27"/>
-      <c r="M718" s="49">
+      <c r="M718" s="47">
         <v>5.1999999999999993</v>
       </c>
       <c r="N718" s="27" t="s">
@@ -20062,7 +21307,7 @@
       <c r="J719" s="27"/>
       <c r="K719" s="27"/>
       <c r="L719" s="27"/>
-      <c r="M719" s="49">
+      <c r="M719" s="47">
         <v>5.2999999999999989</v>
       </c>
       <c r="N719" s="27" t="s">
@@ -20100,7 +21345,7 @@
       <c r="J720" s="27"/>
       <c r="K720" s="27"/>
       <c r="L720" s="27"/>
-      <c r="M720" s="49">
+      <c r="M720" s="47">
         <v>5.3999999999999986</v>
       </c>
       <c r="N720" s="27" t="s">
@@ -20138,7 +21383,7 @@
       <c r="J721" s="27"/>
       <c r="K721" s="27"/>
       <c r="L721" s="27"/>
-      <c r="M721" s="49">
+      <c r="M721" s="47">
         <v>5.4999999999999982</v>
       </c>
       <c r="N721" s="27" t="s">
@@ -20176,7 +21421,7 @@
       <c r="J722" s="27"/>
       <c r="K722" s="27"/>
       <c r="L722" s="27"/>
-      <c r="M722" s="49">
+      <c r="M722" s="47">
         <v>5.5999999999999979</v>
       </c>
       <c r="N722" s="27" t="s">
@@ -20214,7 +21459,7 @@
       <c r="J723" s="27"/>
       <c r="K723" s="27"/>
       <c r="L723" s="27"/>
-      <c r="M723" s="49">
+      <c r="M723" s="47">
         <v>5.6999999999999975</v>
       </c>
       <c r="N723" s="27" t="s">
@@ -20252,7 +21497,7 @@
       <c r="J724" s="27"/>
       <c r="K724" s="27"/>
       <c r="L724" s="27"/>
-      <c r="M724" s="49">
+      <c r="M724" s="47">
         <v>6</v>
       </c>
       <c r="N724" s="27" t="s">
@@ -20290,7 +21535,7 @@
       <c r="J725" s="27"/>
       <c r="K725" s="27"/>
       <c r="L725" s="27"/>
-      <c r="M725" s="49">
+      <c r="M725" s="47">
         <v>6.1</v>
       </c>
       <c r="N725" s="27" t="s">
@@ -20328,7 +21573,7 @@
       <c r="J726" s="27"/>
       <c r="K726" s="27"/>
       <c r="L726" s="27"/>
-      <c r="M726" s="49">
+      <c r="M726" s="47">
         <v>6.1999999999999993</v>
       </c>
       <c r="N726" s="27" t="s">
@@ -20366,7 +21611,7 @@
       <c r="J727" s="27"/>
       <c r="K727" s="27"/>
       <c r="L727" s="27"/>
-      <c r="M727" s="49">
+      <c r="M727" s="47">
         <v>6.2999999999999989</v>
       </c>
       <c r="N727" s="27" t="s">
@@ -20404,7 +21649,7 @@
       <c r="J728" s="27"/>
       <c r="K728" s="27"/>
       <c r="L728" s="27"/>
-      <c r="M728" s="50">
+      <c r="M728" s="48">
         <v>6.3999999999999986</v>
       </c>
       <c r="N728" s="42" t="s">
@@ -20413,7 +21658,7 @@
       <c r="O728" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="P728" s="51">
+      <c r="P728" s="49">
         <v>7.54300856590271</v>
       </c>
       <c r="Q728" s="46">
@@ -20442,7 +21687,7 @@
       <c r="J729" s="27"/>
       <c r="K729" s="27"/>
       <c r="L729" s="27"/>
-      <c r="M729" s="49">
+      <c r="M729" s="47">
         <v>6.4999999999999982</v>
       </c>
       <c r="N729" s="27" t="s">
@@ -20480,7 +21725,7 @@
       <c r="J730" s="27"/>
       <c r="K730" s="27"/>
       <c r="L730" s="27"/>
-      <c r="M730" s="49">
+      <c r="M730" s="47">
         <v>6.5999999999999979</v>
       </c>
       <c r="N730" s="27" t="s">
@@ -20518,7 +21763,7 @@
       <c r="J731" s="27"/>
       <c r="K731" s="27"/>
       <c r="L731" s="27"/>
-      <c r="M731" s="49">
+      <c r="M731" s="47">
         <v>7</v>
       </c>
       <c r="N731" s="27" t="s">
@@ -20556,7 +21801,7 @@
       <c r="J732" s="27"/>
       <c r="K732" s="27"/>
       <c r="L732" s="27"/>
-      <c r="M732" s="49">
+      <c r="M732" s="47">
         <v>8</v>
       </c>
       <c r="N732" s="27"/>
@@ -20584,7 +21829,7 @@
       <c r="J733" s="27"/>
       <c r="K733" s="27"/>
       <c r="L733" s="27"/>
-      <c r="M733" s="49">
+      <c r="M733" s="47">
         <v>9</v>
       </c>
       <c r="N733" s="27" t="s">
@@ -20622,7 +21867,7 @@
       <c r="J734" s="27"/>
       <c r="K734" s="27"/>
       <c r="L734" s="27"/>
-      <c r="M734" s="49">
+      <c r="M734" s="47">
         <v>10</v>
       </c>
       <c r="N734" s="27"/>
@@ -20650,7 +21895,7 @@
       <c r="J735" s="27"/>
       <c r="K735" s="27"/>
       <c r="L735" s="27"/>
-      <c r="M735" s="49">
+      <c r="M735" s="47">
         <v>11</v>
       </c>
       <c r="N735" s="27" t="s">
@@ -20688,7 +21933,7 @@
       <c r="J736" s="27"/>
       <c r="K736" s="27"/>
       <c r="L736" s="27"/>
-      <c r="M736" s="49">
+      <c r="M736" s="47">
         <v>12</v>
       </c>
       <c r="N736" s="27"/>
@@ -20716,7 +21961,7 @@
       <c r="J737" s="27"/>
       <c r="K737" s="27"/>
       <c r="L737" s="27"/>
-      <c r="M737" s="49">
+      <c r="M737" s="47">
         <v>13</v>
       </c>
       <c r="N737" s="27" t="s">
@@ -20754,7 +21999,7 @@
       <c r="J738" s="27"/>
       <c r="K738" s="27"/>
       <c r="L738" s="27"/>
-      <c r="M738" s="49">
+      <c r="M738" s="47">
         <v>14</v>
       </c>
       <c r="N738" s="27"/>
@@ -20782,7 +22027,7 @@
       <c r="J739" s="27"/>
       <c r="K739" s="27"/>
       <c r="L739" s="27"/>
-      <c r="M739" s="49">
+      <c r="M739" s="47">
         <v>15</v>
       </c>
       <c r="N739" s="27" t="s">
@@ -20820,7 +22065,7 @@
       <c r="J740" s="27"/>
       <c r="K740" s="27"/>
       <c r="L740" s="27"/>
-      <c r="M740" s="49">
+      <c r="M740" s="47">
         <v>16</v>
       </c>
       <c r="N740" s="27"/>
@@ -20848,7 +22093,7 @@
       <c r="J741" s="27"/>
       <c r="K741" s="27"/>
       <c r="L741" s="27"/>
-      <c r="M741" s="49">
+      <c r="M741" s="47">
         <v>17</v>
       </c>
       <c r="N741" s="27" t="s">
@@ -20886,7 +22131,7 @@
       <c r="J742" s="27"/>
       <c r="K742" s="27"/>
       <c r="L742" s="27"/>
-      <c r="M742" s="49">
+      <c r="M742" s="47">
         <v>18</v>
       </c>
       <c r="N742" s="27"/>
@@ -20914,7 +22159,7 @@
       <c r="J743" s="27"/>
       <c r="K743" s="27"/>
       <c r="L743" s="27"/>
-      <c r="M743" s="49">
+      <c r="M743" s="47">
         <v>19</v>
       </c>
       <c r="N743" s="27" t="s">
@@ -20952,7 +22197,7 @@
       <c r="J744" s="27"/>
       <c r="K744" s="27"/>
       <c r="L744" s="27"/>
-      <c r="M744" s="49">
+      <c r="M744" s="47">
         <v>20</v>
       </c>
       <c r="N744" s="27"/>
@@ -20980,7 +22225,7 @@
       <c r="J745" s="27"/>
       <c r="K745" s="27"/>
       <c r="L745" s="27"/>
-      <c r="M745" s="49">
+      <c r="M745" s="47">
         <v>21</v>
       </c>
       <c r="N745" s="27" t="s">
@@ -21018,7 +22263,7 @@
       <c r="J746" s="27"/>
       <c r="K746" s="27"/>
       <c r="L746" s="27"/>
-      <c r="M746" s="49">
+      <c r="M746" s="47">
         <v>22</v>
       </c>
       <c r="N746" s="27"/>
@@ -21046,7 +22291,7 @@
       <c r="J747" s="27"/>
       <c r="K747" s="27"/>
       <c r="L747" s="27"/>
-      <c r="M747" s="49">
+      <c r="M747" s="47">
         <v>23</v>
       </c>
       <c r="N747" s="27" t="s">
@@ -21084,7 +22329,7 @@
       <c r="J748" s="27"/>
       <c r="K748" s="27"/>
       <c r="L748" s="27"/>
-      <c r="M748" s="49">
+      <c r="M748" s="47">
         <v>24</v>
       </c>
       <c r="N748" s="27"/>
@@ -21112,7 +22357,7 @@
       <c r="J749" s="27"/>
       <c r="K749" s="27"/>
       <c r="L749" s="27"/>
-      <c r="M749" s="49">
+      <c r="M749" s="47">
         <v>25</v>
       </c>
       <c r="N749" s="27" t="s">
@@ -21150,7 +22395,7 @@
       <c r="J750" s="27"/>
       <c r="K750" s="27"/>
       <c r="L750" s="27"/>
-      <c r="M750" s="49">
+      <c r="M750" s="47">
         <v>26</v>
       </c>
       <c r="N750" s="27"/>
@@ -21178,7 +22423,7 @@
       <c r="J751" s="27"/>
       <c r="K751" s="27"/>
       <c r="L751" s="27"/>
-      <c r="M751" s="49">
+      <c r="M751" s="47">
         <v>27</v>
       </c>
       <c r="N751" s="27" t="s">
@@ -21210,7 +22455,7 @@
       <c r="J752" s="27"/>
       <c r="K752" s="27"/>
       <c r="L752" s="27"/>
-      <c r="M752" s="49">
+      <c r="M752" s="47">
         <v>28</v>
       </c>
       <c r="N752" s="27" t="s">
@@ -21242,7 +22487,7 @@
       <c r="J753" s="27"/>
       <c r="K753" s="27"/>
       <c r="L753" s="27"/>
-      <c r="M753" s="49">
+      <c r="M753" s="47">
         <v>29</v>
       </c>
       <c r="N753" s="27" t="s">
@@ -21274,7 +22519,7 @@
       <c r="J754" s="27"/>
       <c r="K754" s="27"/>
       <c r="L754" s="27"/>
-      <c r="M754" s="49">
+      <c r="M754" s="47">
         <v>30</v>
       </c>
       <c r="N754" s="27" t="s">
@@ -21312,7 +22557,7 @@
       <c r="J755" s="27"/>
       <c r="K755" s="27"/>
       <c r="L755" s="27"/>
-      <c r="M755" s="49">
+      <c r="M755" s="47">
         <v>31</v>
       </c>
       <c r="N755" s="27"/>
@@ -21340,7 +22585,7 @@
       <c r="J756" s="27"/>
       <c r="K756" s="27"/>
       <c r="L756" s="27"/>
-      <c r="M756" s="49">
+      <c r="M756" s="47">
         <v>32</v>
       </c>
       <c r="N756" s="27" t="s">
@@ -21372,7 +22617,7 @@
       <c r="J757" s="27"/>
       <c r="K757" s="27"/>
       <c r="L757" s="27"/>
-      <c r="M757" s="49">
+      <c r="M757" s="47">
         <v>33</v>
       </c>
       <c r="N757" s="27" t="s">
@@ -21404,7 +22649,7 @@
       <c r="J758" s="27"/>
       <c r="K758" s="27"/>
       <c r="L758" s="27"/>
-      <c r="M758" s="49">
+      <c r="M758" s="47">
         <v>34</v>
       </c>
       <c r="N758" s="27" t="s">
@@ -21436,7 +22681,7 @@
       <c r="J759" s="27"/>
       <c r="K759" s="27"/>
       <c r="L759" s="27"/>
-      <c r="M759" s="49">
+      <c r="M759" s="47">
         <v>35</v>
       </c>
       <c r="N759" s="27" t="s">
@@ -21474,7 +22719,7 @@
       <c r="J760" s="27"/>
       <c r="K760" s="27"/>
       <c r="L760" s="27"/>
-      <c r="M760" s="49">
+      <c r="M760" s="47">
         <v>36</v>
       </c>
       <c r="N760" s="27"/>
@@ -21502,7 +22747,7 @@
       <c r="J761" s="27"/>
       <c r="K761" s="27"/>
       <c r="L761" s="27"/>
-      <c r="M761" s="49">
+      <c r="M761" s="47">
         <v>37</v>
       </c>
       <c r="N761" s="27" t="s">
@@ -21540,7 +22785,7 @@
       <c r="J762" s="27"/>
       <c r="K762" s="27"/>
       <c r="L762" s="27"/>
-      <c r="M762" s="49">
+      <c r="M762" s="47">
         <v>38</v>
       </c>
       <c r="N762" s="27"/>
@@ -21568,7 +22813,7 @@
       <c r="J763" s="27"/>
       <c r="K763" s="27"/>
       <c r="L763" s="27"/>
-      <c r="M763" s="49">
+      <c r="M763" s="47">
         <v>39</v>
       </c>
       <c r="N763" s="27" t="s">
@@ -21606,7 +22851,7 @@
       <c r="J764" s="27"/>
       <c r="K764" s="27"/>
       <c r="L764" s="27"/>
-      <c r="M764" s="49">
+      <c r="M764" s="47">
         <v>40</v>
       </c>
       <c r="N764" s="27"/>
@@ -21634,7 +22879,7 @@
       <c r="J765" s="27"/>
       <c r="K765" s="27"/>
       <c r="L765" s="27"/>
-      <c r="M765" s="49">
+      <c r="M765" s="47">
         <v>41</v>
       </c>
       <c r="N765" s="27" t="s">
@@ -21672,7 +22917,7 @@
       <c r="J766" s="27"/>
       <c r="K766" s="27"/>
       <c r="L766" s="27"/>
-      <c r="M766" s="49">
+      <c r="M766" s="47">
         <v>42</v>
       </c>
       <c r="N766" s="27"/>
@@ -21700,7 +22945,7 @@
       <c r="J767" s="27"/>
       <c r="K767" s="27"/>
       <c r="L767" s="27"/>
-      <c r="M767" s="49">
+      <c r="M767" s="47">
         <v>43</v>
       </c>
       <c r="N767" s="27" t="s">
@@ -21738,7 +22983,7 @@
       <c r="J768" s="27"/>
       <c r="K768" s="27"/>
       <c r="L768" s="27"/>
-      <c r="M768" s="49">
+      <c r="M768" s="47">
         <v>44</v>
       </c>
       <c r="N768" s="27"/>
@@ -21766,7 +23011,7 @@
       <c r="J769" s="27"/>
       <c r="K769" s="27"/>
       <c r="L769" s="27"/>
-      <c r="M769" s="49">
+      <c r="M769" s="47">
         <v>45</v>
       </c>
       <c r="N769" s="27" t="s">
@@ -21804,7 +23049,7 @@
       <c r="J770" s="27"/>
       <c r="K770" s="27"/>
       <c r="L770" s="27"/>
-      <c r="M770" s="49">
+      <c r="M770" s="47">
         <v>46</v>
       </c>
       <c r="N770" s="27"/>
@@ -21832,7 +23077,7 @@
       <c r="J771" s="27"/>
       <c r="K771" s="27"/>
       <c r="L771" s="27"/>
-      <c r="M771" s="49">
+      <c r="M771" s="47">
         <v>47</v>
       </c>
       <c r="N771" s="27" t="s">
@@ -21870,7 +23115,7 @@
       <c r="J772" s="27"/>
       <c r="K772" s="27"/>
       <c r="L772" s="27"/>
-      <c r="M772" s="49">
+      <c r="M772" s="47">
         <v>48</v>
       </c>
       <c r="N772" s="27"/>
@@ -21898,7 +23143,7 @@
       <c r="J773" s="27"/>
       <c r="K773" s="27"/>
       <c r="L773" s="27"/>
-      <c r="M773" s="49">
+      <c r="M773" s="47">
         <v>49</v>
       </c>
       <c r="N773" s="27" t="s">
@@ -21936,7 +23181,7 @@
       <c r="J774" s="27"/>
       <c r="K774" s="27"/>
       <c r="L774" s="27"/>
-      <c r="M774" s="49">
+      <c r="M774" s="47">
         <v>50</v>
       </c>
       <c r="N774" s="27"/>
@@ -21964,7 +23209,7 @@
       <c r="J775" s="27"/>
       <c r="K775" s="27"/>
       <c r="L775" s="27"/>
-      <c r="M775" s="49">
+      <c r="M775" s="47">
         <v>51</v>
       </c>
       <c r="N775" s="27" t="s">
@@ -22002,7 +23247,7 @@
       <c r="J776" s="27"/>
       <c r="K776" s="27"/>
       <c r="L776" s="27"/>
-      <c r="M776" s="49">
+      <c r="M776" s="47">
         <v>52</v>
       </c>
       <c r="N776" s="27"/>
@@ -22030,7 +23275,7 @@
       <c r="J777" s="27"/>
       <c r="K777" s="27"/>
       <c r="L777" s="27"/>
-      <c r="M777" s="49">
+      <c r="M777" s="47">
         <v>53</v>
       </c>
       <c r="N777" s="27" t="s">
@@ -22068,7 +23313,7 @@
       <c r="J778" s="27"/>
       <c r="K778" s="27"/>
       <c r="L778" s="27"/>
-      <c r="M778" s="49">
+      <c r="M778" s="47">
         <v>54</v>
       </c>
       <c r="N778" s="27"/>
@@ -22096,7 +23341,7 @@
       <c r="J779" s="27"/>
       <c r="K779" s="27"/>
       <c r="L779" s="27"/>
-      <c r="M779" s="49">
+      <c r="M779" s="47">
         <v>55</v>
       </c>
       <c r="N779" s="27" t="s">
@@ -22224,7 +23469,7 @@
       <c r="J792" s="29"/>
       <c r="K792" s="29"/>
       <c r="L792" s="27"/>
-      <c r="M792" s="49">
+      <c r="M792" s="47">
         <v>1</v>
       </c>
       <c r="N792" s="27" t="s">
@@ -22286,7 +23531,7 @@
       <c r="J793" s="39"/>
       <c r="K793" s="29"/>
       <c r="L793" s="27"/>
-      <c r="M793" s="49">
+      <c r="M793" s="47">
         <v>1.1000000000000001</v>
       </c>
       <c r="N793" s="27" t="s">
@@ -22334,7 +23579,7 @@
       <c r="J794" s="39"/>
       <c r="K794" s="29"/>
       <c r="L794" s="27"/>
-      <c r="M794" s="49">
+      <c r="M794" s="47">
         <v>2</v>
       </c>
       <c r="N794" s="27" t="s">
@@ -22388,7 +23633,7 @@
       <c r="J795" s="39"/>
       <c r="K795" s="29"/>
       <c r="L795" s="27"/>
-      <c r="M795" s="49">
+      <c r="M795" s="47">
         <v>3</v>
       </c>
       <c r="N795" s="27" t="s">
@@ -22440,7 +23685,7 @@
       <c r="J796" s="39"/>
       <c r="K796" s="29"/>
       <c r="L796" s="27"/>
-      <c r="M796" s="49">
+      <c r="M796" s="47">
         <v>4</v>
       </c>
       <c r="N796" s="27" t="s">
@@ -22490,7 +23735,7 @@
       </c>
       <c r="K797" s="29"/>
       <c r="L797" s="27"/>
-      <c r="M797" s="49">
+      <c r="M797" s="47">
         <v>5</v>
       </c>
       <c r="N797" s="27" t="s">
@@ -22544,7 +23789,7 @@
       </c>
       <c r="K798" s="29"/>
       <c r="L798" s="27"/>
-      <c r="M798" s="49">
+      <c r="M798" s="47">
         <v>6</v>
       </c>
       <c r="N798" s="27" t="s">
@@ -22598,7 +23843,7 @@
       </c>
       <c r="K799" s="29"/>
       <c r="L799" s="27"/>
-      <c r="M799" s="49">
+      <c r="M799" s="47">
         <v>7</v>
       </c>
       <c r="N799" s="27" t="s">
@@ -22644,7 +23889,7 @@
       </c>
       <c r="K800" s="29"/>
       <c r="L800" s="27"/>
-      <c r="M800" s="49">
+      <c r="M800" s="47">
         <v>7.1</v>
       </c>
       <c r="N800" s="27" t="s">
@@ -22682,7 +23927,7 @@
       <c r="J801" s="29"/>
       <c r="K801" s="29"/>
       <c r="L801" s="27"/>
-      <c r="M801" s="49">
+      <c r="M801" s="47">
         <v>8</v>
       </c>
       <c r="N801" s="27" t="s">
@@ -22720,7 +23965,7 @@
       <c r="J802" s="27"/>
       <c r="K802" s="27"/>
       <c r="L802" s="27"/>
-      <c r="M802" s="49">
+      <c r="M802" s="47">
         <v>9</v>
       </c>
       <c r="N802" s="27" t="s">
@@ -22758,7 +24003,7 @@
       <c r="J803" s="27"/>
       <c r="K803" s="27"/>
       <c r="L803" s="27"/>
-      <c r="M803" s="49"/>
+      <c r="M803" s="47"/>
       <c r="N803" s="27"/>
       <c r="O803" s="27"/>
       <c r="P803" s="32"/>
@@ -22784,7 +24029,7 @@
       <c r="J804" s="27"/>
       <c r="K804" s="27"/>
       <c r="L804" s="27"/>
-      <c r="M804" s="49"/>
+      <c r="M804" s="47"/>
       <c r="N804" s="27"/>
       <c r="O804" s="27"/>
       <c r="P804" s="32"/>
@@ -22830,7 +24075,7 @@
       </c>
       <c r="K805" s="28"/>
       <c r="L805" s="28"/>
-      <c r="M805" s="49"/>
+      <c r="M805" s="47"/>
       <c r="N805" s="27"/>
       <c r="O805" s="27"/>
       <c r="P805" s="32"/>
@@ -22874,7 +24119,7 @@
       </c>
       <c r="K806" s="27"/>
       <c r="L806" s="27"/>
-      <c r="M806" s="49"/>
+      <c r="M806" s="47"/>
       <c r="N806" s="27"/>
       <c r="O806" s="27"/>
       <c r="P806" s="32"/>
@@ -22918,7 +24163,7 @@
       </c>
       <c r="K807" s="32"/>
       <c r="L807" s="32"/>
-      <c r="M807" s="49"/>
+      <c r="M807" s="47"/>
       <c r="N807" s="27"/>
       <c r="O807" s="27"/>
       <c r="P807" s="32"/>
@@ -23034,7 +24279,7 @@
       <c r="J822" s="29"/>
       <c r="K822" s="29"/>
       <c r="L822" s="27"/>
-      <c r="M822" s="49">
+      <c r="M822" s="47">
         <v>1</v>
       </c>
       <c r="N822" s="27" t="s">
@@ -23098,7 +24343,7 @@
       <c r="J823" s="39"/>
       <c r="K823" s="29"/>
       <c r="L823" s="27"/>
-      <c r="M823" s="49">
+      <c r="M823" s="47">
         <v>1.1000000000000001</v>
       </c>
       <c r="N823" s="27" t="s">
@@ -23156,7 +24401,7 @@
       <c r="J824" s="39"/>
       <c r="K824" s="29"/>
       <c r="L824" s="27"/>
-      <c r="M824" s="49">
+      <c r="M824" s="47">
         <v>1.1499999999999999</v>
       </c>
       <c r="N824" s="27"/>
@@ -23202,7 +24447,7 @@
       <c r="J825" s="39"/>
       <c r="K825" s="29"/>
       <c r="L825" s="27"/>
-      <c r="M825" s="49">
+      <c r="M825" s="47">
         <v>1.25</v>
       </c>
       <c r="N825" s="27" t="s">
@@ -23264,7 +24509,7 @@
       <c r="J826" s="39"/>
       <c r="K826" s="29"/>
       <c r="L826" s="27"/>
-      <c r="M826" s="49">
+      <c r="M826" s="47">
         <v>1.35</v>
       </c>
       <c r="N826" s="27" t="s">
@@ -23324,7 +24569,7 @@
       </c>
       <c r="K827" s="29"/>
       <c r="L827" s="27"/>
-      <c r="M827" s="49">
+      <c r="M827" s="47">
         <v>1.4500000000000002</v>
       </c>
       <c r="N827" s="27" t="s">
@@ -23388,7 +24633,7 @@
       </c>
       <c r="K828" s="29"/>
       <c r="L828" s="27"/>
-      <c r="M828" s="49">
+      <c r="M828" s="47">
         <v>1.5500000000000003</v>
       </c>
       <c r="N828" s="27" t="s">
@@ -23452,7 +24697,7 @@
       </c>
       <c r="K829" s="29"/>
       <c r="L829" s="27"/>
-      <c r="M829" s="49">
+      <c r="M829" s="47">
         <v>1.6500000000000004</v>
       </c>
       <c r="N829" s="27" t="s">
@@ -23518,7 +24763,7 @@
       </c>
       <c r="K830" s="29"/>
       <c r="L830" s="27"/>
-      <c r="M830" s="49">
+      <c r="M830" s="47">
         <v>1.7500000000000004</v>
       </c>
       <c r="N830" s="27" t="s">
@@ -23566,7 +24811,7 @@
       <c r="J831" s="29"/>
       <c r="K831" s="29"/>
       <c r="L831" s="27"/>
-      <c r="M831" s="49">
+      <c r="M831" s="47">
         <v>2</v>
       </c>
       <c r="N831" s="27" t="s">
@@ -23614,7 +24859,7 @@
       <c r="J832" s="27"/>
       <c r="K832" s="27"/>
       <c r="L832" s="27"/>
-      <c r="M832" s="49">
+      <c r="M832" s="47">
         <v>2.0099999999999998</v>
       </c>
       <c r="N832" s="27" t="s">
@@ -23658,7 +24903,7 @@
       <c r="J833" s="27"/>
       <c r="K833" s="27"/>
       <c r="L833" s="27"/>
-      <c r="M833" s="49">
+      <c r="M833" s="47">
         <v>2.02</v>
       </c>
       <c r="N833" s="27" t="s">
@@ -23702,7 +24947,7 @@
       <c r="J834" s="27"/>
       <c r="K834" s="27"/>
       <c r="L834" s="27"/>
-      <c r="M834" s="49">
+      <c r="M834" s="47">
         <v>2.0299999999999998</v>
       </c>
       <c r="N834" s="27" t="s">
@@ -23766,7 +25011,7 @@
       </c>
       <c r="K835" s="28"/>
       <c r="L835" s="28"/>
-      <c r="M835" s="49">
+      <c r="M835" s="47">
         <v>2.04</v>
       </c>
       <c r="N835" s="27" t="s">
@@ -23828,7 +25073,7 @@
       </c>
       <c r="K836" s="27"/>
       <c r="L836" s="27"/>
-      <c r="M836" s="49">
+      <c r="M836" s="47">
         <v>2.0499999999999998</v>
       </c>
       <c r="N836" s="27" t="s">
@@ -23894,7 +25139,7 @@
       </c>
       <c r="K837" s="32"/>
       <c r="L837" s="32"/>
-      <c r="M837" s="49">
+      <c r="M837" s="47">
         <v>2.06</v>
       </c>
       <c r="N837" s="27" t="s">
@@ -23958,7 +25203,7 @@
       </c>
       <c r="K838" s="32"/>
       <c r="L838" s="32"/>
-      <c r="M838" s="49">
+      <c r="M838" s="47">
         <v>2.0699999999999998</v>
       </c>
       <c r="N838" s="27" t="s">
@@ -24022,7 +25267,7 @@
       </c>
       <c r="K839" s="32"/>
       <c r="L839" s="32"/>
-      <c r="M839" s="49">
+      <c r="M839" s="47">
         <v>2.17</v>
       </c>
       <c r="N839" s="27" t="s">
@@ -24090,7 +25335,7 @@
       </c>
       <c r="K840" s="32"/>
       <c r="L840" s="32"/>
-      <c r="M840" s="49">
+      <c r="M840" s="47">
         <v>2.27</v>
       </c>
       <c r="N840" s="27" t="s">
@@ -24148,7 +25393,7 @@
       </c>
       <c r="K841" s="32"/>
       <c r="L841" s="32"/>
-      <c r="M841" s="49">
+      <c r="M841" s="47">
         <v>3</v>
       </c>
       <c r="N841" s="27" t="s">
@@ -24206,7 +25451,7 @@
       </c>
       <c r="K842" s="32"/>
       <c r="L842" s="32"/>
-      <c r="M842" s="49">
+      <c r="M842" s="47">
         <v>3.1</v>
       </c>
       <c r="N842" s="27" t="s">
@@ -24264,7 +25509,7 @@
       </c>
       <c r="K843" s="32"/>
       <c r="L843" s="32"/>
-      <c r="M843" s="49">
+      <c r="M843" s="47">
         <v>3.2</v>
       </c>
       <c r="N843" s="27" t="s">
@@ -24322,7 +25567,7 @@
       </c>
       <c r="K844" s="32"/>
       <c r="L844" s="32"/>
-      <c r="M844" s="49">
+      <c r="M844" s="47">
         <v>3.3000000000000003</v>
       </c>
       <c r="N844" s="27" t="s">
@@ -24380,7 +25625,7 @@
       </c>
       <c r="K845" s="32"/>
       <c r="L845" s="32"/>
-      <c r="M845" s="49">
+      <c r="M845" s="47">
         <v>3.4000000000000004</v>
       </c>
       <c r="N845" s="27" t="s">
@@ -24420,7 +25665,7 @@
       </c>
       <c r="K846" s="27"/>
       <c r="L846" s="27"/>
-      <c r="M846" s="49">
+      <c r="M846" s="47">
         <v>3.5000000000000004</v>
       </c>
       <c r="N846" s="27" t="s">
@@ -24458,7 +25703,7 @@
       <c r="J847" s="27"/>
       <c r="K847" s="27"/>
       <c r="L847" s="27"/>
-      <c r="M847" s="49">
+      <c r="M847" s="47">
         <v>3.6000000000000005</v>
       </c>
       <c r="N847" s="27" t="s">
@@ -24496,7 +25741,7 @@
       <c r="J848" s="27"/>
       <c r="K848" s="27"/>
       <c r="L848" s="27"/>
-      <c r="M848" s="49">
+      <c r="M848" s="47">
         <v>3.7000000000000006</v>
       </c>
       <c r="N848" s="27" t="s">
@@ -24534,7 +25779,7 @@
       <c r="J849" s="27"/>
       <c r="K849" s="27"/>
       <c r="L849" s="27"/>
-      <c r="M849" s="49">
+      <c r="M849" s="47">
         <v>3.8000000000000007</v>
       </c>
       <c r="N849" s="27" t="s">
@@ -24572,7 +25817,7 @@
       <c r="J850" s="27"/>
       <c r="K850" s="27"/>
       <c r="L850" s="27"/>
-      <c r="M850" s="49">
+      <c r="M850" s="47">
         <v>4</v>
       </c>
       <c r="N850" s="27" t="s">
@@ -24610,7 +25855,7 @@
       <c r="J851" s="27"/>
       <c r="K851" s="27"/>
       <c r="L851" s="27"/>
-      <c r="M851" s="49">
+      <c r="M851" s="47">
         <v>4.0999999999999996</v>
       </c>
       <c r="N851" s="27" t="s">
@@ -24648,7 +25893,7 @@
       <c r="J852" s="27"/>
       <c r="K852" s="27"/>
       <c r="L852" s="27"/>
-      <c r="M852" s="49">
+      <c r="M852" s="47">
         <v>4.1999999999999993</v>
       </c>
       <c r="N852" s="27" t="s">
@@ -24686,7 +25931,7 @@
       <c r="J853" s="27"/>
       <c r="K853" s="27"/>
       <c r="L853" s="27"/>
-      <c r="M853" s="49">
+      <c r="M853" s="47">
         <v>4.2999999999999989</v>
       </c>
       <c r="N853" s="27" t="s">
@@ -24724,7 +25969,7 @@
       <c r="J854" s="27"/>
       <c r="K854" s="27"/>
       <c r="L854" s="27"/>
-      <c r="M854" s="49">
+      <c r="M854" s="47">
         <v>4.3999999999999986</v>
       </c>
       <c r="N854" s="27" t="s">
@@ -24762,7 +26007,7 @@
       <c r="J855" s="27"/>
       <c r="K855" s="27"/>
       <c r="L855" s="27"/>
-      <c r="M855" s="49">
+      <c r="M855" s="47">
         <v>4.4999999999999982</v>
       </c>
       <c r="N855" s="27" t="s">
@@ -24800,7 +26045,7 @@
       <c r="J856" s="27"/>
       <c r="K856" s="27"/>
       <c r="L856" s="27"/>
-      <c r="M856" s="49">
+      <c r="M856" s="47">
         <v>4.5999999999999979</v>
       </c>
       <c r="N856" s="27" t="s">
@@ -24838,7 +26083,7 @@
       <c r="J857" s="27"/>
       <c r="K857" s="27"/>
       <c r="L857" s="27"/>
-      <c r="M857" s="49">
+      <c r="M857" s="47">
         <v>4.6999999999999975</v>
       </c>
       <c r="N857" s="27" t="s">
@@ -24876,7 +26121,7 @@
       <c r="J858" s="27"/>
       <c r="K858" s="27"/>
       <c r="L858" s="27"/>
-      <c r="M858" s="49">
+      <c r="M858" s="47">
         <v>5</v>
       </c>
       <c r="N858" s="27" t="s">
@@ -24914,7 +26159,7 @@
       <c r="J859" s="27"/>
       <c r="K859" s="27"/>
       <c r="L859" s="27"/>
-      <c r="M859" s="49">
+      <c r="M859" s="47">
         <v>5.0999999999999996</v>
       </c>
       <c r="N859" s="27" t="s">
@@ -24944,7 +26189,7 @@
       <c r="J860" s="27"/>
       <c r="K860" s="27"/>
       <c r="L860" s="27"/>
-      <c r="M860" s="49">
+      <c r="M860" s="47">
         <v>5.1999999999999993</v>
       </c>
       <c r="N860" s="27" t="s">
@@ -24982,7 +26227,7 @@
       <c r="J861" s="27"/>
       <c r="K861" s="27"/>
       <c r="L861" s="27"/>
-      <c r="M861" s="49">
+      <c r="M861" s="47">
         <v>5.2999999999999989</v>
       </c>
       <c r="N861" s="27" t="s">
@@ -25020,7 +26265,7 @@
       <c r="J862" s="27"/>
       <c r="K862" s="27"/>
       <c r="L862" s="27"/>
-      <c r="M862" s="49">
+      <c r="M862" s="47">
         <v>5.3999999999999986</v>
       </c>
       <c r="N862" s="27" t="s">
@@ -25058,7 +26303,7 @@
       <c r="J863" s="27"/>
       <c r="K863" s="27"/>
       <c r="L863" s="27"/>
-      <c r="M863" s="49">
+      <c r="M863" s="47">
         <v>5.4999999999999982</v>
       </c>
       <c r="N863" s="27" t="s">
@@ -25096,7 +26341,7 @@
       <c r="J864" s="27"/>
       <c r="K864" s="27"/>
       <c r="L864" s="27"/>
-      <c r="M864" s="49">
+      <c r="M864" s="47">
         <v>5.5999999999999979</v>
       </c>
       <c r="N864" s="27" t="s">
@@ -25134,7 +26379,7 @@
       <c r="J865" s="27"/>
       <c r="K865" s="27"/>
       <c r="L865" s="27"/>
-      <c r="M865" s="49">
+      <c r="M865" s="47">
         <v>5.6999999999999975</v>
       </c>
       <c r="N865" s="27" t="s">
@@ -25172,7 +26417,7 @@
       <c r="J866" s="27"/>
       <c r="K866" s="27"/>
       <c r="L866" s="27"/>
-      <c r="M866" s="49">
+      <c r="M866" s="47">
         <v>5.7999999999999972</v>
       </c>
       <c r="N866" s="27" t="s">
@@ -25210,7 +26455,7 @@
       <c r="J867" s="27"/>
       <c r="K867" s="27"/>
       <c r="L867" s="27"/>
-      <c r="M867" s="49">
+      <c r="M867" s="47">
         <v>5.8999999999999968</v>
       </c>
       <c r="N867" s="27" t="s">
@@ -25242,7 +26487,7 @@
       <c r="J868" s="27"/>
       <c r="K868" s="27"/>
       <c r="L868" s="27"/>
-      <c r="M868" s="49">
+      <c r="M868" s="47">
         <v>6</v>
       </c>
       <c r="N868" s="27" t="s">
@@ -25280,7 +26525,7 @@
       <c r="J869" s="27"/>
       <c r="K869" s="27"/>
       <c r="L869" s="27"/>
-      <c r="M869" s="49">
+      <c r="M869" s="47">
         <v>6.1</v>
       </c>
       <c r="N869" s="27" t="s">
@@ -25318,7 +26563,7 @@
       <c r="J870" s="27"/>
       <c r="K870" s="27"/>
       <c r="L870" s="27"/>
-      <c r="M870" s="49">
+      <c r="M870" s="47">
         <v>6.1999999999999993</v>
       </c>
       <c r="N870" s="27" t="s">
@@ -25356,22 +26601,22 @@
       <c r="J871" s="27"/>
       <c r="K871" s="27"/>
       <c r="L871" s="27"/>
-      <c r="M871" s="49">
+      <c r="M871" s="47">
         <v>7</v>
       </c>
-      <c r="N871" s="49" t="s">
+      <c r="N871" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="O871" s="49" t="s">
+      <c r="O871" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="P871" s="49">
+      <c r="P871" s="47">
         <v>39.244927351291366</v>
       </c>
-      <c r="Q871" s="49">
+      <c r="Q871" s="47">
         <v>4</v>
       </c>
-      <c r="R871" s="49">
+      <c r="R871" s="47">
         <v>0</v>
       </c>
       <c r="S871" s="27"/>
@@ -25394,7 +26639,7 @@
       <c r="J872" s="27"/>
       <c r="K872" s="27"/>
       <c r="L872" s="27"/>
-      <c r="M872" s="49">
+      <c r="M872" s="47">
         <v>7.1</v>
       </c>
       <c r="N872" s="27" t="s">
@@ -25432,7 +26677,7 @@
       <c r="J873" s="27"/>
       <c r="K873" s="27"/>
       <c r="L873" s="27"/>
-      <c r="M873" s="49">
+      <c r="M873" s="47">
         <v>7.1999999999999993</v>
       </c>
       <c r="N873" s="27" t="s">
@@ -25470,7 +26715,7 @@
       <c r="J874" s="27"/>
       <c r="K874" s="27"/>
       <c r="L874" s="27"/>
-      <c r="M874" s="49">
+      <c r="M874" s="47">
         <v>7.2999999999999989</v>
       </c>
       <c r="N874" s="27" t="s">
@@ -25508,7 +26753,7 @@
       <c r="J875" s="27"/>
       <c r="K875" s="27"/>
       <c r="L875" s="27"/>
-      <c r="M875" s="49">
+      <c r="M875" s="47">
         <v>7.3999999999999986</v>
       </c>
       <c r="N875" s="27" t="s">
@@ -25546,7 +26791,7 @@
       <c r="J876" s="27"/>
       <c r="K876" s="27"/>
       <c r="L876" s="27"/>
-      <c r="M876" s="49">
+      <c r="M876" s="47">
         <v>7.4999999999999982</v>
       </c>
       <c r="N876" s="27" t="s">
@@ -25584,7 +26829,7 @@
       <c r="J877" s="27"/>
       <c r="K877" s="27"/>
       <c r="L877" s="27"/>
-      <c r="M877" s="49">
+      <c r="M877" s="47">
         <v>7.5999999999999979</v>
       </c>
       <c r="N877" s="27" t="s">
@@ -25622,7 +26867,7 @@
       <c r="J878" s="27"/>
       <c r="K878" s="27"/>
       <c r="L878" s="27"/>
-      <c r="M878" s="50">
+      <c r="M878" s="48">
         <v>7.6999999999999975</v>
       </c>
       <c r="N878" s="42" t="s">
@@ -25631,7 +26876,7 @@
       <c r="O878" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="P878" s="51">
+      <c r="P878" s="49">
         <v>7.6508316198984776</v>
       </c>
       <c r="Q878" s="46">
@@ -25660,7 +26905,7 @@
       <c r="J879" s="27"/>
       <c r="K879" s="27"/>
       <c r="L879" s="27"/>
-      <c r="M879" s="49">
+      <c r="M879" s="47">
         <v>8</v>
       </c>
       <c r="N879" s="27"/>
@@ -25688,7 +26933,7 @@
       <c r="J880" s="27"/>
       <c r="K880" s="27"/>
       <c r="L880" s="27"/>
-      <c r="M880" s="49">
+      <c r="M880" s="47">
         <v>9</v>
       </c>
       <c r="N880" s="27" t="s">
@@ -25726,7 +26971,7 @@
       <c r="J881" s="27"/>
       <c r="K881" s="27"/>
       <c r="L881" s="27"/>
-      <c r="M881" s="49">
+      <c r="M881" s="47">
         <v>10</v>
       </c>
       <c r="N881" s="27"/>
@@ -25754,7 +26999,7 @@
       <c r="J882" s="27"/>
       <c r="K882" s="27"/>
       <c r="L882" s="27"/>
-      <c r="M882" s="49">
+      <c r="M882" s="47">
         <v>11</v>
       </c>
       <c r="N882" s="27" t="s">
@@ -25792,7 +27037,7 @@
       <c r="J883" s="27"/>
       <c r="K883" s="27"/>
       <c r="L883" s="27"/>
-      <c r="M883" s="49">
+      <c r="M883" s="47">
         <v>12</v>
       </c>
       <c r="N883" s="27"/>
@@ -25820,7 +27065,7 @@
       <c r="J884" s="27"/>
       <c r="K884" s="27"/>
       <c r="L884" s="27"/>
-      <c r="M884" s="49">
+      <c r="M884" s="47">
         <v>13</v>
       </c>
       <c r="N884" s="27" t="s">
@@ -25858,7 +27103,7 @@
       <c r="J885" s="27"/>
       <c r="K885" s="27"/>
       <c r="L885" s="27"/>
-      <c r="M885" s="49">
+      <c r="M885" s="47">
         <v>14</v>
       </c>
       <c r="N885" s="27"/>
@@ -25886,7 +27131,7 @@
       <c r="J886" s="27"/>
       <c r="K886" s="27"/>
       <c r="L886" s="27"/>
-      <c r="M886" s="49">
+      <c r="M886" s="47">
         <v>15</v>
       </c>
       <c r="N886" s="27" t="s">
@@ -25924,7 +27169,7 @@
       <c r="J887" s="27"/>
       <c r="K887" s="27"/>
       <c r="L887" s="27"/>
-      <c r="M887" s="49">
+      <c r="M887" s="47">
         <v>16</v>
       </c>
       <c r="N887" s="27"/>
@@ -25952,7 +27197,7 @@
       <c r="J888" s="27"/>
       <c r="K888" s="27"/>
       <c r="L888" s="27"/>
-      <c r="M888" s="49">
+      <c r="M888" s="47">
         <v>17</v>
       </c>
       <c r="N888" s="27" t="s">
@@ -25990,7 +27235,7 @@
       <c r="J889" s="27"/>
       <c r="K889" s="27"/>
       <c r="L889" s="27"/>
-      <c r="M889" s="49">
+      <c r="M889" s="47">
         <v>18</v>
       </c>
       <c r="N889" s="27"/>
@@ -26018,7 +27263,7 @@
       <c r="J890" s="27"/>
       <c r="K890" s="27"/>
       <c r="L890" s="27"/>
-      <c r="M890" s="49">
+      <c r="M890" s="47">
         <v>19</v>
       </c>
       <c r="N890" s="27" t="s">
@@ -26056,7 +27301,7 @@
       <c r="J891" s="27"/>
       <c r="K891" s="27"/>
       <c r="L891" s="27"/>
-      <c r="M891" s="49">
+      <c r="M891" s="47">
         <v>20</v>
       </c>
       <c r="N891" s="27"/>
@@ -26084,7 +27329,7 @@
       <c r="J892" s="27"/>
       <c r="K892" s="27"/>
       <c r="L892" s="27"/>
-      <c r="M892" s="49">
+      <c r="M892" s="47">
         <v>21</v>
       </c>
       <c r="N892" s="27" t="s">
@@ -26122,7 +27367,7 @@
       <c r="J893" s="27"/>
       <c r="K893" s="27"/>
       <c r="L893" s="27"/>
-      <c r="M893" s="49">
+      <c r="M893" s="47">
         <v>22</v>
       </c>
       <c r="N893" s="27"/>
@@ -26150,7 +27395,7 @@
       <c r="J894" s="27"/>
       <c r="K894" s="27"/>
       <c r="L894" s="27"/>
-      <c r="M894" s="49">
+      <c r="M894" s="47">
         <v>23</v>
       </c>
       <c r="N894" s="27" t="s">
@@ -26188,7 +27433,7 @@
       <c r="J895" s="27"/>
       <c r="K895" s="27"/>
       <c r="L895" s="27"/>
-      <c r="M895" s="49">
+      <c r="M895" s="47">
         <v>24</v>
       </c>
       <c r="N895" s="27"/>
@@ -26216,7 +27461,7 @@
       <c r="J896" s="27"/>
       <c r="K896" s="27"/>
       <c r="L896" s="27"/>
-      <c r="M896" s="49">
+      <c r="M896" s="47">
         <v>25</v>
       </c>
       <c r="N896" s="27" t="s">
@@ -26254,7 +27499,7 @@
       <c r="J897" s="27"/>
       <c r="K897" s="27"/>
       <c r="L897" s="27"/>
-      <c r="M897" s="49">
+      <c r="M897" s="47">
         <v>26</v>
       </c>
       <c r="N897" s="27"/>
@@ -26282,7 +27527,7 @@
       <c r="J898" s="27"/>
       <c r="K898" s="27"/>
       <c r="L898" s="27"/>
-      <c r="M898" s="49">
+      <c r="M898" s="47">
         <v>27</v>
       </c>
       <c r="N898" s="27" t="s">
@@ -26314,7 +27559,7 @@
       <c r="J899" s="27"/>
       <c r="K899" s="27"/>
       <c r="L899" s="27"/>
-      <c r="M899" s="49">
+      <c r="M899" s="47">
         <v>28</v>
       </c>
       <c r="N899" s="27" t="s">
@@ -26352,7 +27597,7 @@
       <c r="J900" s="27"/>
       <c r="K900" s="27"/>
       <c r="L900" s="27"/>
-      <c r="M900" s="49">
+      <c r="M900" s="47">
         <v>29</v>
       </c>
       <c r="N900" s="27"/>
@@ -26380,7 +27625,7 @@
       <c r="J901" s="27"/>
       <c r="K901" s="27"/>
       <c r="L901" s="27"/>
-      <c r="M901" s="49">
+      <c r="M901" s="47">
         <v>30</v>
       </c>
       <c r="N901" s="27" t="s">
@@ -26418,7 +27663,7 @@
       <c r="J902" s="27"/>
       <c r="K902" s="27"/>
       <c r="L902" s="27"/>
-      <c r="M902" s="49">
+      <c r="M902" s="47">
         <v>31</v>
       </c>
       <c r="N902" s="27"/>
@@ -26446,7 +27691,7 @@
       <c r="J903" s="27"/>
       <c r="K903" s="27"/>
       <c r="L903" s="27"/>
-      <c r="M903" s="49">
+      <c r="M903" s="47">
         <v>32</v>
       </c>
       <c r="N903" s="27" t="s">
@@ -26478,7 +27723,7 @@
       <c r="J904" s="27"/>
       <c r="K904" s="27"/>
       <c r="L904" s="27"/>
-      <c r="M904" s="49">
+      <c r="M904" s="47">
         <v>33</v>
       </c>
       <c r="N904" s="27" t="s">
@@ -26516,7 +27761,7 @@
       <c r="J905" s="27"/>
       <c r="K905" s="27"/>
       <c r="L905" s="27"/>
-      <c r="M905" s="49">
+      <c r="M905" s="47">
         <v>34</v>
       </c>
       <c r="N905" s="27"/>
@@ -26544,7 +27789,7 @@
       <c r="J906" s="27"/>
       <c r="K906" s="27"/>
       <c r="L906" s="27"/>
-      <c r="M906" s="49">
+      <c r="M906" s="47">
         <v>35</v>
       </c>
       <c r="N906" s="27" t="s">
@@ -26582,7 +27827,7 @@
       <c r="J907" s="27"/>
       <c r="K907" s="27"/>
       <c r="L907" s="27"/>
-      <c r="M907" s="49">
+      <c r="M907" s="47">
         <v>36</v>
       </c>
       <c r="N907" s="27"/>
@@ -26610,7 +27855,7 @@
       <c r="J908" s="27"/>
       <c r="K908" s="27"/>
       <c r="L908" s="27"/>
-      <c r="M908" s="49">
+      <c r="M908" s="47">
         <v>37</v>
       </c>
       <c r="N908" s="27" t="s">
@@ -26642,7 +27887,7 @@
       <c r="J909" s="27"/>
       <c r="K909" s="27"/>
       <c r="L909" s="27"/>
-      <c r="M909" s="49">
+      <c r="M909" s="47">
         <v>38</v>
       </c>
       <c r="N909" s="27"/>
@@ -26670,7 +27915,7 @@
       <c r="J910" s="27"/>
       <c r="K910" s="27"/>
       <c r="L910" s="27"/>
-      <c r="M910" s="49">
+      <c r="M910" s="47">
         <v>39</v>
       </c>
       <c r="N910" s="27" t="s">
@@ -26708,7 +27953,7 @@
       <c r="J911" s="27"/>
       <c r="K911" s="27"/>
       <c r="L911" s="27"/>
-      <c r="M911" s="49">
+      <c r="M911" s="47">
         <v>40</v>
       </c>
       <c r="N911" s="27"/>
@@ -26736,7 +27981,7 @@
       <c r="J912" s="27"/>
       <c r="K912" s="27"/>
       <c r="L912" s="27"/>
-      <c r="M912" s="49">
+      <c r="M912" s="47">
         <v>41</v>
       </c>
       <c r="N912" s="27" t="s">
@@ -26774,7 +28019,7 @@
       <c r="J913" s="27"/>
       <c r="K913" s="27"/>
       <c r="L913" s="27"/>
-      <c r="M913" s="49">
+      <c r="M913" s="47">
         <v>42</v>
       </c>
       <c r="N913" s="27"/>
@@ -26802,7 +28047,7 @@
       <c r="J914" s="27"/>
       <c r="K914" s="27"/>
       <c r="L914" s="27"/>
-      <c r="M914" s="49">
+      <c r="M914" s="47">
         <v>43</v>
       </c>
       <c r="N914" s="27" t="s">
@@ -26840,7 +28085,7 @@
       <c r="J915" s="27"/>
       <c r="K915" s="27"/>
       <c r="L915" s="27"/>
-      <c r="M915" s="49">
+      <c r="M915" s="47">
         <v>44</v>
       </c>
       <c r="N915" s="27"/>
@@ -26868,7 +28113,7 @@
       <c r="J916" s="27"/>
       <c r="K916" s="27"/>
       <c r="L916" s="27"/>
-      <c r="M916" s="49">
+      <c r="M916" s="47">
         <v>45</v>
       </c>
       <c r="N916" s="27" t="s">
@@ -26906,7 +28151,7 @@
       <c r="J917" s="27"/>
       <c r="K917" s="27"/>
       <c r="L917" s="27"/>
-      <c r="M917" s="49">
+      <c r="M917" s="47">
         <v>46</v>
       </c>
       <c r="N917" s="27"/>
@@ -26934,7 +28179,7 @@
       <c r="J918" s="27"/>
       <c r="K918" s="27"/>
       <c r="L918" s="27"/>
-      <c r="M918" s="49">
+      <c r="M918" s="47">
         <v>47</v>
       </c>
       <c r="N918" s="27" t="s">
@@ -26972,7 +28217,7 @@
       <c r="J919" s="27"/>
       <c r="K919" s="27"/>
       <c r="L919" s="27"/>
-      <c r="M919" s="49">
+      <c r="M919" s="47">
         <v>48</v>
       </c>
       <c r="N919" s="27"/>
@@ -27000,7 +28245,7 @@
       <c r="J920" s="27"/>
       <c r="K920" s="27"/>
       <c r="L920" s="27"/>
-      <c r="M920" s="49">
+      <c r="M920" s="47">
         <v>49</v>
       </c>
       <c r="N920" s="27" t="s">
@@ -27025,21 +28270,1520 @@
       <c r="W920" s="27"/>
       <c r="X920" s="32"/>
     </row>
+    <row r="925" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U925" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="V925" s="14"/>
+      <c r="W925" s="14"/>
+      <c r="X925" s="14"/>
+    </row>
+    <row r="926" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A926" s="3"/>
+      <c r="B926" s="3"/>
+      <c r="C926" s="3"/>
+      <c r="D926" s="3"/>
+      <c r="E926" s="3"/>
+      <c r="F926" s="3"/>
+      <c r="G926" s="3"/>
+      <c r="H926" s="3"/>
+      <c r="I926" s="3"/>
+      <c r="J926" s="3"/>
+      <c r="K926" s="3"/>
+      <c r="M926" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N926" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O926" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P926" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q926" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R926" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T926" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U926" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="V926" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W926" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X926" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="927" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A927" s="3"/>
+      <c r="B927" s="3"/>
+      <c r="C927" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D927" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E927" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F927" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G927" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H927" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I927" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J927" s="3"/>
+      <c r="K927" s="3"/>
+      <c r="M927" s="52">
+        <v>1</v>
+      </c>
+      <c r="N927" t="s">
+        <v>123</v>
+      </c>
+      <c r="O927" t="s">
+        <v>82</v>
+      </c>
+      <c r="P927" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q927" s="17">
+        <v>0</v>
+      </c>
+      <c r="R927" s="17">
+        <v>13</v>
+      </c>
+      <c r="T927" t="s">
+        <v>82</v>
+      </c>
+      <c r="U927" t="s">
+        <v>118</v>
+      </c>
+      <c r="V927" t="s">
+        <v>97</v>
+      </c>
+      <c r="W927" t="s">
+        <v>93</v>
+      </c>
+      <c r="X927" s="1">
+        <v>0.5826403672572944</v>
+      </c>
+    </row>
+    <row r="928" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A928" s="10" t="str">
+        <f>LOOKUP(MAX(M:M),M:M,N:N)</f>
+        <v>0 Fang</v>
+      </c>
+      <c r="B928" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C928" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="C928" ca="1">INDIRECT("'"&amp;LOOKUP($A928,$A$18:$A$27,$B$18:$B$27)&amp;"'!B6")-SUMIFS(X:X,T:T,$A928,W:W,"Accuracy")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D928" s="7"/>
+      <c r="E928" s="6">
+        <v>19.5</v>
+      </c>
+      <c r="F928" s="53">
+        <v>1</v>
+      </c>
+      <c r="G928" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="G928" ca="1">F928*MAX(0,INDIRECT("'"&amp;LOOKUP($A928,$A$18:$A$27,$B$18:$B$27)&amp;"'!F23")-SUMIFS(X:X,T:T,$A928,W:W,"Willpower Factor"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H928" s="6">
+        <v>1</v>
+      </c>
+      <c r="I928" s="5" t="e">
+        <f ca="1">SUM(C928:E928,G928)*H928</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J928" s="4"/>
+      <c r="K928" s="3"/>
+      <c r="M928" s="52">
+        <v>1.01</v>
+      </c>
+      <c r="N928" t="s">
+        <v>123</v>
+      </c>
+      <c r="O928" t="s">
+        <v>82</v>
+      </c>
+      <c r="P928" s="1">
+        <v>23.411308160194984</v>
+      </c>
+      <c r="Q928" s="17">
+        <v>1</v>
+      </c>
+      <c r="R928" s="17">
+        <v>10</v>
+      </c>
+      <c r="T928" t="s">
+        <v>82</v>
+      </c>
+      <c r="U928" t="s">
+        <v>119</v>
+      </c>
+      <c r="V928" t="s">
+        <v>97</v>
+      </c>
+      <c r="W928" t="s">
+        <v>22</v>
+      </c>
+      <c r="X928" s="1">
+        <v>49.933257304216042</v>
+      </c>
+    </row>
+    <row r="929" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A929" s="3"/>
+      <c r="B929" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C929" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="C929" ca="1">INDIRECT("'"&amp;LOOKUP($A929,$A$18:$A$27,$B$18:$B$27)&amp;"'!F14")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D929" s="7"/>
+      <c r="E929" s="6"/>
+      <c r="F929" s="53"/>
+      <c r="G929" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="G929" ca="1">F929*MAX(0,INDIRECT("'"&amp;LOOKUP($A929,$A$18:$A$27,$B$18:$B$27)&amp;"'!F23")-SUMIFS(X:X,T:T,$A929,W:W,"Willpower Factor"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H929" s="6">
+        <v>1</v>
+      </c>
+      <c r="I929" s="5" t="e">
+        <f ca="1">SUM(C929:E929)*H929</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J929" s="4"/>
+      <c r="K929" s="3"/>
+      <c r="M929" s="52">
+        <v>2</v>
+      </c>
+      <c r="P929" s="1"/>
+      <c r="Q929" s="17"/>
+      <c r="R929" s="17"/>
+      <c r="T929">
+        <v>0</v>
+      </c>
+      <c r="X929" s="1"/>
+    </row>
+    <row r="930" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A930" s="10" t="str">
+        <f>LOOKUP(MAX(M:M),M:M,O:O)</f>
+        <v>4 Cat Soldier</v>
+      </c>
+      <c r="B930" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C930" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="C930" ca="1">INDIRECT("'"&amp;LOOKUP($A930,$A$18:$A$27,$B$18:$B$27)&amp;"'!F14")-SUMIFS(X:X,T:T,$A930,W:W,B930)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D930" s="7"/>
+      <c r="E930" s="6">
+        <v>11.274077475070953</v>
+      </c>
+      <c r="F930" s="53">
+        <v>9</v>
+      </c>
+      <c r="G930" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="G930" ca="1">F930*MAX(0,INDIRECT("'"&amp;LOOKUP($A930,$A$18:$A$27,$B$18:$B$27)&amp;"'!F23")-SUMIFS(X:X,T:T,$A930,W:W,"Willpower Factor"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H930" s="6">
+        <v>1</v>
+      </c>
+      <c r="I930" s="5" t="e">
+        <f ca="1">SUM(C930:E930,G930)*H930</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J930" s="4"/>
+      <c r="K930" s="3"/>
+      <c r="M930" s="52">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="N930" t="s">
+        <v>123</v>
+      </c>
+      <c r="O930" t="s">
+        <v>82</v>
+      </c>
+      <c r="P930" s="1">
+        <v>78.92307692307692</v>
+      </c>
+      <c r="Q930" s="17">
+        <v>1</v>
+      </c>
+      <c r="R930" s="17">
+        <v>5</v>
+      </c>
+      <c r="T930" t="s">
+        <v>85</v>
+      </c>
+      <c r="U930" t="s">
+        <v>90</v>
+      </c>
+      <c r="V930" t="s">
+        <v>84</v>
+      </c>
+      <c r="W930" t="s">
+        <v>63</v>
+      </c>
+      <c r="X930" s="1">
+        <v>42.559046923625175</v>
+      </c>
+    </row>
+    <row r="931" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A931" s="3" t="str">
+        <f>A928</f>
+        <v>0 Fang</v>
+      </c>
+      <c r="B931" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C931" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="C931" ca="1">INDIRECT("'"&amp;LOOKUP($A931,$A$18:$A$27,$B$18:$B$27)&amp;"'!D6")-SUMIFS(X:X,T:T,$A931,W:W,B931)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D931" s="7"/>
+      <c r="E931" s="6">
+        <v>92.6</v>
+      </c>
+      <c r="F931" s="53"/>
+      <c r="G931" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="G931" ca="1">F931*MAX(0,INDIRECT("'"&amp;LOOKUP($A931,$A$18:$A$27,$B$18:$B$27)&amp;"'!F23")-SUMIFS(X:X,T:T,$A931,W:W,"Willpower Factor"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H931" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="H931" ca="1">IF(I928&gt;I930*2,MAX(1,INDIRECT("'"&amp;LOOKUP($A931,$A$18:$A$27,$B$18:$B$27)&amp;"'!F6")-SUMIFS(X:X,T:T,$A931,W:W,"Crit Factor")),1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I931" s="5" t="e">
+        <f ca="1">IF(I928&gt;I930,SUM(C931:E931,G931)*H931,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J931" s="4"/>
+      <c r="K931" s="3"/>
+      <c r="M931" s="52">
+        <v>2.11</v>
+      </c>
+      <c r="N931" t="s">
+        <v>85</v>
+      </c>
+      <c r="O931" t="s">
+        <v>123</v>
+      </c>
+      <c r="P931" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q931" s="17">
+        <v>13</v>
+      </c>
+      <c r="R931" s="17">
+        <v>1</v>
+      </c>
+      <c r="T931" t="s">
+        <v>85</v>
+      </c>
+      <c r="U931" t="s">
+        <v>86</v>
+      </c>
+      <c r="V931" t="s">
+        <v>97</v>
+      </c>
+      <c r="W931" t="s">
+        <v>63</v>
+      </c>
+      <c r="X931" s="1">
+        <v>29.41410884899971</v>
+      </c>
+    </row>
+    <row r="932" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A932" s="3" t="str">
+        <f>A930</f>
+        <v>4 Cat Soldier</v>
+      </c>
+      <c r="B932" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C932" s="6"/>
+      <c r="D932" s="6"/>
+      <c r="E932" s="6"/>
+      <c r="F932" s="54"/>
+      <c r="G932" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="G932" ca="1">F932*MAX(0,INDIRECT("'"&amp;LOOKUP($A932,$A$18:$A$27,$B$18:$B$27)&amp;"'!F23")-SUMIFS(X:X,T:T,$A932,W:W,"Willpower Factor"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H932" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="H932" ca="1">100/(100+INDIRECT("'"&amp;LOOKUP($A932,$A$18:$A$27,$B$18:$B$27)&amp;"'!G6"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I932" s="9" t="e">
+        <f ca="1">IF(I928&gt;I930,I931*(H932),0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J932" s="4" t="e">
+        <f ca="1">IF(NOT(ISBLANK(E928)),IF(I928&gt;I930*2, "CRIT!",IF(I928&gt;I930,"HIT","miss")),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K932" s="3"/>
+      <c r="M932" s="52">
+        <v>3</v>
+      </c>
+      <c r="N932" t="s">
+        <v>123</v>
+      </c>
+      <c r="O932" t="s">
+        <v>85</v>
+      </c>
+      <c r="P932" s="1">
+        <v>66.538461538461547</v>
+      </c>
+      <c r="Q932" s="17">
+        <v>1</v>
+      </c>
+      <c r="R932" s="17">
+        <v>3</v>
+      </c>
+      <c r="T932" t="s">
+        <v>89</v>
+      </c>
+      <c r="U932" t="s">
+        <v>105</v>
+      </c>
+      <c r="V932" t="s">
+        <v>105</v>
+      </c>
+      <c r="W932" t="s">
+        <v>47</v>
+      </c>
+      <c r="X932" s="1">
+        <v>160.38996871981868</v>
+      </c>
+    </row>
+    <row r="933" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A933" s="3" t="str">
+        <f>A930</f>
+        <v>4 Cat Soldier</v>
+      </c>
+      <c r="B933" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C933" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="C933" ca="1">MAX(0,INDIRECT("'"&amp;LOOKUP($A933,$A$18:$A$27,$B$18:$B$27)&amp;"'!F16")-SUMIFS(X:X,T:T,$A933,W:W,B933))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D933" s="7"/>
+      <c r="E933" s="6">
+        <v>7.6947277784347543</v>
+      </c>
+      <c r="F933" s="53"/>
+      <c r="G933" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="G933" ca="1">F933*MAX(0,INDIRECT("'"&amp;LOOKUP($A933,$A$18:$A$27,$B$18:$B$27)&amp;"'!F23")-SUMIFS(X:X,T:T,$A933,W:W,"Willpower Factor"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H933" s="6">
+        <v>1</v>
+      </c>
+      <c r="I933" s="5" t="e">
+        <f ca="1">SUM(C933:E933,G933)*H933</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J933" s="4" t="e">
+        <f ca="1">IF(NOT(ISBLANK(E928)),IF(IF(I928&gt;I930*2,I932*2,I932)&gt;I933,"WOUNDED",""),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K933" s="3"/>
+      <c r="M933" s="52">
+        <v>3.01</v>
+      </c>
+      <c r="N933" t="s">
+        <v>123</v>
+      </c>
+      <c r="O933" t="s">
+        <v>85</v>
+      </c>
+      <c r="P933" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q933" s="17">
+        <v>0</v>
+      </c>
+      <c r="R933" s="17">
+        <v>0</v>
+      </c>
+      <c r="T933" t="s">
+        <v>91</v>
+      </c>
+      <c r="U933" t="s">
+        <v>90</v>
+      </c>
+      <c r="V933" t="s">
+        <v>84</v>
+      </c>
+      <c r="W933" t="s">
+        <v>63</v>
+      </c>
+      <c r="X933" s="1">
+        <v>23.202534801195831</v>
+      </c>
+    </row>
+    <row r="934" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A934" s="3" t="str">
+        <f>A930</f>
+        <v>4 Cat Soldier</v>
+      </c>
+      <c r="B934" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C934" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="C934" ca="1">MAX(0,INDIRECT("'"&amp;LOOKUP($A934,$A$18:$A$27,$B$18:$B$27)&amp;"'!F18")-SUMIFS(X:X,T:T,$A934,W:W,B934))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D934" s="7"/>
+      <c r="E934" s="6">
+        <v>2.3774384438991549</v>
+      </c>
+      <c r="F934" s="53"/>
+      <c r="G934" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="G934" ca="1">F934*MAX(0,INDIRECT("'"&amp;LOOKUP($A934,$A$18:$A$27,$B$18:$B$27)&amp;"'!F23")-SUMIFS(X:X,T:T,$A934,W:W,"Willpower Factor"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H934" s="6">
+        <v>1</v>
+      </c>
+      <c r="I934" s="5" t="e">
+        <f ca="1">SUM(C934:E934,G934)*H934</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J934" s="4" t="e">
+        <f ca="1">IF(NOT(ISBLANK(E928)),IF(IF(I928&gt;I930*2,I932*2,I932)&gt;I934,"WINCED",""),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K934" s="3"/>
+      <c r="M934" s="52">
+        <v>3.02</v>
+      </c>
+      <c r="N934" t="s">
+        <v>89</v>
+      </c>
+      <c r="O934" t="s">
+        <v>123</v>
+      </c>
+      <c r="P934" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q934" s="17">
+        <v>27</v>
+      </c>
+      <c r="R934" s="17">
+        <v>2</v>
+      </c>
+      <c r="T934" t="s">
+        <v>94</v>
+      </c>
+      <c r="U934" t="s">
+        <v>107</v>
+      </c>
+      <c r="V934" t="s">
+        <v>97</v>
+      </c>
+      <c r="W934" t="s">
+        <v>22</v>
+      </c>
+      <c r="X934" s="1">
+        <v>56.507061921602642</v>
+      </c>
+    </row>
+    <row r="935" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A935" s="3" t="str">
+        <f>A930</f>
+        <v>4 Cat Soldier</v>
+      </c>
+      <c r="B935" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C935" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="C935" ca="1">MAX(0,INDIRECT("'"&amp;LOOKUP($A935,$A$18:$A$27,$B$18:$B$27)&amp;"'!F20")-SUMIFS(X:X,T:T,$A935,W:W,B935))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D935" s="7"/>
+      <c r="E935" s="6">
+        <v>2.1613362431526184</v>
+      </c>
+      <c r="F935" s="53"/>
+      <c r="G935" s="6" t="e" cm="1">
+        <f t="array" aca="1" ref="G935" ca="1">F935*MAX(0,INDIRECT("'"&amp;LOOKUP($A935,$A$18:$A$27,$B$18:$B$27)&amp;"'!F23")-SUMIFS(X:X,T:T,$A935,W:W,"Willpower Factor"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H935" s="6">
+        <v>1</v>
+      </c>
+      <c r="I935" s="5" t="e">
+        <f ca="1">SUM(C935:E935,G935)*H935</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J935" s="4" t="e">
+        <f ca="1">IF(I932&gt;0,IF(SUMIF(A941:A950,A935,F941:F950)-SUMIF(A941:A950,A935,E941:E950)&gt;I935,"UNCONSCIOUS",""),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K935" s="3"/>
+      <c r="M935" s="52">
+        <v>4</v>
+      </c>
+      <c r="N935" t="s">
+        <v>123</v>
+      </c>
+      <c r="O935" t="s">
+        <v>85</v>
+      </c>
+      <c r="P935" s="1">
+        <v>49.153846153846153</v>
+      </c>
+      <c r="Q935" s="17">
+        <v>1</v>
+      </c>
+      <c r="R935" s="17">
+        <v>13</v>
+      </c>
+      <c r="T935" t="s">
+        <v>91</v>
+      </c>
+      <c r="U935" t="s">
+        <v>92</v>
+      </c>
+      <c r="V935" t="s">
+        <v>84</v>
+      </c>
+      <c r="W935" t="s">
+        <v>93</v>
+      </c>
+      <c r="X935" s="1">
+        <v>15.875283613082694</v>
+      </c>
+    </row>
+    <row r="936" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A936" s="3"/>
+      <c r="B936" s="3"/>
+      <c r="C936" s="3"/>
+      <c r="D936" s="3"/>
+      <c r="E936" s="3"/>
+      <c r="F936" s="3"/>
+      <c r="G936" s="3"/>
+      <c r="H936" s="3"/>
+      <c r="I936" s="3"/>
+      <c r="J936" s="3"/>
+      <c r="K936" s="3"/>
+      <c r="M936" s="52">
+        <v>4.01</v>
+      </c>
+      <c r="N936" t="s">
+        <v>123</v>
+      </c>
+      <c r="O936" t="s">
+        <v>89</v>
+      </c>
+      <c r="P936" s="1">
+        <v>176.59567759587216</v>
+      </c>
+      <c r="Q936" s="17">
+        <v>0</v>
+      </c>
+      <c r="R936" s="17">
+        <v>0</v>
+      </c>
+      <c r="T936" t="s">
+        <v>95</v>
+      </c>
+      <c r="U936" t="s">
+        <v>107</v>
+      </c>
+      <c r="V936" t="s">
+        <v>87</v>
+      </c>
+      <c r="W936" t="s">
+        <v>17</v>
+      </c>
+      <c r="X936" s="1">
+        <v>58.896228620608653</v>
+      </c>
+    </row>
+    <row r="937" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M937" s="52">
+        <v>4.1099999999999994</v>
+      </c>
+      <c r="N937" t="s">
+        <v>91</v>
+      </c>
+      <c r="O937" t="s">
+        <v>123</v>
+      </c>
+      <c r="P937" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q937" s="17">
+        <v>21</v>
+      </c>
+      <c r="R937" s="17">
+        <v>1</v>
+      </c>
+      <c r="T937" t="s">
+        <v>96</v>
+      </c>
+      <c r="U937" t="s">
+        <v>92</v>
+      </c>
+      <c r="V937" t="s">
+        <v>84</v>
+      </c>
+      <c r="W937" t="s">
+        <v>93</v>
+      </c>
+      <c r="X937" s="1">
+        <v>60.770281337744166</v>
+      </c>
+    </row>
+    <row r="938" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>1</v>
+      </c>
+      <c r="B938" t="s">
+        <v>53</v>
+      </c>
+      <c r="C938" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D938" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E938" s="6">
+        <v>23.734229871419945</v>
+      </c>
+      <c r="G938" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="H938" s="51"/>
+      <c r="I938" s="51"/>
+      <c r="K938" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="M938" s="52">
+        <v>5</v>
+      </c>
+      <c r="N938" t="s">
+        <v>123</v>
+      </c>
+      <c r="O938" t="s">
+        <v>91</v>
+      </c>
+      <c r="P938" s="1">
+        <v>44.153846153846153</v>
+      </c>
+      <c r="Q938" s="17">
+        <v>1</v>
+      </c>
+      <c r="R938" s="17">
+        <v>6</v>
+      </c>
+      <c r="T938" t="s">
+        <v>96</v>
+      </c>
+      <c r="U938" t="s">
+        <v>104</v>
+      </c>
+      <c r="V938" t="s">
+        <v>105</v>
+      </c>
+      <c r="W938" t="s">
+        <v>53</v>
+      </c>
+      <c r="X938" s="1">
+        <v>5.9372361022386819</v>
+      </c>
+    </row>
+    <row r="939" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M939" s="52">
+        <v>5.01</v>
+      </c>
+      <c r="N939" t="s">
+        <v>123</v>
+      </c>
+      <c r="O939" t="s">
+        <v>94</v>
+      </c>
+      <c r="P939" s="1">
+        <v>81.230769230769226</v>
+      </c>
+      <c r="Q939" s="17">
+        <v>1</v>
+      </c>
+      <c r="R939" s="17">
+        <v>13</v>
+      </c>
+      <c r="T939" t="s">
+        <v>101</v>
+      </c>
+      <c r="U939" t="s">
+        <v>111</v>
+      </c>
+      <c r="V939" t="s">
+        <v>87</v>
+      </c>
+      <c r="W939" t="s">
+        <v>61</v>
+      </c>
+      <c r="X939" s="1">
+        <v>49.483775666096278</v>
+      </c>
+    </row>
+    <row r="940" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A940" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B940" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C940" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D940" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E940" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F940" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G940" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H940" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I940" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J940" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K940" s="14"/>
+      <c r="L940" s="14"/>
+      <c r="M940" s="52">
+        <v>6</v>
+      </c>
+      <c r="N940" t="s">
+        <v>123</v>
+      </c>
+      <c r="O940" t="s">
+        <v>91</v>
+      </c>
+      <c r="P940" s="1">
+        <v>36.384615384615387</v>
+      </c>
+      <c r="Q940" s="17">
+        <v>1</v>
+      </c>
+      <c r="R940" s="17">
+        <v>8</v>
+      </c>
+      <c r="T940" t="s">
+        <v>100</v>
+      </c>
+      <c r="U940" t="s">
+        <v>114</v>
+      </c>
+      <c r="V940" t="s">
+        <v>97</v>
+      </c>
+      <c r="W940" t="s">
+        <v>73</v>
+      </c>
+      <c r="X940" s="1">
+        <v>36.04167795499167</v>
+      </c>
+    </row>
+    <row r="941" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A941" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B941" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C941" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D941" s="32">
+        <v>25</v>
+      </c>
+      <c r="E941" s="32">
+        <v>375</v>
+      </c>
+      <c r="F941" s="32">
+        <v>375</v>
+      </c>
+      <c r="G941" s="32">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H941" s="32">
+        <v>31.3</v>
+      </c>
+      <c r="I941" s="32"/>
+      <c r="J941">
+        <v>0</v>
+      </c>
+      <c r="M941" s="52">
+        <v>6.01</v>
+      </c>
+      <c r="N941" t="s">
+        <v>123</v>
+      </c>
+      <c r="O941" t="s">
+        <v>95</v>
+      </c>
+      <c r="P941" s="1">
+        <v>79</v>
+      </c>
+      <c r="Q941" s="17">
+        <v>1</v>
+      </c>
+      <c r="R941" s="17">
+        <v>44</v>
+      </c>
+      <c r="T941" t="s">
+        <v>100</v>
+      </c>
+      <c r="U941" t="s">
+        <v>86</v>
+      </c>
+      <c r="V941" t="s">
+        <v>97</v>
+      </c>
+      <c r="W941" t="s">
+        <v>63</v>
+      </c>
+      <c r="X941" s="1">
+        <v>22.454822498529388</v>
+      </c>
+    </row>
+    <row r="942" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A942" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B942" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C942" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D942" s="32">
+        <v>21</v>
+      </c>
+      <c r="E942" s="32">
+        <v>44.665614916728089</v>
+      </c>
+      <c r="F942" s="32">
+        <v>147</v>
+      </c>
+      <c r="G942" s="32">
+        <v>31.166666666666664</v>
+      </c>
+      <c r="H942" s="32">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I942" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J942" s="1">
+        <v>0</v>
+      </c>
+      <c r="K942" s="1"/>
+      <c r="L942" s="1"/>
+      <c r="M942" s="52">
+        <v>7</v>
+      </c>
+      <c r="N942" t="s">
+        <v>123</v>
+      </c>
+      <c r="O942" t="s">
+        <v>96</v>
+      </c>
+      <c r="P942" s="1">
+        <v>82.230769230769241</v>
+      </c>
+      <c r="Q942" s="17">
+        <v>1</v>
+      </c>
+      <c r="R942" s="17">
+        <v>55</v>
+      </c>
+      <c r="T942" t="s">
+        <v>91</v>
+      </c>
+      <c r="U942" t="s">
+        <v>92</v>
+      </c>
+      <c r="V942" t="s">
+        <v>84</v>
+      </c>
+      <c r="W942" t="s">
+        <v>93</v>
+      </c>
+      <c r="X942" s="1">
+        <v>54.504759401052425</v>
+      </c>
+    </row>
+    <row r="943" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A943" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B943" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C943" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D943" s="32">
+        <v>21</v>
+      </c>
+      <c r="E943" s="32">
+        <v>31.307692307692292</v>
+      </c>
+      <c r="F943" s="32">
+        <v>147</v>
+      </c>
+      <c r="G943" s="32">
+        <v>30.166666666666664</v>
+      </c>
+      <c r="H943" s="32">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I943" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J943" s="1">
+        <v>0</v>
+      </c>
+      <c r="K943" s="1"/>
+      <c r="L943" s="1"/>
+      <c r="M943" s="52">
+        <v>7.01</v>
+      </c>
+      <c r="N943" t="s">
+        <v>123</v>
+      </c>
+      <c r="O943" t="s">
+        <v>96</v>
+      </c>
+      <c r="P943" s="1">
+        <v>22.076923076923077</v>
+      </c>
+      <c r="Q943" s="17">
+        <v>0</v>
+      </c>
+      <c r="R943" s="17">
+        <v>0</v>
+      </c>
+      <c r="X943" s="1"/>
+    </row>
+    <row r="944" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A944" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B944" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C944" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D944" s="32">
+        <v>21</v>
+      </c>
+      <c r="E944" s="32">
+        <v>-29.595677595872161</v>
+      </c>
+      <c r="F944" s="32">
+        <v>147</v>
+      </c>
+      <c r="G944" s="32">
+        <v>32.166666666666664</v>
+      </c>
+      <c r="H944" s="32">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I944" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J944" s="1">
+        <v>0</v>
+      </c>
+      <c r="K944" s="1"/>
+      <c r="L944" s="1"/>
+      <c r="M944" s="52">
+        <v>7.1099999999999994</v>
+      </c>
+      <c r="N944" t="s">
+        <v>91</v>
+      </c>
+      <c r="O944" t="s">
+        <v>123</v>
+      </c>
+      <c r="P944" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q944" s="17">
+        <v>23</v>
+      </c>
+      <c r="R944" s="17">
+        <v>2</v>
+      </c>
+      <c r="X944" s="1"/>
+    </row>
+    <row r="945" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A945" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B945" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C945" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D945" s="32">
+        <v>21</v>
+      </c>
+      <c r="E945" s="32">
+        <v>-9.3846153846153868</v>
+      </c>
+      <c r="F945" s="32">
+        <v>147</v>
+      </c>
+      <c r="G945" s="32">
+        <v>-44.833333333333336</v>
+      </c>
+      <c r="H945" s="32">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I945" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J945" s="1">
+        <v>0</v>
+      </c>
+      <c r="K945" s="1"/>
+      <c r="L945" s="1"/>
+      <c r="M945" s="52">
+        <v>8</v>
+      </c>
+      <c r="N945" t="s">
+        <v>123</v>
+      </c>
+      <c r="O945" t="s">
+        <v>101</v>
+      </c>
+      <c r="P945" s="1">
+        <v>24.53846153846154</v>
+      </c>
+      <c r="Q945" s="17">
+        <v>1</v>
+      </c>
+      <c r="R945" s="17">
+        <v>16</v>
+      </c>
+      <c r="X945" s="1"/>
+    </row>
+    <row r="946" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A946" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B946" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C946" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D946" s="32">
+        <v>21</v>
+      </c>
+      <c r="E946" s="32">
+        <v>65.769230769230774</v>
+      </c>
+      <c r="F946" s="32">
+        <v>147</v>
+      </c>
+      <c r="G946" s="32">
+        <v>46.166666666666664</v>
+      </c>
+      <c r="H946" s="32">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I946" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J946" s="1">
+        <v>0</v>
+      </c>
+      <c r="K946" s="1"/>
+      <c r="L946" s="1"/>
+      <c r="M946" s="52">
+        <v>8.01</v>
+      </c>
+      <c r="N946" t="s">
+        <v>123</v>
+      </c>
+      <c r="O946" t="s">
+        <v>101</v>
+      </c>
+      <c r="P946" s="1">
+        <v>71.692307692307693</v>
+      </c>
+      <c r="Q946" s="17">
+        <v>1</v>
+      </c>
+      <c r="R946" s="17">
+        <v>34</v>
+      </c>
+      <c r="X946" s="1"/>
+    </row>
+    <row r="947" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A947" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B947" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C947" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D947" s="32">
+        <v>21</v>
+      </c>
+      <c r="E947" s="32">
+        <v>68</v>
+      </c>
+      <c r="F947" s="32">
+        <v>147</v>
+      </c>
+      <c r="G947" s="32">
+        <v>15.166666666666664</v>
+      </c>
+      <c r="H947" s="32">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I947" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J947" s="1">
+        <v>0</v>
+      </c>
+      <c r="K947" s="1"/>
+      <c r="L947" s="1"/>
+      <c r="M947" s="52">
+        <v>8.11</v>
+      </c>
+      <c r="N947" t="s">
+        <v>91</v>
+      </c>
+      <c r="O947" t="s">
+        <v>123</v>
+      </c>
+      <c r="P947" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q947" s="17">
+        <v>0</v>
+      </c>
+      <c r="R947" s="17">
+        <v>0</v>
+      </c>
+      <c r="X947" s="1"/>
+    </row>
+    <row r="948" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A948" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B948" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C948" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D948" s="32">
+        <v>21</v>
+      </c>
+      <c r="E948" s="32">
+        <v>42.692307692307679</v>
+      </c>
+      <c r="F948" s="32">
+        <v>147</v>
+      </c>
+      <c r="G948" s="32">
+        <v>4.1666666666666643</v>
+      </c>
+      <c r="H948" s="32">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I948" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J948" s="1">
+        <v>0</v>
+      </c>
+      <c r="K948" s="1"/>
+      <c r="L948" s="1"/>
+      <c r="M948" s="52">
+        <v>8.2099999999999991</v>
+      </c>
+      <c r="N948" t="s">
+        <v>100</v>
+      </c>
+      <c r="O948" t="s">
+        <v>123</v>
+      </c>
+      <c r="P948" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q948" s="17">
+        <v>26</v>
+      </c>
+      <c r="R948" s="17">
+        <v>1</v>
+      </c>
+      <c r="X948" s="1"/>
+    </row>
+    <row r="949" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A949" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B949" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C949" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D949" s="32">
+        <v>21</v>
+      </c>
+      <c r="E949" s="32">
+        <v>47.153846153846146</v>
+      </c>
+      <c r="F949" s="32">
+        <v>147</v>
+      </c>
+      <c r="G949" s="32">
+        <v>1.1666666666666643</v>
+      </c>
+      <c r="H949" s="32">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I949" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J949" s="1">
+        <v>0</v>
+      </c>
+      <c r="K949" s="1"/>
+      <c r="L949" s="1"/>
+      <c r="M949" s="52">
+        <v>9</v>
+      </c>
+      <c r="N949" t="s">
+        <v>123</v>
+      </c>
+      <c r="O949" t="s">
+        <v>100</v>
+      </c>
+      <c r="P949" s="1">
+        <v>53.000000000000007</v>
+      </c>
+      <c r="Q949" s="17">
+        <v>1</v>
+      </c>
+      <c r="R949" s="17">
+        <v>30</v>
+      </c>
+      <c r="X949" s="1"/>
+    </row>
+    <row r="950" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A950" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B950" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C950" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D950" s="32">
+        <v>21</v>
+      </c>
+      <c r="E950" s="32">
+        <v>50.769230769230774</v>
+      </c>
+      <c r="F950" s="32">
+        <v>147</v>
+      </c>
+      <c r="G950" s="32">
+        <v>9.1666666666666643</v>
+      </c>
+      <c r="H950" s="32">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="I950" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J950" s="1">
+        <v>0</v>
+      </c>
+      <c r="K950" s="1"/>
+      <c r="L950" s="1"/>
+      <c r="M950" s="52">
+        <v>9.01</v>
+      </c>
+      <c r="N950" t="s">
+        <v>123</v>
+      </c>
+      <c r="O950" t="s">
+        <v>100</v>
+      </c>
+      <c r="P950" s="1">
+        <v>46.846153846153847</v>
+      </c>
+      <c r="Q950" s="17">
+        <v>1</v>
+      </c>
+      <c r="R950" s="17">
+        <v>2</v>
+      </c>
+      <c r="X950" s="1"/>
+    </row>
+    <row r="951" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J951" s="1">
+        <f t="shared" ref="J951" si="15">(MAX(0,100-(MAX(M:M)-0-7)*1.9))</f>
+        <v>0</v>
+      </c>
+      <c r="M951" s="52">
+        <v>9.11</v>
+      </c>
+      <c r="N951" t="s">
+        <v>91</v>
+      </c>
+      <c r="O951" t="s">
+        <v>123</v>
+      </c>
+      <c r="P951" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q951" s="17">
+        <v>37</v>
+      </c>
+      <c r="R951" s="17">
+        <v>1</v>
+      </c>
+      <c r="X951" s="1"/>
+    </row>
+    <row r="952" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M952" s="52">
+        <v>10</v>
+      </c>
+      <c r="N952" t="s">
+        <v>123</v>
+      </c>
+      <c r="O952" t="s">
+        <v>91</v>
+      </c>
+      <c r="P952" s="1">
+        <v>75.84615384615384</v>
+      </c>
+      <c r="Q952" s="17">
+        <v>1</v>
+      </c>
+      <c r="R952" s="17">
+        <v>9</v>
+      </c>
+      <c r="X952" s="1"/>
+    </row>
+    <row r="953" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A953" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B953" t="s">
+        <v>89</v>
+      </c>
+      <c r="C953" t="s">
+        <v>91</v>
+      </c>
+      <c r="D953" t="s">
+        <v>100</v>
+      </c>
+      <c r="M953" s="52"/>
+      <c r="P953" s="1"/>
+      <c r="Q953" s="17"/>
+      <c r="R953" s="17"/>
+      <c r="X953" s="1"/>
+    </row>
+    <row r="954" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>123</v>
+      </c>
+      <c r="B954">
+        <v>6.7</v>
+      </c>
+      <c r="C954">
+        <f>6.7*4</f>
+        <v>26.8</v>
+      </c>
+      <c r="D954">
+        <v>6.7</v>
+      </c>
+      <c r="M954" s="52"/>
+      <c r="P954" s="1"/>
+      <c r="Q954" s="17"/>
+      <c r="R954" s="17"/>
+      <c r="X954" s="1"/>
+    </row>
+    <row r="955" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M955" s="52"/>
+      <c r="P955" s="1"/>
+      <c r="Q955" s="17"/>
+      <c r="R955" s="17"/>
+      <c r="X955" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="G938:I938"/>
+    <mergeCell ref="G190:I190"/>
+    <mergeCell ref="J190:M190"/>
+    <mergeCell ref="N190:P190"/>
+    <mergeCell ref="R190:T190"/>
+    <mergeCell ref="V190:W190"/>
     <mergeCell ref="G197:I197"/>
     <mergeCell ref="J197:M197"/>
     <mergeCell ref="N197:P197"/>
     <mergeCell ref="R197:T197"/>
     <mergeCell ref="V197:W197"/>
-    <mergeCell ref="G190:I190"/>
-    <mergeCell ref="J190:M190"/>
-    <mergeCell ref="N190:P190"/>
-    <mergeCell ref="R190:T190"/>
-    <mergeCell ref="V190:W190"/>
   </mergeCells>
   <conditionalFormatting sqref="E367:F375">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -27049,7 +29793,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E467:F475">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -27059,7 +29803,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E547:F555">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -27069,7 +29813,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E588:F595">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF7C7AC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E695:F702">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF7C7AC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E838:F845">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -27079,7 +29843,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G366:H375">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -27089,7 +29853,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G466:H475">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -27099,7 +29863,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G546:H555">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -27109,6 +29873,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G586:H595">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFA6C9EC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G693:H702">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFA6C9EC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G806:H807">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -27118,7 +29902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G693:H702">
+  <conditionalFormatting sqref="G836:H845">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -27128,8 +29912,38 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E695:F702">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="P677:R779">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P790:R807">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P820:R870 P872:R920">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P925:R955">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G941:H950">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFA6C9EC"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E943:F950">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -27138,60 +29952,400 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P677:R779">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G806:H807">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFA6C9EC"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P790:R807">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G836:H845">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFA6C9EC"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E838:F845">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFF7C7AC"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P820:R870 P872:R920">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L299:M332 S352:S430 M352:N430 U452:U525 O452:P525 O532:P569 U532:U569 T572:T671 N572:O671 T682:T779 T679:T680 N679:O779 T795:T807 T792:T793 N792:O807 T825:T920 T822:T823 N822:O920" xr:uid="{804F0AFC-E07C-4B9B-A3FD-AEB68EC6AC1C}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L299:M332 S352:S430 M352:N430 U452:U525 O452:P525 O532:P569 U532:U569 T572:T671 N572:O671 T682:T779 T679:T680 N679:O779 T795:T807 T792:T793 N792:O807 T825:T920 T822:T823 N822:O920 T930:T955 T927:T928 N927:O955" xr:uid="{804F0AFC-E07C-4B9B-A3FD-AEB68EC6AC1C}">
       <formula1>$A$18:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B208:C208" xr:uid="{605C8630-B0BC-4DB7-8E8F-8A6B69239C15}">
       <formula1>$H$23:$H$32</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A938" xr:uid="{AFB60513-87E5-4306-9093-3133D20ACF3E}">
+      <formula1>$B$18:$B$27</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId3" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!Roll">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:row>925</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>927</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId4" name="Button 2">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!ClearStats">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>209550</xdr:colOff>
+                    <xdr:row>929</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>930</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1027" r:id="rId5" name="Button 3">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!ClearHistory">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>923</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>17</xdr:col>
+                    <xdr:colOff>666750</xdr:colOff>
+                    <xdr:row>924</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId6" name="Button 4">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!WP_Accuracy">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>926</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>927</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId7" name="Button 5">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!WP_Dodge">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>929</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>930</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId8" name="Button 6">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!WP_Damage">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>930</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>931</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId9" name="Button 7">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!WP_Durability">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>932</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>933</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId10" name="Button 8">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!WP_PainTolerance">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>933</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>934</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1033" r:id="rId11" name="Button 9">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!WP_Constitution">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>934</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>935</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1034" r:id="rId12" name="Button 10">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!WoundAdd">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>932</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>933</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId13" name="Button 11">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!ProgressTime">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>923</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>352425</xdr:colOff>
+                    <xdr:row>925</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1036" r:id="rId14" name="Button 12">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!NextTurn">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>409575</xdr:colOff>
+                    <xdr:row>924</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>209550</xdr:colOff>
+                    <xdr:row>925</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1037" r:id="rId15" name="Button 13">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!ClearWounds">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>22</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>923</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>24</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>925</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1038" r:id="rId16" name="Button 14">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!RecordRolls">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:row>929</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:row>931</xdr:row>
+                    <xdr:rowOff>123825</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1039" r:id="rId17" name="Button 15">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!RollStat">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>936</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>938</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1040" r:id="rId18" name="Button 16">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!PlaceBonus">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>152400</xdr:colOff>
+                    <xdr:row>936</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>714375</xdr:colOff>
+                    <xdr:row>938</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1041" r:id="rId19" name="Button 17">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!StoreBonus">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:row>937</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>938</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -27218,27 +30372,27 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
     </row>
     <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
